--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Prepared by:</t>
+  </si>
+  <si>
+    <t>I certify that : (1) I have reviewed the foregoing  itinerary,    (2)  the  travel  is necessary to  the service, (3) the period covered   is   reasonable   and   (4)  the expenses claimed are proper.</t>
   </si>
   <si>
     <t>______________________________________________________</t>
@@ -613,7 +616,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border/>
     <border>
       <left style="medium">
@@ -981,12 +984,7 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -997,6 +995,88 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1008,66 +1088,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1172,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="496">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1680,14 +1700,11 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="14" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1704,18 +1721,15 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1731,6 +1745,9 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1746,7 +1763,7 @@
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1758,21 +1775,24 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1782,6 +1802,9 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1797,8 +1820,8 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1890,10 +1913,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1929,9 +1955,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2025,7 +2048,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2034,7 +2057,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2079,7 +2102,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2160,7 +2183,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2184,7 +2207,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2202,15 +2225,15 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2253,7 +2276,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2316,7 +2339,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2355,7 +2378,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2397,7 +2420,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2409,7 +2432,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2478,7 +2501,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="59" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2514,7 +2537,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2574,7 +2597,7 @@
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2589,7 +2612,7 @@
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2601,7 +2624,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2634,10 +2657,10 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="39" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -2654,6 +2677,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2958,7 +2984,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2977,56 +3003,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="178" t="s">
+      <c r="H1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="14.25">
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3039,8 +3065,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3053,17 +3079,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="181" t="s">
+      <c r="H7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3081,62 +3107,62 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="171" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="204" t="s">
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="205"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="194" t="s">
+      <c r="B11" s="169"/>
+      <c r="C11" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="205"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3147,10 +3173,10 @@
       <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
@@ -3158,25 +3184,25 @@
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="186" t="s">
+      <c r="G13" s="185" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="188" t="s">
+      <c r="I13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="190" t="s">
+      <c r="J13" s="189" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
       <c r="A14" s="197"/>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3186,248 +3212,248 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="187"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="189"/>
-      <c r="J14" s="191"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
       <c r="A15" s="200"/>
       <c r="B15" s="201"/>
       <c r="C15" s="201"/>
       <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
+      <c r="E15" s="203"/>
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
       <c r="H15" s="201"/>
       <c r="I15" s="201"/>
-      <c r="J15" s="203"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="208" t="s">
+      <c r="B16" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="173" t="s">
+      <c r="C16" s="195"/>
+      <c r="D16" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="173" t="s">
+      <c r="E16" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="174" t="s">
+      <c r="F16" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="175">
+      <c r="G16" s="174">
         <v>10</v>
       </c>
-      <c r="H16" s="175">
+      <c r="H16" s="174">
         <v>440</v>
       </c>
-      <c r="I16" s="176" t="s">
+      <c r="I16" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="175">
+      <c r="J16" s="174">
         <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="486" t="s">
+      <c r="A17" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="486" t="s">
+      <c r="B17" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="486"/>
-      <c r="D17" s="486" t="s">
+      <c r="C17" s="487"/>
+      <c r="D17" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="486" t="s">
+      <c r="E17" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="486" t="s">
+      <c r="F17" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="487">
+      <c r="G17" s="489">
         <v>10</v>
       </c>
-      <c r="H17" s="487">
+      <c r="H17" s="489">
         <v>440</v>
       </c>
-      <c r="I17" s="487" t="s">
+      <c r="I17" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="487">
+      <c r="J17" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="486" t="s">
+      <c r="A18" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="486" t="s">
+      <c r="B18" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="486"/>
-      <c r="D18" s="486" t="s">
+      <c r="C18" s="487"/>
+      <c r="D18" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="486" t="s">
+      <c r="E18" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="486" t="s">
+      <c r="F18" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="487">
+      <c r="G18" s="489">
         <v>10</v>
       </c>
-      <c r="H18" s="487">
+      <c r="H18" s="489">
         <v>440</v>
       </c>
-      <c r="I18" s="487" t="s">
+      <c r="I18" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="487">
+      <c r="J18" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="486" t="s">
+      <c r="A19" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="486" t="s">
+      <c r="B19" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="486"/>
-      <c r="D19" s="486" t="s">
+      <c r="C19" s="487"/>
+      <c r="D19" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="486" t="s">
+      <c r="E19" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="486" t="s">
+      <c r="F19" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="487">
+      <c r="G19" s="489">
         <v>10</v>
       </c>
-      <c r="H19" s="487">
+      <c r="H19" s="489">
         <v>440</v>
       </c>
-      <c r="I19" s="487" t="s">
+      <c r="I19" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="487">
+      <c r="J19" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="486" t="s">
+      <c r="A20" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="486" t="s">
+      <c r="B20" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="486"/>
-      <c r="D20" s="486" t="s">
+      <c r="C20" s="487"/>
+      <c r="D20" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="486" t="s">
+      <c r="E20" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="486" t="s">
+      <c r="F20" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="487">
+      <c r="G20" s="489">
         <v>10</v>
       </c>
-      <c r="H20" s="487">
+      <c r="H20" s="489">
         <v>440</v>
       </c>
-      <c r="I20" s="487" t="s">
+      <c r="I20" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="487">
+      <c r="J20" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="486" t="s">
+      <c r="A21" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="486" t="s">
+      <c r="B21" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="486"/>
-      <c r="D21" s="486" t="s">
+      <c r="C21" s="487"/>
+      <c r="D21" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="486" t="s">
+      <c r="E21" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="486" t="s">
+      <c r="F21" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="487">
+      <c r="G21" s="489">
         <v>10</v>
       </c>
-      <c r="H21" s="487">
+      <c r="H21" s="489">
         <v>440</v>
       </c>
-      <c r="I21" s="487" t="s">
+      <c r="I21" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="487">
+      <c r="J21" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="486" t="s">
+      <c r="A22" s="488" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="486" t="s">
+      <c r="B22" s="488" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="486"/>
-      <c r="D22" s="486" t="s">
+      <c r="C22" s="487"/>
+      <c r="D22" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="486" t="s">
+      <c r="E22" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="486" t="s">
+      <c r="F22" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="487">
+      <c r="G22" s="489">
         <v>10</v>
       </c>
-      <c r="H22" s="487">
+      <c r="H22" s="489">
         <v>440</v>
       </c>
-      <c r="I22" s="487" t="s">
+      <c r="I22" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="487">
+      <c r="J22" s="489">
         <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="490"/>
+      <c r="A23" s="491"/>
       <c r="B23" s="118"/>
       <c r="C23" s="118"/>
       <c r="D23" s="118"/>
-      <c r="E23" s="488" t="s">
+      <c r="E23" s="495" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="118"/>
-      <c r="G23" s="489"/>
-      <c r="H23" s="489"/>
-      <c r="I23" s="489"/>
-      <c r="J23" s="491"/>
+      <c r="G23" s="490"/>
+      <c r="H23" s="490"/>
+      <c r="I23" s="490"/>
+      <c r="J23" s="492"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="111"/>
@@ -3441,7 +3467,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="492"/>
+      <c r="J24" s="493"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="111"/>
@@ -3453,71 +3479,73 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="492"/>
+      <c r="J25" s="493"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="111"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="493" t="s">
+      <c r="A26" s="38" t="s">
         <v>33</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="494" t="s">
+        <v>34</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="492"/>
+      <c r="J26" s="493"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="111"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="111"/>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="492"/>
+      <c r="J27" s="493"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="111"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="490"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="491"/>
       <c r="F28" s="118"/>
-      <c r="G28" s="489"/>
-      <c r="H28" s="489"/>
-      <c r="I28" s="489"/>
-      <c r="J28" s="491"/>
+      <c r="G28" s="490"/>
+      <c r="H28" s="490"/>
+      <c r="I28" s="490"/>
+      <c r="J28" s="492"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="111"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="492"/>
+      <c r="J29" s="493"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="111"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="111"/>
       <c r="F30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="492"/>
+      <c r="J30" s="493"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="111"/>
@@ -3529,7 +3557,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="492"/>
+      <c r="J31" s="493"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="111"/>
@@ -3541,21 +3569,21 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="492"/>
+      <c r="J32" s="493"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="111"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="493" t="s">
-        <v>33</v>
+      <c r="E33" s="494" t="s">
+        <v>34</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="492"/>
+      <c r="J33" s="493"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="111"/>
@@ -3563,39 +3591,39 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="492"/>
+      <c r="J34" s="493"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="111"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="251" t="s">
-        <v>36</v>
+      <c r="E35" s="253" t="s">
+        <v>37</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="492"/>
+      <c r="J35" s="493"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="490"/>
+      <c r="A36" s="491"/>
       <c r="B36" s="118"/>
       <c r="C36" s="118"/>
       <c r="D36" s="118"/>
-      <c r="E36" s="490"/>
+      <c r="E36" s="491"/>
       <c r="F36" s="118"/>
-      <c r="G36" s="489"/>
-      <c r="H36" s="489"/>
-      <c r="I36" s="489"/>
-      <c r="J36" s="491"/>
+      <c r="G36" s="490"/>
+      <c r="H36" s="490"/>
+      <c r="I36" s="490"/>
+      <c r="J36" s="492"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3625,13 +3653,7 @@
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A26:D30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3691,10 +3713,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="312" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="312"/>
+      <c r="L1" s="313" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="313"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3708,443 +3730,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="314" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="317" t="s">
+      <c r="A3" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="318"/>
-      <c r="M3" s="319"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="319"/>
+      <c r="M3" s="320"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="320" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="235" t="s">
+      <c r="A4" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="323"/>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="236" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="237"/>
+      <c r="M4" s="324"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="294" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="297" t="s">
+      <c r="A5" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="298"/>
-      <c r="M5" s="299"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="299"/>
+      <c r="M5" s="300"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="303" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="304"/>
-      <c r="J6" s="304"/>
-      <c r="K6" s="304"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="305"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="304" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="306"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="300"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="308"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="308"/>
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="271" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="272"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="276" t="s">
+      <c r="A8" s="272" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="278"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="277" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="300"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="309"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="310"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="310"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="311"/>
+      <c r="A9" s="301"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="312"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="271" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="272"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="276" t="str">
+      <c r="A10" s="272" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="277" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="279"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="274"/>
-      <c r="B11" s="229"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="280"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="280"/>
-      <c r="M11" s="281"/>
+      <c r="A11" s="275"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="282"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="282" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="285" t="s">
+      <c r="A12" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="285" t="s">
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="284"/>
-      <c r="K12" s="291" t="s">
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="286" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="285" t="s">
+      <c r="J12" s="285"/>
+      <c r="K12" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="293"/>
+      <c r="L12" s="286" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="294"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="274"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="275"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="230"/>
+      <c r="A13" s="275"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="231"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="251"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="254" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="253"/>
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="254"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="251"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="216" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="253"/>
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="217" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="254"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="267">
+      <c r="L15" s="268">
         <v>4981</v>
       </c>
-      <c r="M15" s="268"/>
+      <c r="M15" s="269"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="251"/>
-      <c r="B16" s="252"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="253"/>
+      <c r="A16" s="253"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="254"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="255"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="256"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="251"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="253"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="254"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="251"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="253"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="266"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="255"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="251"/>
-      <c r="B19" s="252"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="253"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="254"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="255"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="251"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="253"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="254"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="255"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="256"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="251"/>
-      <c r="B21" s="252"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="253"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="254"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="255"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="251"/>
-      <c r="B22" s="252"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="265"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="253"/>
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="255"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="256"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="251"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="253"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="254"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="255"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="251"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="253"/>
+      <c r="A24" s="253"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="254"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="255"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="251"/>
-      <c r="B25" s="252"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="253"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="254"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="255"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="256"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="251"/>
-      <c r="B26" s="252"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="253"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="254"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="255"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="256"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="262"/>
-      <c r="J27" s="258"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="260" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="263" t="str">
+      <c r="L27" s="264" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="264"/>
+      <c r="M27" s="265"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="239" t="s">
-        <v>56</v>
+      <c r="A28" s="241" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="214" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="243" t="s">
+      <c r="D28" s="215" t="s">
         <v>58</v>
+      </c>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="245" t="s">
+        <v>59</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4152,19 +4174,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="244" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="243"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="246" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4172,27 +4194,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="245" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
+      <c r="B30" s="247" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="247"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4202,14 +4224,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="247"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4254,24 +4276,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="217" t="s">
+      <c r="A35" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="234"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4292,12 +4314,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="249" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="250"/>
+      <c r="A37" s="251" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4305,11 +4327,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4330,24 +4352,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="248" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="226"/>
-      <c r="C39" s="214" t="s">
+      <c r="A39" s="250" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="215"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="215" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4355,37 +4377,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="217"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="234"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="235"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="235" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="236"/>
-      <c r="C41" s="214" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="215"/>
+      <c r="A41" s="236" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="237"/>
+      <c r="C41" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4422,113 +4444,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="238"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="238"/>
-      <c r="F44" s="238"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="238"/>
-      <c r="I44" s="238"/>
-      <c r="J44" s="238"/>
-      <c r="K44" s="238"/>
-      <c r="L44" s="238"/>
-      <c r="M44" s="199"/>
+      <c r="B44" s="238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="240"/>
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="199"/>
+        <v>81</v>
+      </c>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="240"/>
       <c r="H45" s="198" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="238"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="199"/>
+        <v>53</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="240"/>
     </row>
     <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="222"/>
-      <c r="D46" s="222"/>
-      <c r="E46" s="225" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="226"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="219" t="s">
+      <c r="B46" s="222" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="226" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="231" t="s">
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="J46" s="232"/>
-      <c r="K46" s="233" t="s">
+      <c r="I46" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="L46" s="209" t="s">
+      <c r="J46" s="233"/>
+      <c r="K46" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="210"/>
+      <c r="L46" s="210" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" s="211"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="219"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="222"/>
-      <c r="D47" s="222"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="227"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="233"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
       <c r="L47" s="52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="220"/>
-      <c r="B48" s="223"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="229"/>
-      <c r="G48" s="230"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="212"/>
+      <c r="I48" s="212" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" s="213"/>
       <c r="K48" s="55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4566,9 +4588,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="213"/>
-      <c r="F51" s="214"/>
-      <c r="G51" s="215"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="216"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4801,260 +4823,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="473" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="473"/>
-      <c r="AD1" s="473"/>
-      <c r="AE1" s="473"/>
-      <c r="AF1" s="473"/>
-      <c r="AG1" s="473"/>
+      <c r="AB1" s="474" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="474" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="475"/>
-      <c r="E3" s="475"/>
-      <c r="F3" s="475"/>
-      <c r="G3" s="475"/>
-      <c r="H3" s="475"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="475"/>
-      <c r="K3" s="475"/>
-      <c r="L3" s="475"/>
-      <c r="M3" s="475"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="475"/>
-      <c r="P3" s="475"/>
-      <c r="Q3" s="475"/>
-      <c r="R3" s="475"/>
-      <c r="S3" s="475"/>
-      <c r="T3" s="475"/>
-      <c r="U3" s="475"/>
-      <c r="V3" s="475"/>
-      <c r="W3" s="475"/>
-      <c r="X3" s="475"/>
-      <c r="Y3" s="475"/>
-      <c r="Z3" s="475"/>
-      <c r="AA3" s="476"/>
-      <c r="AB3" s="477" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="478"/>
-      <c r="AD3" s="478"/>
-      <c r="AE3" s="478"/>
-      <c r="AF3" s="478"/>
-      <c r="AG3" s="479"/>
+      <c r="A3" s="475" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="476"/>
+      <c r="T3" s="476"/>
+      <c r="U3" s="476"/>
+      <c r="V3" s="476"/>
+      <c r="W3" s="476"/>
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="478" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="479"/>
+      <c r="AG3" s="480"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="480" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="481"/>
-      <c r="C4" s="481"/>
-      <c r="D4" s="481"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="481"/>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481"/>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="481"/>
-      <c r="P4" s="481"/>
-      <c r="Q4" s="481"/>
-      <c r="R4" s="481"/>
-      <c r="S4" s="481"/>
-      <c r="T4" s="481"/>
-      <c r="U4" s="481"/>
-      <c r="V4" s="481"/>
-      <c r="W4" s="481"/>
-      <c r="X4" s="481"/>
-      <c r="Y4" s="481"/>
-      <c r="Z4" s="481"/>
-      <c r="AA4" s="482"/>
-      <c r="AB4" s="483"/>
-      <c r="AC4" s="484"/>
-      <c r="AD4" s="484"/>
-      <c r="AE4" s="484"/>
-      <c r="AF4" s="484"/>
-      <c r="AG4" s="485"/>
+      <c r="A4" s="481" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482"/>
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="482"/>
+      <c r="Y4" s="482"/>
+      <c r="Z4" s="482"/>
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="485"/>
+      <c r="AG4" s="486"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="439" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="440"/>
-      <c r="C5" s="440"/>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="440"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="440"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="440"/>
-      <c r="L5" s="440"/>
-      <c r="M5" s="440"/>
-      <c r="N5" s="440"/>
-      <c r="O5" s="440"/>
-      <c r="P5" s="440"/>
-      <c r="Q5" s="440"/>
-      <c r="R5" s="440"/>
-      <c r="S5" s="440"/>
-      <c r="T5" s="440"/>
-      <c r="U5" s="440"/>
-      <c r="V5" s="440"/>
-      <c r="W5" s="440"/>
-      <c r="X5" s="440"/>
-      <c r="Y5" s="440"/>
-      <c r="Z5" s="440"/>
-      <c r="AA5" s="441"/>
-      <c r="AB5" s="455" t="s">
+      <c r="A5" s="440" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" s="456"/>
-      <c r="AD5" s="456"/>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="456"/>
-      <c r="AG5" s="457"/>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="441"/>
+      <c r="Q5" s="441"/>
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="441"/>
+      <c r="V5" s="441"/>
+      <c r="W5" s="441"/>
+      <c r="X5" s="441"/>
+      <c r="Y5" s="441"/>
+      <c r="Z5" s="441"/>
+      <c r="AA5" s="442"/>
+      <c r="AB5" s="456" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="457"/>
+      <c r="AD5" s="457"/>
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="457"/>
+      <c r="AG5" s="458"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="439"/>
-      <c r="B6" s="440"/>
-      <c r="C6" s="440"/>
-      <c r="D6" s="440"/>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="440"/>
-      <c r="I6" s="440"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="440"/>
-      <c r="N6" s="440"/>
-      <c r="O6" s="440"/>
-      <c r="P6" s="440"/>
-      <c r="Q6" s="440"/>
-      <c r="R6" s="440"/>
-      <c r="S6" s="440"/>
-      <c r="T6" s="440"/>
-      <c r="U6" s="440"/>
-      <c r="V6" s="440"/>
-      <c r="W6" s="440"/>
-      <c r="X6" s="440"/>
-      <c r="Y6" s="440"/>
-      <c r="Z6" s="440"/>
-      <c r="AA6" s="441"/>
-      <c r="AB6" s="458" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="459"/>
-      <c r="AD6" s="459"/>
-      <c r="AE6" s="459"/>
-      <c r="AF6" s="459"/>
-      <c r="AG6" s="460"/>
+      <c r="A6" s="440"/>
+      <c r="B6" s="441"/>
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="441"/>
+      <c r="J6" s="441"/>
+      <c r="K6" s="441"/>
+      <c r="L6" s="441"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="U6" s="441"/>
+      <c r="V6" s="441"/>
+      <c r="W6" s="441"/>
+      <c r="X6" s="441"/>
+      <c r="Y6" s="441"/>
+      <c r="Z6" s="441"/>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="459" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" s="460"/>
+      <c r="AD6" s="460"/>
+      <c r="AE6" s="460"/>
+      <c r="AF6" s="460"/>
+      <c r="AG6" s="461"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="442"/>
-      <c r="B7" s="443"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="443"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="443"/>
-      <c r="M7" s="443"/>
-      <c r="N7" s="443"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="443"/>
-      <c r="Q7" s="443"/>
-      <c r="R7" s="443"/>
-      <c r="S7" s="443"/>
-      <c r="T7" s="443"/>
-      <c r="U7" s="443"/>
-      <c r="V7" s="443"/>
-      <c r="W7" s="443"/>
-      <c r="X7" s="443"/>
-      <c r="Y7" s="443"/>
-      <c r="Z7" s="443"/>
-      <c r="AA7" s="444"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="462"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="444"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="444"/>
+      <c r="X7" s="444"/>
+      <c r="Y7" s="444"/>
+      <c r="Z7" s="444"/>
+      <c r="AA7" s="445"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="462"/>
+      <c r="AD7" s="462"/>
+      <c r="AE7" s="462"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="463"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="445" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="446"/>
-      <c r="C8" s="447"/>
+      <c r="A8" s="446" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="447"/>
+      <c r="C8" s="448"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="454"/>
-      <c r="F8" s="346"/>
-      <c r="G8" s="346"/>
-      <c r="H8" s="346"/>
-      <c r="I8" s="346"/>
-      <c r="J8" s="346"/>
-      <c r="K8" s="346"/>
-      <c r="L8" s="346"/>
-      <c r="M8" s="346"/>
-      <c r="N8" s="346"/>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="346"/>
-      <c r="T8" s="346"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
-      <c r="Y8" s="346"/>
-      <c r="Z8" s="346"/>
-      <c r="AA8" s="346"/>
-      <c r="AB8" s="346"/>
-      <c r="AC8" s="346"/>
-      <c r="AD8" s="346"/>
-      <c r="AE8" s="346"/>
-      <c r="AF8" s="346"/>
-      <c r="AG8" s="347"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="347"/>
+      <c r="I8" s="347"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="347"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="348"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="448"/>
-      <c r="B9" s="449"/>
-      <c r="C9" s="450"/>
+      <c r="A9" s="449"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5063,13 +5085,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5083,26 +5105,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="451"/>
-      <c r="B10" s="452"/>
-      <c r="C10" s="453"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="341"/>
-      <c r="K10" s="341"/>
-      <c r="L10" s="341"/>
-      <c r="M10" s="341"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="341"/>
-      <c r="P10" s="341"/>
-      <c r="Q10" s="341"/>
-      <c r="R10" s="341"/>
-      <c r="S10" s="339"/>
-      <c r="T10" s="339"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -5119,110 +5141,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="445" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="446"/>
-      <c r="C11" s="447"/>
+      <c r="A11" s="446" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="463" t="str">
+      <c r="E11" s="464" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="446"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="446"/>
-      <c r="P11" s="446"/>
-      <c r="Q11" s="446"/>
-      <c r="R11" s="446"/>
-      <c r="S11" s="465" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" s="466"/>
-      <c r="U11" s="466"/>
-      <c r="V11" s="466"/>
-      <c r="W11" s="466"/>
-      <c r="X11" s="466"/>
-      <c r="Y11" s="466"/>
-      <c r="Z11" s="466"/>
-      <c r="AA11" s="467"/>
-      <c r="AB11" s="468" t="s">
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
+      <c r="P11" s="447"/>
+      <c r="Q11" s="447"/>
+      <c r="R11" s="447"/>
+      <c r="S11" s="466" t="s">
         <v>105</v>
       </c>
-      <c r="AC11" s="468"/>
-      <c r="AD11" s="468"/>
-      <c r="AE11" s="468"/>
-      <c r="AF11" s="468"/>
-      <c r="AG11" s="469"/>
+      <c r="T11" s="467"/>
+      <c r="U11" s="467"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="467"/>
+      <c r="X11" s="467"/>
+      <c r="Y11" s="467"/>
+      <c r="Z11" s="467"/>
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="469"/>
+      <c r="AD11" s="469"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="469"/>
+      <c r="AG11" s="470"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="448"/>
-      <c r="B12" s="449"/>
-      <c r="C12" s="450"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="464"/>
-      <c r="F12" s="449"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="449"/>
-      <c r="J12" s="449"/>
-      <c r="K12" s="449"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="449"/>
-      <c r="N12" s="449"/>
-      <c r="O12" s="449"/>
-      <c r="P12" s="449"/>
-      <c r="Q12" s="449"/>
-      <c r="R12" s="449"/>
-      <c r="S12" s="470"/>
-      <c r="T12" s="471"/>
-      <c r="U12" s="471"/>
-      <c r="V12" s="471"/>
-      <c r="W12" s="471"/>
-      <c r="X12" s="471"/>
-      <c r="Y12" s="471"/>
-      <c r="Z12" s="471"/>
-      <c r="AA12" s="472"/>
-      <c r="AB12" s="339"/>
-      <c r="AC12" s="339"/>
-      <c r="AD12" s="339"/>
-      <c r="AE12" s="339"/>
-      <c r="AF12" s="339"/>
-      <c r="AG12" s="340"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="471"/>
+      <c r="T12" s="472"/>
+      <c r="U12" s="472"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="472"/>
+      <c r="X12" s="472"/>
+      <c r="Y12" s="472"/>
+      <c r="Z12" s="472"/>
+      <c r="AA12" s="473"/>
+      <c r="AB12" s="340"/>
+      <c r="AC12" s="340"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="341"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="427" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="428"/>
-      <c r="C13" s="429"/>
+      <c r="A13" s="428" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="433" t="str">
+      <c r="E13" s="434" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="428"/>
-      <c r="G13" s="428"/>
-      <c r="H13" s="428"/>
-      <c r="I13" s="428"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="428"/>
-      <c r="L13" s="428"/>
-      <c r="M13" s="428"/>
-      <c r="N13" s="428"/>
-      <c r="O13" s="428"/>
-      <c r="P13" s="428"/>
-      <c r="Q13" s="428"/>
-      <c r="R13" s="428"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="429"/>
+      <c r="R13" s="429"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5241,24 +5263,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="430"/>
-      <c r="B14" s="431"/>
-      <c r="C14" s="432"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="434"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="431"/>
-      <c r="H14" s="431"/>
-      <c r="I14" s="431"/>
-      <c r="J14" s="431"/>
-      <c r="K14" s="431"/>
-      <c r="L14" s="431"/>
-      <c r="M14" s="431"/>
-      <c r="N14" s="431"/>
-      <c r="O14" s="431"/>
-      <c r="P14" s="431"/>
-      <c r="Q14" s="431"/>
-      <c r="R14" s="431"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="432"/>
+      <c r="Q14" s="432"/>
+      <c r="R14" s="432"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5277,47 +5299,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="435" t="s">
+      <c r="A15" s="436" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="396"/>
+      <c r="M15" s="396"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="395"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="395"/>
-      <c r="E15" s="395"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="395"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="395"/>
-      <c r="K15" s="395"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="395"/>
-      <c r="N15" s="395"/>
-      <c r="O15" s="395"/>
-      <c r="P15" s="395"/>
-      <c r="Q15" s="436"/>
-      <c r="R15" s="394" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" s="437"/>
-      <c r="T15" s="437"/>
-      <c r="U15" s="437"/>
-      <c r="V15" s="438"/>
-      <c r="W15" s="394" t="s">
-        <v>50</v>
-      </c>
-      <c r="X15" s="395"/>
-      <c r="Y15" s="395"/>
-      <c r="Z15" s="395"/>
-      <c r="AA15" s="436"/>
-      <c r="AB15" s="394" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC15" s="395"/>
-      <c r="AD15" s="395"/>
-      <c r="AE15" s="395"/>
-      <c r="AF15" s="395"/>
-      <c r="AG15" s="396"/>
+      <c r="S15" s="438"/>
+      <c r="T15" s="438"/>
+      <c r="U15" s="438"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="395" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="396"/>
+      <c r="Y15" s="396"/>
+      <c r="Z15" s="396"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="395" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="396"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5358,23 +5380,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
-      <c r="L17" s="217"/>
-      <c r="M17" s="217"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="217"/>
+      <c r="B17" s="218" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5386,34 +5408,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="413" t="str">
+      <c r="AB17" s="414" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="414"/>
-      <c r="AD17" s="414"/>
-      <c r="AE17" s="414"/>
-      <c r="AF17" s="414"/>
-      <c r="AG17" s="415"/>
+      <c r="AC17" s="415"/>
+      <c r="AD17" s="415"/>
+      <c r="AE17" s="415"/>
+      <c r="AF17" s="415"/>
+      <c r="AG17" s="416"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5435,21 +5457,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5508,7 +5530,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5546,7 +5568,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5584,7 +5606,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5622,7 +5644,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5660,7 +5682,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5698,7 +5720,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5736,7 +5758,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5808,25 +5830,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="416" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="417"/>
-      <c r="C29" s="417"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="417"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="417"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="417"/>
-      <c r="J29" s="417"/>
-      <c r="K29" s="417"/>
-      <c r="L29" s="417"/>
-      <c r="M29" s="417"/>
-      <c r="N29" s="417"/>
-      <c r="O29" s="417"/>
-      <c r="P29" s="417"/>
-      <c r="Q29" s="418"/>
+      <c r="A29" s="417" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="418"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="418"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="418"/>
+      <c r="L29" s="418"/>
+      <c r="M29" s="418"/>
+      <c r="N29" s="418"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="418"/>
+      <c r="Q29" s="419"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5837,56 +5859,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="419" t="str">
+      <c r="AB29" s="420" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="420"/>
-      <c r="AD29" s="420"/>
-      <c r="AE29" s="420"/>
-      <c r="AF29" s="420"/>
-      <c r="AG29" s="421"/>
+      <c r="AC29" s="421"/>
+      <c r="AD29" s="421"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="422" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="422"/>
-      <c r="D30" s="422"/>
-      <c r="E30" s="422"/>
-      <c r="F30" s="422"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="422"/>
-      <c r="I30" s="422"/>
-      <c r="J30" s="422"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="422"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="422"/>
-      <c r="O30" s="422"/>
-      <c r="P30" s="422"/>
-      <c r="Q30" s="422"/>
-      <c r="R30" s="422"/>
-      <c r="S30" s="422"/>
-      <c r="T30" s="422"/>
-      <c r="U30" s="422"/>
-      <c r="V30" s="422"/>
-      <c r="W30" s="422"/>
-      <c r="X30" s="422"/>
-      <c r="Y30" s="422"/>
-      <c r="Z30" s="422"/>
-      <c r="AA30" s="422"/>
-      <c r="AB30" s="423"/>
-      <c r="AC30" s="423"/>
-      <c r="AD30" s="423"/>
-      <c r="AE30" s="423"/>
-      <c r="AF30" s="423"/>
-      <c r="AG30" s="424"/>
+        <v>57</v>
+      </c>
+      <c r="B30" s="423" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="423"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="423"/>
+      <c r="L30" s="423"/>
+      <c r="M30" s="423"/>
+      <c r="N30" s="423"/>
+      <c r="O30" s="423"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="423"/>
+      <c r="R30" s="423"/>
+      <c r="S30" s="423"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="423"/>
+      <c r="V30" s="423"/>
+      <c r="W30" s="423"/>
+      <c r="X30" s="423"/>
+      <c r="Y30" s="423"/>
+      <c r="Z30" s="423"/>
+      <c r="AA30" s="423"/>
+      <c r="AB30" s="424"/>
+      <c r="AC30" s="424"/>
+      <c r="AD30" s="424"/>
+      <c r="AE30" s="424"/>
+      <c r="AF30" s="424"/>
+      <c r="AG30" s="425"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5896,7 +5918,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5931,80 +5953,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="425" t="str">
+      <c r="B32" s="426" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="414"/>
-      <c r="D32" s="414"/>
-      <c r="E32" s="414"/>
-      <c r="F32" s="414"/>
-      <c r="G32" s="414"/>
-      <c r="H32" s="414"/>
-      <c r="I32" s="414"/>
-      <c r="J32" s="414"/>
-      <c r="K32" s="414"/>
-      <c r="L32" s="414"/>
-      <c r="M32" s="414"/>
-      <c r="N32" s="414"/>
-      <c r="O32" s="414"/>
-      <c r="P32" s="414"/>
-      <c r="Q32" s="414"/>
-      <c r="R32" s="414"/>
-      <c r="S32" s="414"/>
-      <c r="T32" s="414"/>
-      <c r="U32" s="414"/>
-      <c r="V32" s="414"/>
-      <c r="W32" s="414"/>
-      <c r="X32" s="414"/>
-      <c r="Y32" s="414"/>
-      <c r="Z32" s="414"/>
-      <c r="AA32" s="414"/>
-      <c r="AB32" s="414"/>
-      <c r="AC32" s="414"/>
-      <c r="AD32" s="414"/>
-      <c r="AE32" s="414"/>
-      <c r="AF32" s="414"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="415"/>
+      <c r="V32" s="415"/>
+      <c r="W32" s="415"/>
+      <c r="X32" s="415"/>
+      <c r="Y32" s="415"/>
+      <c r="Z32" s="415"/>
+      <c r="AA32" s="415"/>
+      <c r="AB32" s="415"/>
+      <c r="AC32" s="415"/>
+      <c r="AD32" s="415"/>
+      <c r="AE32" s="415"/>
+      <c r="AF32" s="415"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="426" t="str">
+      <c r="B33" s="427" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="426"/>
-      <c r="D33" s="426"/>
-      <c r="E33" s="426"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="426"/>
-      <c r="H33" s="426"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="426"/>
-      <c r="K33" s="426"/>
-      <c r="L33" s="426"/>
-      <c r="M33" s="426"/>
-      <c r="N33" s="426"/>
-      <c r="O33" s="426"/>
-      <c r="P33" s="426"/>
-      <c r="Q33" s="426"/>
-      <c r="R33" s="426"/>
-      <c r="S33" s="426"/>
-      <c r="T33" s="426"/>
-      <c r="U33" s="426"/>
-      <c r="V33" s="426"/>
-      <c r="W33" s="426"/>
-      <c r="X33" s="426"/>
-      <c r="Y33" s="426"/>
-      <c r="Z33" s="426"/>
-      <c r="AA33" s="426"/>
-      <c r="AB33" s="426"/>
-      <c r="AC33" s="426"/>
-      <c r="AD33" s="426"/>
-      <c r="AE33" s="426"/>
-      <c r="AF33" s="426"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
+      <c r="M33" s="427"/>
+      <c r="N33" s="427"/>
+      <c r="O33" s="427"/>
+      <c r="P33" s="427"/>
+      <c r="Q33" s="427"/>
+      <c r="R33" s="427"/>
+      <c r="S33" s="427"/>
+      <c r="T33" s="427"/>
+      <c r="U33" s="427"/>
+      <c r="V33" s="427"/>
+      <c r="W33" s="427"/>
+      <c r="X33" s="427"/>
+      <c r="Y33" s="427"/>
+      <c r="Z33" s="427"/>
+      <c r="AA33" s="427"/>
+      <c r="AB33" s="427"/>
+      <c r="AC33" s="427"/>
+      <c r="AD33" s="427"/>
+      <c r="AE33" s="427"/>
+      <c r="AF33" s="427"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -6021,19 +6043,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="426"/>
-      <c r="M34" s="426"/>
-      <c r="N34" s="426"/>
-      <c r="O34" s="426"/>
-      <c r="P34" s="426"/>
-      <c r="Q34" s="426"/>
-      <c r="R34" s="426"/>
-      <c r="S34" s="426"/>
-      <c r="T34" s="426"/>
-      <c r="U34" s="426"/>
-      <c r="V34" s="426"/>
-      <c r="W34" s="426"/>
-      <c r="X34" s="426"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="427"/>
+      <c r="N34" s="427"/>
+      <c r="O34" s="427"/>
+      <c r="P34" s="427"/>
+      <c r="Q34" s="427"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
+      <c r="X34" s="427"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -6058,19 +6080,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="426"/>
-      <c r="M35" s="426"/>
-      <c r="N35" s="426"/>
-      <c r="O35" s="426"/>
-      <c r="P35" s="426"/>
-      <c r="Q35" s="426"/>
-      <c r="R35" s="426"/>
-      <c r="S35" s="426"/>
-      <c r="T35" s="426"/>
-      <c r="U35" s="426"/>
-      <c r="V35" s="426"/>
-      <c r="W35" s="426"/>
-      <c r="X35" s="426"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -6085,10 +6107,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6125,47 +6147,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="408" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="409"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="409"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="409"/>
-      <c r="L37" s="409"/>
-      <c r="M37" s="409"/>
-      <c r="N37" s="409"/>
-      <c r="O37" s="409"/>
-      <c r="P37" s="409"/>
-      <c r="Q37" s="409"/>
-      <c r="R37" s="409"/>
-      <c r="S37" s="409" t="s">
+      <c r="A37" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="T37" s="409"/>
-      <c r="U37" s="409"/>
-      <c r="V37" s="409"/>
-      <c r="W37" s="409"/>
-      <c r="X37" s="410" t="s">
+      <c r="B37" s="410"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="410"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410" t="s">
         <v>120</v>
       </c>
-      <c r="Y37" s="410"/>
-      <c r="Z37" s="410"/>
-      <c r="AA37" s="410"/>
-      <c r="AB37" s="410"/>
-      <c r="AC37" s="411" t="s">
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
+      <c r="X37" s="411" t="s">
         <v>121</v>
       </c>
-      <c r="AD37" s="411"/>
-      <c r="AE37" s="411"/>
-      <c r="AF37" s="411"/>
-      <c r="AG37" s="412"/>
+      <c r="Y37" s="411"/>
+      <c r="Z37" s="411"/>
+      <c r="AA37" s="411"/>
+      <c r="AB37" s="411"/>
+      <c r="AC37" s="412" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="412"/>
+      <c r="AG37" s="413"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6245,7 +6267,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6282,10 +6304,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6304,21 +6326,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="T41" s="397" t="s">
         <v>124</v>
       </c>
-      <c r="U41" s="397"/>
-      <c r="V41" s="397"/>
-      <c r="W41" s="397"/>
-      <c r="X41" s="397"/>
-      <c r="Y41" s="397"/>
-      <c r="Z41" s="397"/>
-      <c r="AA41" s="397"/>
-      <c r="AB41" s="397"/>
-      <c r="AC41" s="397"/>
-      <c r="AD41" s="397"/>
+      <c r="T41" s="398" t="s">
+        <v>125</v>
+      </c>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="398"/>
+      <c r="Z41" s="398"/>
+      <c r="AA41" s="398"/>
+      <c r="AB41" s="398"/>
+      <c r="AC41" s="398"/>
+      <c r="AD41" s="398"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6328,7 +6350,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6345,31 +6367,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="398"/>
-      <c r="T42" s="399"/>
-      <c r="U42" s="399"/>
-      <c r="V42" s="399"/>
-      <c r="W42" s="399"/>
-      <c r="X42" s="399"/>
-      <c r="Y42" s="399"/>
-      <c r="Z42" s="399"/>
-      <c r="AA42" s="399"/>
-      <c r="AB42" s="399"/>
-      <c r="AC42" s="399"/>
-      <c r="AD42" s="399"/>
-      <c r="AE42" s="399"/>
-      <c r="AF42" s="399"/>
-      <c r="AG42" s="400"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="400"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="400"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="400"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="400"/>
+      <c r="AC42" s="400"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="400"/>
+      <c r="AF42" s="400"/>
+      <c r="AG42" s="401"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="407"/>
-      <c r="B43" s="339"/>
-      <c r="C43" s="339"/>
-      <c r="D43" s="339"/>
-      <c r="E43" s="339"/>
-      <c r="F43" s="339"/>
-      <c r="G43" s="339"/>
+      <c r="A43" s="408"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6381,28 +6403,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="401"/>
-      <c r="T43" s="402"/>
-      <c r="U43" s="402"/>
-      <c r="V43" s="402"/>
-      <c r="W43" s="402"/>
-      <c r="X43" s="402"/>
-      <c r="Y43" s="402"/>
-      <c r="Z43" s="402"/>
-      <c r="AA43" s="402"/>
-      <c r="AB43" s="402"/>
-      <c r="AC43" s="402"/>
-      <c r="AD43" s="402"/>
-      <c r="AE43" s="402"/>
-      <c r="AF43" s="402"/>
-      <c r="AG43" s="403"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="403"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="404"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6419,67 +6441,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="401"/>
-      <c r="T44" s="402"/>
-      <c r="U44" s="402"/>
-      <c r="V44" s="402"/>
-      <c r="W44" s="402"/>
-      <c r="X44" s="402"/>
-      <c r="Y44" s="402"/>
-      <c r="Z44" s="402"/>
-      <c r="AA44" s="402"/>
-      <c r="AB44" s="402"/>
-      <c r="AC44" s="402"/>
-      <c r="AD44" s="402"/>
-      <c r="AE44" s="402"/>
-      <c r="AF44" s="402"/>
-      <c r="AG44" s="403"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="403"/>
+      <c r="U44" s="403"/>
+      <c r="V44" s="403"/>
+      <c r="W44" s="403"/>
+      <c r="X44" s="403"/>
+      <c r="Y44" s="403"/>
+      <c r="Z44" s="403"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="404"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="407"/>
-      <c r="B45" s="339"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="339"/>
-      <c r="E45" s="339"/>
-      <c r="F45" s="339"/>
-      <c r="G45" s="339"/>
-      <c r="H45" s="339"/>
-      <c r="I45" s="339"/>
-      <c r="J45" s="339"/>
-      <c r="K45" s="339"/>
-      <c r="L45" s="339"/>
-      <c r="M45" s="339"/>
-      <c r="N45" s="339"/>
-      <c r="O45" s="339"/>
-      <c r="P45" s="339"/>
-      <c r="Q45" s="339"/>
-      <c r="R45" s="340"/>
-      <c r="S45" s="401"/>
-      <c r="T45" s="402"/>
-      <c r="U45" s="402"/>
-      <c r="V45" s="402"/>
-      <c r="W45" s="402"/>
-      <c r="X45" s="402"/>
-      <c r="Y45" s="402"/>
-      <c r="Z45" s="402"/>
-      <c r="AA45" s="402"/>
-      <c r="AB45" s="402"/>
-      <c r="AC45" s="402"/>
-      <c r="AD45" s="402"/>
-      <c r="AE45" s="402"/>
-      <c r="AF45" s="402"/>
-      <c r="AG45" s="403"/>
+      <c r="A45" s="408"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="340"/>
+      <c r="L45" s="340"/>
+      <c r="M45" s="340"/>
+      <c r="N45" s="340"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="340"/>
+      <c r="Q45" s="340"/>
+      <c r="R45" s="341"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="403"/>
+      <c r="U45" s="403"/>
+      <c r="V45" s="403"/>
+      <c r="W45" s="403"/>
+      <c r="X45" s="403"/>
+      <c r="Y45" s="403"/>
+      <c r="Z45" s="403"/>
+      <c r="AA45" s="403"/>
+      <c r="AB45" s="403"/>
+      <c r="AC45" s="403"/>
+      <c r="AD45" s="403"/>
+      <c r="AE45" s="403"/>
+      <c r="AF45" s="403"/>
+      <c r="AG45" s="404"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6495,28 +6517,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="401"/>
-      <c r="T46" s="402"/>
-      <c r="U46" s="402"/>
-      <c r="V46" s="402"/>
-      <c r="W46" s="402"/>
-      <c r="X46" s="402"/>
-      <c r="Y46" s="402"/>
-      <c r="Z46" s="402"/>
-      <c r="AA46" s="402"/>
-      <c r="AB46" s="402"/>
-      <c r="AC46" s="402"/>
-      <c r="AD46" s="402"/>
-      <c r="AE46" s="402"/>
-      <c r="AF46" s="402"/>
-      <c r="AG46" s="403"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="403"/>
+      <c r="U46" s="403"/>
+      <c r="V46" s="403"/>
+      <c r="W46" s="403"/>
+      <c r="X46" s="403"/>
+      <c r="Y46" s="403"/>
+      <c r="Z46" s="403"/>
+      <c r="AA46" s="403"/>
+      <c r="AB46" s="403"/>
+      <c r="AC46" s="403"/>
+      <c r="AD46" s="403"/>
+      <c r="AE46" s="403"/>
+      <c r="AF46" s="403"/>
+      <c r="AG46" s="404"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6533,21 +6555,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="401"/>
-      <c r="T47" s="402"/>
-      <c r="U47" s="402"/>
-      <c r="V47" s="402"/>
-      <c r="W47" s="402"/>
-      <c r="X47" s="402"/>
-      <c r="Y47" s="402"/>
-      <c r="Z47" s="402"/>
-      <c r="AA47" s="402"/>
-      <c r="AB47" s="402"/>
-      <c r="AC47" s="402"/>
-      <c r="AD47" s="402"/>
-      <c r="AE47" s="402"/>
-      <c r="AF47" s="402"/>
-      <c r="AG47" s="403"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="403"/>
+      <c r="U47" s="403"/>
+      <c r="V47" s="403"/>
+      <c r="W47" s="403"/>
+      <c r="X47" s="403"/>
+      <c r="Y47" s="403"/>
+      <c r="Z47" s="403"/>
+      <c r="AA47" s="403"/>
+      <c r="AB47" s="403"/>
+      <c r="AC47" s="403"/>
+      <c r="AD47" s="403"/>
+      <c r="AE47" s="403"/>
+      <c r="AF47" s="403"/>
+      <c r="AG47" s="404"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6569,344 +6591,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="404"/>
-      <c r="T48" s="405"/>
-      <c r="U48" s="405"/>
-      <c r="V48" s="405"/>
-      <c r="W48" s="405"/>
-      <c r="X48" s="405"/>
-      <c r="Y48" s="405"/>
-      <c r="Z48" s="405"/>
-      <c r="AA48" s="405"/>
-      <c r="AB48" s="405"/>
-      <c r="AC48" s="405"/>
-      <c r="AD48" s="405"/>
-      <c r="AE48" s="405"/>
-      <c r="AF48" s="405"/>
-      <c r="AG48" s="406"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="406"/>
+      <c r="U48" s="406"/>
+      <c r="V48" s="406"/>
+      <c r="W48" s="406"/>
+      <c r="X48" s="406"/>
+      <c r="Y48" s="406"/>
+      <c r="Z48" s="406"/>
+      <c r="AA48" s="406"/>
+      <c r="AB48" s="406"/>
+      <c r="AC48" s="406"/>
+      <c r="AD48" s="406"/>
+      <c r="AE48" s="406"/>
+      <c r="AF48" s="406"/>
+      <c r="AG48" s="407"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="348" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="374"/>
-      <c r="C49" s="374"/>
-      <c r="D49" s="374"/>
-      <c r="E49" s="352"/>
-      <c r="F49" s="339"/>
-      <c r="G49" s="339"/>
-      <c r="H49" s="339"/>
-      <c r="I49" s="339"/>
-      <c r="J49" s="339"/>
-      <c r="K49" s="339"/>
-      <c r="L49" s="339"/>
-      <c r="M49" s="339"/>
-      <c r="N49" s="339"/>
-      <c r="O49" s="339"/>
-      <c r="P49" s="339"/>
-      <c r="Q49" s="339"/>
-      <c r="R49" s="340"/>
-      <c r="S49" s="348" t="s">
-        <v>129</v>
-      </c>
-      <c r="T49" s="349"/>
-      <c r="U49" s="349"/>
-      <c r="V49" s="378"/>
-      <c r="W49" s="361"/>
-      <c r="X49" s="358"/>
-      <c r="Y49" s="358"/>
-      <c r="Z49" s="358"/>
-      <c r="AA49" s="358"/>
-      <c r="AB49" s="358"/>
-      <c r="AC49" s="358"/>
-      <c r="AD49" s="358"/>
-      <c r="AE49" s="358"/>
-      <c r="AF49" s="358"/>
-      <c r="AG49" s="362"/>
+      <c r="A49" s="349" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="375"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
+      <c r="N49" s="340"/>
+      <c r="O49" s="340"/>
+      <c r="P49" s="340"/>
+      <c r="Q49" s="340"/>
+      <c r="R49" s="341"/>
+      <c r="S49" s="349" t="s">
+        <v>130</v>
+      </c>
+      <c r="T49" s="350"/>
+      <c r="U49" s="350"/>
+      <c r="V49" s="379"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="363"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="375"/>
-      <c r="B50" s="376"/>
-      <c r="C50" s="376"/>
-      <c r="D50" s="376"/>
-      <c r="E50" s="331"/>
-      <c r="F50" s="328"/>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="328"/>
-      <c r="O50" s="328"/>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="377"/>
-      <c r="S50" s="350"/>
-      <c r="T50" s="351"/>
-      <c r="U50" s="351"/>
-      <c r="V50" s="360"/>
-      <c r="W50" s="363"/>
-      <c r="X50" s="351"/>
-      <c r="Y50" s="351"/>
-      <c r="Z50" s="351"/>
-      <c r="AA50" s="351"/>
-      <c r="AB50" s="351"/>
-      <c r="AC50" s="351"/>
-      <c r="AD50" s="351"/>
-      <c r="AE50" s="351"/>
-      <c r="AF50" s="351"/>
-      <c r="AG50" s="364"/>
+      <c r="A50" s="376"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="329"/>
+      <c r="L50" s="329"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="352"/>
+      <c r="Z50" s="352"/>
+      <c r="AA50" s="352"/>
+      <c r="AB50" s="352"/>
+      <c r="AC50" s="352"/>
+      <c r="AD50" s="352"/>
+      <c r="AE50" s="352"/>
+      <c r="AF50" s="352"/>
+      <c r="AG50" s="365"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="324" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="379"/>
-      <c r="C51" s="379"/>
-      <c r="D51" s="380"/>
-      <c r="E51" s="382" t="s">
+      <c r="A51" s="325" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="383"/>
-      <c r="G51" s="383"/>
-      <c r="H51" s="383"/>
-      <c r="I51" s="383"/>
-      <c r="J51" s="383"/>
-      <c r="K51" s="383"/>
-      <c r="L51" s="383"/>
-      <c r="M51" s="383"/>
-      <c r="N51" s="383"/>
-      <c r="O51" s="383"/>
-      <c r="P51" s="383"/>
-      <c r="Q51" s="383"/>
-      <c r="R51" s="384"/>
-      <c r="S51" s="324" t="s">
-        <v>130</v>
-      </c>
-      <c r="T51" s="358"/>
-      <c r="U51" s="358"/>
-      <c r="V51" s="359"/>
-      <c r="W51" s="388" t="s">
-        <v>35</v>
-      </c>
-      <c r="X51" s="389"/>
-      <c r="Y51" s="389"/>
-      <c r="Z51" s="389"/>
-      <c r="AA51" s="389"/>
-      <c r="AB51" s="389"/>
-      <c r="AC51" s="389"/>
-      <c r="AD51" s="389"/>
-      <c r="AE51" s="389"/>
-      <c r="AF51" s="389"/>
-      <c r="AG51" s="390"/>
+      <c r="B51" s="380"/>
+      <c r="C51" s="380"/>
+      <c r="D51" s="381"/>
+      <c r="E51" s="383" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="I51" s="384"/>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="385"/>
+      <c r="S51" s="325" t="s">
+        <v>131</v>
+      </c>
+      <c r="T51" s="359"/>
+      <c r="U51" s="359"/>
+      <c r="V51" s="360"/>
+      <c r="W51" s="389" t="s">
+        <v>36</v>
+      </c>
+      <c r="X51" s="390"/>
+      <c r="Y51" s="390"/>
+      <c r="Z51" s="390"/>
+      <c r="AA51" s="390"/>
+      <c r="AB51" s="390"/>
+      <c r="AC51" s="390"/>
+      <c r="AD51" s="390"/>
+      <c r="AE51" s="390"/>
+      <c r="AF51" s="390"/>
+      <c r="AG51" s="391"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="375"/>
-      <c r="B52" s="376"/>
-      <c r="C52" s="376"/>
-      <c r="D52" s="381"/>
-      <c r="E52" s="385"/>
-      <c r="F52" s="386"/>
-      <c r="G52" s="386"/>
-      <c r="H52" s="386"/>
-      <c r="I52" s="386"/>
-      <c r="J52" s="386"/>
-      <c r="K52" s="386"/>
-      <c r="L52" s="386"/>
-      <c r="M52" s="386"/>
-      <c r="N52" s="386"/>
-      <c r="O52" s="386"/>
-      <c r="P52" s="386"/>
-      <c r="Q52" s="386"/>
-      <c r="R52" s="387"/>
-      <c r="S52" s="350"/>
-      <c r="T52" s="351"/>
-      <c r="U52" s="351"/>
-      <c r="V52" s="360"/>
-      <c r="W52" s="391"/>
-      <c r="X52" s="392"/>
-      <c r="Y52" s="392"/>
-      <c r="Z52" s="392"/>
-      <c r="AA52" s="392"/>
-      <c r="AB52" s="392"/>
-      <c r="AC52" s="392"/>
-      <c r="AD52" s="392"/>
-      <c r="AE52" s="392"/>
-      <c r="AF52" s="392"/>
-      <c r="AG52" s="393"/>
+      <c r="A52" s="376"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="386"/>
+      <c r="F52" s="387"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="388"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="361"/>
+      <c r="W52" s="392"/>
+      <c r="X52" s="393"/>
+      <c r="Y52" s="393"/>
+      <c r="Z52" s="393"/>
+      <c r="AA52" s="393"/>
+      <c r="AB52" s="393"/>
+      <c r="AC52" s="393"/>
+      <c r="AD52" s="393"/>
+      <c r="AE52" s="393"/>
+      <c r="AF52" s="393"/>
+      <c r="AG52" s="394"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="324" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="358"/>
-      <c r="C53" s="358"/>
-      <c r="D53" s="359"/>
-      <c r="E53" s="361" t="s">
+      <c r="A53" s="325" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="358"/>
-      <c r="G53" s="358"/>
-      <c r="H53" s="358"/>
-      <c r="I53" s="358"/>
-      <c r="J53" s="358"/>
-      <c r="K53" s="358"/>
-      <c r="L53" s="358"/>
-      <c r="M53" s="358"/>
-      <c r="N53" s="358"/>
-      <c r="O53" s="358"/>
-      <c r="P53" s="358"/>
-      <c r="Q53" s="358"/>
-      <c r="R53" s="362"/>
-      <c r="S53" s="324" t="s">
-        <v>132</v>
-      </c>
-      <c r="T53" s="358"/>
-      <c r="U53" s="358"/>
-      <c r="V53" s="359"/>
-      <c r="W53" s="361" t="s">
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="362" t="s">
         <v>134</v>
       </c>
-      <c r="X53" s="358"/>
-      <c r="Y53" s="358"/>
-      <c r="Z53" s="358"/>
-      <c r="AA53" s="358"/>
-      <c r="AB53" s="358"/>
-      <c r="AC53" s="358"/>
-      <c r="AD53" s="358"/>
-      <c r="AE53" s="358"/>
-      <c r="AF53" s="358"/>
-      <c r="AG53" s="362"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="359"/>
+      <c r="K53" s="359"/>
+      <c r="L53" s="359"/>
+      <c r="M53" s="359"/>
+      <c r="N53" s="359"/>
+      <c r="O53" s="359"/>
+      <c r="P53" s="359"/>
+      <c r="Q53" s="359"/>
+      <c r="R53" s="363"/>
+      <c r="S53" s="325" t="s">
+        <v>133</v>
+      </c>
+      <c r="T53" s="359"/>
+      <c r="U53" s="359"/>
+      <c r="V53" s="360"/>
+      <c r="W53" s="362" t="s">
+        <v>135</v>
+      </c>
+      <c r="X53" s="359"/>
+      <c r="Y53" s="359"/>
+      <c r="Z53" s="359"/>
+      <c r="AA53" s="359"/>
+      <c r="AB53" s="359"/>
+      <c r="AC53" s="359"/>
+      <c r="AD53" s="359"/>
+      <c r="AE53" s="359"/>
+      <c r="AF53" s="359"/>
+      <c r="AG53" s="363"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="350"/>
-      <c r="B54" s="351"/>
-      <c r="C54" s="351"/>
-      <c r="D54" s="360"/>
-      <c r="E54" s="363"/>
-      <c r="F54" s="351"/>
-      <c r="G54" s="351"/>
-      <c r="H54" s="351"/>
-      <c r="I54" s="351"/>
-      <c r="J54" s="351"/>
-      <c r="K54" s="351"/>
-      <c r="L54" s="351"/>
-      <c r="M54" s="351"/>
-      <c r="N54" s="351"/>
-      <c r="O54" s="351"/>
-      <c r="P54" s="351"/>
-      <c r="Q54" s="351"/>
-      <c r="R54" s="364"/>
-      <c r="S54" s="350"/>
-      <c r="T54" s="351"/>
-      <c r="U54" s="351"/>
-      <c r="V54" s="360"/>
-      <c r="W54" s="363"/>
-      <c r="X54" s="351"/>
-      <c r="Y54" s="351"/>
-      <c r="Z54" s="351"/>
-      <c r="AA54" s="351"/>
-      <c r="AB54" s="351"/>
-      <c r="AC54" s="351"/>
-      <c r="AD54" s="351"/>
-      <c r="AE54" s="351"/>
-      <c r="AF54" s="351"/>
-      <c r="AG54" s="364"/>
+      <c r="A54" s="351"/>
+      <c r="B54" s="352"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="364"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="352"/>
+      <c r="H54" s="352"/>
+      <c r="I54" s="352"/>
+      <c r="J54" s="352"/>
+      <c r="K54" s="352"/>
+      <c r="L54" s="352"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="352"/>
+      <c r="O54" s="352"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="352"/>
+      <c r="U54" s="352"/>
+      <c r="V54" s="361"/>
+      <c r="W54" s="364"/>
+      <c r="X54" s="352"/>
+      <c r="Y54" s="352"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="352"/>
+      <c r="AB54" s="352"/>
+      <c r="AC54" s="352"/>
+      <c r="AD54" s="352"/>
+      <c r="AE54" s="352"/>
+      <c r="AF54" s="352"/>
+      <c r="AG54" s="365"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="324" t="s">
+      <c r="A55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="358"/>
-      <c r="C55" s="358"/>
-      <c r="D55" s="359"/>
-      <c r="E55" s="352"/>
-      <c r="F55" s="339"/>
-      <c r="G55" s="339"/>
-      <c r="H55" s="339"/>
-      <c r="I55" s="339"/>
-      <c r="J55" s="339"/>
-      <c r="K55" s="339"/>
-      <c r="L55" s="339"/>
-      <c r="M55" s="339"/>
-      <c r="N55" s="339"/>
-      <c r="O55" s="339"/>
-      <c r="P55" s="339"/>
-      <c r="Q55" s="339"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="324" t="s">
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="353"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="340"/>
+      <c r="K55" s="340"/>
+      <c r="L55" s="340"/>
+      <c r="M55" s="340"/>
+      <c r="N55" s="340"/>
+      <c r="O55" s="340"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="358"/>
-      <c r="U55" s="358"/>
-      <c r="V55" s="359"/>
-      <c r="W55" s="361"/>
-      <c r="X55" s="358"/>
-      <c r="Y55" s="358"/>
-      <c r="Z55" s="358"/>
-      <c r="AA55" s="358"/>
-      <c r="AB55" s="358"/>
-      <c r="AC55" s="358"/>
-      <c r="AD55" s="358"/>
-      <c r="AE55" s="358"/>
-      <c r="AF55" s="358"/>
-      <c r="AG55" s="362"/>
+      <c r="T55" s="359"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="360"/>
+      <c r="W55" s="362"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="359"/>
+      <c r="AE55" s="359"/>
+      <c r="AF55" s="359"/>
+      <c r="AG55" s="363"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="370"/>
-      <c r="B56" s="371"/>
-      <c r="C56" s="371"/>
-      <c r="D56" s="372"/>
-      <c r="E56" s="373"/>
-      <c r="F56" s="341"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="341"/>
-      <c r="I56" s="341"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="341"/>
-      <c r="M56" s="341"/>
-      <c r="N56" s="341"/>
-      <c r="O56" s="341"/>
-      <c r="P56" s="341"/>
-      <c r="Q56" s="341"/>
-      <c r="R56" s="342"/>
-      <c r="S56" s="365"/>
-      <c r="T56" s="366"/>
-      <c r="U56" s="366"/>
-      <c r="V56" s="367"/>
-      <c r="W56" s="368"/>
-      <c r="X56" s="366"/>
-      <c r="Y56" s="366"/>
-      <c r="Z56" s="366"/>
-      <c r="AA56" s="366"/>
-      <c r="AB56" s="366"/>
-      <c r="AC56" s="366"/>
-      <c r="AD56" s="366"/>
-      <c r="AE56" s="366"/>
-      <c r="AF56" s="366"/>
-      <c r="AG56" s="369"/>
+      <c r="A56" s="371"/>
+      <c r="B56" s="372"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="343"/>
+      <c r="S56" s="366"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="368"/>
+      <c r="W56" s="369"/>
+      <c r="X56" s="367"/>
+      <c r="Y56" s="367"/>
+      <c r="Z56" s="367"/>
+      <c r="AA56" s="367"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
+      <c r="AF56" s="367"/>
+      <c r="AG56" s="370"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6934,49 +6956,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="346"/>
-      <c r="AF57" s="346"/>
-      <c r="AG57" s="347"/>
+      <c r="AE57" s="347"/>
+      <c r="AF57" s="347"/>
+      <c r="AG57" s="348"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="348" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="349"/>
-      <c r="C58" s="349"/>
+      <c r="A58" s="349" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="350"/>
+      <c r="C58" s="350"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="352"/>
-      <c r="F58" s="339"/>
-      <c r="G58" s="339"/>
-      <c r="H58" s="339"/>
-      <c r="I58" s="339"/>
-      <c r="J58" s="339"/>
-      <c r="K58" s="339"/>
-      <c r="L58" s="339"/>
-      <c r="M58" s="353"/>
-      <c r="N58" s="354" t="s">
-        <v>96</v>
-      </c>
-      <c r="O58" s="355"/>
-      <c r="P58" s="355"/>
-      <c r="Q58" s="355"/>
-      <c r="R58" s="356"/>
-      <c r="S58" s="357" t="s">
-        <v>139</v>
-      </c>
-      <c r="T58" s="355"/>
-      <c r="U58" s="355"/>
-      <c r="V58" s="355"/>
-      <c r="W58" s="355"/>
-      <c r="X58" s="355"/>
-      <c r="Y58" s="355"/>
-      <c r="Z58" s="355"/>
-      <c r="AA58" s="356"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="340"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="340"/>
+      <c r="M58" s="354"/>
+      <c r="N58" s="355" t="s">
+        <v>97</v>
+      </c>
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="357"/>
+      <c r="S58" s="358" t="s">
+        <v>140</v>
+      </c>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="356"/>
+      <c r="AA58" s="357"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6986,33 +7008,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="350"/>
-      <c r="B59" s="351"/>
-      <c r="C59" s="351"/>
+      <c r="A59" s="351"/>
+      <c r="B59" s="352"/>
+      <c r="C59" s="352"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="328"/>
-      <c r="G59" s="328"/>
-      <c r="H59" s="328"/>
-      <c r="I59" s="328"/>
-      <c r="J59" s="328"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="329"/>
-      <c r="N59" s="335"/>
-      <c r="O59" s="336"/>
-      <c r="P59" s="336"/>
-      <c r="Q59" s="336"/>
-      <c r="R59" s="337"/>
-      <c r="S59" s="335"/>
-      <c r="T59" s="336"/>
-      <c r="U59" s="336"/>
-      <c r="V59" s="336"/>
-      <c r="W59" s="336"/>
-      <c r="X59" s="336"/>
-      <c r="Y59" s="336"/>
-      <c r="Z59" s="336"/>
-      <c r="AA59" s="337"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="337"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="337"/>
+      <c r="X59" s="337"/>
+      <c r="Y59" s="337"/>
+      <c r="Z59" s="337"/>
+      <c r="AA59" s="338"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -7022,121 +7044,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="324" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="325"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="326"/>
-      <c r="E60" s="330"/>
-      <c r="F60" s="325"/>
-      <c r="G60" s="325"/>
-      <c r="H60" s="325"/>
-      <c r="I60" s="325"/>
-      <c r="J60" s="325"/>
-      <c r="K60" s="325"/>
-      <c r="L60" s="325"/>
-      <c r="M60" s="326"/>
-      <c r="N60" s="332" t="s">
-        <v>96</v>
-      </c>
-      <c r="O60" s="333"/>
-      <c r="P60" s="333"/>
-      <c r="Q60" s="333"/>
-      <c r="R60" s="334"/>
-      <c r="S60" s="332" t="s">
-        <v>69</v>
-      </c>
-      <c r="T60" s="333"/>
-      <c r="U60" s="333"/>
-      <c r="V60" s="333"/>
-      <c r="W60" s="333"/>
-      <c r="X60" s="333"/>
-      <c r="Y60" s="333"/>
-      <c r="Z60" s="333"/>
-      <c r="AA60" s="334"/>
+      <c r="A60" s="325" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="333" t="s">
+        <v>97</v>
+      </c>
+      <c r="O60" s="334"/>
+      <c r="P60" s="334"/>
+      <c r="Q60" s="334"/>
+      <c r="R60" s="335"/>
+      <c r="S60" s="333" t="s">
+        <v>70</v>
+      </c>
+      <c r="T60" s="334"/>
+      <c r="U60" s="334"/>
+      <c r="V60" s="334"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="334"/>
+      <c r="Y60" s="334"/>
+      <c r="Z60" s="334"/>
+      <c r="AA60" s="335"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="325"/>
-      <c r="AE60" s="325"/>
-      <c r="AF60" s="325"/>
-      <c r="AG60" s="338"/>
+      <c r="AD60" s="326"/>
+      <c r="AE60" s="326"/>
+      <c r="AF60" s="326"/>
+      <c r="AG60" s="339"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="327"/>
-      <c r="B61" s="328"/>
-      <c r="C61" s="328"/>
-      <c r="D61" s="329"/>
-      <c r="E61" s="331"/>
-      <c r="F61" s="328"/>
-      <c r="G61" s="328"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="328"/>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="329"/>
-      <c r="N61" s="335"/>
-      <c r="O61" s="336"/>
-      <c r="P61" s="336"/>
-      <c r="Q61" s="336"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="335"/>
-      <c r="T61" s="336"/>
-      <c r="U61" s="336"/>
-      <c r="V61" s="336"/>
-      <c r="W61" s="336"/>
-      <c r="X61" s="336"/>
-      <c r="Y61" s="336"/>
-      <c r="Z61" s="336"/>
-      <c r="AA61" s="337"/>
-      <c r="AB61" s="339"/>
-      <c r="AC61" s="339"/>
-      <c r="AD61" s="339"/>
-      <c r="AE61" s="339"/>
-      <c r="AF61" s="339"/>
-      <c r="AG61" s="340"/>
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="336"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="338"/>
+      <c r="S61" s="336"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="337"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="337"/>
+      <c r="X61" s="337"/>
+      <c r="Y61" s="337"/>
+      <c r="Z61" s="337"/>
+      <c r="AA61" s="338"/>
+      <c r="AB61" s="340"/>
+      <c r="AC61" s="340"/>
+      <c r="AD61" s="340"/>
+      <c r="AE61" s="340"/>
+      <c r="AF61" s="340"/>
+      <c r="AG61" s="341"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="343" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="344"/>
-      <c r="C62" s="344"/>
-      <c r="D62" s="344"/>
-      <c r="E62" s="344"/>
-      <c r="F62" s="344"/>
-      <c r="G62" s="344"/>
-      <c r="H62" s="344"/>
-      <c r="I62" s="344"/>
-      <c r="J62" s="344"/>
-      <c r="K62" s="344"/>
-      <c r="L62" s="344"/>
-      <c r="M62" s="344"/>
-      <c r="N62" s="344"/>
-      <c r="O62" s="344"/>
-      <c r="P62" s="344"/>
-      <c r="Q62" s="344"/>
-      <c r="R62" s="344"/>
-      <c r="S62" s="344"/>
-      <c r="T62" s="344"/>
-      <c r="U62" s="344"/>
-      <c r="V62" s="344"/>
-      <c r="W62" s="344"/>
-      <c r="X62" s="344"/>
-      <c r="Y62" s="344"/>
-      <c r="Z62" s="344"/>
-      <c r="AA62" s="345"/>
-      <c r="AB62" s="341"/>
-      <c r="AC62" s="341"/>
-      <c r="AD62" s="341"/>
-      <c r="AE62" s="341"/>
-      <c r="AF62" s="341"/>
-      <c r="AG62" s="342"/>
+      <c r="A62" s="344" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="345"/>
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="345"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="345"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="345"/>
+      <c r="O62" s="345"/>
+      <c r="P62" s="345"/>
+      <c r="Q62" s="345"/>
+      <c r="R62" s="345"/>
+      <c r="S62" s="345"/>
+      <c r="T62" s="345"/>
+      <c r="U62" s="345"/>
+      <c r="V62" s="345"/>
+      <c r="W62" s="345"/>
+      <c r="X62" s="345"/>
+      <c r="Y62" s="345"/>
+      <c r="Z62" s="345"/>
+      <c r="AA62" s="346"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="343"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-08-01</t>
+    <t>2020-08-26</t>
   </si>
   <si>
     <t>Position:</t>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: AAAAA</t>
+    <t>Purpose of Travel: SAMPLE 1</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,16 +102,25 @@
     <t>Diem</t>
   </si>
   <si>
+    <t>title 1</t>
+  </si>
+  <si>
+    <t>title 2</t>
+  </si>
+  <si>
+    <t>Pagsanjan to Calamba</t>
+  </si>
+  <si>
+    <t>1:06 PM</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>10:35 AM</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>sample</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1192,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="497">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2653,6 +2662,9 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2981,10 +2993,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3133,7 +3145,7 @@
       <c r="C10" s="193"/>
       <c r="D10" s="193"/>
       <c r="E10" s="194"/>
-      <c r="F10" s="205" t="s">
+      <c r="F10" s="487" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="179"/>
@@ -3220,7 +3232,9 @@
       <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="200"/>
+      <c r="A15" s="200" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="201"/>
       <c r="C15" s="201"/>
       <c r="D15" s="202"/>
@@ -3233,397 +3247,247 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
       <c r="A16" s="171" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" s="195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="195"/>
       <c r="D16" s="172" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="172" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" s="174">
         <v>10</v>
       </c>
       <c r="H16" s="174">
-        <v>440</v>
+        <v>3300</v>
       </c>
       <c r="I16" s="175" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="174">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="489" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="489" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="488"/>
+      <c r="D17" s="489" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="174">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="487"/>
-      <c r="D17" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="489">
+      <c r="E17" s="489" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="489" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="490">
         <v>10</v>
       </c>
-      <c r="H17" s="489">
-        <v>440</v>
-      </c>
-      <c r="I17" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="489">
-        <v>450</v>
+      <c r="H17" s="490">
+        <v>3300</v>
+      </c>
+      <c r="I17" s="490" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="490">
+        <v>2210</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="487"/>
-      <c r="D18" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="489">
-        <v>10</v>
-      </c>
-      <c r="H18" s="489">
-        <v>440</v>
-      </c>
-      <c r="I18" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="489">
-        <v>450</v>
-      </c>
+      <c r="A18" s="492"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="496" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="118"/>
+      <c r="G18" s="491"/>
+      <c r="H18" s="491"/>
+      <c r="I18" s="491"/>
+      <c r="J18" s="493"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="487"/>
-      <c r="D19" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="489">
-        <v>10</v>
-      </c>
-      <c r="H19" s="489">
-        <v>440</v>
-      </c>
-      <c r="I19" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="489">
-        <v>450</v>
-      </c>
+      <c r="A19" s="111"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="494"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="487"/>
-      <c r="D20" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="489">
-        <v>10</v>
-      </c>
-      <c r="H20" s="489">
-        <v>440</v>
-      </c>
-      <c r="I20" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="489">
-        <v>450</v>
-      </c>
+      <c r="A20" s="111"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="111"/>
+      <c r="F20"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="494"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="487"/>
-      <c r="D21" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="489">
-        <v>10</v>
-      </c>
-      <c r="H21" s="489">
-        <v>440</v>
-      </c>
-      <c r="I21" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="489">
-        <v>450</v>
-      </c>
+      <c r="A21" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="495" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="494"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="488" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="488" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="487"/>
-      <c r="D22" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="488" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="488" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="489">
-        <v>10</v>
-      </c>
-      <c r="H22" s="489">
-        <v>440</v>
-      </c>
-      <c r="I22" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="489">
-        <v>450</v>
-      </c>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="111"/>
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="494"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="491"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="495" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="492"/>
       <c r="F23" s="118"/>
-      <c r="G23" s="490"/>
-      <c r="H23" s="490"/>
-      <c r="I23" s="490"/>
-      <c r="J23" s="492"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="491"/>
+      <c r="I23" s="491"/>
+      <c r="J23" s="493"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="111"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="37" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="493"/>
+      <c r="J24" s="494"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="111"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="111"/>
       <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="493"/>
+      <c r="J25" s="494"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="494" t="s">
-        <v>34</v>
-      </c>
+      <c r="A26" s="111"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="111"/>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="493"/>
+      <c r="J26" s="494"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="111"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
       <c r="E27" s="111"/>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="493"/>
+      <c r="J27" s="494"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="491"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="490"/>
-      <c r="H28" s="490"/>
-      <c r="I28" s="490"/>
-      <c r="J28" s="492"/>
+      <c r="A28" s="111"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="495" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="494"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37" t="s">
-        <v>35</v>
+      <c r="A29" s="111"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="493"/>
+      <c r="J29" s="494"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="111"/>
+      <c r="A30" s="111"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="253" t="s">
+        <v>40</v>
+      </c>
       <c r="F30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="493"/>
+      <c r="J30" s="494"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="111"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="111"/>
-      <c r="F31"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="492"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="492"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="491"/>
+      <c r="H31" s="491"/>
+      <c r="I31" s="491"/>
       <c r="J31" s="493"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="111"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="111"/>
-      <c r="F32"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="493"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="111"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="494" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="493"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="111"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="493"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="111"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="253" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="493"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="491"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="491"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="490"/>
-      <c r="H36" s="490"/>
-      <c r="I36" s="490"/>
-      <c r="J36" s="492"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3649,11 +3513,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A26:D30"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A21:D25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3714,7 +3578,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="313" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" s="313"/>
     </row>
@@ -3735,7 +3599,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="315" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="316"/>
       <c r="C3" s="316"/>
@@ -3747,14 +3611,14 @@
       <c r="I3" s="316"/>
       <c r="J3" s="317"/>
       <c r="K3" s="318" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="319"/>
       <c r="M3" s="320"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="321" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" s="322"/>
       <c r="C4" s="322"/>
@@ -3766,14 +3630,14 @@
       <c r="I4" s="322"/>
       <c r="J4" s="323"/>
       <c r="K4" s="236" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L4" s="237"/>
       <c r="M4" s="324"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="295" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -3785,7 +3649,7 @@
       <c r="I5" s="296"/>
       <c r="J5" s="297"/>
       <c r="K5" s="298" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L5" s="299"/>
       <c r="M5" s="300"/>
@@ -3795,7 +3659,7 @@
       <c r="B6" s="284"/>
       <c r="C6" s="285"/>
       <c r="D6" s="304" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="305"/>
       <c r="F6" s="305"/>
@@ -3824,12 +3688,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="272" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="273"/>
       <c r="C8" s="274"/>
       <c r="D8" s="277" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="278"/>
       <c r="F8" s="278"/>
@@ -3858,7 +3722,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="272" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="273"/>
       <c r="C10" s="274"/>
@@ -3893,26 +3757,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="283" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="284"/>
       <c r="C12" s="285"/>
       <c r="D12" s="286" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="287"/>
       <c r="G12" s="287"/>
       <c r="H12" s="288"/>
       <c r="I12" s="286" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J12" s="285"/>
       <c r="K12" s="292" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12" s="286" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M12" s="294"/>
     </row>
@@ -3936,7 +3800,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="254"/>
       <c r="D14" s="255" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" s="209"/>
       <c r="F14" s="209"/>
@@ -3953,7 +3817,7 @@
       <c r="B15" s="209"/>
       <c r="C15" s="254"/>
       <c r="D15" s="217" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="218"/>
       <c r="F15" s="218"/>
@@ -4137,7 +4001,7 @@
       <c r="B27" s="258"/>
       <c r="C27" s="259"/>
       <c r="D27" s="260" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" s="261"/>
       <c r="F27" s="261"/>
@@ -4154,19 +4018,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="241" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="215" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E28" s="243"/>
       <c r="F28" s="243"/>
       <c r="G28" s="243"/>
       <c r="H28" s="244"/>
       <c r="I28" s="245" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4176,7 +4040,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="242"/>
       <c r="B29" s="246" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="177"/>
       <c r="D29" s="243"/>
@@ -4186,7 +4050,7 @@
       <c r="H29" s="244"/>
       <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4195,7 +4059,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="247" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -4205,7 +4069,7 @@
       <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4214,7 +4078,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4224,7 +4088,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4277,11 +4141,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="250" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B35" s="227"/>
       <c r="C35" s="218" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D35" s="218"/>
       <c r="E35" s="218"/>
@@ -4289,11 +4153,11 @@
       <c r="G35" s="218"/>
       <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4315,11 +4179,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="251" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4327,11 +4191,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4353,11 +4217,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="250" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" s="227"/>
       <c r="C39" s="215" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" s="215"/>
       <c r="E39" s="215"/>
@@ -4365,11 +4229,11 @@
       <c r="G39" s="215"/>
       <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4391,11 +4255,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="236" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="237"/>
       <c r="C41" s="215" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D41" s="215"/>
       <c r="E41" s="215"/>
@@ -4403,11 +4267,11 @@
       <c r="G41" s="215"/>
       <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4444,10 +4308,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44" s="238" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C44" s="239"/>
       <c r="D44" s="239"/>
@@ -4463,7 +4327,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B45" s="239"/>
       <c r="C45" s="239"/>
@@ -4472,7 +4336,7 @@
       <c r="F45" s="239"/>
       <c r="G45" s="240"/>
       <c r="H45" s="198" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I45" s="239"/>
       <c r="J45" s="239"/>
@@ -4485,27 +4349,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="222" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46" s="223"/>
       <c r="D46" s="223"/>
       <c r="E46" s="226" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F46" s="227"/>
       <c r="G46" s="228"/>
       <c r="H46" s="220" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I46" s="232" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J46" s="233"/>
       <c r="K46" s="234" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L46" s="210" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M46" s="211"/>
     </row>
@@ -4522,10 +4386,10 @@
       <c r="J47" s="233"/>
       <c r="K47" s="234"/>
       <c r="L47" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4537,20 +4401,20 @@
       <c r="F48" s="230"/>
       <c r="G48" s="231"/>
       <c r="H48" s="54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I48" s="212" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J48" s="213"/>
       <c r="K48" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4824,7 +4688,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="474" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="474"/>
       <c r="AD1" s="474"/>
@@ -4837,7 +4701,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="475" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" s="476"/>
       <c r="C3" s="476"/>
@@ -4866,7 +4730,7 @@
       <c r="Z3" s="476"/>
       <c r="AA3" s="477"/>
       <c r="AB3" s="478" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AC3" s="479"/>
       <c r="AD3" s="479"/>
@@ -4876,7 +4740,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="481" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="482"/>
       <c r="C4" s="482"/>
@@ -4913,7 +4777,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="440" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" s="441"/>
       <c r="C5" s="441"/>
@@ -4942,7 +4806,7 @@
       <c r="Z5" s="441"/>
       <c r="AA5" s="442"/>
       <c r="AB5" s="456" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC5" s="457"/>
       <c r="AD5" s="457"/>
@@ -4979,7 +4843,7 @@
       <c r="Z6" s="441"/>
       <c r="AA6" s="442"/>
       <c r="AB6" s="459" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC6" s="460"/>
       <c r="AD6" s="460"/>
@@ -5024,7 +4888,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="446" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="447"/>
       <c r="C8" s="448"/>
@@ -5069,14 +4933,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5085,13 +4949,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5142,7 +5006,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="446" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" s="447"/>
       <c r="C11" s="448"/>
@@ -5165,7 +5029,7 @@
       <c r="Q11" s="447"/>
       <c r="R11" s="447"/>
       <c r="S11" s="466" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T11" s="467"/>
       <c r="U11" s="467"/>
@@ -5176,7 +5040,7 @@
       <c r="Z11" s="467"/>
       <c r="AA11" s="468"/>
       <c r="AB11" s="469" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC11" s="469"/>
       <c r="AD11" s="469"/>
@@ -5223,7 +5087,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="428" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="429"/>
       <c r="C13" s="430"/>
@@ -5300,7 +5164,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="436" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15" s="396"/>
       <c r="C15" s="396"/>
@@ -5319,21 +5183,21 @@
       <c r="P15" s="396"/>
       <c r="Q15" s="437"/>
       <c r="R15" s="395" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S15" s="438"/>
       <c r="T15" s="438"/>
       <c r="U15" s="438"/>
       <c r="V15" s="439"/>
       <c r="W15" s="395" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X15" s="396"/>
       <c r="Y15" s="396"/>
       <c r="Z15" s="396"/>
       <c r="AA15" s="437"/>
       <c r="AB15" s="395" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC15" s="396"/>
       <c r="AD15" s="396"/>
@@ -5381,7 +5245,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="218" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" s="218"/>
       <c r="D17" s="218"/>
@@ -5530,7 +5394,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5568,7 +5432,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5606,7 +5470,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5644,7 +5508,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5682,7 +5546,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5720,7 +5584,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5758,7 +5622,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5831,7 +5695,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="417" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B29" s="418"/>
       <c r="C29" s="418"/>
@@ -5873,10 +5737,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" s="423" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" s="423"/>
       <c r="D30" s="423"/>
@@ -5918,7 +5782,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6107,10 +5971,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6148,7 +6012,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="409" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B37" s="410"/>
       <c r="C37" s="410"/>
@@ -6168,21 +6032,21 @@
       <c r="Q37" s="410"/>
       <c r="R37" s="410"/>
       <c r="S37" s="410" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="T37" s="410"/>
       <c r="U37" s="410"/>
       <c r="V37" s="410"/>
       <c r="W37" s="410"/>
       <c r="X37" s="411" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y37" s="411"/>
       <c r="Z37" s="411"/>
       <c r="AA37" s="411"/>
       <c r="AB37" s="411"/>
       <c r="AC37" s="412" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AD37" s="412"/>
       <c r="AE37" s="412"/>
@@ -6267,7 +6131,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6304,10 +6168,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6326,10 +6190,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T41" s="398" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U41" s="398"/>
       <c r="V41" s="398"/>
@@ -6350,7 +6214,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6424,7 +6288,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6498,10 +6362,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6538,7 +6402,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6610,7 +6474,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="349" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B49" s="375"/>
       <c r="C49" s="375"/>
@@ -6630,7 +6494,7 @@
       <c r="Q49" s="340"/>
       <c r="R49" s="341"/>
       <c r="S49" s="349" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T49" s="350"/>
       <c r="U49" s="350"/>
@@ -6686,13 +6550,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="325" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B51" s="380"/>
       <c r="C51" s="380"/>
       <c r="D51" s="381"/>
       <c r="E51" s="383" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F51" s="384"/>
       <c r="G51" s="384"/>
@@ -6708,13 +6572,13 @@
       <c r="Q51" s="384"/>
       <c r="R51" s="385"/>
       <c r="S51" s="325" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="T51" s="359"/>
       <c r="U51" s="359"/>
       <c r="V51" s="360"/>
       <c r="W51" s="389" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X51" s="390"/>
       <c r="Y51" s="390"/>
@@ -6766,13 +6630,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="325" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B53" s="359"/>
       <c r="C53" s="359"/>
       <c r="D53" s="360"/>
       <c r="E53" s="362" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F53" s="359"/>
       <c r="G53" s="359"/>
@@ -6788,13 +6652,13 @@
       <c r="Q53" s="359"/>
       <c r="R53" s="363"/>
       <c r="S53" s="325" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T53" s="359"/>
       <c r="U53" s="359"/>
       <c r="V53" s="360"/>
       <c r="W53" s="362" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="X53" s="359"/>
       <c r="Y53" s="359"/>
@@ -6925,10 +6789,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6956,7 +6820,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -6967,7 +6831,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="349" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B58" s="350"/>
       <c r="C58" s="350"/>
@@ -6982,14 +6846,14 @@
       <c r="L58" s="340"/>
       <c r="M58" s="354"/>
       <c r="N58" s="355" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O58" s="356"/>
       <c r="P58" s="356"/>
       <c r="Q58" s="356"/>
       <c r="R58" s="357"/>
       <c r="S58" s="358" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="T58" s="356"/>
       <c r="U58" s="356"/>
@@ -7045,7 +6909,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="325" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B60" s="326"/>
       <c r="C60" s="326"/>
@@ -7060,14 +6924,14 @@
       <c r="L60" s="326"/>
       <c r="M60" s="327"/>
       <c r="N60" s="333" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O60" s="334"/>
       <c r="P60" s="334"/>
       <c r="Q60" s="334"/>
       <c r="R60" s="335"/>
       <c r="S60" s="333" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T60" s="334"/>
       <c r="U60" s="334"/>
@@ -7125,7 +6989,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="344" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B62" s="345"/>
       <c r="C62" s="345"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -102,13 +102,10 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>title 1</t>
-  </si>
-  <si>
     <t>title 2</t>
   </si>
   <si>
-    <t>Pagsanjan to Calamba</t>
+    <t>2020-09-15</t>
   </si>
   <si>
     <t>1:06 PM</t>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>sample</t>
-  </si>
-  <si>
-    <t>sample to Calamba</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -3249,18 +3243,18 @@
       <c r="A16" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="195" t="s">
-        <v>29</v>
+      <c r="B16" s="195">
+        <v>1</v>
       </c>
       <c r="C16" s="195"/>
       <c r="D16" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="173" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="172" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="173" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="174">
         <v>10</v>
@@ -3269,7 +3263,7 @@
         <v>3300</v>
       </c>
       <c r="I16" s="175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="174">
         <v>2210</v>
@@ -3279,18 +3273,18 @@
       <c r="A17" s="489" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="489" t="s">
-        <v>33</v>
+      <c r="B17" s="489">
+        <v>2</v>
       </c>
       <c r="C17" s="488"/>
       <c r="D17" s="489" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="489" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="489" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="489" t="s">
-        <v>31</v>
       </c>
       <c r="G17" s="490">
         <v>10</v>
@@ -3299,19 +3293,21 @@
         <v>3300</v>
       </c>
       <c r="I17" s="490" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="490">
         <v>2210</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="492"/>
+      <c r="A18" s="492" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="118"/>
       <c r="C18" s="118"/>
       <c r="D18" s="118"/>
       <c r="E18" s="496" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="118"/>
       <c r="G18" s="491"/>
@@ -3325,7 +3321,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="1"/>
@@ -3347,13 +3343,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="495" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1"/>
@@ -3391,7 +3387,7 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1"/>
@@ -3441,7 +3437,7 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" s="495" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
@@ -3455,7 +3451,7 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
@@ -3469,7 +3465,7 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="253" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="1"/>
@@ -3578,7 +3574,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="313" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M1" s="313"/>
     </row>
@@ -3599,7 +3595,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="315" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="316"/>
       <c r="C3" s="316"/>
@@ -3611,14 +3607,14 @@
       <c r="I3" s="316"/>
       <c r="J3" s="317"/>
       <c r="K3" s="318" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="319"/>
       <c r="M3" s="320"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="321" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="322"/>
       <c r="C4" s="322"/>
@@ -3630,14 +3626,14 @@
       <c r="I4" s="322"/>
       <c r="J4" s="323"/>
       <c r="K4" s="236" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="237"/>
       <c r="M4" s="324"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="295" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -3649,7 +3645,7 @@
       <c r="I5" s="296"/>
       <c r="J5" s="297"/>
       <c r="K5" s="298" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" s="299"/>
       <c r="M5" s="300"/>
@@ -3659,7 +3655,7 @@
       <c r="B6" s="284"/>
       <c r="C6" s="285"/>
       <c r="D6" s="304" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="305"/>
       <c r="F6" s="305"/>
@@ -3688,12 +3684,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="272" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="273"/>
       <c r="C8" s="274"/>
       <c r="D8" s="277" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="278"/>
       <c r="F8" s="278"/>
@@ -3722,7 +3718,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="272" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="273"/>
       <c r="C10" s="274"/>
@@ -3757,26 +3753,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="284"/>
       <c r="C12" s="285"/>
       <c r="D12" s="286" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="287"/>
       <c r="G12" s="287"/>
       <c r="H12" s="288"/>
       <c r="I12" s="286" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="285"/>
       <c r="K12" s="292" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L12" s="286" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="294"/>
     </row>
@@ -3800,7 +3796,7 @@
       <c r="B14" s="209"/>
       <c r="C14" s="254"/>
       <c r="D14" s="255" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="209"/>
       <c r="F14" s="209"/>
@@ -3817,7 +3813,7 @@
       <c r="B15" s="209"/>
       <c r="C15" s="254"/>
       <c r="D15" s="217" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="218"/>
       <c r="F15" s="218"/>
@@ -4001,7 +3997,7 @@
       <c r="B27" s="258"/>
       <c r="C27" s="259"/>
       <c r="D27" s="260" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="261"/>
       <c r="F27" s="261"/>
@@ -4018,19 +4014,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="241" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="215" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="243"/>
       <c r="F28" s="243"/>
       <c r="G28" s="243"/>
       <c r="H28" s="244"/>
       <c r="I28" s="245" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4040,7 +4036,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="242"/>
       <c r="B29" s="246" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="177"/>
       <c r="D29" s="243"/>
@@ -4050,7 +4046,7 @@
       <c r="H29" s="244"/>
       <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4059,7 +4055,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="247" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -4069,7 +4065,7 @@
       <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4078,7 +4074,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4088,7 +4084,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4141,11 +4137,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="250" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="227"/>
       <c r="C35" s="218" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="218"/>
       <c r="E35" s="218"/>
@@ -4153,11 +4149,11 @@
       <c r="G35" s="218"/>
       <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4179,11 +4175,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="251" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4191,11 +4187,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4217,11 +4213,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="250" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="227"/>
       <c r="C39" s="215" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="215"/>
       <c r="E39" s="215"/>
@@ -4229,11 +4225,11 @@
       <c r="G39" s="215"/>
       <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4255,11 +4251,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="236" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="237"/>
       <c r="C41" s="215" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="215"/>
       <c r="E41" s="215"/>
@@ -4267,11 +4263,11 @@
       <c r="G41" s="215"/>
       <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4308,10 +4304,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="238" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="239"/>
       <c r="D44" s="239"/>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="239"/>
       <c r="C45" s="239"/>
@@ -4336,7 +4332,7 @@
       <c r="F45" s="239"/>
       <c r="G45" s="240"/>
       <c r="H45" s="198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I45" s="239"/>
       <c r="J45" s="239"/>
@@ -4349,27 +4345,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="222" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="223"/>
       <c r="D46" s="223"/>
       <c r="E46" s="226" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" s="227"/>
       <c r="G46" s="228"/>
       <c r="H46" s="220" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I46" s="232" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J46" s="233"/>
       <c r="K46" s="234" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L46" s="210" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M46" s="211"/>
     </row>
@@ -4386,10 +4382,10 @@
       <c r="J47" s="233"/>
       <c r="K47" s="234"/>
       <c r="L47" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4401,20 +4397,20 @@
       <c r="F48" s="230"/>
       <c r="G48" s="231"/>
       <c r="H48" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I48" s="212" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J48" s="213"/>
       <c r="K48" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="57" t="s">
         <v>94</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4688,7 +4684,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="474" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="474"/>
       <c r="AD1" s="474"/>
@@ -4701,7 +4697,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="475" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="476"/>
       <c r="C3" s="476"/>
@@ -4730,7 +4726,7 @@
       <c r="Z3" s="476"/>
       <c r="AA3" s="477"/>
       <c r="AB3" s="478" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="479"/>
       <c r="AD3" s="479"/>
@@ -4740,7 +4736,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="481" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="482"/>
       <c r="C4" s="482"/>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="440" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="441"/>
       <c r="C5" s="441"/>
@@ -4806,7 +4802,7 @@
       <c r="Z5" s="441"/>
       <c r="AA5" s="442"/>
       <c r="AB5" s="456" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="457"/>
       <c r="AD5" s="457"/>
@@ -4843,7 +4839,7 @@
       <c r="Z6" s="441"/>
       <c r="AA6" s="442"/>
       <c r="AB6" s="459" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AC6" s="460"/>
       <c r="AD6" s="460"/>
@@ -4888,7 +4884,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="446" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="447"/>
       <c r="C8" s="448"/>
@@ -4933,14 +4929,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4949,13 +4945,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5006,7 +5002,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="446" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="447"/>
       <c r="C11" s="448"/>
@@ -5029,7 +5025,7 @@
       <c r="Q11" s="447"/>
       <c r="R11" s="447"/>
       <c r="S11" s="466" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T11" s="467"/>
       <c r="U11" s="467"/>
@@ -5040,7 +5036,7 @@
       <c r="Z11" s="467"/>
       <c r="AA11" s="468"/>
       <c r="AB11" s="469" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="469"/>
       <c r="AD11" s="469"/>
@@ -5087,7 +5083,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="428" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="429"/>
       <c r="C13" s="430"/>
@@ -5164,7 +5160,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="436" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="396"/>
       <c r="C15" s="396"/>
@@ -5183,21 +5179,21 @@
       <c r="P15" s="396"/>
       <c r="Q15" s="437"/>
       <c r="R15" s="395" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S15" s="438"/>
       <c r="T15" s="438"/>
       <c r="U15" s="438"/>
       <c r="V15" s="439"/>
       <c r="W15" s="395" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X15" s="396"/>
       <c r="Y15" s="396"/>
       <c r="Z15" s="396"/>
       <c r="AA15" s="437"/>
       <c r="AB15" s="395" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="396"/>
       <c r="AD15" s="396"/>
@@ -5245,7 +5241,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="218" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="218"/>
       <c r="D17" s="218"/>
@@ -5394,7 +5390,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5432,7 +5428,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5470,7 +5466,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5508,7 +5504,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5546,7 +5542,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5584,7 +5580,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5622,7 +5618,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5695,7 +5691,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="417" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="418"/>
       <c r="C29" s="418"/>
@@ -5737,10 +5733,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="423" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" s="423"/>
       <c r="D30" s="423"/>
@@ -5782,7 +5778,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5971,10 +5967,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6012,7 +6008,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="409" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="410"/>
       <c r="C37" s="410"/>
@@ -6032,21 +6028,21 @@
       <c r="Q37" s="410"/>
       <c r="R37" s="410"/>
       <c r="S37" s="410" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T37" s="410"/>
       <c r="U37" s="410"/>
       <c r="V37" s="410"/>
       <c r="W37" s="410"/>
       <c r="X37" s="411" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y37" s="411"/>
       <c r="Z37" s="411"/>
       <c r="AA37" s="411"/>
       <c r="AB37" s="411"/>
       <c r="AC37" s="412" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD37" s="412"/>
       <c r="AE37" s="412"/>
@@ -6131,7 +6127,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6168,10 +6164,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6190,10 +6186,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T41" s="398" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U41" s="398"/>
       <c r="V41" s="398"/>
@@ -6214,7 +6210,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6288,7 +6284,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6362,10 +6358,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6402,7 +6398,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6474,7 +6470,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="349" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B49" s="375"/>
       <c r="C49" s="375"/>
@@ -6494,7 +6490,7 @@
       <c r="Q49" s="340"/>
       <c r="R49" s="341"/>
       <c r="S49" s="349" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T49" s="350"/>
       <c r="U49" s="350"/>
@@ -6550,13 +6546,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="325" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B51" s="380"/>
       <c r="C51" s="380"/>
       <c r="D51" s="381"/>
       <c r="E51" s="383" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="384"/>
       <c r="G51" s="384"/>
@@ -6572,13 +6568,13 @@
       <c r="Q51" s="384"/>
       <c r="R51" s="385"/>
       <c r="S51" s="325" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T51" s="359"/>
       <c r="U51" s="359"/>
       <c r="V51" s="360"/>
       <c r="W51" s="389" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X51" s="390"/>
       <c r="Y51" s="390"/>
@@ -6630,13 +6626,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="325" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="359"/>
       <c r="C53" s="359"/>
       <c r="D53" s="360"/>
       <c r="E53" s="362" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F53" s="359"/>
       <c r="G53" s="359"/>
@@ -6652,13 +6648,13 @@
       <c r="Q53" s="359"/>
       <c r="R53" s="363"/>
       <c r="S53" s="325" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T53" s="359"/>
       <c r="U53" s="359"/>
       <c r="V53" s="360"/>
       <c r="W53" s="362" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X53" s="359"/>
       <c r="Y53" s="359"/>
@@ -6789,10 +6785,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6820,7 +6816,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -6831,7 +6827,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="349" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B58" s="350"/>
       <c r="C58" s="350"/>
@@ -6846,14 +6842,14 @@
       <c r="L58" s="340"/>
       <c r="M58" s="354"/>
       <c r="N58" s="355" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O58" s="356"/>
       <c r="P58" s="356"/>
       <c r="Q58" s="356"/>
       <c r="R58" s="357"/>
       <c r="S58" s="358" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T58" s="356"/>
       <c r="U58" s="356"/>
@@ -6909,7 +6905,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="325" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="326"/>
       <c r="C60" s="326"/>
@@ -6924,14 +6920,14 @@
       <c r="L60" s="326"/>
       <c r="M60" s="327"/>
       <c r="N60" s="333" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O60" s="334"/>
       <c r="P60" s="334"/>
       <c r="Q60" s="334"/>
       <c r="R60" s="335"/>
       <c r="S60" s="333" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T60" s="334"/>
       <c r="U60" s="334"/>
@@ -6989,7 +6985,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="344" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62" s="345"/>
       <c r="C62" s="345"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-08-26</t>
+    <t>2020-09-01</t>
   </si>
   <si>
     <t>Position:</t>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: SAMPLE 1</t>
+    <t>Purpose of Travel: SAMPLE 2</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,13 +102,13 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>title 2</t>
-  </si>
-  <si>
-    <t>2020-09-15</t>
-  </si>
-  <si>
-    <t>1:06 PM</t>
+    <t xml:space="preserve"> sample1</t>
+  </si>
+  <si>
+    <t>sample to Calamba</t>
+  </si>
+  <si>
+    <t>3:43 PM</t>
   </si>
   <si>
     <t>car</t>
@@ -132,7 +132,16 @@
     <t>Approved by:</t>
   </si>
   <si>
+    <t>_________________________________________________</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
+  </si>
+  <si>
+    <t>Chief,FAD</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -249,9 +258,6 @@
   </si>
   <si>
     <t>Printed Name:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>JORIELYN S. CUBIO</t>
@@ -477,7 +483,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -560,15 +566,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
@@ -604,6 +601,24 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -619,7 +634,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border/>
     <border>
       <left style="medium">
@@ -1031,6 +1046,63 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1042,74 +1114,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1195,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="491">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1796,21 +1800,6 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1826,16 +1815,16 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1910,19 +1899,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2051,63 +2040,63 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2117,7 +2106,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2126,7 +2115,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2135,7 +2124,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2159,13 +2148,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2186,13 +2175,13 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2204,39 +2193,39 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2279,7 +2268,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2288,7 +2277,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2342,7 +2331,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2354,7 +2343,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2372,7 +2361,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2381,7 +2370,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2423,7 +2412,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2435,7 +2424,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2504,7 +2493,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="59" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2519,19 +2508,19 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2540,7 +2529,7 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2594,28 +2583,28 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2627,7 +2616,7 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2648,7 +2637,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2660,14 +2649,11 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2987,10 +2973,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3139,13 +3125,13 @@
       <c r="C10" s="193"/>
       <c r="D10" s="193"/>
       <c r="E10" s="194"/>
-      <c r="F10" s="487" t="s">
+      <c r="F10" s="482" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="179"/>
       <c r="H10" s="179"/>
       <c r="I10" s="179"/>
-      <c r="J10" s="206"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
@@ -3157,11 +3143,11 @@
       </c>
       <c r="D11" s="193"/>
       <c r="E11" s="194"/>
-      <c r="F11" s="205"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="179"/>
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
-      <c r="J11" s="206"/>
+      <c r="J11" s="201"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3179,10 +3165,10 @@
       <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="208"/>
+      <c r="C13" s="203"/>
       <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
@@ -3226,25 +3212,25 @@
       <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="484" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="204"/>
+      <c r="B15" s="484"/>
+      <c r="C15" s="483"/>
+      <c r="D15" s="484"/>
+      <c r="E15" s="484"/>
+      <c r="F15" s="484"/>
+      <c r="G15" s="484"/>
+      <c r="H15" s="484"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="484"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
       <c r="A16" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="195" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="195">
-        <v>1</v>
       </c>
       <c r="C16" s="195"/>
       <c r="D16" s="172" t="s">
@@ -3270,142 +3256,124 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="489" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="489">
-        <v>2</v>
-      </c>
-      <c r="C17" s="488"/>
-      <c r="D17" s="489" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="489" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="490">
-        <v>10</v>
-      </c>
-      <c r="H17" s="490">
-        <v>3300</v>
-      </c>
-      <c r="I17" s="490" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="490">
-        <v>2210</v>
-      </c>
+      <c r="A17" s="486"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="490" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="485"/>
+      <c r="H17" s="485"/>
+      <c r="I17" s="485"/>
+      <c r="J17" s="487"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="492" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="496" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="491"/>
-      <c r="H18" s="491"/>
-      <c r="I18" s="491"/>
-      <c r="J18" s="493"/>
+      <c r="A18" s="111"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="488"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="111"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="E19" s="111"/>
       <c r="F19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="494"/>
+      <c r="J19" s="488"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="111"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" s="111"/>
+      <c r="A20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="489" t="s">
+        <v>35</v>
+      </c>
       <c r="F20"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="494"/>
+      <c r="J20" s="488"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="38" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="495" t="s">
-        <v>35</v>
+      <c r="E21" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="494"/>
+      <c r="J21" s="488"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="111"/>
-      <c r="F22"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="494"/>
+      <c r="E22" s="486"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="485"/>
+      <c r="H22" s="485"/>
+      <c r="I22" s="485"/>
+      <c r="J22" s="487"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="492"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="491"/>
-      <c r="H23" s="491"/>
-      <c r="I23" s="491"/>
-      <c r="J23" s="493"/>
+      <c r="E23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="488"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="E24" s="111"/>
       <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="494"/>
+      <c r="J24" s="488"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="111"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" s="111"/>
       <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="494"/>
+      <c r="J25" s="488"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="111"/>
@@ -3417,73 +3385,67 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="494"/>
+      <c r="J26" s="488"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="111"/>
+      <c r="A27" s="489" t="s">
+        <v>37</v>
+      </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27" s="111"/>
+      <c r="E27" s="489" t="s">
+        <v>35</v>
+      </c>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="494"/>
+      <c r="J27" s="488"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="111"/>
+      <c r="A28" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="495" t="s">
-        <v>35</v>
+      <c r="E28" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="494"/>
+      <c r="J28" s="488"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="111"/>
+      <c r="A29" s="248" t="s">
+        <v>40</v>
+      </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="20" t="s">
-        <v>37</v>
+      <c r="E29" s="248" t="s">
+        <v>41</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="494"/>
+      <c r="J29" s="488"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="111"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="253" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="494"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="492"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="492"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="491"/>
-      <c r="H31" s="491"/>
-      <c r="I31" s="491"/>
-      <c r="J31" s="493"/>
+      <c r="A30" s="486"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="486"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="485"/>
+      <c r="H30" s="485"/>
+      <c r="I30" s="485"/>
+      <c r="J30" s="487"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3509,11 +3471,15 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E27:J27"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A21:D25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3573,10 +3539,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="313" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="313"/>
+      <c r="L1" s="308" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3590,443 +3556,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="315" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
+      <c r="A3" s="310" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="313" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="321" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="236" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="237"/>
-      <c r="M4" s="324"/>
+      <c r="A4" s="316" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="231" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="232"/>
+      <c r="M4" s="319"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="295" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="300"/>
+      <c r="A5" s="290" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="293" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="294"/>
+      <c r="M5" s="295"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="304" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="306"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="299" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="301"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="301"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="309"/>
+      <c r="A7" s="296"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="304"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="272" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="277" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="279"/>
+      <c r="A8" s="267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="268"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="272" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="274"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="301"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="312"/>
+      <c r="A9" s="296"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="307"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="272" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="277" t="str">
+      <c r="A10" s="267" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="268"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="272" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="279"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="274"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="275"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="282"/>
+      <c r="A11" s="270"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="275"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="276"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="277"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="283" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="286" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="285"/>
-      <c r="K12" s="292" t="s">
+      <c r="A12" s="278" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="286" t="s">
+      <c r="B12" s="279"/>
+      <c r="C12" s="280"/>
+      <c r="D12" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="294"/>
+      <c r="E12" s="282"/>
+      <c r="F12" s="282"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="283"/>
+      <c r="I12" s="281" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="280"/>
+      <c r="K12" s="287" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="281" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="289"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="275"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="231"/>
+      <c r="A13" s="270"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="286"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="226"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="253"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="255" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="254"/>
+      <c r="A14" s="248"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="250" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="249"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="256"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="251"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="253"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="217" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="254"/>
+      <c r="A15" s="248"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="249"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="268">
+      <c r="L15" s="263">
         <v>4981</v>
       </c>
-      <c r="M15" s="269"/>
+      <c r="M15" s="264"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="253"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="254"/>
+      <c r="A16" s="248"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="249"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="256"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="251"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="253"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="254"/>
+      <c r="A17" s="248"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="249"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="266"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="253"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
+      <c r="A18" s="248"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="256"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="251"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="253"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="254"/>
+      <c r="A19" s="248"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="249"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="256"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="251"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="253"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="254"/>
+      <c r="A20" s="248"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="249"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="256"/>
+      <c r="L20" s="250"/>
+      <c r="M20" s="251"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="253"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="254"/>
+      <c r="A21" s="248"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="250"/>
+      <c r="J21" s="249"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="256"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="251"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="253"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="254"/>
+      <c r="A22" s="248"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="250"/>
+      <c r="J22" s="249"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="256"/>
+      <c r="L22" s="250"/>
+      <c r="M22" s="251"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="253"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="254"/>
+      <c r="A23" s="248"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="249"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="256"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="251"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="253"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="254"/>
+      <c r="A24" s="248"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="249"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="256"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="251"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="253"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="254"/>
+      <c r="A25" s="248"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="249"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="256"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="251"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="253"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="254"/>
+      <c r="A26" s="248"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="249"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="256"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="251"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="257"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="259"/>
+      <c r="A27" s="252"/>
+      <c r="B27" s="253"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="255" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="254"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="264" t="str">
+      <c r="L27" s="259" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="265"/>
+      <c r="M27" s="260"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="241" t="s">
-        <v>58</v>
+      <c r="A28" s="236" t="s">
+        <v>61</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="245" t="s">
-        <v>60</v>
+      <c r="D28" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="240" t="s">
+        <v>63</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4034,19 +4000,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="242"/>
-      <c r="B29" s="246" t="s">
-        <v>61</v>
+      <c r="A29" s="237"/>
+      <c r="B29" s="241" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="177"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="245"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="240"/>
       <c r="J29" s="36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4054,27 +4020,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="247" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="248"/>
+      <c r="B30" s="242" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="243"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="249"/>
+      <c r="A31" s="244"/>
       <c r="B31" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4084,14 +4050,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="249"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4136,24 +4102,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="250" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="227"/>
-      <c r="C35" s="218" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="235"/>
+      <c r="A35" s="245" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="222"/>
+      <c r="C35" s="213" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="230"/>
       <c r="I35" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4174,12 +4140,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="251" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="252"/>
+      <c r="A37" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="247"/>
       <c r="C37" s="14" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4187,11 +4153,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4212,24 +4178,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="250" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="215" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
+      <c r="A39" s="245" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="222"/>
+      <c r="C39" s="210" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="210"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
       <c r="I39" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4237,37 +4203,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="213"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="235"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="230"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="236" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="237"/>
-      <c r="C41" s="215" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
+      <c r="A41" s="231" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="232"/>
+      <c r="C41" s="210" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="211"/>
       <c r="I41" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4304,113 +4270,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="240"/>
+        <v>82</v>
+      </c>
+      <c r="B44" s="233" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="234"/>
+      <c r="I44" s="234"/>
+      <c r="J44" s="234"/>
+      <c r="K44" s="234"/>
+      <c r="L44" s="234"/>
+      <c r="M44" s="235"/>
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="240"/>
+        <v>84</v>
+      </c>
+      <c r="B45" s="234"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="234"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="235"/>
       <c r="H45" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="234"/>
+      <c r="J45" s="234"/>
+      <c r="K45" s="234"/>
+      <c r="L45" s="234"/>
+      <c r="M45" s="235"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A46" s="215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="240"/>
-    </row>
-    <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="222" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="226" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="220" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="232" t="s">
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="233"/>
-      <c r="K46" s="234" t="s">
+      <c r="F46" s="222"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="L46" s="210" t="s">
+      <c r="I46" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="M46" s="211"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="229" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="205" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" s="206"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="220"/>
-      <c r="B47" s="222"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="234"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="217"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="218"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="222"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="227"/>
+      <c r="J47" s="228"/>
+      <c r="K47" s="229"/>
       <c r="L47" s="52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="221"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="231"/>
+      <c r="A48" s="216"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="225"/>
+      <c r="G48" s="226"/>
       <c r="H48" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48" s="212" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="213"/>
+        <v>92</v>
+      </c>
+      <c r="I48" s="207" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="208"/>
       <c r="K48" s="55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4448,9 +4414,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="216"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="211"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4683,260 +4649,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="474" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC1" s="474"/>
-      <c r="AD1" s="474"/>
-      <c r="AE1" s="474"/>
-      <c r="AF1" s="474"/>
-      <c r="AG1" s="474"/>
+      <c r="AB1" s="469" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="469"/>
+      <c r="AD1" s="469"/>
+      <c r="AE1" s="469"/>
+      <c r="AF1" s="469"/>
+      <c r="AG1" s="469"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="475" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="476"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="476"/>
-      <c r="U3" s="476"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="477"/>
-      <c r="AB3" s="478" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="479"/>
-      <c r="AG3" s="480"/>
+      <c r="A3" s="470" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="471"/>
+      <c r="C3" s="471"/>
+      <c r="D3" s="471"/>
+      <c r="E3" s="471"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
+      <c r="I3" s="471"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="471"/>
+      <c r="L3" s="471"/>
+      <c r="M3" s="471"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="471"/>
+      <c r="P3" s="471"/>
+      <c r="Q3" s="471"/>
+      <c r="R3" s="471"/>
+      <c r="S3" s="471"/>
+      <c r="T3" s="471"/>
+      <c r="U3" s="471"/>
+      <c r="V3" s="471"/>
+      <c r="W3" s="471"/>
+      <c r="X3" s="471"/>
+      <c r="Y3" s="471"/>
+      <c r="Z3" s="471"/>
+      <c r="AA3" s="472"/>
+      <c r="AB3" s="473" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="474"/>
+      <c r="AD3" s="474"/>
+      <c r="AE3" s="474"/>
+      <c r="AF3" s="474"/>
+      <c r="AG3" s="475"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="481" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
-      <c r="Q4" s="482"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="482"/>
-      <c r="T4" s="482"/>
-      <c r="U4" s="482"/>
-      <c r="V4" s="482"/>
-      <c r="W4" s="482"/>
-      <c r="X4" s="482"/>
-      <c r="Y4" s="482"/>
-      <c r="Z4" s="482"/>
-      <c r="AA4" s="483"/>
-      <c r="AB4" s="484"/>
-      <c r="AC4" s="485"/>
-      <c r="AD4" s="485"/>
-      <c r="AE4" s="485"/>
-      <c r="AF4" s="485"/>
-      <c r="AG4" s="486"/>
+      <c r="A4" s="476" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="477"/>
+      <c r="C4" s="477"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="477"/>
+      <c r="H4" s="477"/>
+      <c r="I4" s="477"/>
+      <c r="J4" s="477"/>
+      <c r="K4" s="477"/>
+      <c r="L4" s="477"/>
+      <c r="M4" s="477"/>
+      <c r="N4" s="477"/>
+      <c r="O4" s="477"/>
+      <c r="P4" s="477"/>
+      <c r="Q4" s="477"/>
+      <c r="R4" s="477"/>
+      <c r="S4" s="477"/>
+      <c r="T4" s="477"/>
+      <c r="U4" s="477"/>
+      <c r="V4" s="477"/>
+      <c r="W4" s="477"/>
+      <c r="X4" s="477"/>
+      <c r="Y4" s="477"/>
+      <c r="Z4" s="477"/>
+      <c r="AA4" s="478"/>
+      <c r="AB4" s="479"/>
+      <c r="AC4" s="480"/>
+      <c r="AD4" s="480"/>
+      <c r="AE4" s="480"/>
+      <c r="AF4" s="480"/>
+      <c r="AG4" s="481"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="440" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441"/>
-      <c r="P5" s="441"/>
-      <c r="Q5" s="441"/>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="U5" s="441"/>
-      <c r="V5" s="441"/>
-      <c r="W5" s="441"/>
-      <c r="X5" s="441"/>
-      <c r="Y5" s="441"/>
-      <c r="Z5" s="441"/>
-      <c r="AA5" s="442"/>
-      <c r="AB5" s="456" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC5" s="457"/>
-      <c r="AD5" s="457"/>
-      <c r="AE5" s="457"/>
-      <c r="AF5" s="457"/>
-      <c r="AG5" s="458"/>
+      <c r="A5" s="435" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="436"/>
+      <c r="C5" s="436"/>
+      <c r="D5" s="436"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="436"/>
+      <c r="G5" s="436"/>
+      <c r="H5" s="436"/>
+      <c r="I5" s="436"/>
+      <c r="J5" s="436"/>
+      <c r="K5" s="436"/>
+      <c r="L5" s="436"/>
+      <c r="M5" s="436"/>
+      <c r="N5" s="436"/>
+      <c r="O5" s="436"/>
+      <c r="P5" s="436"/>
+      <c r="Q5" s="436"/>
+      <c r="R5" s="436"/>
+      <c r="S5" s="436"/>
+      <c r="T5" s="436"/>
+      <c r="U5" s="436"/>
+      <c r="V5" s="436"/>
+      <c r="W5" s="436"/>
+      <c r="X5" s="436"/>
+      <c r="Y5" s="436"/>
+      <c r="Z5" s="436"/>
+      <c r="AA5" s="437"/>
+      <c r="AB5" s="451" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="452"/>
+      <c r="AD5" s="452"/>
+      <c r="AE5" s="452"/>
+      <c r="AF5" s="452"/>
+      <c r="AG5" s="453"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="440"/>
-      <c r="B6" s="441"/>
-      <c r="C6" s="441"/>
-      <c r="D6" s="441"/>
-      <c r="E6" s="441"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="441"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="441"/>
-      <c r="J6" s="441"/>
-      <c r="K6" s="441"/>
-      <c r="L6" s="441"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="441"/>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="U6" s="441"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="441"/>
-      <c r="X6" s="441"/>
-      <c r="Y6" s="441"/>
-      <c r="Z6" s="441"/>
-      <c r="AA6" s="442"/>
-      <c r="AB6" s="459" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC6" s="460"/>
-      <c r="AD6" s="460"/>
-      <c r="AE6" s="460"/>
-      <c r="AF6" s="460"/>
-      <c r="AG6" s="461"/>
+      <c r="A6" s="435"/>
+      <c r="B6" s="436"/>
+      <c r="C6" s="436"/>
+      <c r="D6" s="436"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="436"/>
+      <c r="G6" s="436"/>
+      <c r="H6" s="436"/>
+      <c r="I6" s="436"/>
+      <c r="J6" s="436"/>
+      <c r="K6" s="436"/>
+      <c r="L6" s="436"/>
+      <c r="M6" s="436"/>
+      <c r="N6" s="436"/>
+      <c r="O6" s="436"/>
+      <c r="P6" s="436"/>
+      <c r="Q6" s="436"/>
+      <c r="R6" s="436"/>
+      <c r="S6" s="436"/>
+      <c r="T6" s="436"/>
+      <c r="U6" s="436"/>
+      <c r="V6" s="436"/>
+      <c r="W6" s="436"/>
+      <c r="X6" s="436"/>
+      <c r="Y6" s="436"/>
+      <c r="Z6" s="436"/>
+      <c r="AA6" s="437"/>
+      <c r="AB6" s="454" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC6" s="455"/>
+      <c r="AD6" s="455"/>
+      <c r="AE6" s="455"/>
+      <c r="AF6" s="455"/>
+      <c r="AG6" s="456"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="443"/>
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="444"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="444"/>
-      <c r="N7" s="444"/>
-      <c r="O7" s="444"/>
-      <c r="P7" s="444"/>
-      <c r="Q7" s="444"/>
-      <c r="R7" s="444"/>
-      <c r="S7" s="444"/>
-      <c r="T7" s="444"/>
-      <c r="U7" s="444"/>
-      <c r="V7" s="444"/>
-      <c r="W7" s="444"/>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="444"/>
-      <c r="Z7" s="444"/>
-      <c r="AA7" s="445"/>
-      <c r="AB7" s="462"/>
-      <c r="AC7" s="462"/>
-      <c r="AD7" s="462"/>
-      <c r="AE7" s="462"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="463"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="439"/>
+      <c r="C7" s="439"/>
+      <c r="D7" s="439"/>
+      <c r="E7" s="439"/>
+      <c r="F7" s="439"/>
+      <c r="G7" s="439"/>
+      <c r="H7" s="439"/>
+      <c r="I7" s="439"/>
+      <c r="J7" s="439"/>
+      <c r="K7" s="439"/>
+      <c r="L7" s="439"/>
+      <c r="M7" s="439"/>
+      <c r="N7" s="439"/>
+      <c r="O7" s="439"/>
+      <c r="P7" s="439"/>
+      <c r="Q7" s="439"/>
+      <c r="R7" s="439"/>
+      <c r="S7" s="439"/>
+      <c r="T7" s="439"/>
+      <c r="U7" s="439"/>
+      <c r="V7" s="439"/>
+      <c r="W7" s="439"/>
+      <c r="X7" s="439"/>
+      <c r="Y7" s="439"/>
+      <c r="Z7" s="439"/>
+      <c r="AA7" s="440"/>
+      <c r="AB7" s="457"/>
+      <c r="AC7" s="457"/>
+      <c r="AD7" s="457"/>
+      <c r="AE7" s="457"/>
+      <c r="AF7" s="457"/>
+      <c r="AG7" s="458"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="446" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="447"/>
-      <c r="C8" s="448"/>
+      <c r="A8" s="441" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="442"/>
+      <c r="C8" s="443"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="455"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="348"/>
+      <c r="E8" s="450"/>
+      <c r="F8" s="342"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="342"/>
+      <c r="N8" s="342"/>
+      <c r="O8" s="342"/>
+      <c r="P8" s="342"/>
+      <c r="Q8" s="342"/>
+      <c r="R8" s="342"/>
+      <c r="S8" s="342"/>
+      <c r="T8" s="342"/>
+      <c r="U8" s="342"/>
+      <c r="V8" s="342"/>
+      <c r="W8" s="342"/>
+      <c r="X8" s="342"/>
+      <c r="Y8" s="342"/>
+      <c r="Z8" s="342"/>
+      <c r="AA8" s="342"/>
+      <c r="AB8" s="342"/>
+      <c r="AC8" s="342"/>
+      <c r="AD8" s="342"/>
+      <c r="AE8" s="342"/>
+      <c r="AF8" s="342"/>
+      <c r="AG8" s="343"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="449"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="451"/>
+      <c r="A9" s="444"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="446"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4945,13 +4911,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4965,26 +4931,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="452"/>
-      <c r="B10" s="453"/>
-      <c r="C10" s="454"/>
+      <c r="A10" s="447"/>
+      <c r="B10" s="448"/>
+      <c r="C10" s="449"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="342"/>
-      <c r="K10" s="342"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="342"/>
+      <c r="J10" s="337"/>
+      <c r="K10" s="337"/>
+      <c r="L10" s="337"/>
+      <c r="M10" s="337"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="342"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="342"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="340"/>
+      <c r="O10" s="337"/>
+      <c r="P10" s="337"/>
+      <c r="Q10" s="337"/>
+      <c r="R10" s="337"/>
+      <c r="S10" s="335"/>
+      <c r="T10" s="335"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -5001,110 +4967,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="446" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="A11" s="441" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="442"/>
+      <c r="C11" s="443"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="464" t="str">
+      <c r="E11" s="459" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="447"/>
-      <c r="Q11" s="447"/>
-      <c r="R11" s="447"/>
-      <c r="S11" s="466" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" s="467"/>
-      <c r="U11" s="467"/>
-      <c r="V11" s="467"/>
-      <c r="W11" s="467"/>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="467"/>
-      <c r="Z11" s="467"/>
-      <c r="AA11" s="468"/>
-      <c r="AB11" s="469" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC11" s="469"/>
-      <c r="AD11" s="469"/>
-      <c r="AE11" s="469"/>
-      <c r="AF11" s="469"/>
-      <c r="AG11" s="470"/>
+      <c r="F11" s="442"/>
+      <c r="G11" s="442"/>
+      <c r="H11" s="442"/>
+      <c r="I11" s="442"/>
+      <c r="J11" s="442"/>
+      <c r="K11" s="442"/>
+      <c r="L11" s="442"/>
+      <c r="M11" s="442"/>
+      <c r="N11" s="442"/>
+      <c r="O11" s="442"/>
+      <c r="P11" s="442"/>
+      <c r="Q11" s="442"/>
+      <c r="R11" s="442"/>
+      <c r="S11" s="461" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" s="462"/>
+      <c r="U11" s="462"/>
+      <c r="V11" s="462"/>
+      <c r="W11" s="462"/>
+      <c r="X11" s="462"/>
+      <c r="Y11" s="462"/>
+      <c r="Z11" s="462"/>
+      <c r="AA11" s="463"/>
+      <c r="AB11" s="464" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="464"/>
+      <c r="AD11" s="464"/>
+      <c r="AE11" s="464"/>
+      <c r="AF11" s="464"/>
+      <c r="AG11" s="465"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="449"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="451"/>
+      <c r="A12" s="444"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="446"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="450"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="450"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="450"/>
-      <c r="O12" s="450"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="450"/>
-      <c r="S12" s="471"/>
-      <c r="T12" s="472"/>
-      <c r="U12" s="472"/>
-      <c r="V12" s="472"/>
-      <c r="W12" s="472"/>
-      <c r="X12" s="472"/>
-      <c r="Y12" s="472"/>
-      <c r="Z12" s="472"/>
-      <c r="AA12" s="473"/>
-      <c r="AB12" s="340"/>
-      <c r="AC12" s="340"/>
-      <c r="AD12" s="340"/>
-      <c r="AE12" s="340"/>
-      <c r="AF12" s="340"/>
-      <c r="AG12" s="341"/>
+      <c r="E12" s="460"/>
+      <c r="F12" s="445"/>
+      <c r="G12" s="445"/>
+      <c r="H12" s="445"/>
+      <c r="I12" s="445"/>
+      <c r="J12" s="445"/>
+      <c r="K12" s="445"/>
+      <c r="L12" s="445"/>
+      <c r="M12" s="445"/>
+      <c r="N12" s="445"/>
+      <c r="O12" s="445"/>
+      <c r="P12" s="445"/>
+      <c r="Q12" s="445"/>
+      <c r="R12" s="445"/>
+      <c r="S12" s="466"/>
+      <c r="T12" s="467"/>
+      <c r="U12" s="467"/>
+      <c r="V12" s="467"/>
+      <c r="W12" s="467"/>
+      <c r="X12" s="467"/>
+      <c r="Y12" s="467"/>
+      <c r="Z12" s="467"/>
+      <c r="AA12" s="468"/>
+      <c r="AB12" s="335"/>
+      <c r="AC12" s="335"/>
+      <c r="AD12" s="335"/>
+      <c r="AE12" s="335"/>
+      <c r="AF12" s="335"/>
+      <c r="AG12" s="336"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="428" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
+      <c r="A13" s="423" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="424"/>
+      <c r="C13" s="425"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="434" t="str">
+      <c r="E13" s="429" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="429"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
-      <c r="L13" s="429"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
-      <c r="P13" s="429"/>
-      <c r="Q13" s="429"/>
-      <c r="R13" s="429"/>
+      <c r="F13" s="424"/>
+      <c r="G13" s="424"/>
+      <c r="H13" s="424"/>
+      <c r="I13" s="424"/>
+      <c r="J13" s="424"/>
+      <c r="K13" s="424"/>
+      <c r="L13" s="424"/>
+      <c r="M13" s="424"/>
+      <c r="N13" s="424"/>
+      <c r="O13" s="424"/>
+      <c r="P13" s="424"/>
+      <c r="Q13" s="424"/>
+      <c r="R13" s="424"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5123,24 +5089,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="431"/>
-      <c r="B14" s="432"/>
-      <c r="C14" s="433"/>
+      <c r="A14" s="426"/>
+      <c r="B14" s="427"/>
+      <c r="C14" s="428"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="432"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="432"/>
-      <c r="J14" s="432"/>
-      <c r="K14" s="432"/>
-      <c r="L14" s="432"/>
-      <c r="M14" s="432"/>
-      <c r="N14" s="432"/>
-      <c r="O14" s="432"/>
-      <c r="P14" s="432"/>
-      <c r="Q14" s="432"/>
-      <c r="R14" s="432"/>
+      <c r="E14" s="430"/>
+      <c r="F14" s="427"/>
+      <c r="G14" s="427"/>
+      <c r="H14" s="427"/>
+      <c r="I14" s="427"/>
+      <c r="J14" s="427"/>
+      <c r="K14" s="427"/>
+      <c r="L14" s="427"/>
+      <c r="M14" s="427"/>
+      <c r="N14" s="427"/>
+      <c r="O14" s="427"/>
+      <c r="P14" s="427"/>
+      <c r="Q14" s="427"/>
+      <c r="R14" s="427"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5159,47 +5125,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="436" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="396"/>
-      <c r="Q15" s="437"/>
-      <c r="R15" s="395" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="438"/>
-      <c r="T15" s="438"/>
-      <c r="U15" s="438"/>
-      <c r="V15" s="439"/>
-      <c r="W15" s="395" t="s">
-        <v>52</v>
-      </c>
-      <c r="X15" s="396"/>
-      <c r="Y15" s="396"/>
-      <c r="Z15" s="396"/>
-      <c r="AA15" s="437"/>
-      <c r="AB15" s="395" t="s">
+      <c r="A15" s="431" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="396"/>
-      <c r="AD15" s="396"/>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="396"/>
-      <c r="AG15" s="397"/>
+      <c r="B15" s="391"/>
+      <c r="C15" s="391"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="391"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="391"/>
+      <c r="J15" s="391"/>
+      <c r="K15" s="391"/>
+      <c r="L15" s="391"/>
+      <c r="M15" s="391"/>
+      <c r="N15" s="391"/>
+      <c r="O15" s="391"/>
+      <c r="P15" s="391"/>
+      <c r="Q15" s="432"/>
+      <c r="R15" s="390" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="433"/>
+      <c r="T15" s="433"/>
+      <c r="U15" s="433"/>
+      <c r="V15" s="434"/>
+      <c r="W15" s="390" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" s="391"/>
+      <c r="Y15" s="391"/>
+      <c r="Z15" s="391"/>
+      <c r="AA15" s="432"/>
+      <c r="AB15" s="390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="391"/>
+      <c r="AD15" s="391"/>
+      <c r="AE15" s="391"/>
+      <c r="AF15" s="391"/>
+      <c r="AG15" s="392"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5240,23 +5206,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="218" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
+      <c r="B17" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="213"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5268,34 +5234,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="414" t="str">
+      <c r="AB17" s="409" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="415"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
+      <c r="AC17" s="410"/>
+      <c r="AD17" s="410"/>
+      <c r="AE17" s="410"/>
+      <c r="AF17" s="410"/>
+      <c r="AG17" s="411"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="213"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5317,21 +5283,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5390,7 +5356,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5428,7 +5394,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5466,7 +5432,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5504,7 +5470,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5542,7 +5508,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5580,7 +5546,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5618,7 +5584,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5690,25 +5656,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="417" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="418"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="418"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="418"/>
-      <c r="L29" s="418"/>
-      <c r="M29" s="418"/>
-      <c r="N29" s="418"/>
-      <c r="O29" s="418"/>
-      <c r="P29" s="418"/>
-      <c r="Q29" s="419"/>
+      <c r="A29" s="412" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="413"/>
+      <c r="C29" s="413"/>
+      <c r="D29" s="413"/>
+      <c r="E29" s="413"/>
+      <c r="F29" s="413"/>
+      <c r="G29" s="413"/>
+      <c r="H29" s="413"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
+      <c r="K29" s="413"/>
+      <c r="L29" s="413"/>
+      <c r="M29" s="413"/>
+      <c r="N29" s="413"/>
+      <c r="O29" s="413"/>
+      <c r="P29" s="413"/>
+      <c r="Q29" s="414"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5719,56 +5685,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="420" t="str">
+      <c r="AB29" s="415" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="421"/>
-      <c r="AD29" s="421"/>
-      <c r="AE29" s="421"/>
-      <c r="AF29" s="421"/>
-      <c r="AG29" s="422"/>
+      <c r="AC29" s="416"/>
+      <c r="AD29" s="416"/>
+      <c r="AE29" s="416"/>
+      <c r="AF29" s="416"/>
+      <c r="AG29" s="417"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="423" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="423"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="423"/>
-      <c r="N30" s="423"/>
-      <c r="O30" s="423"/>
-      <c r="P30" s="423"/>
-      <c r="Q30" s="423"/>
-      <c r="R30" s="423"/>
-      <c r="S30" s="423"/>
-      <c r="T30" s="423"/>
-      <c r="U30" s="423"/>
-      <c r="V30" s="423"/>
-      <c r="W30" s="423"/>
-      <c r="X30" s="423"/>
-      <c r="Y30" s="423"/>
-      <c r="Z30" s="423"/>
-      <c r="AA30" s="423"/>
-      <c r="AB30" s="424"/>
-      <c r="AC30" s="424"/>
-      <c r="AD30" s="424"/>
-      <c r="AE30" s="424"/>
-      <c r="AF30" s="424"/>
-      <c r="AG30" s="425"/>
+        <v>61</v>
+      </c>
+      <c r="B30" s="418" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="418"/>
+      <c r="D30" s="418"/>
+      <c r="E30" s="418"/>
+      <c r="F30" s="418"/>
+      <c r="G30" s="418"/>
+      <c r="H30" s="418"/>
+      <c r="I30" s="418"/>
+      <c r="J30" s="418"/>
+      <c r="K30" s="418"/>
+      <c r="L30" s="418"/>
+      <c r="M30" s="418"/>
+      <c r="N30" s="418"/>
+      <c r="O30" s="418"/>
+      <c r="P30" s="418"/>
+      <c r="Q30" s="418"/>
+      <c r="R30" s="418"/>
+      <c r="S30" s="418"/>
+      <c r="T30" s="418"/>
+      <c r="U30" s="418"/>
+      <c r="V30" s="418"/>
+      <c r="W30" s="418"/>
+      <c r="X30" s="418"/>
+      <c r="Y30" s="418"/>
+      <c r="Z30" s="418"/>
+      <c r="AA30" s="418"/>
+      <c r="AB30" s="419"/>
+      <c r="AC30" s="419"/>
+      <c r="AD30" s="419"/>
+      <c r="AE30" s="419"/>
+      <c r="AF30" s="419"/>
+      <c r="AG30" s="420"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5778,7 +5744,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5813,80 +5779,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="426" t="str">
+      <c r="B32" s="421" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="415"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="415"/>
-      <c r="L32" s="415"/>
-      <c r="M32" s="415"/>
-      <c r="N32" s="415"/>
-      <c r="O32" s="415"/>
-      <c r="P32" s="415"/>
-      <c r="Q32" s="415"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="415"/>
-      <c r="AF32" s="415"/>
+      <c r="C32" s="410"/>
+      <c r="D32" s="410"/>
+      <c r="E32" s="410"/>
+      <c r="F32" s="410"/>
+      <c r="G32" s="410"/>
+      <c r="H32" s="410"/>
+      <c r="I32" s="410"/>
+      <c r="J32" s="410"/>
+      <c r="K32" s="410"/>
+      <c r="L32" s="410"/>
+      <c r="M32" s="410"/>
+      <c r="N32" s="410"/>
+      <c r="O32" s="410"/>
+      <c r="P32" s="410"/>
+      <c r="Q32" s="410"/>
+      <c r="R32" s="410"/>
+      <c r="S32" s="410"/>
+      <c r="T32" s="410"/>
+      <c r="U32" s="410"/>
+      <c r="V32" s="410"/>
+      <c r="W32" s="410"/>
+      <c r="X32" s="410"/>
+      <c r="Y32" s="410"/>
+      <c r="Z32" s="410"/>
+      <c r="AA32" s="410"/>
+      <c r="AB32" s="410"/>
+      <c r="AC32" s="410"/>
+      <c r="AD32" s="410"/>
+      <c r="AE32" s="410"/>
+      <c r="AF32" s="410"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="427" t="str">
+      <c r="B33" s="422" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="427"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="427"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="427"/>
-      <c r="L33" s="427"/>
-      <c r="M33" s="427"/>
-      <c r="N33" s="427"/>
-      <c r="O33" s="427"/>
-      <c r="P33" s="427"/>
-      <c r="Q33" s="427"/>
-      <c r="R33" s="427"/>
-      <c r="S33" s="427"/>
-      <c r="T33" s="427"/>
-      <c r="U33" s="427"/>
-      <c r="V33" s="427"/>
-      <c r="W33" s="427"/>
-      <c r="X33" s="427"/>
-      <c r="Y33" s="427"/>
-      <c r="Z33" s="427"/>
-      <c r="AA33" s="427"/>
-      <c r="AB33" s="427"/>
-      <c r="AC33" s="427"/>
-      <c r="AD33" s="427"/>
-      <c r="AE33" s="427"/>
-      <c r="AF33" s="427"/>
+      <c r="C33" s="422"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="422"/>
+      <c r="F33" s="422"/>
+      <c r="G33" s="422"/>
+      <c r="H33" s="422"/>
+      <c r="I33" s="422"/>
+      <c r="J33" s="422"/>
+      <c r="K33" s="422"/>
+      <c r="L33" s="422"/>
+      <c r="M33" s="422"/>
+      <c r="N33" s="422"/>
+      <c r="O33" s="422"/>
+      <c r="P33" s="422"/>
+      <c r="Q33" s="422"/>
+      <c r="R33" s="422"/>
+      <c r="S33" s="422"/>
+      <c r="T33" s="422"/>
+      <c r="U33" s="422"/>
+      <c r="V33" s="422"/>
+      <c r="W33" s="422"/>
+      <c r="X33" s="422"/>
+      <c r="Y33" s="422"/>
+      <c r="Z33" s="422"/>
+      <c r="AA33" s="422"/>
+      <c r="AB33" s="422"/>
+      <c r="AC33" s="422"/>
+      <c r="AD33" s="422"/>
+      <c r="AE33" s="422"/>
+      <c r="AF33" s="422"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5903,19 +5869,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="427"/>
-      <c r="M34" s="427"/>
-      <c r="N34" s="427"/>
-      <c r="O34" s="427"/>
-      <c r="P34" s="427"/>
-      <c r="Q34" s="427"/>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
-      <c r="X34" s="427"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="422"/>
+      <c r="N34" s="422"/>
+      <c r="O34" s="422"/>
+      <c r="P34" s="422"/>
+      <c r="Q34" s="422"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
+      <c r="X34" s="422"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5940,19 +5906,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
-      <c r="P35" s="427"/>
-      <c r="Q35" s="427"/>
-      <c r="R35" s="427"/>
-      <c r="S35" s="427"/>
-      <c r="T35" s="427"/>
-      <c r="U35" s="427"/>
-      <c r="V35" s="427"/>
-      <c r="W35" s="427"/>
-      <c r="X35" s="427"/>
+      <c r="L35" s="422"/>
+      <c r="M35" s="422"/>
+      <c r="N35" s="422"/>
+      <c r="O35" s="422"/>
+      <c r="P35" s="422"/>
+      <c r="Q35" s="422"/>
+      <c r="R35" s="422"/>
+      <c r="S35" s="422"/>
+      <c r="T35" s="422"/>
+      <c r="U35" s="422"/>
+      <c r="V35" s="422"/>
+      <c r="W35" s="422"/>
+      <c r="X35" s="422"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5967,10 +5933,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6007,47 +5973,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="409" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="410"/>
-      <c r="C37" s="410"/>
-      <c r="D37" s="410"/>
-      <c r="E37" s="410"/>
-      <c r="F37" s="410"/>
-      <c r="G37" s="410"/>
-      <c r="H37" s="410"/>
-      <c r="I37" s="410"/>
-      <c r="J37" s="410"/>
-      <c r="K37" s="410"/>
-      <c r="L37" s="410"/>
-      <c r="M37" s="410"/>
-      <c r="N37" s="410"/>
-      <c r="O37" s="410"/>
-      <c r="P37" s="410"/>
-      <c r="Q37" s="410"/>
-      <c r="R37" s="410"/>
-      <c r="S37" s="410" t="s">
-        <v>121</v>
-      </c>
-      <c r="T37" s="410"/>
-      <c r="U37" s="410"/>
-      <c r="V37" s="410"/>
-      <c r="W37" s="410"/>
-      <c r="X37" s="411" t="s">
+      <c r="A37" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y37" s="411"/>
-      <c r="Z37" s="411"/>
-      <c r="AA37" s="411"/>
-      <c r="AB37" s="411"/>
-      <c r="AC37" s="412" t="s">
+      <c r="B37" s="405"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="405"/>
+      <c r="E37" s="405"/>
+      <c r="F37" s="405"/>
+      <c r="G37" s="405"/>
+      <c r="H37" s="405"/>
+      <c r="I37" s="405"/>
+      <c r="J37" s="405"/>
+      <c r="K37" s="405"/>
+      <c r="L37" s="405"/>
+      <c r="M37" s="405"/>
+      <c r="N37" s="405"/>
+      <c r="O37" s="405"/>
+      <c r="P37" s="405"/>
+      <c r="Q37" s="405"/>
+      <c r="R37" s="405"/>
+      <c r="S37" s="405" t="s">
         <v>123</v>
       </c>
-      <c r="AD37" s="412"/>
-      <c r="AE37" s="412"/>
-      <c r="AF37" s="412"/>
-      <c r="AG37" s="413"/>
+      <c r="T37" s="405"/>
+      <c r="U37" s="405"/>
+      <c r="V37" s="405"/>
+      <c r="W37" s="405"/>
+      <c r="X37" s="406" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y37" s="406"/>
+      <c r="Z37" s="406"/>
+      <c r="AA37" s="406"/>
+      <c r="AB37" s="406"/>
+      <c r="AC37" s="407" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD37" s="407"/>
+      <c r="AE37" s="407"/>
+      <c r="AF37" s="407"/>
+      <c r="AG37" s="408"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6127,7 +6093,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6164,10 +6130,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6186,21 +6152,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="T41" s="398" t="s">
-        <v>126</v>
-      </c>
-      <c r="U41" s="398"/>
-      <c r="V41" s="398"/>
-      <c r="W41" s="398"/>
-      <c r="X41" s="398"/>
-      <c r="Y41" s="398"/>
-      <c r="Z41" s="398"/>
-      <c r="AA41" s="398"/>
-      <c r="AB41" s="398"/>
-      <c r="AC41" s="398"/>
-      <c r="AD41" s="398"/>
+        <v>127</v>
+      </c>
+      <c r="T41" s="393" t="s">
+        <v>128</v>
+      </c>
+      <c r="U41" s="393"/>
+      <c r="V41" s="393"/>
+      <c r="W41" s="393"/>
+      <c r="X41" s="393"/>
+      <c r="Y41" s="393"/>
+      <c r="Z41" s="393"/>
+      <c r="AA41" s="393"/>
+      <c r="AB41" s="393"/>
+      <c r="AC41" s="393"/>
+      <c r="AD41" s="393"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6210,7 +6176,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6227,31 +6193,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="399"/>
-      <c r="T42" s="400"/>
-      <c r="U42" s="400"/>
-      <c r="V42" s="400"/>
-      <c r="W42" s="400"/>
-      <c r="X42" s="400"/>
-      <c r="Y42" s="400"/>
-      <c r="Z42" s="400"/>
-      <c r="AA42" s="400"/>
-      <c r="AB42" s="400"/>
-      <c r="AC42" s="400"/>
-      <c r="AD42" s="400"/>
-      <c r="AE42" s="400"/>
-      <c r="AF42" s="400"/>
-      <c r="AG42" s="401"/>
+      <c r="S42" s="394"/>
+      <c r="T42" s="395"/>
+      <c r="U42" s="395"/>
+      <c r="V42" s="395"/>
+      <c r="W42" s="395"/>
+      <c r="X42" s="395"/>
+      <c r="Y42" s="395"/>
+      <c r="Z42" s="395"/>
+      <c r="AA42" s="395"/>
+      <c r="AB42" s="395"/>
+      <c r="AC42" s="395"/>
+      <c r="AD42" s="395"/>
+      <c r="AE42" s="395"/>
+      <c r="AF42" s="395"/>
+      <c r="AG42" s="396"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="408"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
+      <c r="A43" s="403"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="335"/>
+      <c r="F43" s="335"/>
+      <c r="G43" s="335"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6263,28 +6229,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="403"/>
-      <c r="U43" s="403"/>
-      <c r="V43" s="403"/>
-      <c r="W43" s="403"/>
-      <c r="X43" s="403"/>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="403"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
-      <c r="AC43" s="403"/>
-      <c r="AD43" s="403"/>
-      <c r="AE43" s="403"/>
-      <c r="AF43" s="403"/>
-      <c r="AG43" s="404"/>
+      <c r="S43" s="397"/>
+      <c r="T43" s="398"/>
+      <c r="U43" s="398"/>
+      <c r="V43" s="398"/>
+      <c r="W43" s="398"/>
+      <c r="X43" s="398"/>
+      <c r="Y43" s="398"/>
+      <c r="Z43" s="398"/>
+      <c r="AA43" s="398"/>
+      <c r="AB43" s="398"/>
+      <c r="AC43" s="398"/>
+      <c r="AD43" s="398"/>
+      <c r="AE43" s="398"/>
+      <c r="AF43" s="398"/>
+      <c r="AG43" s="399"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6301,67 +6267,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="403"/>
-      <c r="U44" s="403"/>
-      <c r="V44" s="403"/>
-      <c r="W44" s="403"/>
-      <c r="X44" s="403"/>
-      <c r="Y44" s="403"/>
-      <c r="Z44" s="403"/>
-      <c r="AA44" s="403"/>
-      <c r="AB44" s="403"/>
-      <c r="AC44" s="403"/>
-      <c r="AD44" s="403"/>
-      <c r="AE44" s="403"/>
-      <c r="AF44" s="403"/>
-      <c r="AG44" s="404"/>
+      <c r="S44" s="397"/>
+      <c r="T44" s="398"/>
+      <c r="U44" s="398"/>
+      <c r="V44" s="398"/>
+      <c r="W44" s="398"/>
+      <c r="X44" s="398"/>
+      <c r="Y44" s="398"/>
+      <c r="Z44" s="398"/>
+      <c r="AA44" s="398"/>
+      <c r="AB44" s="398"/>
+      <c r="AC44" s="398"/>
+      <c r="AD44" s="398"/>
+      <c r="AE44" s="398"/>
+      <c r="AF44" s="398"/>
+      <c r="AG44" s="399"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="408"/>
-      <c r="B45" s="340"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="340"/>
-      <c r="K45" s="340"/>
-      <c r="L45" s="340"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="340"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="340"/>
-      <c r="Q45" s="340"/>
-      <c r="R45" s="341"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="403"/>
-      <c r="U45" s="403"/>
-      <c r="V45" s="403"/>
-      <c r="W45" s="403"/>
-      <c r="X45" s="403"/>
-      <c r="Y45" s="403"/>
-      <c r="Z45" s="403"/>
-      <c r="AA45" s="403"/>
-      <c r="AB45" s="403"/>
-      <c r="AC45" s="403"/>
-      <c r="AD45" s="403"/>
-      <c r="AE45" s="403"/>
-      <c r="AF45" s="403"/>
-      <c r="AG45" s="404"/>
+      <c r="A45" s="403"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="335"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
+      <c r="K45" s="335"/>
+      <c r="L45" s="335"/>
+      <c r="M45" s="335"/>
+      <c r="N45" s="335"/>
+      <c r="O45" s="335"/>
+      <c r="P45" s="335"/>
+      <c r="Q45" s="335"/>
+      <c r="R45" s="336"/>
+      <c r="S45" s="397"/>
+      <c r="T45" s="398"/>
+      <c r="U45" s="398"/>
+      <c r="V45" s="398"/>
+      <c r="W45" s="398"/>
+      <c r="X45" s="398"/>
+      <c r="Y45" s="398"/>
+      <c r="Z45" s="398"/>
+      <c r="AA45" s="398"/>
+      <c r="AB45" s="398"/>
+      <c r="AC45" s="398"/>
+      <c r="AD45" s="398"/>
+      <c r="AE45" s="398"/>
+      <c r="AF45" s="398"/>
+      <c r="AG45" s="399"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6377,28 +6343,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="403"/>
-      <c r="U46" s="403"/>
-      <c r="V46" s="403"/>
-      <c r="W46" s="403"/>
-      <c r="X46" s="403"/>
-      <c r="Y46" s="403"/>
-      <c r="Z46" s="403"/>
-      <c r="AA46" s="403"/>
-      <c r="AB46" s="403"/>
-      <c r="AC46" s="403"/>
-      <c r="AD46" s="403"/>
-      <c r="AE46" s="403"/>
-      <c r="AF46" s="403"/>
-      <c r="AG46" s="404"/>
+      <c r="S46" s="397"/>
+      <c r="T46" s="398"/>
+      <c r="U46" s="398"/>
+      <c r="V46" s="398"/>
+      <c r="W46" s="398"/>
+      <c r="X46" s="398"/>
+      <c r="Y46" s="398"/>
+      <c r="Z46" s="398"/>
+      <c r="AA46" s="398"/>
+      <c r="AB46" s="398"/>
+      <c r="AC46" s="398"/>
+      <c r="AD46" s="398"/>
+      <c r="AE46" s="398"/>
+      <c r="AF46" s="398"/>
+      <c r="AG46" s="399"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6415,21 +6381,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="403"/>
-      <c r="U47" s="403"/>
-      <c r="V47" s="403"/>
-      <c r="W47" s="403"/>
-      <c r="X47" s="403"/>
-      <c r="Y47" s="403"/>
-      <c r="Z47" s="403"/>
-      <c r="AA47" s="403"/>
-      <c r="AB47" s="403"/>
-      <c r="AC47" s="403"/>
-      <c r="AD47" s="403"/>
-      <c r="AE47" s="403"/>
-      <c r="AF47" s="403"/>
-      <c r="AG47" s="404"/>
+      <c r="S47" s="397"/>
+      <c r="T47" s="398"/>
+      <c r="U47" s="398"/>
+      <c r="V47" s="398"/>
+      <c r="W47" s="398"/>
+      <c r="X47" s="398"/>
+      <c r="Y47" s="398"/>
+      <c r="Z47" s="398"/>
+      <c r="AA47" s="398"/>
+      <c r="AB47" s="398"/>
+      <c r="AC47" s="398"/>
+      <c r="AD47" s="398"/>
+      <c r="AE47" s="398"/>
+      <c r="AF47" s="398"/>
+      <c r="AG47" s="399"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6451,344 +6417,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="406"/>
-      <c r="U48" s="406"/>
-      <c r="V48" s="406"/>
-      <c r="W48" s="406"/>
-      <c r="X48" s="406"/>
-      <c r="Y48" s="406"/>
-      <c r="Z48" s="406"/>
-      <c r="AA48" s="406"/>
-      <c r="AB48" s="406"/>
-      <c r="AC48" s="406"/>
-      <c r="AD48" s="406"/>
-      <c r="AE48" s="406"/>
-      <c r="AF48" s="406"/>
-      <c r="AG48" s="407"/>
+      <c r="S48" s="400"/>
+      <c r="T48" s="401"/>
+      <c r="U48" s="401"/>
+      <c r="V48" s="401"/>
+      <c r="W48" s="401"/>
+      <c r="X48" s="401"/>
+      <c r="Y48" s="401"/>
+      <c r="Z48" s="401"/>
+      <c r="AA48" s="401"/>
+      <c r="AB48" s="401"/>
+      <c r="AC48" s="401"/>
+      <c r="AD48" s="401"/>
+      <c r="AE48" s="401"/>
+      <c r="AF48" s="401"/>
+      <c r="AG48" s="402"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="349" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="375"/>
-      <c r="C49" s="375"/>
-      <c r="D49" s="375"/>
-      <c r="E49" s="353"/>
-      <c r="F49" s="340"/>
-      <c r="G49" s="340"/>
-      <c r="H49" s="340"/>
-      <c r="I49" s="340"/>
-      <c r="J49" s="340"/>
-      <c r="K49" s="340"/>
-      <c r="L49" s="340"/>
-      <c r="M49" s="340"/>
-      <c r="N49" s="340"/>
-      <c r="O49" s="340"/>
-      <c r="P49" s="340"/>
-      <c r="Q49" s="340"/>
-      <c r="R49" s="341"/>
-      <c r="S49" s="349" t="s">
-        <v>131</v>
-      </c>
-      <c r="T49" s="350"/>
-      <c r="U49" s="350"/>
-      <c r="V49" s="379"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="359"/>
-      <c r="Y49" s="359"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="359"/>
-      <c r="AB49" s="359"/>
-      <c r="AC49" s="359"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="359"/>
-      <c r="AG49" s="363"/>
+      <c r="A49" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="370"/>
+      <c r="C49" s="370"/>
+      <c r="D49" s="370"/>
+      <c r="E49" s="348"/>
+      <c r="F49" s="335"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="335"/>
+      <c r="K49" s="335"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="335"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="336"/>
+      <c r="S49" s="344" t="s">
+        <v>133</v>
+      </c>
+      <c r="T49" s="345"/>
+      <c r="U49" s="345"/>
+      <c r="V49" s="374"/>
+      <c r="W49" s="357"/>
+      <c r="X49" s="354"/>
+      <c r="Y49" s="354"/>
+      <c r="Z49" s="354"/>
+      <c r="AA49" s="354"/>
+      <c r="AB49" s="354"/>
+      <c r="AC49" s="354"/>
+      <c r="AD49" s="354"/>
+      <c r="AE49" s="354"/>
+      <c r="AF49" s="354"/>
+      <c r="AG49" s="358"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="376"/>
-      <c r="B50" s="377"/>
-      <c r="C50" s="377"/>
-      <c r="D50" s="377"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="329"/>
-      <c r="G50" s="329"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="329"/>
-      <c r="L50" s="329"/>
-      <c r="M50" s="329"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
-      <c r="P50" s="329"/>
-      <c r="Q50" s="329"/>
-      <c r="R50" s="378"/>
-      <c r="S50" s="351"/>
-      <c r="T50" s="352"/>
-      <c r="U50" s="352"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="364"/>
-      <c r="X50" s="352"/>
-      <c r="Y50" s="352"/>
-      <c r="Z50" s="352"/>
-      <c r="AA50" s="352"/>
-      <c r="AB50" s="352"/>
-      <c r="AC50" s="352"/>
-      <c r="AD50" s="352"/>
-      <c r="AE50" s="352"/>
-      <c r="AF50" s="352"/>
-      <c r="AG50" s="365"/>
+      <c r="A50" s="371"/>
+      <c r="B50" s="372"/>
+      <c r="C50" s="372"/>
+      <c r="D50" s="372"/>
+      <c r="E50" s="327"/>
+      <c r="F50" s="324"/>
+      <c r="G50" s="324"/>
+      <c r="H50" s="324"/>
+      <c r="I50" s="324"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="324"/>
+      <c r="M50" s="324"/>
+      <c r="N50" s="324"/>
+      <c r="O50" s="324"/>
+      <c r="P50" s="324"/>
+      <c r="Q50" s="324"/>
+      <c r="R50" s="373"/>
+      <c r="S50" s="346"/>
+      <c r="T50" s="347"/>
+      <c r="U50" s="347"/>
+      <c r="V50" s="356"/>
+      <c r="W50" s="359"/>
+      <c r="X50" s="347"/>
+      <c r="Y50" s="347"/>
+      <c r="Z50" s="347"/>
+      <c r="AA50" s="347"/>
+      <c r="AB50" s="347"/>
+      <c r="AC50" s="347"/>
+      <c r="AD50" s="347"/>
+      <c r="AE50" s="347"/>
+      <c r="AF50" s="347"/>
+      <c r="AG50" s="360"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="325" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="380"/>
-      <c r="C51" s="380"/>
-      <c r="D51" s="381"/>
-      <c r="E51" s="383" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="I51" s="384"/>
-      <c r="J51" s="384"/>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
-      <c r="N51" s="384"/>
-      <c r="O51" s="384"/>
-      <c r="P51" s="384"/>
-      <c r="Q51" s="384"/>
-      <c r="R51" s="385"/>
-      <c r="S51" s="325" t="s">
-        <v>132</v>
-      </c>
-      <c r="T51" s="359"/>
-      <c r="U51" s="359"/>
-      <c r="V51" s="360"/>
-      <c r="W51" s="389" t="s">
-        <v>37</v>
-      </c>
-      <c r="X51" s="390"/>
-      <c r="Y51" s="390"/>
-      <c r="Z51" s="390"/>
-      <c r="AA51" s="390"/>
-      <c r="AB51" s="390"/>
-      <c r="AC51" s="390"/>
-      <c r="AD51" s="390"/>
-      <c r="AE51" s="390"/>
-      <c r="AF51" s="390"/>
-      <c r="AG51" s="391"/>
+      <c r="A51" s="320" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="375"/>
+      <c r="C51" s="375"/>
+      <c r="D51" s="376"/>
+      <c r="E51" s="378" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="379"/>
+      <c r="G51" s="379"/>
+      <c r="H51" s="379"/>
+      <c r="I51" s="379"/>
+      <c r="J51" s="379"/>
+      <c r="K51" s="379"/>
+      <c r="L51" s="379"/>
+      <c r="M51" s="379"/>
+      <c r="N51" s="379"/>
+      <c r="O51" s="379"/>
+      <c r="P51" s="379"/>
+      <c r="Q51" s="379"/>
+      <c r="R51" s="380"/>
+      <c r="S51" s="320" t="s">
+        <v>134</v>
+      </c>
+      <c r="T51" s="354"/>
+      <c r="U51" s="354"/>
+      <c r="V51" s="355"/>
+      <c r="W51" s="384" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" s="385"/>
+      <c r="Y51" s="385"/>
+      <c r="Z51" s="385"/>
+      <c r="AA51" s="385"/>
+      <c r="AB51" s="385"/>
+      <c r="AC51" s="385"/>
+      <c r="AD51" s="385"/>
+      <c r="AE51" s="385"/>
+      <c r="AF51" s="385"/>
+      <c r="AG51" s="386"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="376"/>
-      <c r="B52" s="377"/>
-      <c r="C52" s="377"/>
-      <c r="D52" s="382"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="387"/>
-      <c r="G52" s="387"/>
-      <c r="H52" s="387"/>
-      <c r="I52" s="387"/>
-      <c r="J52" s="387"/>
-      <c r="K52" s="387"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="387"/>
-      <c r="N52" s="387"/>
-      <c r="O52" s="387"/>
-      <c r="P52" s="387"/>
-      <c r="Q52" s="387"/>
-      <c r="R52" s="388"/>
-      <c r="S52" s="351"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="392"/>
-      <c r="X52" s="393"/>
-      <c r="Y52" s="393"/>
-      <c r="Z52" s="393"/>
-      <c r="AA52" s="393"/>
-      <c r="AB52" s="393"/>
-      <c r="AC52" s="393"/>
-      <c r="AD52" s="393"/>
-      <c r="AE52" s="393"/>
-      <c r="AF52" s="393"/>
-      <c r="AG52" s="394"/>
+      <c r="A52" s="371"/>
+      <c r="B52" s="372"/>
+      <c r="C52" s="372"/>
+      <c r="D52" s="377"/>
+      <c r="E52" s="381"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="382"/>
+      <c r="H52" s="382"/>
+      <c r="I52" s="382"/>
+      <c r="J52" s="382"/>
+      <c r="K52" s="382"/>
+      <c r="L52" s="382"/>
+      <c r="M52" s="382"/>
+      <c r="N52" s="382"/>
+      <c r="O52" s="382"/>
+      <c r="P52" s="382"/>
+      <c r="Q52" s="382"/>
+      <c r="R52" s="383"/>
+      <c r="S52" s="346"/>
+      <c r="T52" s="347"/>
+      <c r="U52" s="347"/>
+      <c r="V52" s="356"/>
+      <c r="W52" s="387"/>
+      <c r="X52" s="388"/>
+      <c r="Y52" s="388"/>
+      <c r="Z52" s="388"/>
+      <c r="AA52" s="388"/>
+      <c r="AB52" s="388"/>
+      <c r="AC52" s="388"/>
+      <c r="AD52" s="388"/>
+      <c r="AE52" s="388"/>
+      <c r="AF52" s="388"/>
+      <c r="AG52" s="389"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="325" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="359"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="362" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="359"/>
-      <c r="K53" s="359"/>
-      <c r="L53" s="359"/>
-      <c r="M53" s="359"/>
-      <c r="N53" s="359"/>
-      <c r="O53" s="359"/>
-      <c r="P53" s="359"/>
-      <c r="Q53" s="359"/>
-      <c r="R53" s="363"/>
-      <c r="S53" s="325" t="s">
-        <v>134</v>
-      </c>
-      <c r="T53" s="359"/>
-      <c r="U53" s="359"/>
-      <c r="V53" s="360"/>
-      <c r="W53" s="362" t="s">
+      <c r="A53" s="320" t="s">
         <v>136</v>
       </c>
-      <c r="X53" s="359"/>
-      <c r="Y53" s="359"/>
-      <c r="Z53" s="359"/>
-      <c r="AA53" s="359"/>
-      <c r="AB53" s="359"/>
-      <c r="AC53" s="359"/>
-      <c r="AD53" s="359"/>
-      <c r="AE53" s="359"/>
-      <c r="AF53" s="359"/>
-      <c r="AG53" s="363"/>
+      <c r="B53" s="354"/>
+      <c r="C53" s="354"/>
+      <c r="D53" s="355"/>
+      <c r="E53" s="357" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="354"/>
+      <c r="G53" s="354"/>
+      <c r="H53" s="354"/>
+      <c r="I53" s="354"/>
+      <c r="J53" s="354"/>
+      <c r="K53" s="354"/>
+      <c r="L53" s="354"/>
+      <c r="M53" s="354"/>
+      <c r="N53" s="354"/>
+      <c r="O53" s="354"/>
+      <c r="P53" s="354"/>
+      <c r="Q53" s="354"/>
+      <c r="R53" s="358"/>
+      <c r="S53" s="320" t="s">
+        <v>136</v>
+      </c>
+      <c r="T53" s="354"/>
+      <c r="U53" s="354"/>
+      <c r="V53" s="355"/>
+      <c r="W53" s="357" t="s">
+        <v>138</v>
+      </c>
+      <c r="X53" s="354"/>
+      <c r="Y53" s="354"/>
+      <c r="Z53" s="354"/>
+      <c r="AA53" s="354"/>
+      <c r="AB53" s="354"/>
+      <c r="AC53" s="354"/>
+      <c r="AD53" s="354"/>
+      <c r="AE53" s="354"/>
+      <c r="AF53" s="354"/>
+      <c r="AG53" s="358"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="351"/>
-      <c r="B54" s="352"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="361"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="352"/>
-      <c r="H54" s="352"/>
-      <c r="I54" s="352"/>
-      <c r="J54" s="352"/>
-      <c r="K54" s="352"/>
-      <c r="L54" s="352"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="352"/>
-      <c r="O54" s="352"/>
-      <c r="P54" s="352"/>
-      <c r="Q54" s="352"/>
-      <c r="R54" s="365"/>
-      <c r="S54" s="351"/>
-      <c r="T54" s="352"/>
-      <c r="U54" s="352"/>
-      <c r="V54" s="361"/>
-      <c r="W54" s="364"/>
-      <c r="X54" s="352"/>
-      <c r="Y54" s="352"/>
-      <c r="Z54" s="352"/>
-      <c r="AA54" s="352"/>
-      <c r="AB54" s="352"/>
-      <c r="AC54" s="352"/>
-      <c r="AD54" s="352"/>
-      <c r="AE54" s="352"/>
-      <c r="AF54" s="352"/>
-      <c r="AG54" s="365"/>
+      <c r="A54" s="346"/>
+      <c r="B54" s="347"/>
+      <c r="C54" s="347"/>
+      <c r="D54" s="356"/>
+      <c r="E54" s="359"/>
+      <c r="F54" s="347"/>
+      <c r="G54" s="347"/>
+      <c r="H54" s="347"/>
+      <c r="I54" s="347"/>
+      <c r="J54" s="347"/>
+      <c r="K54" s="347"/>
+      <c r="L54" s="347"/>
+      <c r="M54" s="347"/>
+      <c r="N54" s="347"/>
+      <c r="O54" s="347"/>
+      <c r="P54" s="347"/>
+      <c r="Q54" s="347"/>
+      <c r="R54" s="360"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="347"/>
+      <c r="U54" s="347"/>
+      <c r="V54" s="356"/>
+      <c r="W54" s="359"/>
+      <c r="X54" s="347"/>
+      <c r="Y54" s="347"/>
+      <c r="Z54" s="347"/>
+      <c r="AA54" s="347"/>
+      <c r="AB54" s="347"/>
+      <c r="AC54" s="347"/>
+      <c r="AD54" s="347"/>
+      <c r="AE54" s="347"/>
+      <c r="AF54" s="347"/>
+      <c r="AG54" s="360"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="325" t="s">
+      <c r="A55" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="359"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="360"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="341"/>
-      <c r="S55" s="325" t="s">
+      <c r="B55" s="354"/>
+      <c r="C55" s="354"/>
+      <c r="D55" s="355"/>
+      <c r="E55" s="348"/>
+      <c r="F55" s="335"/>
+      <c r="G55" s="335"/>
+      <c r="H55" s="335"/>
+      <c r="I55" s="335"/>
+      <c r="J55" s="335"/>
+      <c r="K55" s="335"/>
+      <c r="L55" s="335"/>
+      <c r="M55" s="335"/>
+      <c r="N55" s="335"/>
+      <c r="O55" s="335"/>
+      <c r="P55" s="335"/>
+      <c r="Q55" s="335"/>
+      <c r="R55" s="336"/>
+      <c r="S55" s="320" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="359"/>
-      <c r="U55" s="359"/>
-      <c r="V55" s="360"/>
-      <c r="W55" s="362"/>
-      <c r="X55" s="359"/>
-      <c r="Y55" s="359"/>
-      <c r="Z55" s="359"/>
-      <c r="AA55" s="359"/>
-      <c r="AB55" s="359"/>
-      <c r="AC55" s="359"/>
-      <c r="AD55" s="359"/>
-      <c r="AE55" s="359"/>
-      <c r="AF55" s="359"/>
-      <c r="AG55" s="363"/>
+      <c r="T55" s="354"/>
+      <c r="U55" s="354"/>
+      <c r="V55" s="355"/>
+      <c r="W55" s="357"/>
+      <c r="X55" s="354"/>
+      <c r="Y55" s="354"/>
+      <c r="Z55" s="354"/>
+      <c r="AA55" s="354"/>
+      <c r="AB55" s="354"/>
+      <c r="AC55" s="354"/>
+      <c r="AD55" s="354"/>
+      <c r="AE55" s="354"/>
+      <c r="AF55" s="354"/>
+      <c r="AG55" s="358"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="371"/>
-      <c r="B56" s="372"/>
-      <c r="C56" s="372"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="342"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="342"/>
-      <c r="P56" s="342"/>
-      <c r="Q56" s="342"/>
-      <c r="R56" s="343"/>
-      <c r="S56" s="366"/>
-      <c r="T56" s="367"/>
-      <c r="U56" s="367"/>
-      <c r="V56" s="368"/>
-      <c r="W56" s="369"/>
-      <c r="X56" s="367"/>
-      <c r="Y56" s="367"/>
-      <c r="Z56" s="367"/>
-      <c r="AA56" s="367"/>
-      <c r="AB56" s="367"/>
-      <c r="AC56" s="367"/>
-      <c r="AD56" s="367"/>
-      <c r="AE56" s="367"/>
-      <c r="AF56" s="367"/>
-      <c r="AG56" s="370"/>
+      <c r="A56" s="366"/>
+      <c r="B56" s="367"/>
+      <c r="C56" s="367"/>
+      <c r="D56" s="368"/>
+      <c r="E56" s="369"/>
+      <c r="F56" s="337"/>
+      <c r="G56" s="337"/>
+      <c r="H56" s="337"/>
+      <c r="I56" s="337"/>
+      <c r="J56" s="337"/>
+      <c r="K56" s="337"/>
+      <c r="L56" s="337"/>
+      <c r="M56" s="337"/>
+      <c r="N56" s="337"/>
+      <c r="O56" s="337"/>
+      <c r="P56" s="337"/>
+      <c r="Q56" s="337"/>
+      <c r="R56" s="338"/>
+      <c r="S56" s="361"/>
+      <c r="T56" s="362"/>
+      <c r="U56" s="362"/>
+      <c r="V56" s="363"/>
+      <c r="W56" s="364"/>
+      <c r="X56" s="362"/>
+      <c r="Y56" s="362"/>
+      <c r="Z56" s="362"/>
+      <c r="AA56" s="362"/>
+      <c r="AB56" s="362"/>
+      <c r="AC56" s="362"/>
+      <c r="AD56" s="362"/>
+      <c r="AE56" s="362"/>
+      <c r="AF56" s="362"/>
+      <c r="AG56" s="365"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6816,49 +6782,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="347"/>
-      <c r="AF57" s="347"/>
-      <c r="AG57" s="348"/>
+      <c r="AE57" s="342"/>
+      <c r="AF57" s="342"/>
+      <c r="AG57" s="343"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="349" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
+      <c r="A58" s="344" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="345"/>
+      <c r="C58" s="345"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="353"/>
-      <c r="F58" s="340"/>
-      <c r="G58" s="340"/>
-      <c r="H58" s="340"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="340"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="340"/>
-      <c r="M58" s="354"/>
-      <c r="N58" s="355" t="s">
-        <v>98</v>
-      </c>
-      <c r="O58" s="356"/>
-      <c r="P58" s="356"/>
-      <c r="Q58" s="356"/>
-      <c r="R58" s="357"/>
-      <c r="S58" s="358" t="s">
-        <v>141</v>
-      </c>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
-      <c r="W58" s="356"/>
-      <c r="X58" s="356"/>
-      <c r="Y58" s="356"/>
-      <c r="Z58" s="356"/>
-      <c r="AA58" s="357"/>
+      <c r="E58" s="348"/>
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="335"/>
+      <c r="J58" s="335"/>
+      <c r="K58" s="335"/>
+      <c r="L58" s="335"/>
+      <c r="M58" s="349"/>
+      <c r="N58" s="350" t="s">
+        <v>100</v>
+      </c>
+      <c r="O58" s="351"/>
+      <c r="P58" s="351"/>
+      <c r="Q58" s="351"/>
+      <c r="R58" s="352"/>
+      <c r="S58" s="353" t="s">
+        <v>143</v>
+      </c>
+      <c r="T58" s="351"/>
+      <c r="U58" s="351"/>
+      <c r="V58" s="351"/>
+      <c r="W58" s="351"/>
+      <c r="X58" s="351"/>
+      <c r="Y58" s="351"/>
+      <c r="Z58" s="351"/>
+      <c r="AA58" s="352"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6868,33 +6834,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="351"/>
-      <c r="B59" s="352"/>
-      <c r="C59" s="352"/>
+      <c r="A59" s="346"/>
+      <c r="B59" s="347"/>
+      <c r="C59" s="347"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="329"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="329"/>
-      <c r="L59" s="329"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="338"/>
-      <c r="S59" s="336"/>
-      <c r="T59" s="337"/>
-      <c r="U59" s="337"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="337"/>
-      <c r="X59" s="337"/>
-      <c r="Y59" s="337"/>
-      <c r="Z59" s="337"/>
-      <c r="AA59" s="338"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="324"/>
+      <c r="G59" s="324"/>
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="324"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="324"/>
+      <c r="M59" s="325"/>
+      <c r="N59" s="331"/>
+      <c r="O59" s="332"/>
+      <c r="P59" s="332"/>
+      <c r="Q59" s="332"/>
+      <c r="R59" s="333"/>
+      <c r="S59" s="331"/>
+      <c r="T59" s="332"/>
+      <c r="U59" s="332"/>
+      <c r="V59" s="332"/>
+      <c r="W59" s="332"/>
+      <c r="X59" s="332"/>
+      <c r="Y59" s="332"/>
+      <c r="Z59" s="332"/>
+      <c r="AA59" s="333"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6904,121 +6870,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="325" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="326"/>
-      <c r="C60" s="326"/>
-      <c r="D60" s="327"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="326"/>
-      <c r="H60" s="326"/>
-      <c r="I60" s="326"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="333" t="s">
-        <v>98</v>
-      </c>
-      <c r="O60" s="334"/>
-      <c r="P60" s="334"/>
-      <c r="Q60" s="334"/>
-      <c r="R60" s="335"/>
-      <c r="S60" s="333" t="s">
-        <v>71</v>
-      </c>
-      <c r="T60" s="334"/>
-      <c r="U60" s="334"/>
-      <c r="V60" s="334"/>
-      <c r="W60" s="334"/>
-      <c r="X60" s="334"/>
-      <c r="Y60" s="334"/>
-      <c r="Z60" s="334"/>
-      <c r="AA60" s="335"/>
+      <c r="A60" s="320" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="321"/>
+      <c r="C60" s="321"/>
+      <c r="D60" s="322"/>
+      <c r="E60" s="326"/>
+      <c r="F60" s="321"/>
+      <c r="G60" s="321"/>
+      <c r="H60" s="321"/>
+      <c r="I60" s="321"/>
+      <c r="J60" s="321"/>
+      <c r="K60" s="321"/>
+      <c r="L60" s="321"/>
+      <c r="M60" s="322"/>
+      <c r="N60" s="328" t="s">
+        <v>100</v>
+      </c>
+      <c r="O60" s="329"/>
+      <c r="P60" s="329"/>
+      <c r="Q60" s="329"/>
+      <c r="R60" s="330"/>
+      <c r="S60" s="328" t="s">
+        <v>74</v>
+      </c>
+      <c r="T60" s="329"/>
+      <c r="U60" s="329"/>
+      <c r="V60" s="329"/>
+      <c r="W60" s="329"/>
+      <c r="X60" s="329"/>
+      <c r="Y60" s="329"/>
+      <c r="Z60" s="329"/>
+      <c r="AA60" s="330"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="326"/>
-      <c r="AE60" s="326"/>
-      <c r="AF60" s="326"/>
-      <c r="AG60" s="339"/>
+      <c r="AD60" s="321"/>
+      <c r="AE60" s="321"/>
+      <c r="AF60" s="321"/>
+      <c r="AG60" s="334"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="328"/>
-      <c r="B61" s="329"/>
-      <c r="C61" s="329"/>
-      <c r="D61" s="330"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
-      <c r="M61" s="330"/>
-      <c r="N61" s="336"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="338"/>
-      <c r="S61" s="336"/>
-      <c r="T61" s="337"/>
-      <c r="U61" s="337"/>
-      <c r="V61" s="337"/>
-      <c r="W61" s="337"/>
-      <c r="X61" s="337"/>
-      <c r="Y61" s="337"/>
-      <c r="Z61" s="337"/>
-      <c r="AA61" s="338"/>
-      <c r="AB61" s="340"/>
-      <c r="AC61" s="340"/>
-      <c r="AD61" s="340"/>
-      <c r="AE61" s="340"/>
-      <c r="AF61" s="340"/>
-      <c r="AG61" s="341"/>
+      <c r="A61" s="323"/>
+      <c r="B61" s="324"/>
+      <c r="C61" s="324"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="327"/>
+      <c r="F61" s="324"/>
+      <c r="G61" s="324"/>
+      <c r="H61" s="324"/>
+      <c r="I61" s="324"/>
+      <c r="J61" s="324"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="325"/>
+      <c r="N61" s="331"/>
+      <c r="O61" s="332"/>
+      <c r="P61" s="332"/>
+      <c r="Q61" s="332"/>
+      <c r="R61" s="333"/>
+      <c r="S61" s="331"/>
+      <c r="T61" s="332"/>
+      <c r="U61" s="332"/>
+      <c r="V61" s="332"/>
+      <c r="W61" s="332"/>
+      <c r="X61" s="332"/>
+      <c r="Y61" s="332"/>
+      <c r="Z61" s="332"/>
+      <c r="AA61" s="333"/>
+      <c r="AB61" s="335"/>
+      <c r="AC61" s="335"/>
+      <c r="AD61" s="335"/>
+      <c r="AE61" s="335"/>
+      <c r="AF61" s="335"/>
+      <c r="AG61" s="336"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="344" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="345"/>
-      <c r="C62" s="345"/>
-      <c r="D62" s="345"/>
-      <c r="E62" s="345"/>
-      <c r="F62" s="345"/>
-      <c r="G62" s="345"/>
-      <c r="H62" s="345"/>
-      <c r="I62" s="345"/>
-      <c r="J62" s="345"/>
-      <c r="K62" s="345"/>
-      <c r="L62" s="345"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="345"/>
-      <c r="O62" s="345"/>
-      <c r="P62" s="345"/>
-      <c r="Q62" s="345"/>
-      <c r="R62" s="345"/>
-      <c r="S62" s="345"/>
-      <c r="T62" s="345"/>
-      <c r="U62" s="345"/>
-      <c r="V62" s="345"/>
-      <c r="W62" s="345"/>
-      <c r="X62" s="345"/>
-      <c r="Y62" s="345"/>
-      <c r="Z62" s="345"/>
-      <c r="AA62" s="346"/>
-      <c r="AB62" s="342"/>
-      <c r="AC62" s="342"/>
-      <c r="AD62" s="342"/>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="343"/>
+      <c r="A62" s="339" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="340"/>
+      <c r="C62" s="340"/>
+      <c r="D62" s="340"/>
+      <c r="E62" s="340"/>
+      <c r="F62" s="340"/>
+      <c r="G62" s="340"/>
+      <c r="H62" s="340"/>
+      <c r="I62" s="340"/>
+      <c r="J62" s="340"/>
+      <c r="K62" s="340"/>
+      <c r="L62" s="340"/>
+      <c r="M62" s="340"/>
+      <c r="N62" s="340"/>
+      <c r="O62" s="340"/>
+      <c r="P62" s="340"/>
+      <c r="Q62" s="340"/>
+      <c r="R62" s="340"/>
+      <c r="S62" s="340"/>
+      <c r="T62" s="340"/>
+      <c r="U62" s="340"/>
+      <c r="V62" s="340"/>
+      <c r="W62" s="340"/>
+      <c r="X62" s="340"/>
+      <c r="Y62" s="340"/>
+      <c r="Z62" s="340"/>
+      <c r="AA62" s="341"/>
+      <c r="AB62" s="337"/>
+      <c r="AC62" s="337"/>
+      <c r="AD62" s="337"/>
+      <c r="AE62" s="337"/>
+      <c r="AF62" s="337"/>
+      <c r="AG62" s="338"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -102,19 +102,25 @@
     <t>Diem</t>
   </si>
   <si>
-    <t xml:space="preserve"> sample1</t>
+    <t>test 2</t>
   </si>
   <si>
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>3:43 PM</t>
+    <t>10:56 AM</t>
   </si>
   <si>
     <t>car</t>
   </si>
   <si>
     <t>sample</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>10:56 PM</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -566,6 +572,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
@@ -606,15 +621,6 @@
       <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -634,7 +640,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border/>
     <border>
       <left style="medium">
@@ -974,6 +980,14 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -981,6 +995,151 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -991,6 +1150,42 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -999,46 +1194,10 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1046,160 +1205,18 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="503">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1713,21 +1730,6 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="18" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1743,7 +1745,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1752,7 +1754,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1770,7 +1772,7 @@
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1779,26 +1781,29 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2124,7 +2129,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2148,13 +2153,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2508,19 +2513,19 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2583,28 +2588,28 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -2649,11 +2654,59 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="43" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="43" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="43" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="18" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2973,10 +3026,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2995,37 +3048,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3043,8 +3096,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3057,8 +3110,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3071,17 +3124,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3099,55 +3152,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="184"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="179"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="482" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="478" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="201"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="201"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3162,39 +3215,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="15.75" s="19" customFormat="1">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="198" t="s">
+      <c r="C13" s="199"/>
+      <c r="D13" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="199"/>
+      <c r="E13" s="194"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="185" t="s">
+      <c r="G13" s="180" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="187" t="s">
+      <c r="I13" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="189" t="s">
+      <c r="J13" s="184" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191" t="s">
+      <c r="A14" s="192"/>
+      <c r="B14" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="192"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3204,176 +3257,270 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="186"/>
+      <c r="G14" s="181"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="190"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="185"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="484" t="s">
+      <c r="A15" s="479" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="484"/>
-      <c r="C15" s="483"/>
-      <c r="D15" s="484"/>
-      <c r="E15" s="484"/>
-      <c r="F15" s="484"/>
-      <c r="G15" s="484"/>
-      <c r="H15" s="484"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="484"/>
+      <c r="B15" s="480"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="481"/>
+      <c r="E15" s="482"/>
+      <c r="F15" s="480"/>
+      <c r="G15" s="480"/>
+      <c r="H15" s="480"/>
+      <c r="I15" s="480"/>
+      <c r="J15" s="483"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="487" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="172" t="s">
+      <c r="C16" s="190"/>
+      <c r="D16" s="489" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="489" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="490" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="491">
         <v>10</v>
       </c>
-      <c r="H16" s="174">
-        <v>3300</v>
-      </c>
-      <c r="I16" s="175" t="s">
+      <c r="H16" s="491">
+        <v>1100</v>
+      </c>
+      <c r="I16" s="492" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="174">
-        <v>2210</v>
+      <c r="J16" s="491">
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="486"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="490" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="493" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="485"/>
+      <c r="D17" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="495">
+        <v>10</v>
+      </c>
+      <c r="H17" s="495">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="495" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="495">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="36"/>
+      <c r="B18" s="493" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="485"/>
+      <c r="D18" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="495">
+        <v>10</v>
+      </c>
+      <c r="H18" s="495">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="495" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="495">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="36"/>
+      <c r="B19" s="493" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="485"/>
+      <c r="D19" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="495">
+        <v>10</v>
+      </c>
+      <c r="H19" s="495">
+        <v>1100</v>
+      </c>
+      <c r="I19" s="495" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="495">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="36"/>
+      <c r="B20" s="493" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="485"/>
+      <c r="D20" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="494" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="494" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="495">
+        <v>10</v>
+      </c>
+      <c r="H20" s="495">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="495" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="495">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="485" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="485"/>
+      <c r="D21" s="484" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="484" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="486">
+        <v>10</v>
+      </c>
+      <c r="H21" s="486">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="486" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="486">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="494" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="494"/>
+      <c r="C22" s="484"/>
+      <c r="D22" s="494"/>
+      <c r="E22" s="494"/>
+      <c r="F22" s="494"/>
+      <c r="G22" s="495"/>
+      <c r="H22" s="495"/>
+      <c r="I22" s="495"/>
+      <c r="J22" s="495"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="496" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="485"/>
-      <c r="H17" s="485"/>
-      <c r="I17" s="485"/>
-      <c r="J17" s="487"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="111"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="37" t="s">
+      <c r="B23" s="485" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="485"/>
+      <c r="D23" s="484" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="484" t="s">
         <v>33</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="488"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="111"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="111"/>
-      <c r="F19"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="488"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="38" t="s">
+      <c r="F23" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="486">
+        <v>75</v>
+      </c>
+      <c r="H23" s="486">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="486" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="486">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="498"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="502" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="489" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="488"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="488"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="486"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="485"/>
-      <c r="H22" s="485"/>
-      <c r="I22" s="485"/>
-      <c r="J22" s="487"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="488"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="111"/>
-      <c r="F24"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="488"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="497"/>
+      <c r="H24" s="497"/>
+      <c r="I24" s="497"/>
+      <c r="J24" s="499"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="111"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" s="111"/>
+      <c r="E25" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="488"/>
+      <c r="J25" s="500"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="111"/>
@@ -3385,67 +3532,159 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="488"/>
+      <c r="J26" s="500"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="489" t="s">
+      <c r="A27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="501" t="s">
         <v>37</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="489" t="s">
-        <v>35</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="488"/>
+      <c r="J27" s="500"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="20" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="488"/>
+      <c r="J28" s="500"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="248" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="497"/>
+      <c r="H29" s="497"/>
+      <c r="I29" s="497"/>
+      <c r="J29" s="499"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="500"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="111"/>
+      <c r="F31"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="500"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="111"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="111"/>
+      <c r="F32"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="500"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="111"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="111"/>
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="500"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="501" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="501" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="500"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="248" t="s">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="488"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="486"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="486"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="485"/>
-      <c r="H30" s="485"/>
-      <c r="I30" s="485"/>
-      <c r="J30" s="487"/>
+      <c r="F35"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="500"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="244" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="500"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="498"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="498"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="497"/>
+      <c r="H37" s="497"/>
+      <c r="I37" s="497"/>
+      <c r="J37" s="499"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3471,15 +3710,23 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:D24"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D31"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3539,10 +3786,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="308" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="308"/>
+      <c r="L1" s="304" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3556,443 +3803,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
+      <c r="L2" s="305"/>
+      <c r="M2" s="305"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="310" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="313" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
+      <c r="A3" s="306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="309" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="310"/>
+      <c r="M3" s="311"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="316" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="231" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="232"/>
-      <c r="M4" s="319"/>
+      <c r="A4" s="312" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="228"/>
+      <c r="M4" s="315"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="290" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="293" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="294"/>
-      <c r="M5" s="295"/>
+      <c r="A5" s="286" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="289" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="290"/>
+      <c r="M5" s="291"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="278"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="299" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="301"/>
+      <c r="A6" s="274"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="295" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="297"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="296"/>
-      <c r="B7" s="297"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="304"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="300"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="267" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="268"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="272" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="273"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="274"/>
+      <c r="A8" s="263" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="268" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="269"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
+      <c r="L8" s="269"/>
+      <c r="M8" s="270"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="296"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="305"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="307"/>
+      <c r="A9" s="292"/>
+      <c r="B9" s="293"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
+      <c r="K9" s="302"/>
+      <c r="L9" s="302"/>
+      <c r="M9" s="303"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="267" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="268"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="272" t="str">
+      <c r="A10" s="263" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="268" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="274"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="270"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="270"/>
-      <c r="B11" s="225"/>
-      <c r="C11" s="271"/>
-      <c r="D11" s="275"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="276"/>
-      <c r="H11" s="276"/>
-      <c r="I11" s="276"/>
-      <c r="J11" s="276"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="277"/>
+      <c r="A11" s="266"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="273"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="278" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="279"/>
-      <c r="C12" s="280"/>
-      <c r="D12" s="281" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="281" t="s">
+      <c r="A12" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="280"/>
-      <c r="K12" s="287" t="s">
+      <c r="B12" s="275"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="281" t="s">
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
+      <c r="H12" s="279"/>
+      <c r="I12" s="277" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="289"/>
+      <c r="J12" s="276"/>
+      <c r="K12" s="283" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="277" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="285"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="270"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="271"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="285"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="271"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="226"/>
+      <c r="A13" s="266"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="281"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="284"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="222"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="248"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="249"/>
+      <c r="A14" s="244"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="245"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="251"/>
+      <c r="L14" s="246"/>
+      <c r="M14" s="247"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="248"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="212" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="249"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="208" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="245"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="263">
+      <c r="L15" s="259">
         <v>4981</v>
       </c>
-      <c r="M15" s="264"/>
+      <c r="M15" s="260"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="248"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="249"/>
+      <c r="A16" s="244"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="245"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="251"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="247"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="248"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="249"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="245"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="265"/>
-      <c r="M17" s="266"/>
+      <c r="L17" s="261"/>
+      <c r="M17" s="262"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="248"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="262"/>
+      <c r="A18" s="244"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="257"/>
+      <c r="J18" s="258"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="251"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="247"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="248"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="249"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="245"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="251"/>
+      <c r="L19" s="246"/>
+      <c r="M19" s="247"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="248"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="250"/>
-      <c r="J20" s="249"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="245"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="250"/>
-      <c r="M20" s="251"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="247"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="248"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="249"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="245"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="251"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="247"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="248"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="262"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="249"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="245"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="251"/>
+      <c r="L22" s="246"/>
+      <c r="M22" s="247"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="248"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="261"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="262"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="249"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="258"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="245"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="251"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="247"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="248"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="249"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="245"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="251"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="247"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="248"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="249"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="245"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="251"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="247"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="248"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="249"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="245"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="251"/>
+      <c r="L26" s="246"/>
+      <c r="M26" s="247"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="252"/>
-      <c r="B27" s="253"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="255" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="254"/>
+      <c r="A27" s="248"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="251" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="250"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="259" t="str">
+      <c r="L27" s="255" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="260"/>
+      <c r="M27" s="256"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="236" t="s">
-        <v>61</v>
+      <c r="A28" s="232" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="210" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="240" t="s">
-        <v>63</v>
+      <c r="D28" s="206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="234"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="236" t="s">
+        <v>65</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4000,19 +4247,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="237"/>
-      <c r="B29" s="241" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="240"/>
+      <c r="A29" s="233"/>
+      <c r="B29" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="172"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="236"/>
       <c r="J29" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4020,27 +4267,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="242" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="243"/>
+      <c r="B30" s="238" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="239"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="244"/>
+      <c r="A31" s="240"/>
       <c r="B31" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4050,14 +4297,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="244"/>
+      <c r="A32" s="240"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4102,24 +4349,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="245" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="222"/>
-      <c r="C35" s="213" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="230"/>
+      <c r="A35" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="218"/>
+      <c r="C35" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="209"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="226"/>
       <c r="I35" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4140,12 +4387,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="246" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="247"/>
+      <c r="A37" s="242" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="243"/>
       <c r="C37" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4153,11 +4400,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4178,24 +4425,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="245" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="222"/>
-      <c r="C39" s="210" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="210"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
+      <c r="A39" s="241" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="218"/>
+      <c r="C39" s="206" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="207"/>
       <c r="I39" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4203,37 +4450,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-      <c r="M40" s="230"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="209"/>
+      <c r="M40" s="226"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="231" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="232"/>
-      <c r="C41" s="210" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="210"/>
-      <c r="E41" s="210"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="211"/>
+      <c r="A41" s="227" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="228"/>
+      <c r="C41" s="206" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="207"/>
       <c r="I41" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4270,113 +4517,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="233" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="234"/>
-      <c r="J44" s="234"/>
-      <c r="K44" s="234"/>
-      <c r="L44" s="234"/>
-      <c r="M44" s="235"/>
+        <v>84</v>
+      </c>
+      <c r="B44" s="229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="230"/>
+      <c r="D44" s="230"/>
+      <c r="E44" s="230"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="230"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="230"/>
+      <c r="K44" s="230"/>
+      <c r="L44" s="230"/>
+      <c r="M44" s="231"/>
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A45" s="198" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="234"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="235"/>
-      <c r="H45" s="198" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="234"/>
-      <c r="J45" s="234"/>
-      <c r="K45" s="234"/>
-      <c r="L45" s="234"/>
-      <c r="M45" s="235"/>
+      <c r="A45" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="230"/>
+      <c r="C45" s="230"/>
+      <c r="D45" s="230"/>
+      <c r="E45" s="230"/>
+      <c r="F45" s="230"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="230"/>
+      <c r="J45" s="230"/>
+      <c r="K45" s="230"/>
+      <c r="L45" s="230"/>
+      <c r="M45" s="231"/>
     </row>
     <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="215" t="s">
+      <c r="A46" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="217" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="221" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="222"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="215" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" s="227" t="s">
+      <c r="B46" s="213" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="214"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="217" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="228"/>
-      <c r="K46" s="229" t="s">
+      <c r="F46" s="218"/>
+      <c r="G46" s="219"/>
+      <c r="H46" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="205" t="s">
+      <c r="I46" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="206"/>
+      <c r="J46" s="224"/>
+      <c r="K46" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="201" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="202"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="215"/>
-      <c r="B47" s="217"/>
-      <c r="C47" s="218"/>
-      <c r="D47" s="218"/>
-      <c r="E47" s="221"/>
-      <c r="F47" s="222"/>
-      <c r="G47" s="223"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="227"/>
-      <c r="J47" s="228"/>
-      <c r="K47" s="229"/>
+      <c r="A47" s="211"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="218"/>
+      <c r="G47" s="219"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="224"/>
+      <c r="K47" s="225"/>
       <c r="L47" s="52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="216"/>
-      <c r="B48" s="219"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="226"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="221"/>
+      <c r="G48" s="222"/>
       <c r="H48" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="207" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="208"/>
+        <v>94</v>
+      </c>
+      <c r="I48" s="203" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="204"/>
       <c r="K48" s="55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4414,9 +4661,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="211"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="207"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4649,260 +4896,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="469" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC1" s="469"/>
-      <c r="AD1" s="469"/>
-      <c r="AE1" s="469"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="469"/>
+      <c r="AB1" s="465" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="465"/>
+      <c r="AD1" s="465"/>
+      <c r="AE1" s="465"/>
+      <c r="AF1" s="465"/>
+      <c r="AG1" s="465"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="470" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="471"/>
-      <c r="P3" s="471"/>
-      <c r="Q3" s="471"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="471"/>
-      <c r="T3" s="471"/>
-      <c r="U3" s="471"/>
-      <c r="V3" s="471"/>
-      <c r="W3" s="471"/>
-      <c r="X3" s="471"/>
-      <c r="Y3" s="471"/>
-      <c r="Z3" s="471"/>
-      <c r="AA3" s="472"/>
-      <c r="AB3" s="473" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="474"/>
-      <c r="AD3" s="474"/>
-      <c r="AE3" s="474"/>
-      <c r="AF3" s="474"/>
-      <c r="AG3" s="475"/>
+      <c r="A3" s="466" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="467"/>
+      <c r="J3" s="467"/>
+      <c r="K3" s="467"/>
+      <c r="L3" s="467"/>
+      <c r="M3" s="467"/>
+      <c r="N3" s="467"/>
+      <c r="O3" s="467"/>
+      <c r="P3" s="467"/>
+      <c r="Q3" s="467"/>
+      <c r="R3" s="467"/>
+      <c r="S3" s="467"/>
+      <c r="T3" s="467"/>
+      <c r="U3" s="467"/>
+      <c r="V3" s="467"/>
+      <c r="W3" s="467"/>
+      <c r="X3" s="467"/>
+      <c r="Y3" s="467"/>
+      <c r="Z3" s="467"/>
+      <c r="AA3" s="468"/>
+      <c r="AB3" s="469" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="470"/>
+      <c r="AD3" s="470"/>
+      <c r="AE3" s="470"/>
+      <c r="AF3" s="470"/>
+      <c r="AG3" s="471"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="476" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="477"/>
-      <c r="C4" s="477"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="477"/>
-      <c r="H4" s="477"/>
-      <c r="I4" s="477"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="477"/>
-      <c r="L4" s="477"/>
-      <c r="M4" s="477"/>
-      <c r="N4" s="477"/>
-      <c r="O4" s="477"/>
-      <c r="P4" s="477"/>
-      <c r="Q4" s="477"/>
-      <c r="R4" s="477"/>
-      <c r="S4" s="477"/>
-      <c r="T4" s="477"/>
-      <c r="U4" s="477"/>
-      <c r="V4" s="477"/>
-      <c r="W4" s="477"/>
-      <c r="X4" s="477"/>
-      <c r="Y4" s="477"/>
-      <c r="Z4" s="477"/>
-      <c r="AA4" s="478"/>
-      <c r="AB4" s="479"/>
-      <c r="AC4" s="480"/>
-      <c r="AD4" s="480"/>
-      <c r="AE4" s="480"/>
-      <c r="AF4" s="480"/>
-      <c r="AG4" s="481"/>
+      <c r="A4" s="472" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="473"/>
+      <c r="C4" s="473"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="473"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="473"/>
+      <c r="J4" s="473"/>
+      <c r="K4" s="473"/>
+      <c r="L4" s="473"/>
+      <c r="M4" s="473"/>
+      <c r="N4" s="473"/>
+      <c r="O4" s="473"/>
+      <c r="P4" s="473"/>
+      <c r="Q4" s="473"/>
+      <c r="R4" s="473"/>
+      <c r="S4" s="473"/>
+      <c r="T4" s="473"/>
+      <c r="U4" s="473"/>
+      <c r="V4" s="473"/>
+      <c r="W4" s="473"/>
+      <c r="X4" s="473"/>
+      <c r="Y4" s="473"/>
+      <c r="Z4" s="473"/>
+      <c r="AA4" s="474"/>
+      <c r="AB4" s="475"/>
+      <c r="AC4" s="476"/>
+      <c r="AD4" s="476"/>
+      <c r="AE4" s="476"/>
+      <c r="AF4" s="476"/>
+      <c r="AG4" s="477"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="435" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="436"/>
-      <c r="C5" s="436"/>
-      <c r="D5" s="436"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="436"/>
-      <c r="G5" s="436"/>
-      <c r="H5" s="436"/>
-      <c r="I5" s="436"/>
-      <c r="J5" s="436"/>
-      <c r="K5" s="436"/>
-      <c r="L5" s="436"/>
-      <c r="M5" s="436"/>
-      <c r="N5" s="436"/>
-      <c r="O5" s="436"/>
-      <c r="P5" s="436"/>
-      <c r="Q5" s="436"/>
-      <c r="R5" s="436"/>
-      <c r="S5" s="436"/>
-      <c r="T5" s="436"/>
-      <c r="U5" s="436"/>
-      <c r="V5" s="436"/>
-      <c r="W5" s="436"/>
-      <c r="X5" s="436"/>
-      <c r="Y5" s="436"/>
-      <c r="Z5" s="436"/>
-      <c r="AA5" s="437"/>
-      <c r="AB5" s="451" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="452"/>
-      <c r="AD5" s="452"/>
-      <c r="AE5" s="452"/>
-      <c r="AF5" s="452"/>
-      <c r="AG5" s="453"/>
+      <c r="A5" s="431" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="432"/>
+      <c r="C5" s="432"/>
+      <c r="D5" s="432"/>
+      <c r="E5" s="432"/>
+      <c r="F5" s="432"/>
+      <c r="G5" s="432"/>
+      <c r="H5" s="432"/>
+      <c r="I5" s="432"/>
+      <c r="J5" s="432"/>
+      <c r="K5" s="432"/>
+      <c r="L5" s="432"/>
+      <c r="M5" s="432"/>
+      <c r="N5" s="432"/>
+      <c r="O5" s="432"/>
+      <c r="P5" s="432"/>
+      <c r="Q5" s="432"/>
+      <c r="R5" s="432"/>
+      <c r="S5" s="432"/>
+      <c r="T5" s="432"/>
+      <c r="U5" s="432"/>
+      <c r="V5" s="432"/>
+      <c r="W5" s="432"/>
+      <c r="X5" s="432"/>
+      <c r="Y5" s="432"/>
+      <c r="Z5" s="432"/>
+      <c r="AA5" s="433"/>
+      <c r="AB5" s="447" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="448"/>
+      <c r="AD5" s="448"/>
+      <c r="AE5" s="448"/>
+      <c r="AF5" s="448"/>
+      <c r="AG5" s="449"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="435"/>
-      <c r="B6" s="436"/>
-      <c r="C6" s="436"/>
-      <c r="D6" s="436"/>
-      <c r="E6" s="436"/>
-      <c r="F6" s="436"/>
-      <c r="G6" s="436"/>
-      <c r="H6" s="436"/>
-      <c r="I6" s="436"/>
-      <c r="J6" s="436"/>
-      <c r="K6" s="436"/>
-      <c r="L6" s="436"/>
-      <c r="M6" s="436"/>
-      <c r="N6" s="436"/>
-      <c r="O6" s="436"/>
-      <c r="P6" s="436"/>
-      <c r="Q6" s="436"/>
-      <c r="R6" s="436"/>
-      <c r="S6" s="436"/>
-      <c r="T6" s="436"/>
-      <c r="U6" s="436"/>
-      <c r="V6" s="436"/>
-      <c r="W6" s="436"/>
-      <c r="X6" s="436"/>
-      <c r="Y6" s="436"/>
-      <c r="Z6" s="436"/>
-      <c r="AA6" s="437"/>
-      <c r="AB6" s="454" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC6" s="455"/>
-      <c r="AD6" s="455"/>
-      <c r="AE6" s="455"/>
-      <c r="AF6" s="455"/>
-      <c r="AG6" s="456"/>
+      <c r="A6" s="431"/>
+      <c r="B6" s="432"/>
+      <c r="C6" s="432"/>
+      <c r="D6" s="432"/>
+      <c r="E6" s="432"/>
+      <c r="F6" s="432"/>
+      <c r="G6" s="432"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="432"/>
+      <c r="J6" s="432"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="432"/>
+      <c r="M6" s="432"/>
+      <c r="N6" s="432"/>
+      <c r="O6" s="432"/>
+      <c r="P6" s="432"/>
+      <c r="Q6" s="432"/>
+      <c r="R6" s="432"/>
+      <c r="S6" s="432"/>
+      <c r="T6" s="432"/>
+      <c r="U6" s="432"/>
+      <c r="V6" s="432"/>
+      <c r="W6" s="432"/>
+      <c r="X6" s="432"/>
+      <c r="Y6" s="432"/>
+      <c r="Z6" s="432"/>
+      <c r="AA6" s="433"/>
+      <c r="AB6" s="450" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="451"/>
+      <c r="AD6" s="451"/>
+      <c r="AE6" s="451"/>
+      <c r="AF6" s="451"/>
+      <c r="AG6" s="452"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="438"/>
-      <c r="B7" s="439"/>
-      <c r="C7" s="439"/>
-      <c r="D7" s="439"/>
-      <c r="E7" s="439"/>
-      <c r="F7" s="439"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="439"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="439"/>
-      <c r="K7" s="439"/>
-      <c r="L7" s="439"/>
-      <c r="M7" s="439"/>
-      <c r="N7" s="439"/>
-      <c r="O7" s="439"/>
-      <c r="P7" s="439"/>
-      <c r="Q7" s="439"/>
-      <c r="R7" s="439"/>
-      <c r="S7" s="439"/>
-      <c r="T7" s="439"/>
-      <c r="U7" s="439"/>
-      <c r="V7" s="439"/>
-      <c r="W7" s="439"/>
-      <c r="X7" s="439"/>
-      <c r="Y7" s="439"/>
-      <c r="Z7" s="439"/>
-      <c r="AA7" s="440"/>
-      <c r="AB7" s="457"/>
-      <c r="AC7" s="457"/>
-      <c r="AD7" s="457"/>
-      <c r="AE7" s="457"/>
-      <c r="AF7" s="457"/>
-      <c r="AG7" s="458"/>
+      <c r="A7" s="434"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="435"/>
+      <c r="D7" s="435"/>
+      <c r="E7" s="435"/>
+      <c r="F7" s="435"/>
+      <c r="G7" s="435"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="435"/>
+      <c r="J7" s="435"/>
+      <c r="K7" s="435"/>
+      <c r="L7" s="435"/>
+      <c r="M7" s="435"/>
+      <c r="N7" s="435"/>
+      <c r="O7" s="435"/>
+      <c r="P7" s="435"/>
+      <c r="Q7" s="435"/>
+      <c r="R7" s="435"/>
+      <c r="S7" s="435"/>
+      <c r="T7" s="435"/>
+      <c r="U7" s="435"/>
+      <c r="V7" s="435"/>
+      <c r="W7" s="435"/>
+      <c r="X7" s="435"/>
+      <c r="Y7" s="435"/>
+      <c r="Z7" s="435"/>
+      <c r="AA7" s="436"/>
+      <c r="AB7" s="453"/>
+      <c r="AC7" s="453"/>
+      <c r="AD7" s="453"/>
+      <c r="AE7" s="453"/>
+      <c r="AF7" s="453"/>
+      <c r="AG7" s="454"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="441" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="442"/>
-      <c r="C8" s="443"/>
+      <c r="A8" s="437" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="438"/>
+      <c r="C8" s="439"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="450"/>
-      <c r="F8" s="342"/>
-      <c r="G8" s="342"/>
-      <c r="H8" s="342"/>
-      <c r="I8" s="342"/>
-      <c r="J8" s="342"/>
-      <c r="K8" s="342"/>
-      <c r="L8" s="342"/>
-      <c r="M8" s="342"/>
-      <c r="N8" s="342"/>
-      <c r="O8" s="342"/>
-      <c r="P8" s="342"/>
-      <c r="Q8" s="342"/>
-      <c r="R8" s="342"/>
-      <c r="S8" s="342"/>
-      <c r="T8" s="342"/>
-      <c r="U8" s="342"/>
-      <c r="V8" s="342"/>
-      <c r="W8" s="342"/>
-      <c r="X8" s="342"/>
-      <c r="Y8" s="342"/>
-      <c r="Z8" s="342"/>
-      <c r="AA8" s="342"/>
-      <c r="AB8" s="342"/>
-      <c r="AC8" s="342"/>
-      <c r="AD8" s="342"/>
-      <c r="AE8" s="342"/>
-      <c r="AF8" s="342"/>
-      <c r="AG8" s="343"/>
+      <c r="E8" s="446"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="338"/>
+      <c r="J8" s="338"/>
+      <c r="K8" s="338"/>
+      <c r="L8" s="338"/>
+      <c r="M8" s="338"/>
+      <c r="N8" s="338"/>
+      <c r="O8" s="338"/>
+      <c r="P8" s="338"/>
+      <c r="Q8" s="338"/>
+      <c r="R8" s="338"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="338"/>
+      <c r="U8" s="338"/>
+      <c r="V8" s="338"/>
+      <c r="W8" s="338"/>
+      <c r="X8" s="338"/>
+      <c r="Y8" s="338"/>
+      <c r="Z8" s="338"/>
+      <c r="AA8" s="338"/>
+      <c r="AB8" s="338"/>
+      <c r="AC8" s="338"/>
+      <c r="AD8" s="338"/>
+      <c r="AE8" s="338"/>
+      <c r="AF8" s="338"/>
+      <c r="AG8" s="339"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="444"/>
-      <c r="B9" s="445"/>
-      <c r="C9" s="446"/>
+      <c r="A9" s="440"/>
+      <c r="B9" s="441"/>
+      <c r="C9" s="442"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4911,13 +5158,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4931,26 +5178,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="447"/>
-      <c r="B10" s="448"/>
-      <c r="C10" s="449"/>
+      <c r="A10" s="443"/>
+      <c r="B10" s="444"/>
+      <c r="C10" s="445"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="337"/>
-      <c r="K10" s="337"/>
-      <c r="L10" s="337"/>
-      <c r="M10" s="337"/>
+      <c r="J10" s="333"/>
+      <c r="K10" s="333"/>
+      <c r="L10" s="333"/>
+      <c r="M10" s="333"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="337"/>
-      <c r="P10" s="337"/>
-      <c r="Q10" s="337"/>
-      <c r="R10" s="337"/>
-      <c r="S10" s="335"/>
-      <c r="T10" s="335"/>
+      <c r="O10" s="333"/>
+      <c r="P10" s="333"/>
+      <c r="Q10" s="333"/>
+      <c r="R10" s="333"/>
+      <c r="S10" s="331"/>
+      <c r="T10" s="331"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4967,110 +5214,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="441" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="442"/>
-      <c r="C11" s="443"/>
+      <c r="A11" s="437" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="438"/>
+      <c r="C11" s="439"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="459" t="str">
+      <c r="E11" s="455" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="442"/>
-      <c r="G11" s="442"/>
-      <c r="H11" s="442"/>
-      <c r="I11" s="442"/>
-      <c r="J11" s="442"/>
-      <c r="K11" s="442"/>
-      <c r="L11" s="442"/>
-      <c r="M11" s="442"/>
-      <c r="N11" s="442"/>
-      <c r="O11" s="442"/>
-      <c r="P11" s="442"/>
-      <c r="Q11" s="442"/>
-      <c r="R11" s="442"/>
-      <c r="S11" s="461" t="s">
-        <v>108</v>
-      </c>
-      <c r="T11" s="462"/>
-      <c r="U11" s="462"/>
-      <c r="V11" s="462"/>
-      <c r="W11" s="462"/>
-      <c r="X11" s="462"/>
-      <c r="Y11" s="462"/>
-      <c r="Z11" s="462"/>
-      <c r="AA11" s="463"/>
-      <c r="AB11" s="464" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="464"/>
-      <c r="AD11" s="464"/>
-      <c r="AE11" s="464"/>
-      <c r="AF11" s="464"/>
-      <c r="AG11" s="465"/>
+      <c r="F11" s="438"/>
+      <c r="G11" s="438"/>
+      <c r="H11" s="438"/>
+      <c r="I11" s="438"/>
+      <c r="J11" s="438"/>
+      <c r="K11" s="438"/>
+      <c r="L11" s="438"/>
+      <c r="M11" s="438"/>
+      <c r="N11" s="438"/>
+      <c r="O11" s="438"/>
+      <c r="P11" s="438"/>
+      <c r="Q11" s="438"/>
+      <c r="R11" s="438"/>
+      <c r="S11" s="457" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" s="458"/>
+      <c r="U11" s="458"/>
+      <c r="V11" s="458"/>
+      <c r="W11" s="458"/>
+      <c r="X11" s="458"/>
+      <c r="Y11" s="458"/>
+      <c r="Z11" s="458"/>
+      <c r="AA11" s="459"/>
+      <c r="AB11" s="460" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" s="460"/>
+      <c r="AD11" s="460"/>
+      <c r="AE11" s="460"/>
+      <c r="AF11" s="460"/>
+      <c r="AG11" s="461"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="444"/>
-      <c r="B12" s="445"/>
-      <c r="C12" s="446"/>
+      <c r="A12" s="440"/>
+      <c r="B12" s="441"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="460"/>
-      <c r="F12" s="445"/>
-      <c r="G12" s="445"/>
-      <c r="H12" s="445"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="445"/>
-      <c r="K12" s="445"/>
-      <c r="L12" s="445"/>
-      <c r="M12" s="445"/>
-      <c r="N12" s="445"/>
-      <c r="O12" s="445"/>
-      <c r="P12" s="445"/>
-      <c r="Q12" s="445"/>
-      <c r="R12" s="445"/>
-      <c r="S12" s="466"/>
-      <c r="T12" s="467"/>
-      <c r="U12" s="467"/>
-      <c r="V12" s="467"/>
-      <c r="W12" s="467"/>
-      <c r="X12" s="467"/>
-      <c r="Y12" s="467"/>
-      <c r="Z12" s="467"/>
-      <c r="AA12" s="468"/>
-      <c r="AB12" s="335"/>
-      <c r="AC12" s="335"/>
-      <c r="AD12" s="335"/>
-      <c r="AE12" s="335"/>
-      <c r="AF12" s="335"/>
-      <c r="AG12" s="336"/>
+      <c r="E12" s="456"/>
+      <c r="F12" s="441"/>
+      <c r="G12" s="441"/>
+      <c r="H12" s="441"/>
+      <c r="I12" s="441"/>
+      <c r="J12" s="441"/>
+      <c r="K12" s="441"/>
+      <c r="L12" s="441"/>
+      <c r="M12" s="441"/>
+      <c r="N12" s="441"/>
+      <c r="O12" s="441"/>
+      <c r="P12" s="441"/>
+      <c r="Q12" s="441"/>
+      <c r="R12" s="441"/>
+      <c r="S12" s="462"/>
+      <c r="T12" s="463"/>
+      <c r="U12" s="463"/>
+      <c r="V12" s="463"/>
+      <c r="W12" s="463"/>
+      <c r="X12" s="463"/>
+      <c r="Y12" s="463"/>
+      <c r="Z12" s="463"/>
+      <c r="AA12" s="464"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="331"/>
+      <c r="AD12" s="331"/>
+      <c r="AE12" s="331"/>
+      <c r="AF12" s="331"/>
+      <c r="AG12" s="332"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="423" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="424"/>
-      <c r="C13" s="425"/>
+      <c r="A13" s="419" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="420"/>
+      <c r="C13" s="421"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="429" t="str">
+      <c r="E13" s="425" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="424"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="424"/>
-      <c r="J13" s="424"/>
-      <c r="K13" s="424"/>
-      <c r="L13" s="424"/>
-      <c r="M13" s="424"/>
-      <c r="N13" s="424"/>
-      <c r="O13" s="424"/>
-      <c r="P13" s="424"/>
-      <c r="Q13" s="424"/>
-      <c r="R13" s="424"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="420"/>
+      <c r="K13" s="420"/>
+      <c r="L13" s="420"/>
+      <c r="M13" s="420"/>
+      <c r="N13" s="420"/>
+      <c r="O13" s="420"/>
+      <c r="P13" s="420"/>
+      <c r="Q13" s="420"/>
+      <c r="R13" s="420"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5089,24 +5336,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="426"/>
-      <c r="B14" s="427"/>
-      <c r="C14" s="428"/>
+      <c r="A14" s="422"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="424"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="430"/>
-      <c r="F14" s="427"/>
-      <c r="G14" s="427"/>
-      <c r="H14" s="427"/>
-      <c r="I14" s="427"/>
-      <c r="J14" s="427"/>
-      <c r="K14" s="427"/>
-      <c r="L14" s="427"/>
-      <c r="M14" s="427"/>
-      <c r="N14" s="427"/>
-      <c r="O14" s="427"/>
-      <c r="P14" s="427"/>
-      <c r="Q14" s="427"/>
-      <c r="R14" s="427"/>
+      <c r="E14" s="426"/>
+      <c r="F14" s="423"/>
+      <c r="G14" s="423"/>
+      <c r="H14" s="423"/>
+      <c r="I14" s="423"/>
+      <c r="J14" s="423"/>
+      <c r="K14" s="423"/>
+      <c r="L14" s="423"/>
+      <c r="M14" s="423"/>
+      <c r="N14" s="423"/>
+      <c r="O14" s="423"/>
+      <c r="P14" s="423"/>
+      <c r="Q14" s="423"/>
+      <c r="R14" s="423"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5125,47 +5372,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="431" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="391"/>
-      <c r="C15" s="391"/>
-      <c r="D15" s="391"/>
-      <c r="E15" s="391"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="391"/>
-      <c r="H15" s="391"/>
-      <c r="I15" s="391"/>
-      <c r="J15" s="391"/>
-      <c r="K15" s="391"/>
-      <c r="L15" s="391"/>
-      <c r="M15" s="391"/>
-      <c r="N15" s="391"/>
-      <c r="O15" s="391"/>
-      <c r="P15" s="391"/>
-      <c r="Q15" s="432"/>
-      <c r="R15" s="390" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" s="433"/>
-      <c r="T15" s="433"/>
-      <c r="U15" s="433"/>
-      <c r="V15" s="434"/>
-      <c r="W15" s="390" t="s">
+      <c r="A15" s="427" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="387"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="387"/>
+      <c r="G15" s="387"/>
+      <c r="H15" s="387"/>
+      <c r="I15" s="387"/>
+      <c r="J15" s="387"/>
+      <c r="K15" s="387"/>
+      <c r="L15" s="387"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="387"/>
+      <c r="O15" s="387"/>
+      <c r="P15" s="387"/>
+      <c r="Q15" s="428"/>
+      <c r="R15" s="386" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="391"/>
-      <c r="Y15" s="391"/>
-      <c r="Z15" s="391"/>
-      <c r="AA15" s="432"/>
-      <c r="AB15" s="390" t="s">
+      <c r="S15" s="429"/>
+      <c r="T15" s="429"/>
+      <c r="U15" s="429"/>
+      <c r="V15" s="430"/>
+      <c r="W15" s="386" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="391"/>
-      <c r="AD15" s="391"/>
-      <c r="AE15" s="391"/>
-      <c r="AF15" s="391"/>
-      <c r="AG15" s="392"/>
+      <c r="X15" s="387"/>
+      <c r="Y15" s="387"/>
+      <c r="Z15" s="387"/>
+      <c r="AA15" s="428"/>
+      <c r="AB15" s="386" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="387"/>
+      <c r="AD15" s="387"/>
+      <c r="AE15" s="387"/>
+      <c r="AF15" s="387"/>
+      <c r="AG15" s="388"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5206,23 +5453,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="213" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="213"/>
-      <c r="P17" s="213"/>
+      <c r="B17" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="209"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5234,34 +5481,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="409" t="str">
+      <c r="AB17" s="405" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="410"/>
-      <c r="AD17" s="410"/>
-      <c r="AE17" s="410"/>
-      <c r="AF17" s="410"/>
-      <c r="AG17" s="411"/>
+      <c r="AC17" s="406"/>
+      <c r="AD17" s="406"/>
+      <c r="AE17" s="406"/>
+      <c r="AF17" s="406"/>
+      <c r="AG17" s="407"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
-      <c r="P18" s="213"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="209"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5283,21 +5530,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
+      <c r="P19" s="209"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5356,7 +5603,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5394,7 +5641,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5432,7 +5679,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5470,7 +5717,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5508,7 +5755,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5546,7 +5793,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5584,7 +5831,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5656,25 +5903,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="412" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="413"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="413"/>
-      <c r="E29" s="413"/>
-      <c r="F29" s="413"/>
-      <c r="G29" s="413"/>
-      <c r="H29" s="413"/>
-      <c r="I29" s="413"/>
-      <c r="J29" s="413"/>
-      <c r="K29" s="413"/>
-      <c r="L29" s="413"/>
-      <c r="M29" s="413"/>
-      <c r="N29" s="413"/>
-      <c r="O29" s="413"/>
-      <c r="P29" s="413"/>
-      <c r="Q29" s="414"/>
+      <c r="A29" s="408" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="409"/>
+      <c r="C29" s="409"/>
+      <c r="D29" s="409"/>
+      <c r="E29" s="409"/>
+      <c r="F29" s="409"/>
+      <c r="G29" s="409"/>
+      <c r="H29" s="409"/>
+      <c r="I29" s="409"/>
+      <c r="J29" s="409"/>
+      <c r="K29" s="409"/>
+      <c r="L29" s="409"/>
+      <c r="M29" s="409"/>
+      <c r="N29" s="409"/>
+      <c r="O29" s="409"/>
+      <c r="P29" s="409"/>
+      <c r="Q29" s="410"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5685,56 +5932,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="415" t="str">
+      <c r="AB29" s="411" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="416"/>
-      <c r="AD29" s="416"/>
-      <c r="AE29" s="416"/>
-      <c r="AF29" s="416"/>
-      <c r="AG29" s="417"/>
+      <c r="AC29" s="412"/>
+      <c r="AD29" s="412"/>
+      <c r="AE29" s="412"/>
+      <c r="AF29" s="412"/>
+      <c r="AG29" s="413"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="418" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="418"/>
-      <c r="D30" s="418"/>
-      <c r="E30" s="418"/>
-      <c r="F30" s="418"/>
-      <c r="G30" s="418"/>
-      <c r="H30" s="418"/>
-      <c r="I30" s="418"/>
-      <c r="J30" s="418"/>
-      <c r="K30" s="418"/>
-      <c r="L30" s="418"/>
-      <c r="M30" s="418"/>
-      <c r="N30" s="418"/>
-      <c r="O30" s="418"/>
-      <c r="P30" s="418"/>
-      <c r="Q30" s="418"/>
-      <c r="R30" s="418"/>
-      <c r="S30" s="418"/>
-      <c r="T30" s="418"/>
-      <c r="U30" s="418"/>
-      <c r="V30" s="418"/>
-      <c r="W30" s="418"/>
-      <c r="X30" s="418"/>
-      <c r="Y30" s="418"/>
-      <c r="Z30" s="418"/>
-      <c r="AA30" s="418"/>
-      <c r="AB30" s="419"/>
-      <c r="AC30" s="419"/>
-      <c r="AD30" s="419"/>
-      <c r="AE30" s="419"/>
-      <c r="AF30" s="419"/>
-      <c r="AG30" s="420"/>
+        <v>63</v>
+      </c>
+      <c r="B30" s="414" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="414"/>
+      <c r="D30" s="414"/>
+      <c r="E30" s="414"/>
+      <c r="F30" s="414"/>
+      <c r="G30" s="414"/>
+      <c r="H30" s="414"/>
+      <c r="I30" s="414"/>
+      <c r="J30" s="414"/>
+      <c r="K30" s="414"/>
+      <c r="L30" s="414"/>
+      <c r="M30" s="414"/>
+      <c r="N30" s="414"/>
+      <c r="O30" s="414"/>
+      <c r="P30" s="414"/>
+      <c r="Q30" s="414"/>
+      <c r="R30" s="414"/>
+      <c r="S30" s="414"/>
+      <c r="T30" s="414"/>
+      <c r="U30" s="414"/>
+      <c r="V30" s="414"/>
+      <c r="W30" s="414"/>
+      <c r="X30" s="414"/>
+      <c r="Y30" s="414"/>
+      <c r="Z30" s="414"/>
+      <c r="AA30" s="414"/>
+      <c r="AB30" s="415"/>
+      <c r="AC30" s="415"/>
+      <c r="AD30" s="415"/>
+      <c r="AE30" s="415"/>
+      <c r="AF30" s="415"/>
+      <c r="AG30" s="416"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5744,7 +5991,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5779,80 +6026,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="421" t="str">
+      <c r="B32" s="417" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="410"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="410"/>
-      <c r="F32" s="410"/>
-      <c r="G32" s="410"/>
-      <c r="H32" s="410"/>
-      <c r="I32" s="410"/>
-      <c r="J32" s="410"/>
-      <c r="K32" s="410"/>
-      <c r="L32" s="410"/>
-      <c r="M32" s="410"/>
-      <c r="N32" s="410"/>
-      <c r="O32" s="410"/>
-      <c r="P32" s="410"/>
-      <c r="Q32" s="410"/>
-      <c r="R32" s="410"/>
-      <c r="S32" s="410"/>
-      <c r="T32" s="410"/>
-      <c r="U32" s="410"/>
-      <c r="V32" s="410"/>
-      <c r="W32" s="410"/>
-      <c r="X32" s="410"/>
-      <c r="Y32" s="410"/>
-      <c r="Z32" s="410"/>
-      <c r="AA32" s="410"/>
-      <c r="AB32" s="410"/>
-      <c r="AC32" s="410"/>
-      <c r="AD32" s="410"/>
-      <c r="AE32" s="410"/>
-      <c r="AF32" s="410"/>
+      <c r="C32" s="406"/>
+      <c r="D32" s="406"/>
+      <c r="E32" s="406"/>
+      <c r="F32" s="406"/>
+      <c r="G32" s="406"/>
+      <c r="H32" s="406"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="406"/>
+      <c r="K32" s="406"/>
+      <c r="L32" s="406"/>
+      <c r="M32" s="406"/>
+      <c r="N32" s="406"/>
+      <c r="O32" s="406"/>
+      <c r="P32" s="406"/>
+      <c r="Q32" s="406"/>
+      <c r="R32" s="406"/>
+      <c r="S32" s="406"/>
+      <c r="T32" s="406"/>
+      <c r="U32" s="406"/>
+      <c r="V32" s="406"/>
+      <c r="W32" s="406"/>
+      <c r="X32" s="406"/>
+      <c r="Y32" s="406"/>
+      <c r="Z32" s="406"/>
+      <c r="AA32" s="406"/>
+      <c r="AB32" s="406"/>
+      <c r="AC32" s="406"/>
+      <c r="AD32" s="406"/>
+      <c r="AE32" s="406"/>
+      <c r="AF32" s="406"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="422" t="str">
+      <c r="B33" s="418" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="422"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="422"/>
-      <c r="F33" s="422"/>
-      <c r="G33" s="422"/>
-      <c r="H33" s="422"/>
-      <c r="I33" s="422"/>
-      <c r="J33" s="422"/>
-      <c r="K33" s="422"/>
-      <c r="L33" s="422"/>
-      <c r="M33" s="422"/>
-      <c r="N33" s="422"/>
-      <c r="O33" s="422"/>
-      <c r="P33" s="422"/>
-      <c r="Q33" s="422"/>
-      <c r="R33" s="422"/>
-      <c r="S33" s="422"/>
-      <c r="T33" s="422"/>
-      <c r="U33" s="422"/>
-      <c r="V33" s="422"/>
-      <c r="W33" s="422"/>
-      <c r="X33" s="422"/>
-      <c r="Y33" s="422"/>
-      <c r="Z33" s="422"/>
-      <c r="AA33" s="422"/>
-      <c r="AB33" s="422"/>
-      <c r="AC33" s="422"/>
-      <c r="AD33" s="422"/>
-      <c r="AE33" s="422"/>
-      <c r="AF33" s="422"/>
+      <c r="C33" s="418"/>
+      <c r="D33" s="418"/>
+      <c r="E33" s="418"/>
+      <c r="F33" s="418"/>
+      <c r="G33" s="418"/>
+      <c r="H33" s="418"/>
+      <c r="I33" s="418"/>
+      <c r="J33" s="418"/>
+      <c r="K33" s="418"/>
+      <c r="L33" s="418"/>
+      <c r="M33" s="418"/>
+      <c r="N33" s="418"/>
+      <c r="O33" s="418"/>
+      <c r="P33" s="418"/>
+      <c r="Q33" s="418"/>
+      <c r="R33" s="418"/>
+      <c r="S33" s="418"/>
+      <c r="T33" s="418"/>
+      <c r="U33" s="418"/>
+      <c r="V33" s="418"/>
+      <c r="W33" s="418"/>
+      <c r="X33" s="418"/>
+      <c r="Y33" s="418"/>
+      <c r="Z33" s="418"/>
+      <c r="AA33" s="418"/>
+      <c r="AB33" s="418"/>
+      <c r="AC33" s="418"/>
+      <c r="AD33" s="418"/>
+      <c r="AE33" s="418"/>
+      <c r="AF33" s="418"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5869,19 +6116,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="422"/>
-      <c r="M34" s="422"/>
-      <c r="N34" s="422"/>
-      <c r="O34" s="422"/>
-      <c r="P34" s="422"/>
-      <c r="Q34" s="422"/>
-      <c r="R34" s="422"/>
-      <c r="S34" s="422"/>
-      <c r="T34" s="422"/>
-      <c r="U34" s="422"/>
-      <c r="V34" s="422"/>
-      <c r="W34" s="422"/>
-      <c r="X34" s="422"/>
+      <c r="L34" s="418"/>
+      <c r="M34" s="418"/>
+      <c r="N34" s="418"/>
+      <c r="O34" s="418"/>
+      <c r="P34" s="418"/>
+      <c r="Q34" s="418"/>
+      <c r="R34" s="418"/>
+      <c r="S34" s="418"/>
+      <c r="T34" s="418"/>
+      <c r="U34" s="418"/>
+      <c r="V34" s="418"/>
+      <c r="W34" s="418"/>
+      <c r="X34" s="418"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5906,19 +6153,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="422"/>
-      <c r="M35" s="422"/>
-      <c r="N35" s="422"/>
-      <c r="O35" s="422"/>
-      <c r="P35" s="422"/>
-      <c r="Q35" s="422"/>
-      <c r="R35" s="422"/>
-      <c r="S35" s="422"/>
-      <c r="T35" s="422"/>
-      <c r="U35" s="422"/>
-      <c r="V35" s="422"/>
-      <c r="W35" s="422"/>
-      <c r="X35" s="422"/>
+      <c r="L35" s="418"/>
+      <c r="M35" s="418"/>
+      <c r="N35" s="418"/>
+      <c r="O35" s="418"/>
+      <c r="P35" s="418"/>
+      <c r="Q35" s="418"/>
+      <c r="R35" s="418"/>
+      <c r="S35" s="418"/>
+      <c r="T35" s="418"/>
+      <c r="U35" s="418"/>
+      <c r="V35" s="418"/>
+      <c r="W35" s="418"/>
+      <c r="X35" s="418"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5933,10 +6180,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5973,47 +6220,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="404" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="405"/>
-      <c r="C37" s="405"/>
-      <c r="D37" s="405"/>
-      <c r="E37" s="405"/>
-      <c r="F37" s="405"/>
-      <c r="G37" s="405"/>
-      <c r="H37" s="405"/>
-      <c r="I37" s="405"/>
-      <c r="J37" s="405"/>
-      <c r="K37" s="405"/>
-      <c r="L37" s="405"/>
-      <c r="M37" s="405"/>
-      <c r="N37" s="405"/>
-      <c r="O37" s="405"/>
-      <c r="P37" s="405"/>
-      <c r="Q37" s="405"/>
-      <c r="R37" s="405"/>
-      <c r="S37" s="405" t="s">
-        <v>123</v>
-      </c>
-      <c r="T37" s="405"/>
-      <c r="U37" s="405"/>
-      <c r="V37" s="405"/>
-      <c r="W37" s="405"/>
-      <c r="X37" s="406" t="s">
+      <c r="A37" s="400" t="s">
         <v>124</v>
       </c>
-      <c r="Y37" s="406"/>
-      <c r="Z37" s="406"/>
-      <c r="AA37" s="406"/>
-      <c r="AB37" s="406"/>
-      <c r="AC37" s="407" t="s">
+      <c r="B37" s="401"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="401"/>
+      <c r="E37" s="401"/>
+      <c r="F37" s="401"/>
+      <c r="G37" s="401"/>
+      <c r="H37" s="401"/>
+      <c r="I37" s="401"/>
+      <c r="J37" s="401"/>
+      <c r="K37" s="401"/>
+      <c r="L37" s="401"/>
+      <c r="M37" s="401"/>
+      <c r="N37" s="401"/>
+      <c r="O37" s="401"/>
+      <c r="P37" s="401"/>
+      <c r="Q37" s="401"/>
+      <c r="R37" s="401"/>
+      <c r="S37" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="AD37" s="407"/>
-      <c r="AE37" s="407"/>
-      <c r="AF37" s="407"/>
-      <c r="AG37" s="408"/>
+      <c r="T37" s="401"/>
+      <c r="U37" s="401"/>
+      <c r="V37" s="401"/>
+      <c r="W37" s="401"/>
+      <c r="X37" s="402" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y37" s="402"/>
+      <c r="Z37" s="402"/>
+      <c r="AA37" s="402"/>
+      <c r="AB37" s="402"/>
+      <c r="AC37" s="403" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD37" s="403"/>
+      <c r="AE37" s="403"/>
+      <c r="AF37" s="403"/>
+      <c r="AG37" s="404"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6093,7 +6340,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6130,10 +6377,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6152,21 +6399,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="T41" s="393" t="s">
-        <v>128</v>
-      </c>
-      <c r="U41" s="393"/>
-      <c r="V41" s="393"/>
-      <c r="W41" s="393"/>
-      <c r="X41" s="393"/>
-      <c r="Y41" s="393"/>
-      <c r="Z41" s="393"/>
-      <c r="AA41" s="393"/>
-      <c r="AB41" s="393"/>
-      <c r="AC41" s="393"/>
-      <c r="AD41" s="393"/>
+        <v>129</v>
+      </c>
+      <c r="T41" s="389" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" s="389"/>
+      <c r="V41" s="389"/>
+      <c r="W41" s="389"/>
+      <c r="X41" s="389"/>
+      <c r="Y41" s="389"/>
+      <c r="Z41" s="389"/>
+      <c r="AA41" s="389"/>
+      <c r="AB41" s="389"/>
+      <c r="AC41" s="389"/>
+      <c r="AD41" s="389"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6176,7 +6423,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6193,31 +6440,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="394"/>
-      <c r="T42" s="395"/>
-      <c r="U42" s="395"/>
-      <c r="V42" s="395"/>
-      <c r="W42" s="395"/>
-      <c r="X42" s="395"/>
-      <c r="Y42" s="395"/>
-      <c r="Z42" s="395"/>
-      <c r="AA42" s="395"/>
-      <c r="AB42" s="395"/>
-      <c r="AC42" s="395"/>
-      <c r="AD42" s="395"/>
-      <c r="AE42" s="395"/>
-      <c r="AF42" s="395"/>
-      <c r="AG42" s="396"/>
+      <c r="S42" s="390"/>
+      <c r="T42" s="391"/>
+      <c r="U42" s="391"/>
+      <c r="V42" s="391"/>
+      <c r="W42" s="391"/>
+      <c r="X42" s="391"/>
+      <c r="Y42" s="391"/>
+      <c r="Z42" s="391"/>
+      <c r="AA42" s="391"/>
+      <c r="AB42" s="391"/>
+      <c r="AC42" s="391"/>
+      <c r="AD42" s="391"/>
+      <c r="AE42" s="391"/>
+      <c r="AF42" s="391"/>
+      <c r="AG42" s="392"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="403"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="335"/>
-      <c r="F43" s="335"/>
-      <c r="G43" s="335"/>
+      <c r="A43" s="399"/>
+      <c r="B43" s="331"/>
+      <c r="C43" s="331"/>
+      <c r="D43" s="331"/>
+      <c r="E43" s="331"/>
+      <c r="F43" s="331"/>
+      <c r="G43" s="331"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6229,28 +6476,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="397"/>
-      <c r="T43" s="398"/>
-      <c r="U43" s="398"/>
-      <c r="V43" s="398"/>
-      <c r="W43" s="398"/>
-      <c r="X43" s="398"/>
-      <c r="Y43" s="398"/>
-      <c r="Z43" s="398"/>
-      <c r="AA43" s="398"/>
-      <c r="AB43" s="398"/>
-      <c r="AC43" s="398"/>
-      <c r="AD43" s="398"/>
-      <c r="AE43" s="398"/>
-      <c r="AF43" s="398"/>
-      <c r="AG43" s="399"/>
+      <c r="S43" s="393"/>
+      <c r="T43" s="394"/>
+      <c r="U43" s="394"/>
+      <c r="V43" s="394"/>
+      <c r="W43" s="394"/>
+      <c r="X43" s="394"/>
+      <c r="Y43" s="394"/>
+      <c r="Z43" s="394"/>
+      <c r="AA43" s="394"/>
+      <c r="AB43" s="394"/>
+      <c r="AC43" s="394"/>
+      <c r="AD43" s="394"/>
+      <c r="AE43" s="394"/>
+      <c r="AF43" s="394"/>
+      <c r="AG43" s="395"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6267,67 +6514,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="397"/>
-      <c r="T44" s="398"/>
-      <c r="U44" s="398"/>
-      <c r="V44" s="398"/>
-      <c r="W44" s="398"/>
-      <c r="X44" s="398"/>
-      <c r="Y44" s="398"/>
-      <c r="Z44" s="398"/>
-      <c r="AA44" s="398"/>
-      <c r="AB44" s="398"/>
-      <c r="AC44" s="398"/>
-      <c r="AD44" s="398"/>
-      <c r="AE44" s="398"/>
-      <c r="AF44" s="398"/>
-      <c r="AG44" s="399"/>
+      <c r="S44" s="393"/>
+      <c r="T44" s="394"/>
+      <c r="U44" s="394"/>
+      <c r="V44" s="394"/>
+      <c r="W44" s="394"/>
+      <c r="X44" s="394"/>
+      <c r="Y44" s="394"/>
+      <c r="Z44" s="394"/>
+      <c r="AA44" s="394"/>
+      <c r="AB44" s="394"/>
+      <c r="AC44" s="394"/>
+      <c r="AD44" s="394"/>
+      <c r="AE44" s="394"/>
+      <c r="AF44" s="394"/>
+      <c r="AG44" s="395"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="403"/>
-      <c r="B45" s="335"/>
-      <c r="C45" s="335"/>
-      <c r="D45" s="335"/>
-      <c r="E45" s="335"/>
-      <c r="F45" s="335"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335"/>
-      <c r="K45" s="335"/>
-      <c r="L45" s="335"/>
-      <c r="M45" s="335"/>
-      <c r="N45" s="335"/>
-      <c r="O45" s="335"/>
-      <c r="P45" s="335"/>
-      <c r="Q45" s="335"/>
-      <c r="R45" s="336"/>
-      <c r="S45" s="397"/>
-      <c r="T45" s="398"/>
-      <c r="U45" s="398"/>
-      <c r="V45" s="398"/>
-      <c r="W45" s="398"/>
-      <c r="X45" s="398"/>
-      <c r="Y45" s="398"/>
-      <c r="Z45" s="398"/>
-      <c r="AA45" s="398"/>
-      <c r="AB45" s="398"/>
-      <c r="AC45" s="398"/>
-      <c r="AD45" s="398"/>
-      <c r="AE45" s="398"/>
-      <c r="AF45" s="398"/>
-      <c r="AG45" s="399"/>
+      <c r="A45" s="399"/>
+      <c r="B45" s="331"/>
+      <c r="C45" s="331"/>
+      <c r="D45" s="331"/>
+      <c r="E45" s="331"/>
+      <c r="F45" s="331"/>
+      <c r="G45" s="331"/>
+      <c r="H45" s="331"/>
+      <c r="I45" s="331"/>
+      <c r="J45" s="331"/>
+      <c r="K45" s="331"/>
+      <c r="L45" s="331"/>
+      <c r="M45" s="331"/>
+      <c r="N45" s="331"/>
+      <c r="O45" s="331"/>
+      <c r="P45" s="331"/>
+      <c r="Q45" s="331"/>
+      <c r="R45" s="332"/>
+      <c r="S45" s="393"/>
+      <c r="T45" s="394"/>
+      <c r="U45" s="394"/>
+      <c r="V45" s="394"/>
+      <c r="W45" s="394"/>
+      <c r="X45" s="394"/>
+      <c r="Y45" s="394"/>
+      <c r="Z45" s="394"/>
+      <c r="AA45" s="394"/>
+      <c r="AB45" s="394"/>
+      <c r="AC45" s="394"/>
+      <c r="AD45" s="394"/>
+      <c r="AE45" s="394"/>
+      <c r="AF45" s="394"/>
+      <c r="AG45" s="395"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6343,28 +6590,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="397"/>
-      <c r="T46" s="398"/>
-      <c r="U46" s="398"/>
-      <c r="V46" s="398"/>
-      <c r="W46" s="398"/>
-      <c r="X46" s="398"/>
-      <c r="Y46" s="398"/>
-      <c r="Z46" s="398"/>
-      <c r="AA46" s="398"/>
-      <c r="AB46" s="398"/>
-      <c r="AC46" s="398"/>
-      <c r="AD46" s="398"/>
-      <c r="AE46" s="398"/>
-      <c r="AF46" s="398"/>
-      <c r="AG46" s="399"/>
+      <c r="S46" s="393"/>
+      <c r="T46" s="394"/>
+      <c r="U46" s="394"/>
+      <c r="V46" s="394"/>
+      <c r="W46" s="394"/>
+      <c r="X46" s="394"/>
+      <c r="Y46" s="394"/>
+      <c r="Z46" s="394"/>
+      <c r="AA46" s="394"/>
+      <c r="AB46" s="394"/>
+      <c r="AC46" s="394"/>
+      <c r="AD46" s="394"/>
+      <c r="AE46" s="394"/>
+      <c r="AF46" s="394"/>
+      <c r="AG46" s="395"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6381,21 +6628,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="397"/>
-      <c r="T47" s="398"/>
-      <c r="U47" s="398"/>
-      <c r="V47" s="398"/>
-      <c r="W47" s="398"/>
-      <c r="X47" s="398"/>
-      <c r="Y47" s="398"/>
-      <c r="Z47" s="398"/>
-      <c r="AA47" s="398"/>
-      <c r="AB47" s="398"/>
-      <c r="AC47" s="398"/>
-      <c r="AD47" s="398"/>
-      <c r="AE47" s="398"/>
-      <c r="AF47" s="398"/>
-      <c r="AG47" s="399"/>
+      <c r="S47" s="393"/>
+      <c r="T47" s="394"/>
+      <c r="U47" s="394"/>
+      <c r="V47" s="394"/>
+      <c r="W47" s="394"/>
+      <c r="X47" s="394"/>
+      <c r="Y47" s="394"/>
+      <c r="Z47" s="394"/>
+      <c r="AA47" s="394"/>
+      <c r="AB47" s="394"/>
+      <c r="AC47" s="394"/>
+      <c r="AD47" s="394"/>
+      <c r="AE47" s="394"/>
+      <c r="AF47" s="394"/>
+      <c r="AG47" s="395"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6417,344 +6664,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="400"/>
-      <c r="T48" s="401"/>
-      <c r="U48" s="401"/>
-      <c r="V48" s="401"/>
-      <c r="W48" s="401"/>
-      <c r="X48" s="401"/>
-      <c r="Y48" s="401"/>
-      <c r="Z48" s="401"/>
-      <c r="AA48" s="401"/>
-      <c r="AB48" s="401"/>
-      <c r="AC48" s="401"/>
-      <c r="AD48" s="401"/>
-      <c r="AE48" s="401"/>
-      <c r="AF48" s="401"/>
-      <c r="AG48" s="402"/>
+      <c r="S48" s="396"/>
+      <c r="T48" s="397"/>
+      <c r="U48" s="397"/>
+      <c r="V48" s="397"/>
+      <c r="W48" s="397"/>
+      <c r="X48" s="397"/>
+      <c r="Y48" s="397"/>
+      <c r="Z48" s="397"/>
+      <c r="AA48" s="397"/>
+      <c r="AB48" s="397"/>
+      <c r="AC48" s="397"/>
+      <c r="AD48" s="397"/>
+      <c r="AE48" s="397"/>
+      <c r="AF48" s="397"/>
+      <c r="AG48" s="398"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="344" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="370"/>
-      <c r="C49" s="370"/>
-      <c r="D49" s="370"/>
-      <c r="E49" s="348"/>
-      <c r="F49" s="335"/>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
-      <c r="L49" s="335"/>
-      <c r="M49" s="335"/>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="336"/>
-      <c r="S49" s="344" t="s">
-        <v>133</v>
-      </c>
-      <c r="T49" s="345"/>
-      <c r="U49" s="345"/>
-      <c r="V49" s="374"/>
-      <c r="W49" s="357"/>
-      <c r="X49" s="354"/>
-      <c r="Y49" s="354"/>
-      <c r="Z49" s="354"/>
-      <c r="AA49" s="354"/>
-      <c r="AB49" s="354"/>
-      <c r="AC49" s="354"/>
-      <c r="AD49" s="354"/>
-      <c r="AE49" s="354"/>
-      <c r="AF49" s="354"/>
-      <c r="AG49" s="358"/>
+      <c r="A49" s="340" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="366"/>
+      <c r="C49" s="366"/>
+      <c r="D49" s="366"/>
+      <c r="E49" s="344"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
+      <c r="H49" s="331"/>
+      <c r="I49" s="331"/>
+      <c r="J49" s="331"/>
+      <c r="K49" s="331"/>
+      <c r="L49" s="331"/>
+      <c r="M49" s="331"/>
+      <c r="N49" s="331"/>
+      <c r="O49" s="331"/>
+      <c r="P49" s="331"/>
+      <c r="Q49" s="331"/>
+      <c r="R49" s="332"/>
+      <c r="S49" s="340" t="s">
+        <v>135</v>
+      </c>
+      <c r="T49" s="341"/>
+      <c r="U49" s="341"/>
+      <c r="V49" s="370"/>
+      <c r="W49" s="353"/>
+      <c r="X49" s="350"/>
+      <c r="Y49" s="350"/>
+      <c r="Z49" s="350"/>
+      <c r="AA49" s="350"/>
+      <c r="AB49" s="350"/>
+      <c r="AC49" s="350"/>
+      <c r="AD49" s="350"/>
+      <c r="AE49" s="350"/>
+      <c r="AF49" s="350"/>
+      <c r="AG49" s="354"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="371"/>
-      <c r="B50" s="372"/>
-      <c r="C50" s="372"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="327"/>
-      <c r="F50" s="324"/>
-      <c r="G50" s="324"/>
-      <c r="H50" s="324"/>
-      <c r="I50" s="324"/>
-      <c r="J50" s="324"/>
-      <c r="K50" s="324"/>
-      <c r="L50" s="324"/>
-      <c r="M50" s="324"/>
-      <c r="N50" s="324"/>
-      <c r="O50" s="324"/>
-      <c r="P50" s="324"/>
-      <c r="Q50" s="324"/>
-      <c r="R50" s="373"/>
-      <c r="S50" s="346"/>
-      <c r="T50" s="347"/>
-      <c r="U50" s="347"/>
-      <c r="V50" s="356"/>
-      <c r="W50" s="359"/>
-      <c r="X50" s="347"/>
-      <c r="Y50" s="347"/>
-      <c r="Z50" s="347"/>
-      <c r="AA50" s="347"/>
-      <c r="AB50" s="347"/>
-      <c r="AC50" s="347"/>
-      <c r="AD50" s="347"/>
-      <c r="AE50" s="347"/>
-      <c r="AF50" s="347"/>
-      <c r="AG50" s="360"/>
+      <c r="A50" s="367"/>
+      <c r="B50" s="368"/>
+      <c r="C50" s="368"/>
+      <c r="D50" s="368"/>
+      <c r="E50" s="323"/>
+      <c r="F50" s="320"/>
+      <c r="G50" s="320"/>
+      <c r="H50" s="320"/>
+      <c r="I50" s="320"/>
+      <c r="J50" s="320"/>
+      <c r="K50" s="320"/>
+      <c r="L50" s="320"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="320"/>
+      <c r="O50" s="320"/>
+      <c r="P50" s="320"/>
+      <c r="Q50" s="320"/>
+      <c r="R50" s="369"/>
+      <c r="S50" s="342"/>
+      <c r="T50" s="343"/>
+      <c r="U50" s="343"/>
+      <c r="V50" s="352"/>
+      <c r="W50" s="355"/>
+      <c r="X50" s="343"/>
+      <c r="Y50" s="343"/>
+      <c r="Z50" s="343"/>
+      <c r="AA50" s="343"/>
+      <c r="AB50" s="343"/>
+      <c r="AC50" s="343"/>
+      <c r="AD50" s="343"/>
+      <c r="AE50" s="343"/>
+      <c r="AF50" s="343"/>
+      <c r="AG50" s="356"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="320" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="375"/>
-      <c r="C51" s="375"/>
-      <c r="D51" s="376"/>
-      <c r="E51" s="378" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="379"/>
-      <c r="G51" s="379"/>
-      <c r="H51" s="379"/>
-      <c r="I51" s="379"/>
-      <c r="J51" s="379"/>
-      <c r="K51" s="379"/>
-      <c r="L51" s="379"/>
-      <c r="M51" s="379"/>
-      <c r="N51" s="379"/>
-      <c r="O51" s="379"/>
-      <c r="P51" s="379"/>
-      <c r="Q51" s="379"/>
-      <c r="R51" s="380"/>
-      <c r="S51" s="320" t="s">
-        <v>134</v>
-      </c>
-      <c r="T51" s="354"/>
-      <c r="U51" s="354"/>
-      <c r="V51" s="355"/>
-      <c r="W51" s="384" t="s">
-        <v>39</v>
-      </c>
-      <c r="X51" s="385"/>
-      <c r="Y51" s="385"/>
-      <c r="Z51" s="385"/>
-      <c r="AA51" s="385"/>
-      <c r="AB51" s="385"/>
-      <c r="AC51" s="385"/>
-      <c r="AD51" s="385"/>
-      <c r="AE51" s="385"/>
-      <c r="AF51" s="385"/>
-      <c r="AG51" s="386"/>
+      <c r="A51" s="316" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="371"/>
+      <c r="C51" s="371"/>
+      <c r="D51" s="372"/>
+      <c r="E51" s="374" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="375"/>
+      <c r="G51" s="375"/>
+      <c r="H51" s="375"/>
+      <c r="I51" s="375"/>
+      <c r="J51" s="375"/>
+      <c r="K51" s="375"/>
+      <c r="L51" s="375"/>
+      <c r="M51" s="375"/>
+      <c r="N51" s="375"/>
+      <c r="O51" s="375"/>
+      <c r="P51" s="375"/>
+      <c r="Q51" s="375"/>
+      <c r="R51" s="376"/>
+      <c r="S51" s="316" t="s">
+        <v>136</v>
+      </c>
+      <c r="T51" s="350"/>
+      <c r="U51" s="350"/>
+      <c r="V51" s="351"/>
+      <c r="W51" s="380" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="381"/>
+      <c r="Y51" s="381"/>
+      <c r="Z51" s="381"/>
+      <c r="AA51" s="381"/>
+      <c r="AB51" s="381"/>
+      <c r="AC51" s="381"/>
+      <c r="AD51" s="381"/>
+      <c r="AE51" s="381"/>
+      <c r="AF51" s="381"/>
+      <c r="AG51" s="382"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="371"/>
-      <c r="B52" s="372"/>
-      <c r="C52" s="372"/>
-      <c r="D52" s="377"/>
-      <c r="E52" s="381"/>
-      <c r="F52" s="382"/>
-      <c r="G52" s="382"/>
-      <c r="H52" s="382"/>
-      <c r="I52" s="382"/>
-      <c r="J52" s="382"/>
-      <c r="K52" s="382"/>
-      <c r="L52" s="382"/>
-      <c r="M52" s="382"/>
-      <c r="N52" s="382"/>
-      <c r="O52" s="382"/>
-      <c r="P52" s="382"/>
-      <c r="Q52" s="382"/>
-      <c r="R52" s="383"/>
-      <c r="S52" s="346"/>
-      <c r="T52" s="347"/>
-      <c r="U52" s="347"/>
-      <c r="V52" s="356"/>
-      <c r="W52" s="387"/>
-      <c r="X52" s="388"/>
-      <c r="Y52" s="388"/>
-      <c r="Z52" s="388"/>
-      <c r="AA52" s="388"/>
-      <c r="AB52" s="388"/>
-      <c r="AC52" s="388"/>
-      <c r="AD52" s="388"/>
-      <c r="AE52" s="388"/>
-      <c r="AF52" s="388"/>
-      <c r="AG52" s="389"/>
+      <c r="A52" s="367"/>
+      <c r="B52" s="368"/>
+      <c r="C52" s="368"/>
+      <c r="D52" s="373"/>
+      <c r="E52" s="377"/>
+      <c r="F52" s="378"/>
+      <c r="G52" s="378"/>
+      <c r="H52" s="378"/>
+      <c r="I52" s="378"/>
+      <c r="J52" s="378"/>
+      <c r="K52" s="378"/>
+      <c r="L52" s="378"/>
+      <c r="M52" s="378"/>
+      <c r="N52" s="378"/>
+      <c r="O52" s="378"/>
+      <c r="P52" s="378"/>
+      <c r="Q52" s="378"/>
+      <c r="R52" s="379"/>
+      <c r="S52" s="342"/>
+      <c r="T52" s="343"/>
+      <c r="U52" s="343"/>
+      <c r="V52" s="352"/>
+      <c r="W52" s="383"/>
+      <c r="X52" s="384"/>
+      <c r="Y52" s="384"/>
+      <c r="Z52" s="384"/>
+      <c r="AA52" s="384"/>
+      <c r="AB52" s="384"/>
+      <c r="AC52" s="384"/>
+      <c r="AD52" s="384"/>
+      <c r="AE52" s="384"/>
+      <c r="AF52" s="384"/>
+      <c r="AG52" s="385"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="320" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="354"/>
-      <c r="C53" s="354"/>
-      <c r="D53" s="355"/>
-      <c r="E53" s="357" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="354"/>
-      <c r="G53" s="354"/>
-      <c r="H53" s="354"/>
-      <c r="I53" s="354"/>
-      <c r="J53" s="354"/>
-      <c r="K53" s="354"/>
-      <c r="L53" s="354"/>
-      <c r="M53" s="354"/>
-      <c r="N53" s="354"/>
-      <c r="O53" s="354"/>
-      <c r="P53" s="354"/>
-      <c r="Q53" s="354"/>
-      <c r="R53" s="358"/>
-      <c r="S53" s="320" t="s">
-        <v>136</v>
-      </c>
-      <c r="T53" s="354"/>
-      <c r="U53" s="354"/>
-      <c r="V53" s="355"/>
-      <c r="W53" s="357" t="s">
+      <c r="A53" s="316" t="s">
         <v>138</v>
       </c>
-      <c r="X53" s="354"/>
-      <c r="Y53" s="354"/>
-      <c r="Z53" s="354"/>
-      <c r="AA53" s="354"/>
-      <c r="AB53" s="354"/>
-      <c r="AC53" s="354"/>
-      <c r="AD53" s="354"/>
-      <c r="AE53" s="354"/>
-      <c r="AF53" s="354"/>
-      <c r="AG53" s="358"/>
+      <c r="B53" s="350"/>
+      <c r="C53" s="350"/>
+      <c r="D53" s="351"/>
+      <c r="E53" s="353" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="350"/>
+      <c r="G53" s="350"/>
+      <c r="H53" s="350"/>
+      <c r="I53" s="350"/>
+      <c r="J53" s="350"/>
+      <c r="K53" s="350"/>
+      <c r="L53" s="350"/>
+      <c r="M53" s="350"/>
+      <c r="N53" s="350"/>
+      <c r="O53" s="350"/>
+      <c r="P53" s="350"/>
+      <c r="Q53" s="350"/>
+      <c r="R53" s="354"/>
+      <c r="S53" s="316" t="s">
+        <v>138</v>
+      </c>
+      <c r="T53" s="350"/>
+      <c r="U53" s="350"/>
+      <c r="V53" s="351"/>
+      <c r="W53" s="353" t="s">
+        <v>140</v>
+      </c>
+      <c r="X53" s="350"/>
+      <c r="Y53" s="350"/>
+      <c r="Z53" s="350"/>
+      <c r="AA53" s="350"/>
+      <c r="AB53" s="350"/>
+      <c r="AC53" s="350"/>
+      <c r="AD53" s="350"/>
+      <c r="AE53" s="350"/>
+      <c r="AF53" s="350"/>
+      <c r="AG53" s="354"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="346"/>
-      <c r="B54" s="347"/>
-      <c r="C54" s="347"/>
-      <c r="D54" s="356"/>
-      <c r="E54" s="359"/>
-      <c r="F54" s="347"/>
-      <c r="G54" s="347"/>
-      <c r="H54" s="347"/>
-      <c r="I54" s="347"/>
-      <c r="J54" s="347"/>
-      <c r="K54" s="347"/>
-      <c r="L54" s="347"/>
-      <c r="M54" s="347"/>
-      <c r="N54" s="347"/>
-      <c r="O54" s="347"/>
-      <c r="P54" s="347"/>
-      <c r="Q54" s="347"/>
-      <c r="R54" s="360"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="347"/>
-      <c r="U54" s="347"/>
-      <c r="V54" s="356"/>
-      <c r="W54" s="359"/>
-      <c r="X54" s="347"/>
-      <c r="Y54" s="347"/>
-      <c r="Z54" s="347"/>
-      <c r="AA54" s="347"/>
-      <c r="AB54" s="347"/>
-      <c r="AC54" s="347"/>
-      <c r="AD54" s="347"/>
-      <c r="AE54" s="347"/>
-      <c r="AF54" s="347"/>
-      <c r="AG54" s="360"/>
+      <c r="A54" s="342"/>
+      <c r="B54" s="343"/>
+      <c r="C54" s="343"/>
+      <c r="D54" s="352"/>
+      <c r="E54" s="355"/>
+      <c r="F54" s="343"/>
+      <c r="G54" s="343"/>
+      <c r="H54" s="343"/>
+      <c r="I54" s="343"/>
+      <c r="J54" s="343"/>
+      <c r="K54" s="343"/>
+      <c r="L54" s="343"/>
+      <c r="M54" s="343"/>
+      <c r="N54" s="343"/>
+      <c r="O54" s="343"/>
+      <c r="P54" s="343"/>
+      <c r="Q54" s="343"/>
+      <c r="R54" s="356"/>
+      <c r="S54" s="342"/>
+      <c r="T54" s="343"/>
+      <c r="U54" s="343"/>
+      <c r="V54" s="352"/>
+      <c r="W54" s="355"/>
+      <c r="X54" s="343"/>
+      <c r="Y54" s="343"/>
+      <c r="Z54" s="343"/>
+      <c r="AA54" s="343"/>
+      <c r="AB54" s="343"/>
+      <c r="AC54" s="343"/>
+      <c r="AD54" s="343"/>
+      <c r="AE54" s="343"/>
+      <c r="AF54" s="343"/>
+      <c r="AG54" s="356"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="320" t="s">
+      <c r="A55" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="354"/>
-      <c r="C55" s="354"/>
-      <c r="D55" s="355"/>
-      <c r="E55" s="348"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
-      <c r="M55" s="335"/>
-      <c r="N55" s="335"/>
-      <c r="O55" s="335"/>
-      <c r="P55" s="335"/>
-      <c r="Q55" s="335"/>
-      <c r="R55" s="336"/>
-      <c r="S55" s="320" t="s">
+      <c r="B55" s="350"/>
+      <c r="C55" s="350"/>
+      <c r="D55" s="351"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="331"/>
+      <c r="G55" s="331"/>
+      <c r="H55" s="331"/>
+      <c r="I55" s="331"/>
+      <c r="J55" s="331"/>
+      <c r="K55" s="331"/>
+      <c r="L55" s="331"/>
+      <c r="M55" s="331"/>
+      <c r="N55" s="331"/>
+      <c r="O55" s="331"/>
+      <c r="P55" s="331"/>
+      <c r="Q55" s="331"/>
+      <c r="R55" s="332"/>
+      <c r="S55" s="316" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="354"/>
-      <c r="U55" s="354"/>
-      <c r="V55" s="355"/>
-      <c r="W55" s="357"/>
-      <c r="X55" s="354"/>
-      <c r="Y55" s="354"/>
-      <c r="Z55" s="354"/>
-      <c r="AA55" s="354"/>
-      <c r="AB55" s="354"/>
-      <c r="AC55" s="354"/>
-      <c r="AD55" s="354"/>
-      <c r="AE55" s="354"/>
-      <c r="AF55" s="354"/>
-      <c r="AG55" s="358"/>
+      <c r="T55" s="350"/>
+      <c r="U55" s="350"/>
+      <c r="V55" s="351"/>
+      <c r="W55" s="353"/>
+      <c r="X55" s="350"/>
+      <c r="Y55" s="350"/>
+      <c r="Z55" s="350"/>
+      <c r="AA55" s="350"/>
+      <c r="AB55" s="350"/>
+      <c r="AC55" s="350"/>
+      <c r="AD55" s="350"/>
+      <c r="AE55" s="350"/>
+      <c r="AF55" s="350"/>
+      <c r="AG55" s="354"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="366"/>
-      <c r="B56" s="367"/>
-      <c r="C56" s="367"/>
-      <c r="D56" s="368"/>
-      <c r="E56" s="369"/>
-      <c r="F56" s="337"/>
-      <c r="G56" s="337"/>
-      <c r="H56" s="337"/>
-      <c r="I56" s="337"/>
-      <c r="J56" s="337"/>
-      <c r="K56" s="337"/>
-      <c r="L56" s="337"/>
-      <c r="M56" s="337"/>
-      <c r="N56" s="337"/>
-      <c r="O56" s="337"/>
-      <c r="P56" s="337"/>
-      <c r="Q56" s="337"/>
-      <c r="R56" s="338"/>
-      <c r="S56" s="361"/>
-      <c r="T56" s="362"/>
-      <c r="U56" s="362"/>
-      <c r="V56" s="363"/>
-      <c r="W56" s="364"/>
-      <c r="X56" s="362"/>
-      <c r="Y56" s="362"/>
-      <c r="Z56" s="362"/>
-      <c r="AA56" s="362"/>
-      <c r="AB56" s="362"/>
-      <c r="AC56" s="362"/>
-      <c r="AD56" s="362"/>
-      <c r="AE56" s="362"/>
-      <c r="AF56" s="362"/>
-      <c r="AG56" s="365"/>
+      <c r="A56" s="362"/>
+      <c r="B56" s="363"/>
+      <c r="C56" s="363"/>
+      <c r="D56" s="364"/>
+      <c r="E56" s="365"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
+      <c r="H56" s="333"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="333"/>
+      <c r="K56" s="333"/>
+      <c r="L56" s="333"/>
+      <c r="M56" s="333"/>
+      <c r="N56" s="333"/>
+      <c r="O56" s="333"/>
+      <c r="P56" s="333"/>
+      <c r="Q56" s="333"/>
+      <c r="R56" s="334"/>
+      <c r="S56" s="357"/>
+      <c r="T56" s="358"/>
+      <c r="U56" s="358"/>
+      <c r="V56" s="359"/>
+      <c r="W56" s="360"/>
+      <c r="X56" s="358"/>
+      <c r="Y56" s="358"/>
+      <c r="Z56" s="358"/>
+      <c r="AA56" s="358"/>
+      <c r="AB56" s="358"/>
+      <c r="AC56" s="358"/>
+      <c r="AD56" s="358"/>
+      <c r="AE56" s="358"/>
+      <c r="AF56" s="358"/>
+      <c r="AG56" s="361"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6782,49 +7029,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="342"/>
-      <c r="AF57" s="342"/>
-      <c r="AG57" s="343"/>
+      <c r="AE57" s="338"/>
+      <c r="AF57" s="338"/>
+      <c r="AG57" s="339"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="344" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="345"/>
-      <c r="C58" s="345"/>
+      <c r="A58" s="340" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="341"/>
+      <c r="C58" s="341"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="348"/>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="335"/>
-      <c r="J58" s="335"/>
-      <c r="K58" s="335"/>
-      <c r="L58" s="335"/>
-      <c r="M58" s="349"/>
-      <c r="N58" s="350" t="s">
-        <v>100</v>
-      </c>
-      <c r="O58" s="351"/>
-      <c r="P58" s="351"/>
-      <c r="Q58" s="351"/>
-      <c r="R58" s="352"/>
-      <c r="S58" s="353" t="s">
-        <v>143</v>
-      </c>
-      <c r="T58" s="351"/>
-      <c r="U58" s="351"/>
-      <c r="V58" s="351"/>
-      <c r="W58" s="351"/>
-      <c r="X58" s="351"/>
-      <c r="Y58" s="351"/>
-      <c r="Z58" s="351"/>
-      <c r="AA58" s="352"/>
+      <c r="E58" s="344"/>
+      <c r="F58" s="331"/>
+      <c r="G58" s="331"/>
+      <c r="H58" s="331"/>
+      <c r="I58" s="331"/>
+      <c r="J58" s="331"/>
+      <c r="K58" s="331"/>
+      <c r="L58" s="331"/>
+      <c r="M58" s="345"/>
+      <c r="N58" s="346" t="s">
+        <v>102</v>
+      </c>
+      <c r="O58" s="347"/>
+      <c r="P58" s="347"/>
+      <c r="Q58" s="347"/>
+      <c r="R58" s="348"/>
+      <c r="S58" s="349" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58" s="347"/>
+      <c r="U58" s="347"/>
+      <c r="V58" s="347"/>
+      <c r="W58" s="347"/>
+      <c r="X58" s="347"/>
+      <c r="Y58" s="347"/>
+      <c r="Z58" s="347"/>
+      <c r="AA58" s="348"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6834,33 +7081,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="346"/>
-      <c r="B59" s="347"/>
-      <c r="C59" s="347"/>
+      <c r="A59" s="342"/>
+      <c r="B59" s="343"/>
+      <c r="C59" s="343"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="327"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="324"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="324"/>
-      <c r="J59" s="324"/>
-      <c r="K59" s="324"/>
-      <c r="L59" s="324"/>
-      <c r="M59" s="325"/>
-      <c r="N59" s="331"/>
-      <c r="O59" s="332"/>
-      <c r="P59" s="332"/>
-      <c r="Q59" s="332"/>
-      <c r="R59" s="333"/>
-      <c r="S59" s="331"/>
-      <c r="T59" s="332"/>
-      <c r="U59" s="332"/>
-      <c r="V59" s="332"/>
-      <c r="W59" s="332"/>
-      <c r="X59" s="332"/>
-      <c r="Y59" s="332"/>
-      <c r="Z59" s="332"/>
-      <c r="AA59" s="333"/>
+      <c r="E59" s="323"/>
+      <c r="F59" s="320"/>
+      <c r="G59" s="320"/>
+      <c r="H59" s="320"/>
+      <c r="I59" s="320"/>
+      <c r="J59" s="320"/>
+      <c r="K59" s="320"/>
+      <c r="L59" s="320"/>
+      <c r="M59" s="321"/>
+      <c r="N59" s="327"/>
+      <c r="O59" s="328"/>
+      <c r="P59" s="328"/>
+      <c r="Q59" s="328"/>
+      <c r="R59" s="329"/>
+      <c r="S59" s="327"/>
+      <c r="T59" s="328"/>
+      <c r="U59" s="328"/>
+      <c r="V59" s="328"/>
+      <c r="W59" s="328"/>
+      <c r="X59" s="328"/>
+      <c r="Y59" s="328"/>
+      <c r="Z59" s="328"/>
+      <c r="AA59" s="329"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6870,121 +7117,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="320" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="321"/>
-      <c r="C60" s="321"/>
-      <c r="D60" s="322"/>
-      <c r="E60" s="326"/>
-      <c r="F60" s="321"/>
-      <c r="G60" s="321"/>
-      <c r="H60" s="321"/>
-      <c r="I60" s="321"/>
-      <c r="J60" s="321"/>
-      <c r="K60" s="321"/>
-      <c r="L60" s="321"/>
-      <c r="M60" s="322"/>
-      <c r="N60" s="328" t="s">
-        <v>100</v>
-      </c>
-      <c r="O60" s="329"/>
-      <c r="P60" s="329"/>
-      <c r="Q60" s="329"/>
-      <c r="R60" s="330"/>
-      <c r="S60" s="328" t="s">
-        <v>74</v>
-      </c>
-      <c r="T60" s="329"/>
-      <c r="U60" s="329"/>
-      <c r="V60" s="329"/>
-      <c r="W60" s="329"/>
-      <c r="X60" s="329"/>
-      <c r="Y60" s="329"/>
-      <c r="Z60" s="329"/>
-      <c r="AA60" s="330"/>
+      <c r="A60" s="316" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="317"/>
+      <c r="C60" s="317"/>
+      <c r="D60" s="318"/>
+      <c r="E60" s="322"/>
+      <c r="F60" s="317"/>
+      <c r="G60" s="317"/>
+      <c r="H60" s="317"/>
+      <c r="I60" s="317"/>
+      <c r="J60" s="317"/>
+      <c r="K60" s="317"/>
+      <c r="L60" s="317"/>
+      <c r="M60" s="318"/>
+      <c r="N60" s="324" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" s="325"/>
+      <c r="P60" s="325"/>
+      <c r="Q60" s="325"/>
+      <c r="R60" s="326"/>
+      <c r="S60" s="324" t="s">
+        <v>76</v>
+      </c>
+      <c r="T60" s="325"/>
+      <c r="U60" s="325"/>
+      <c r="V60" s="325"/>
+      <c r="W60" s="325"/>
+      <c r="X60" s="325"/>
+      <c r="Y60" s="325"/>
+      <c r="Z60" s="325"/>
+      <c r="AA60" s="326"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="321"/>
-      <c r="AE60" s="321"/>
-      <c r="AF60" s="321"/>
-      <c r="AG60" s="334"/>
+      <c r="AD60" s="317"/>
+      <c r="AE60" s="317"/>
+      <c r="AF60" s="317"/>
+      <c r="AG60" s="330"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="323"/>
-      <c r="B61" s="324"/>
-      <c r="C61" s="324"/>
-      <c r="D61" s="325"/>
-      <c r="E61" s="327"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="324"/>
-      <c r="H61" s="324"/>
-      <c r="I61" s="324"/>
-      <c r="J61" s="324"/>
-      <c r="K61" s="324"/>
-      <c r="L61" s="324"/>
-      <c r="M61" s="325"/>
-      <c r="N61" s="331"/>
-      <c r="O61" s="332"/>
-      <c r="P61" s="332"/>
-      <c r="Q61" s="332"/>
-      <c r="R61" s="333"/>
-      <c r="S61" s="331"/>
-      <c r="T61" s="332"/>
-      <c r="U61" s="332"/>
-      <c r="V61" s="332"/>
-      <c r="W61" s="332"/>
-      <c r="X61" s="332"/>
-      <c r="Y61" s="332"/>
-      <c r="Z61" s="332"/>
-      <c r="AA61" s="333"/>
-      <c r="AB61" s="335"/>
-      <c r="AC61" s="335"/>
-      <c r="AD61" s="335"/>
-      <c r="AE61" s="335"/>
-      <c r="AF61" s="335"/>
-      <c r="AG61" s="336"/>
+      <c r="A61" s="319"/>
+      <c r="B61" s="320"/>
+      <c r="C61" s="320"/>
+      <c r="D61" s="321"/>
+      <c r="E61" s="323"/>
+      <c r="F61" s="320"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="320"/>
+      <c r="I61" s="320"/>
+      <c r="J61" s="320"/>
+      <c r="K61" s="320"/>
+      <c r="L61" s="320"/>
+      <c r="M61" s="321"/>
+      <c r="N61" s="327"/>
+      <c r="O61" s="328"/>
+      <c r="P61" s="328"/>
+      <c r="Q61" s="328"/>
+      <c r="R61" s="329"/>
+      <c r="S61" s="327"/>
+      <c r="T61" s="328"/>
+      <c r="U61" s="328"/>
+      <c r="V61" s="328"/>
+      <c r="W61" s="328"/>
+      <c r="X61" s="328"/>
+      <c r="Y61" s="328"/>
+      <c r="Z61" s="328"/>
+      <c r="AA61" s="329"/>
+      <c r="AB61" s="331"/>
+      <c r="AC61" s="331"/>
+      <c r="AD61" s="331"/>
+      <c r="AE61" s="331"/>
+      <c r="AF61" s="331"/>
+      <c r="AG61" s="332"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="339" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="340"/>
-      <c r="C62" s="340"/>
-      <c r="D62" s="340"/>
-      <c r="E62" s="340"/>
-      <c r="F62" s="340"/>
-      <c r="G62" s="340"/>
-      <c r="H62" s="340"/>
-      <c r="I62" s="340"/>
-      <c r="J62" s="340"/>
-      <c r="K62" s="340"/>
-      <c r="L62" s="340"/>
-      <c r="M62" s="340"/>
-      <c r="N62" s="340"/>
-      <c r="O62" s="340"/>
-      <c r="P62" s="340"/>
-      <c r="Q62" s="340"/>
-      <c r="R62" s="340"/>
-      <c r="S62" s="340"/>
-      <c r="T62" s="340"/>
-      <c r="U62" s="340"/>
-      <c r="V62" s="340"/>
-      <c r="W62" s="340"/>
-      <c r="X62" s="340"/>
-      <c r="Y62" s="340"/>
-      <c r="Z62" s="340"/>
-      <c r="AA62" s="341"/>
-      <c r="AB62" s="337"/>
-      <c r="AC62" s="337"/>
-      <c r="AD62" s="337"/>
-      <c r="AE62" s="337"/>
-      <c r="AF62" s="337"/>
-      <c r="AG62" s="338"/>
+      <c r="A62" s="335" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="336"/>
+      <c r="C62" s="336"/>
+      <c r="D62" s="336"/>
+      <c r="E62" s="336"/>
+      <c r="F62" s="336"/>
+      <c r="G62" s="336"/>
+      <c r="H62" s="336"/>
+      <c r="I62" s="336"/>
+      <c r="J62" s="336"/>
+      <c r="K62" s="336"/>
+      <c r="L62" s="336"/>
+      <c r="M62" s="336"/>
+      <c r="N62" s="336"/>
+      <c r="O62" s="336"/>
+      <c r="P62" s="336"/>
+      <c r="Q62" s="336"/>
+      <c r="R62" s="336"/>
+      <c r="S62" s="336"/>
+      <c r="T62" s="336"/>
+      <c r="U62" s="336"/>
+      <c r="V62" s="336"/>
+      <c r="W62" s="336"/>
+      <c r="X62" s="336"/>
+      <c r="Y62" s="336"/>
+      <c r="Z62" s="336"/>
+      <c r="AA62" s="337"/>
+      <c r="AB62" s="333"/>
+      <c r="AC62" s="333"/>
+      <c r="AD62" s="333"/>
+      <c r="AE62" s="333"/>
+      <c r="AF62" s="333"/>
+      <c r="AG62" s="334"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -45,70 +45,73 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Purpose of Travel: aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Station : </t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Places to be visited</t>
+  </si>
+  <si>
+    <t>T I M E</t>
+  </si>
+  <si>
+    <t>Means of</t>
+  </si>
+  <si>
+    <t>Transpor-station</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>(Destination)</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Diem</t>
+  </si>
+  <si>
+    <t>test 12</t>
+  </si>
+  <si>
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>Position:</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Purpose of Travel: SAMPLE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official Station : </t>
-  </si>
-  <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Places to be visited</t>
-  </si>
-  <si>
-    <t>T I M E</t>
-  </si>
-  <si>
-    <t>Means of</t>
-  </si>
-  <si>
-    <t>Transpor-station</t>
-  </si>
-  <si>
-    <t>Per</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>(Destination)</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Diem</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>10:56 AM</t>
+    <t>4:47 PM</t>
   </si>
   <si>
     <t>car</t>
@@ -117,10 +120,7 @@
     <t>sample</t>
   </si>
   <si>
-    <t>2020-09-17</t>
-  </si>
-  <si>
-    <t>10:56 PM</t>
+    <t>4:48 PM</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1216,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="502">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2696,16 +2696,13 @@
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -3026,10 +3023,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3280,411 +3277,337 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
       <c r="A16" s="487" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" s="488" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="190"/>
       <c r="D16" s="489" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="489" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="490" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="491">
         <v>10</v>
       </c>
       <c r="H16" s="491">
-        <v>1100</v>
+        <v>440</v>
       </c>
       <c r="I16" s="492" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="491">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2"/>
+      <c r="B17" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="485"/>
+      <c r="D17" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="484" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="491">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="493" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="485"/>
-      <c r="D17" s="494" t="s">
+      <c r="G17" s="486">
+        <v>10</v>
+      </c>
+      <c r="H17" s="486">
+        <v>440</v>
+      </c>
+      <c r="I17" s="486" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="486">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="493" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="493"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="493"/>
+      <c r="E18" s="493"/>
+      <c r="F18" s="493"/>
+      <c r="G18" s="495"/>
+      <c r="H18" s="495"/>
+      <c r="I18" s="495"/>
+      <c r="J18" s="495"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="494"/>
+      <c r="B19" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="494" t="s">
+      <c r="C19" s="485"/>
+      <c r="D19" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="484" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="486">
+        <v>10</v>
+      </c>
+      <c r="H19" s="486">
+        <v>440</v>
+      </c>
+      <c r="I19" s="486" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="486">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="493" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="493"/>
+      <c r="C20" s="484"/>
+      <c r="D20" s="493"/>
+      <c r="E20" s="493"/>
+      <c r="F20" s="493"/>
+      <c r="G20" s="495"/>
+      <c r="H20" s="495"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="495"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="494"/>
+      <c r="B21" s="485" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="495">
-        <v>10</v>
-      </c>
-      <c r="H17" s="495">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="495" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="495">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="36"/>
-      <c r="B18" s="493" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="485"/>
-      <c r="D18" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="495">
-        <v>10</v>
-      </c>
-      <c r="H18" s="495">
-        <v>1100</v>
-      </c>
-      <c r="I18" s="495" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="495">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="36"/>
-      <c r="B19" s="493" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="485"/>
-      <c r="D19" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="495">
-        <v>10</v>
-      </c>
-      <c r="H19" s="495">
-        <v>1100</v>
-      </c>
-      <c r="I19" s="495" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="495">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="36"/>
-      <c r="B20" s="493" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="485"/>
-      <c r="D20" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="494" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="495">
-        <v>10</v>
-      </c>
-      <c r="H20" s="495">
-        <v>1100</v>
-      </c>
-      <c r="I20" s="495" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="495">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="485" t="s">
-        <v>28</v>
       </c>
       <c r="C21" s="485"/>
       <c r="D21" s="484" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="484" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F21" s="484" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" s="486">
         <v>10</v>
       </c>
       <c r="H21" s="486">
-        <v>1100</v>
+        <v>440</v>
       </c>
       <c r="I21" s="486" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="486">
-        <v>1110</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="494" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="494"/>
-      <c r="C22" s="484"/>
-      <c r="D22" s="494"/>
-      <c r="E22" s="494"/>
-      <c r="F22" s="494"/>
-      <c r="G22" s="495"/>
-      <c r="H22" s="495"/>
-      <c r="I22" s="495"/>
-      <c r="J22" s="495"/>
+      <c r="A22" s="497"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="501" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="118"/>
+      <c r="G22" s="496"/>
+      <c r="H22" s="496"/>
+      <c r="I22" s="496"/>
+      <c r="J22" s="498"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="496" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="485" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="485"/>
-      <c r="D23" s="484" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="484" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="486">
-        <v>75</v>
-      </c>
-      <c r="H23" s="486">
-        <v>1100</v>
-      </c>
-      <c r="I23" s="486" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="486">
-        <v>1175</v>
-      </c>
+      <c r="A23" s="111"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="499"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="498"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="502" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="497"/>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
+      <c r="A24" s="111"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="111"/>
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="499"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="111"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="37" t="s">
-        <v>35</v>
+      <c r="A25" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="500" t="s">
+        <v>37</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="500"/>
+      <c r="J25" s="499"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="111"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="111"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="500"/>
+      <c r="J26" s="499"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="501" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="500"/>
+      <c r="E27" s="497"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="496"/>
+      <c r="H27" s="496"/>
+      <c r="I27" s="496"/>
+      <c r="J27" s="498"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="20" t="s">
-        <v>6</v>
+      <c r="E28" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="500"/>
+      <c r="J28" s="499"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="498"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="497"/>
-      <c r="H29" s="497"/>
-      <c r="I29" s="497"/>
+      <c r="E29" s="111"/>
+      <c r="F29"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="499"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30" s="111"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="111"/>
       <c r="F30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="500"/>
+      <c r="J30" s="499"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="111"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" s="111"/>
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="500"/>
+      <c r="J31" s="499"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="111"/>
+      <c r="A32" s="500" t="s">
+        <v>39</v>
+      </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="111"/>
+      <c r="E32" s="500" t="s">
+        <v>37</v>
+      </c>
       <c r="F32"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="500"/>
+      <c r="J32" s="499"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="111"/>
+      <c r="A33" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="111"/>
+      <c r="E33" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="F33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="500"/>
+      <c r="J33" s="499"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="501" t="s">
-        <v>39</v>
+      <c r="A34" s="244" t="s">
+        <v>42</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="501" t="s">
-        <v>37</v>
+      <c r="E34" s="244" t="s">
+        <v>43</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="500"/>
+      <c r="J34" s="499"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="500"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="244" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="500"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="498"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="498"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="497"/>
-      <c r="H37" s="497"/>
-      <c r="I37" s="497"/>
-      <c r="J37" s="499"/>
+      <c r="A35" s="497"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="497"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="496"/>
+      <c r="H35" s="496"/>
+      <c r="I35" s="496"/>
+      <c r="J35" s="498"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3710,23 +3633,20 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
     <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D31"/>
+    <mergeCell ref="A25:D29"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: aaa</t>
+    <t>Purpose of Travel: FINAL</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,7 +102,7 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>test 12</t>
+    <t>test2</t>
   </si>
   <si>
     <t>2020-09-01</t>
@@ -111,16 +111,13 @@
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>4:47 PM</t>
+    <t>11:23 AM</t>
   </si>
   <si>
     <t>car</t>
   </si>
   <si>
     <t>sample</t>
-  </si>
-  <si>
-    <t>4:48 PM</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1216,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="503">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2696,13 +2693,16 @@
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -3023,10 +3023,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3296,195 +3296,195 @@
         <v>10</v>
       </c>
       <c r="H16" s="491">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="I16" s="492" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="491">
-        <v>450</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="485" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="493" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="485"/>
-      <c r="D17" s="484" t="s">
+      <c r="D17" s="494" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="484" t="s">
+      <c r="E17" s="494" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="484" t="s">
+      <c r="F17" s="494" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="486">
+      <c r="G17" s="495">
         <v>10</v>
       </c>
-      <c r="H17" s="486">
-        <v>440</v>
-      </c>
-      <c r="I17" s="486" t="s">
+      <c r="H17" s="495">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="486">
-        <v>450</v>
+      <c r="J17" s="495">
+        <v>1110</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="493" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="485"/>
+      <c r="D18" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="484" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="486">
+        <v>10</v>
+      </c>
+      <c r="H18" s="486">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="486" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="486">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="494" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="493"/>
-      <c r="C18" s="484"/>
-      <c r="D18" s="493"/>
-      <c r="E18" s="493"/>
-      <c r="F18" s="493"/>
-      <c r="G18" s="495"/>
-      <c r="H18" s="495"/>
-      <c r="I18" s="495"/>
-      <c r="J18" s="495"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="494"/>
-      <c r="B19" s="485" t="s">
+      <c r="B19" s="494"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="494"/>
+      <c r="E19" s="494"/>
+      <c r="F19" s="494"/>
+      <c r="G19" s="495"/>
+      <c r="H19" s="495"/>
+      <c r="I19" s="495"/>
+      <c r="J19" s="495"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="496" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="485"/>
-      <c r="D19" s="484" t="s">
+      <c r="C20" s="485"/>
+      <c r="D20" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="484" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="486">
+        <v>10</v>
+      </c>
+      <c r="H20" s="486">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="486" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="486">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="498"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="502" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="484" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="484" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="486">
-        <v>10</v>
-      </c>
-      <c r="H19" s="486">
-        <v>440</v>
-      </c>
-      <c r="I19" s="486" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="486">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="493" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="493"/>
-      <c r="C20" s="484"/>
-      <c r="D20" s="493"/>
-      <c r="E20" s="493"/>
-      <c r="F20" s="493"/>
-      <c r="G20" s="495"/>
-      <c r="H20" s="495"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="495"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="494"/>
-      <c r="B21" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="485"/>
-      <c r="D21" s="484" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="484" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="484" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="486">
-        <v>10</v>
-      </c>
-      <c r="H21" s="486">
-        <v>440</v>
-      </c>
-      <c r="I21" s="486" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="486">
-        <v>450</v>
-      </c>
+      <c r="F21" s="118"/>
+      <c r="G21" s="497"/>
+      <c r="H21" s="497"/>
+      <c r="I21" s="497"/>
+      <c r="J21" s="499"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="497"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="501" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="496"/>
-      <c r="H22" s="496"/>
-      <c r="I22" s="496"/>
-      <c r="J22" s="498"/>
+      <c r="F22"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="500"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="111"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="E23" s="111"/>
       <c r="F23"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="499"/>
+      <c r="J23" s="500"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="111"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="111"/>
+      <c r="A24" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="501" t="s">
+        <v>36</v>
+      </c>
       <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="499"/>
+      <c r="J24" s="500"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="500" t="s">
-        <v>37</v>
+      <c r="E25" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="499"/>
+      <c r="J25" s="500"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="E26" s="498"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="497"/>
+      <c r="H26" s="497"/>
+      <c r="I26" s="497"/>
       <c r="J26" s="499"/>
     </row>
     <row r="27" spans="1:11">
@@ -3492,38 +3492,38 @@
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="497"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="496"/>
-      <c r="H27" s="496"/>
-      <c r="I27" s="496"/>
-      <c r="J27" s="498"/>
+      <c r="E27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="500"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="E28" s="111"/>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="499"/>
+      <c r="J28" s="500"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="111"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
       <c r="E29" s="111"/>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="499"/>
+      <c r="J29" s="500"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="111"/>
@@ -3535,79 +3535,67 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="499"/>
+      <c r="J30" s="500"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="111"/>
+      <c r="A31" s="501" t="s">
+        <v>38</v>
+      </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" s="111"/>
+      <c r="E31" s="501" t="s">
+        <v>36</v>
+      </c>
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="499"/>
+      <c r="J31" s="500"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="500" t="s">
+      <c r="A32" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="500" t="s">
-        <v>37</v>
+      <c r="E32" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="499"/>
+      <c r="J32" s="500"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="20" t="s">
-        <v>40</v>
+      <c r="A33" s="244" t="s">
+        <v>41</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="20" t="s">
-        <v>41</v>
+      <c r="E33" s="244" t="s">
+        <v>42</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="499"/>
+      <c r="J33" s="500"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="244" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="498"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="498"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="497"/>
+      <c r="H34" s="497"/>
+      <c r="I34" s="497"/>
       <c r="J34" s="499"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="497"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="497"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="496"/>
-      <c r="H35" s="496"/>
-      <c r="I35" s="496"/>
-      <c r="J35" s="498"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3634,19 +3622,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A25:D29"/>
+    <mergeCell ref="A24:D28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3707,7 +3694,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="304" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="304"/>
     </row>
@@ -3728,7 +3715,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="307"/>
       <c r="C3" s="307"/>
@@ -3740,14 +3727,14 @@
       <c r="I3" s="307"/>
       <c r="J3" s="308"/>
       <c r="K3" s="309" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="310"/>
       <c r="M3" s="311"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="312" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="313"/>
       <c r="C4" s="313"/>
@@ -3759,14 +3746,14 @@
       <c r="I4" s="313"/>
       <c r="J4" s="314"/>
       <c r="K4" s="227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="228"/>
       <c r="M4" s="315"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="286" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="287"/>
       <c r="C5" s="287"/>
@@ -3778,7 +3765,7 @@
       <c r="I5" s="287"/>
       <c r="J5" s="288"/>
       <c r="K5" s="289" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="290"/>
       <c r="M5" s="291"/>
@@ -3788,7 +3775,7 @@
       <c r="B6" s="275"/>
       <c r="C6" s="276"/>
       <c r="D6" s="295" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="296"/>
       <c r="F6" s="296"/>
@@ -3817,12 +3804,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="264"/>
       <c r="C8" s="265"/>
       <c r="D8" s="268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="269"/>
       <c r="F8" s="269"/>
@@ -3851,7 +3838,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="264"/>
       <c r="C10" s="265"/>
@@ -3886,26 +3873,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="274" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="275"/>
       <c r="C12" s="276"/>
       <c r="D12" s="277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="278"/>
       <c r="F12" s="278"/>
       <c r="G12" s="278"/>
       <c r="H12" s="279"/>
       <c r="I12" s="277" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="276"/>
       <c r="K12" s="283" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="277" t="s">
         <v>58</v>
-      </c>
-      <c r="L12" s="277" t="s">
-        <v>59</v>
       </c>
       <c r="M12" s="285"/>
     </row>
@@ -3929,7 +3916,7 @@
       <c r="B14" s="200"/>
       <c r="C14" s="245"/>
       <c r="D14" s="246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="200"/>
       <c r="F14" s="200"/>
@@ -3946,7 +3933,7 @@
       <c r="B15" s="200"/>
       <c r="C15" s="245"/>
       <c r="D15" s="208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="209"/>
       <c r="F15" s="209"/>
@@ -4130,7 +4117,7 @@
       <c r="B27" s="249"/>
       <c r="C27" s="250"/>
       <c r="D27" s="251" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="252"/>
       <c r="F27" s="252"/>
@@ -4147,19 +4134,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="232" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="206" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="234"/>
       <c r="F28" s="234"/>
       <c r="G28" s="234"/>
       <c r="H28" s="235"/>
       <c r="I28" s="236" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4169,7 +4156,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="233"/>
       <c r="B29" s="237" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="172"/>
       <c r="D29" s="234"/>
@@ -4179,7 +4166,7 @@
       <c r="H29" s="235"/>
       <c r="I29" s="236"/>
       <c r="J29" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4188,7 +4175,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="238" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="238"/>
       <c r="D30" s="238"/>
@@ -4198,7 +4185,7 @@
       <c r="H30" s="239"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4207,7 +4194,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="240"/>
       <c r="B31" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4217,7 +4204,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4270,11 +4257,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="241" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="218"/>
       <c r="C35" s="209" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="209"/>
       <c r="E35" s="209"/>
@@ -4282,11 +4269,11 @@
       <c r="G35" s="209"/>
       <c r="H35" s="226"/>
       <c r="I35" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4308,11 +4295,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="242" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="243"/>
       <c r="C37" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4320,11 +4307,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4346,11 +4333,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="241" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="218"/>
       <c r="C39" s="206" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="206"/>
       <c r="E39" s="206"/>
@@ -4358,11 +4345,11 @@
       <c r="G39" s="206"/>
       <c r="H39" s="207"/>
       <c r="I39" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4384,11 +4371,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="228"/>
       <c r="C41" s="206" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="206"/>
       <c r="E41" s="206"/>
@@ -4396,11 +4383,11 @@
       <c r="G41" s="206"/>
       <c r="H41" s="207"/>
       <c r="I41" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4437,10 +4424,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="229" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="229" t="s">
-        <v>85</v>
       </c>
       <c r="C44" s="230"/>
       <c r="D44" s="230"/>
@@ -4456,7 +4443,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="193" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="230"/>
       <c r="C45" s="230"/>
@@ -4465,7 +4452,7 @@
       <c r="F45" s="230"/>
       <c r="G45" s="231"/>
       <c r="H45" s="193" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I45" s="230"/>
       <c r="J45" s="230"/>
@@ -4478,27 +4465,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="214"/>
       <c r="D46" s="214"/>
       <c r="E46" s="217" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="218"/>
       <c r="G46" s="219"/>
       <c r="H46" s="211" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="223" t="s">
         <v>88</v>
-      </c>
-      <c r="I46" s="223" t="s">
-        <v>89</v>
       </c>
       <c r="J46" s="224"/>
       <c r="K46" s="225" t="s">
+        <v>89</v>
+      </c>
+      <c r="L46" s="201" t="s">
         <v>90</v>
-      </c>
-      <c r="L46" s="201" t="s">
-        <v>91</v>
       </c>
       <c r="M46" s="202"/>
     </row>
@@ -4515,10 +4502,10 @@
       <c r="J47" s="224"/>
       <c r="K47" s="225"/>
       <c r="L47" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="53" t="s">
         <v>92</v>
-      </c>
-      <c r="M47" s="53" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4530,20 +4517,20 @@
       <c r="F48" s="221"/>
       <c r="G48" s="222"/>
       <c r="H48" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="203" t="s">
         <v>94</v>
-      </c>
-      <c r="I48" s="203" t="s">
-        <v>95</v>
       </c>
       <c r="J48" s="204"/>
       <c r="K48" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="M48" s="57" t="s">
         <v>97</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4817,7 +4804,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="465" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC1" s="465"/>
       <c r="AD1" s="465"/>
@@ -4830,7 +4817,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="466" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="467"/>
       <c r="C3" s="467"/>
@@ -4859,7 +4846,7 @@
       <c r="Z3" s="467"/>
       <c r="AA3" s="468"/>
       <c r="AB3" s="469" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC3" s="470"/>
       <c r="AD3" s="470"/>
@@ -4869,7 +4856,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="472" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="473"/>
       <c r="C4" s="473"/>
@@ -4906,7 +4893,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="431" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="432"/>
       <c r="C5" s="432"/>
@@ -4935,7 +4922,7 @@
       <c r="Z5" s="432"/>
       <c r="AA5" s="433"/>
       <c r="AB5" s="447" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC5" s="448"/>
       <c r="AD5" s="448"/>
@@ -4972,7 +4959,7 @@
       <c r="Z6" s="432"/>
       <c r="AA6" s="433"/>
       <c r="AB6" s="450" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC6" s="451"/>
       <c r="AD6" s="451"/>
@@ -5017,7 +5004,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="437" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="438"/>
       <c r="C8" s="439"/>
@@ -5062,14 +5049,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5078,13 +5065,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5135,7 +5122,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="437" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="438"/>
       <c r="C11" s="439"/>
@@ -5158,7 +5145,7 @@
       <c r="Q11" s="438"/>
       <c r="R11" s="438"/>
       <c r="S11" s="457" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T11" s="458"/>
       <c r="U11" s="458"/>
@@ -5169,7 +5156,7 @@
       <c r="Z11" s="458"/>
       <c r="AA11" s="459"/>
       <c r="AB11" s="460" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC11" s="460"/>
       <c r="AD11" s="460"/>
@@ -5216,7 +5203,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="419" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="420"/>
       <c r="C13" s="421"/>
@@ -5293,7 +5280,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="427" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="387"/>
       <c r="C15" s="387"/>
@@ -5312,21 +5299,21 @@
       <c r="P15" s="387"/>
       <c r="Q15" s="428"/>
       <c r="R15" s="386" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S15" s="429"/>
       <c r="T15" s="429"/>
       <c r="U15" s="429"/>
       <c r="V15" s="430"/>
       <c r="W15" s="386" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X15" s="387"/>
       <c r="Y15" s="387"/>
       <c r="Z15" s="387"/>
       <c r="AA15" s="428"/>
       <c r="AB15" s="386" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC15" s="387"/>
       <c r="AD15" s="387"/>
@@ -5374,7 +5361,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="209" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="209"/>
       <c r="D17" s="209"/>
@@ -5523,7 +5510,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5561,7 +5548,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5599,7 +5586,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5637,7 +5624,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5675,7 +5662,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5713,7 +5700,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5751,7 +5738,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5824,7 +5811,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="408" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="409"/>
       <c r="C29" s="409"/>
@@ -5866,10 +5853,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="414" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="414"/>
       <c r="D30" s="414"/>
@@ -5911,7 +5898,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6100,10 +6087,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6141,7 +6128,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="400" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="401"/>
       <c r="C37" s="401"/>
@@ -6161,21 +6148,21 @@
       <c r="Q37" s="401"/>
       <c r="R37" s="401"/>
       <c r="S37" s="401" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T37" s="401"/>
       <c r="U37" s="401"/>
       <c r="V37" s="401"/>
       <c r="W37" s="401"/>
       <c r="X37" s="402" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y37" s="402"/>
       <c r="Z37" s="402"/>
       <c r="AA37" s="402"/>
       <c r="AB37" s="402"/>
       <c r="AC37" s="403" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD37" s="403"/>
       <c r="AE37" s="403"/>
@@ -6260,7 +6247,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6297,10 +6284,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6319,10 +6306,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="T41" s="389" t="s">
         <v>129</v>
-      </c>
-      <c r="T41" s="389" t="s">
-        <v>130</v>
       </c>
       <c r="U41" s="389"/>
       <c r="V41" s="389"/>
@@ -6343,7 +6330,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6417,7 +6404,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6491,10 +6478,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6531,7 +6518,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6603,7 +6590,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="340" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="366"/>
       <c r="C49" s="366"/>
@@ -6623,7 +6610,7 @@
       <c r="Q49" s="331"/>
       <c r="R49" s="332"/>
       <c r="S49" s="340" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T49" s="341"/>
       <c r="U49" s="341"/>
@@ -6679,13 +6666,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="316" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="371"/>
       <c r="C51" s="371"/>
       <c r="D51" s="372"/>
       <c r="E51" s="374" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" s="375"/>
       <c r="G51" s="375"/>
@@ -6701,13 +6688,13 @@
       <c r="Q51" s="375"/>
       <c r="R51" s="376"/>
       <c r="S51" s="316" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T51" s="350"/>
       <c r="U51" s="350"/>
       <c r="V51" s="351"/>
       <c r="W51" s="380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X51" s="381"/>
       <c r="Y51" s="381"/>
@@ -6759,13 +6746,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="316" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="350"/>
       <c r="C53" s="350"/>
       <c r="D53" s="351"/>
       <c r="E53" s="353" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="350"/>
       <c r="G53" s="350"/>
@@ -6781,13 +6768,13 @@
       <c r="Q53" s="350"/>
       <c r="R53" s="354"/>
       <c r="S53" s="316" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T53" s="350"/>
       <c r="U53" s="350"/>
       <c r="V53" s="351"/>
       <c r="W53" s="353" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X53" s="350"/>
       <c r="Y53" s="350"/>
@@ -6918,10 +6905,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="162" t="s">
         <v>141</v>
-      </c>
-      <c r="B57" s="162" t="s">
-        <v>142</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6949,7 +6936,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -6960,7 +6947,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="340" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="341"/>
       <c r="C58" s="341"/>
@@ -6975,14 +6962,14 @@
       <c r="L58" s="331"/>
       <c r="M58" s="345"/>
       <c r="N58" s="346" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O58" s="347"/>
       <c r="P58" s="347"/>
       <c r="Q58" s="347"/>
       <c r="R58" s="348"/>
       <c r="S58" s="349" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T58" s="347"/>
       <c r="U58" s="347"/>
@@ -7038,7 +7025,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="316" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="317"/>
       <c r="C60" s="317"/>
@@ -7053,14 +7040,14 @@
       <c r="L60" s="317"/>
       <c r="M60" s="318"/>
       <c r="N60" s="324" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O60" s="325"/>
       <c r="P60" s="325"/>
       <c r="Q60" s="325"/>
       <c r="R60" s="326"/>
       <c r="S60" s="324" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T60" s="325"/>
       <c r="U60" s="325"/>
@@ -7118,7 +7105,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="335" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="336"/>
       <c r="C62" s="336"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: FINAL</t>
+    <t>Purpose of Travel: SAMPLE MEETING 2</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,7 +102,7 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>meeting 1</t>
   </si>
   <si>
     <t>2020-09-01</t>
@@ -111,13 +111,10 @@
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>11:23 AM</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>sample</t>
+    <t>meeting 2</t>
+  </si>
+  <si>
+    <t>Pagsanjan to Calamba</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -486,7 +483,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -613,15 +610,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -637,7 +625,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border/>
     <border>
       <left style="medium">
@@ -977,6 +965,20 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1024,6 +1026,52 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1038,7 +1086,64 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -1049,6 +1154,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1057,40 +1165,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1098,122 +1179,18 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="492">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1727,6 +1704,30 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="18" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1742,213 +1743,207 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2648,61 +2643,10 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="43" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="43" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="43" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="18" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="43" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="39" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -3023,10 +2967,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3045,37 +2989,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3093,8 +3037,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3107,8 +3051,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3121,17 +3065,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3149,55 +3093,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="179"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="187"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="177" t="s">
+      <c r="G9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="478" t="s">
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="197"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="197"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3212,39 +3156,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="15.75" s="19" customFormat="1">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="199"/>
-      <c r="D13" s="193" t="s">
+      <c r="C13" s="207"/>
+      <c r="D13" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="194"/>
+      <c r="E13" s="201"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="180" t="s">
+      <c r="G13" s="188" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="182" t="s">
+      <c r="I13" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="184" t="s">
+      <c r="J13" s="192" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
-      <c r="A14" s="192"/>
-      <c r="B14" s="186" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3254,264 +3198,197 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="181"/>
+      <c r="G14" s="189"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="183"/>
-      <c r="J14" s="185"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="193"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="479" t="s">
+      <c r="A15" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="480"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="482"/>
-      <c r="F15" s="480"/>
-      <c r="G15" s="480"/>
-      <c r="H15" s="480"/>
-      <c r="I15" s="480"/>
-      <c r="J15" s="483"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="487" t="s">
+      <c r="A16" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="488" t="s">
+      <c r="B16" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="489" t="s">
+      <c r="C16" s="197"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="174"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="484" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="489" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="490" t="s">
+      <c r="B18" s="484"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="484"/>
+      <c r="E18" s="484"/>
+      <c r="F18" s="484"/>
+      <c r="G18" s="485"/>
+      <c r="H18" s="485"/>
+      <c r="I18" s="485"/>
+      <c r="J18" s="485"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="491">
-        <v>10</v>
-      </c>
-      <c r="H16" s="491">
-        <v>1100</v>
-      </c>
-      <c r="I16" s="492" t="s">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="111"/>
+      <c r="F19"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="489"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="487"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="491" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="491">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="493" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="485"/>
-      <c r="D17" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="494" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="494" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="495">
-        <v>10</v>
-      </c>
-      <c r="H17" s="495">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="495" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="495">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="485"/>
-      <c r="D18" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="484" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="486">
-        <v>10</v>
-      </c>
-      <c r="H18" s="486">
-        <v>1100</v>
-      </c>
-      <c r="I18" s="486" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="486">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="494" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="494"/>
-      <c r="C19" s="484"/>
-      <c r="D19" s="494"/>
-      <c r="E19" s="494"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="495"/>
-      <c r="H19" s="495"/>
-      <c r="I19" s="495"/>
-      <c r="J19" s="495"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="496" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="485"/>
-      <c r="D20" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="484" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="486">
-        <v>10</v>
-      </c>
-      <c r="H20" s="486">
-        <v>1100</v>
-      </c>
-      <c r="I20" s="486" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="486">
-        <v>1110</v>
-      </c>
+      <c r="F20" s="118"/>
+      <c r="G20" s="486"/>
+      <c r="H20" s="486"/>
+      <c r="I20" s="486"/>
+      <c r="J20" s="488"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="498"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="502" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="497"/>
-      <c r="H21" s="497"/>
-      <c r="I21" s="497"/>
-      <c r="J21" s="499"/>
+      <c r="F21"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="489"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="111"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="E22" s="111"/>
       <c r="F22"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="500"/>
+      <c r="J22" s="489"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="111"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="111"/>
+      <c r="A23" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="490" t="s">
+        <v>35</v>
+      </c>
       <c r="F23"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="500"/>
+      <c r="J23" s="489"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="501" t="s">
-        <v>36</v>
+      <c r="E24" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="500"/>
+      <c r="J24" s="489"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="500"/>
+      <c r="E25" s="487"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="486"/>
+      <c r="H25" s="486"/>
+      <c r="I25" s="486"/>
+      <c r="J25" s="488"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="498"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="497"/>
-      <c r="H26" s="497"/>
-      <c r="I26" s="497"/>
-      <c r="J26" s="499"/>
+      <c r="E26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="489"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="E27" s="111"/>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="500"/>
+      <c r="J27" s="489"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="111"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28" s="111"/>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="500"/>
+      <c r="J28" s="489"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="111"/>
@@ -3523,97 +3400,79 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="500"/>
+      <c r="J29" s="489"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="111"/>
+      <c r="A30" s="490" t="s">
+        <v>37</v>
+      </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="111"/>
+      <c r="E30" s="490" t="s">
+        <v>35</v>
+      </c>
       <c r="F30"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="500"/>
+      <c r="J30" s="489"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="501" t="s">
+      <c r="A31" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" s="501" t="s">
-        <v>36</v>
+      <c r="E31" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="500"/>
+      <c r="J31" s="489"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
-        <v>39</v>
+      <c r="A32" s="177" t="s">
+        <v>40</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="20" t="s">
-        <v>40</v>
+      <c r="E32" s="177" t="s">
+        <v>41</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="500"/>
+      <c r="J32" s="489"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="244" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="244" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="500"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="498"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="498"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="497"/>
-      <c r="H34" s="497"/>
-      <c r="I34" s="497"/>
-      <c r="J34" s="499"/>
+      <c r="A33" s="487"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="487"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="486"/>
+      <c r="H33" s="486"/>
+      <c r="I33" s="486"/>
+      <c r="J33" s="488"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -3621,19 +3480,22 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A24:D28"/>
+    <mergeCell ref="A23:D27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3693,10 +3555,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="304" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="304"/>
+      <c r="L1" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="310"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3710,443 +3572,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="305"/>
-      <c r="M2" s="305"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="312" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="309" t="s">
+      <c r="L3" s="316"/>
+      <c r="M3" s="317"/>
+    </row>
+    <row r="4" spans="1:13" customHeight="1" ht="25.5">
+      <c r="A4" s="318" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="310"/>
-      <c r="M3" s="311"/>
-    </row>
-    <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="312" t="s">
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="227" t="s">
+      <c r="L4" s="235"/>
+      <c r="M4" s="321"/>
+    </row>
+    <row r="5" spans="1:13" customHeight="1" ht="25.5">
+      <c r="A5" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="228"/>
-      <c r="M4" s="315"/>
-    </row>
-    <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="286" t="s">
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="295" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="288"/>
-      <c r="K5" s="289" t="s">
+      <c r="L5" s="296"/>
+      <c r="M5" s="297"/>
+    </row>
+    <row r="6" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A6" s="280"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="291"/>
-    </row>
-    <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="274"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="295" t="s">
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303"/>
+    </row>
+    <row r="7" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A7" s="298"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="306"/>
+    </row>
+    <row r="8" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A8" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="296"/>
-      <c r="L6" s="296"/>
-      <c r="M6" s="297"/>
-    </row>
-    <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="298"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="300"/>
-    </row>
-    <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="263" t="s">
+      <c r="B8" s="270"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="268" t="s">
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
+      <c r="M8" s="276"/>
+    </row>
+    <row r="9" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A9" s="298"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="308"/>
+      <c r="F9" s="308"/>
+      <c r="G9" s="308"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="308"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="309"/>
+    </row>
+    <row r="10" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A10" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="270"/>
-    </row>
-    <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="292"/>
-      <c r="B9" s="293"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="302"/>
-      <c r="L9" s="302"/>
-      <c r="M9" s="303"/>
-    </row>
-    <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="263" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="264"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="268" t="str">
+      <c r="B10" s="270"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="274" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="270"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="275"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="276"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="266"/>
-      <c r="B11" s="221"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="273"/>
+      <c r="A11" s="272"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="278"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="279"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="280" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="281"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="275"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="277" t="s">
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="284"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="279"/>
-      <c r="I12" s="277" t="s">
+      <c r="J12" s="282"/>
+      <c r="K12" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="276"/>
-      <c r="K12" s="283" t="s">
+      <c r="L12" s="283" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="277" t="s">
+      <c r="M12" s="291"/>
+    </row>
+    <row r="13" spans="1:13" customHeight="1" ht="18.6">
+      <c r="A13" s="272"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="229"/>
+    </row>
+    <row r="14" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A14" s="177"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="285"/>
-    </row>
-    <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="266"/>
-      <c r="B13" s="221"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="280"/>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="267"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="222"/>
-    </row>
-    <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="244"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="246" t="s">
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="253"/>
+    </row>
+    <row r="15" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A15" s="177"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="245"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="247"/>
-    </row>
-    <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="244"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="208" t="s">
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="251"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="265">
+        <v>4981</v>
+      </c>
+      <c r="M15" s="266"/>
+    </row>
+    <row r="16" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A16" s="177"/>
+      <c r="B16" s="250"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="253"/>
+    </row>
+    <row r="17" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A17" s="177"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
+    </row>
+    <row r="18" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A18" s="177"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="264"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="253"/>
+    </row>
+    <row r="19" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A19" s="177"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="253"/>
+    </row>
+    <row r="20" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A20" s="177"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="253"/>
+    </row>
+    <row r="21" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A21" s="177"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="251"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="253"/>
+    </row>
+    <row r="22" spans="1:13" customHeight="1" ht="15.75">
+      <c r="A22" s="177"/>
+      <c r="B22" s="250"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="253"/>
+    </row>
+    <row r="23" spans="1:13" customHeight="1" ht="15.75">
+      <c r="A23" s="177"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="253"/>
+    </row>
+    <row r="24" spans="1:13" customHeight="1" ht="15">
+      <c r="A24" s="177"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="264"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="253"/>
+    </row>
+    <row r="25" spans="1:13" customHeight="1" ht="15">
+      <c r="A25" s="177"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="253"/>
+    </row>
+    <row r="26" spans="1:13" customHeight="1" ht="15">
+      <c r="A26" s="177"/>
+      <c r="B26" s="250"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="253"/>
+    </row>
+    <row r="27" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A27" s="254"/>
+      <c r="B27" s="255"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="259">
-        <v>4981</v>
-      </c>
-      <c r="M15" s="260"/>
-    </row>
-    <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="244"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="247"/>
-    </row>
-    <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="244"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="261"/>
-      <c r="M17" s="262"/>
-    </row>
-    <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="244"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="247"/>
-    </row>
-    <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="244"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="246"/>
-      <c r="M19" s="247"/>
-    </row>
-    <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="244"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="245"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="246"/>
-      <c r="M20" s="247"/>
-    </row>
-    <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="244"/>
-      <c r="B21" s="200"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="245"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="246"/>
-      <c r="M21" s="247"/>
-    </row>
-    <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="244"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="246"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="246"/>
-      <c r="M22" s="247"/>
-    </row>
-    <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="244"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="258"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="247"/>
-    </row>
-    <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="244"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="247"/>
-    </row>
-    <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="244"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="247"/>
-    </row>
-    <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="244"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="247"/>
-    </row>
-    <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="248"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="250"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="256"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="255" t="str">
+      <c r="L27" s="261" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="256"/>
+      <c r="M27" s="262"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="232" t="s">
-        <v>62</v>
+      <c r="A28" s="239" t="s">
+        <v>61</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="206" t="s">
+      <c r="D28" s="213" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="243" t="s">
         <v>63</v>
-      </c>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="236" t="s">
-        <v>64</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4154,19 +4016,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="233"/>
-      <c r="B29" s="237" t="s">
+      <c r="A29" s="240"/>
+      <c r="B29" s="244" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="243"/>
+      <c r="J29" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="172"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4174,27 +4036,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="238" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="239"/>
+      <c r="B30" s="245" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="245"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="240"/>
+      <c r="A31" s="178"/>
       <c r="B31" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4204,14 +4066,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="240"/>
+      <c r="A32" s="178"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4256,24 +4118,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="241" t="s">
+      <c r="A35" s="247" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="225"/>
+      <c r="C35" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="218"/>
-      <c r="C35" s="209" t="s">
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="226"/>
-      <c r="I35" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4294,12 +4156,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="242" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="243"/>
+      <c r="A37" s="248" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="249"/>
       <c r="C37" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4307,11 +4169,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4332,24 +4194,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="241" t="s">
+      <c r="A39" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="225"/>
+      <c r="C39" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="218"/>
-      <c r="C39" s="206" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="207"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4357,37 +4219,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="226"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="233"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="227" t="s">
+      <c r="A41" s="234" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="235"/>
+      <c r="C41" s="213" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="228"/>
-      <c r="C41" s="206" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="206"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4424,113 +4286,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="236" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="229" t="s">
+      <c r="C44" s="237"/>
+      <c r="D44" s="237"/>
+      <c r="E44" s="237"/>
+      <c r="F44" s="237"/>
+      <c r="G44" s="237"/>
+      <c r="H44" s="237"/>
+      <c r="I44" s="237"/>
+      <c r="J44" s="237"/>
+      <c r="K44" s="237"/>
+      <c r="L44" s="237"/>
+      <c r="M44" s="238"/>
+    </row>
+    <row r="45" spans="1:13" customHeight="1" ht="13.5">
+      <c r="A45" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="230"/>
-      <c r="D44" s="230"/>
-      <c r="E44" s="230"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
-      <c r="H44" s="230"/>
-      <c r="I44" s="230"/>
-      <c r="J44" s="230"/>
-      <c r="K44" s="230"/>
-      <c r="L44" s="230"/>
-      <c r="M44" s="231"/>
-    </row>
-    <row r="45" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A45" s="193" t="s">
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="200" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="237"/>
+      <c r="M45" s="238"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A46" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="220" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="224" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="230"/>
-      <c r="C45" s="230"/>
-      <c r="D45" s="230"/>
-      <c r="E45" s="230"/>
-      <c r="F45" s="230"/>
-      <c r="G45" s="231"/>
-      <c r="H45" s="193" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="230"/>
-      <c r="J45" s="230"/>
-      <c r="K45" s="230"/>
-      <c r="L45" s="230"/>
-      <c r="M45" s="231"/>
-    </row>
-    <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="213" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="214"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="217" t="s">
+      <c r="F46" s="225"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="218"/>
-      <c r="G46" s="219"/>
-      <c r="H46" s="211" t="s">
+      <c r="I46" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="223" t="s">
+      <c r="J46" s="231"/>
+      <c r="K46" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="224"/>
-      <c r="K46" s="225" t="s">
+      <c r="L46" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="L46" s="201" t="s">
+      <c r="M46" s="209"/>
+    </row>
+    <row r="47" spans="1:13" customHeight="1" ht="32.25">
+      <c r="A47" s="218"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="231"/>
+      <c r="K47" s="232"/>
+      <c r="L47" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="M46" s="202"/>
-    </row>
-    <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="211"/>
-      <c r="B47" s="213"/>
-      <c r="C47" s="214"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="218"/>
-      <c r="G47" s="219"/>
-      <c r="H47" s="211"/>
-      <c r="I47" s="223"/>
-      <c r="J47" s="224"/>
-      <c r="K47" s="225"/>
-      <c r="L47" s="52" t="s">
+      <c r="M47" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="M47" s="53" t="s">
+    </row>
+    <row r="48" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A48" s="219"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="212"/>
-      <c r="B48" s="215"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
-      <c r="G48" s="222"/>
-      <c r="H48" s="54" t="s">
+      <c r="I48" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="203" t="s">
+      <c r="J48" s="211"/>
+      <c r="K48" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="204"/>
-      <c r="K48" s="55" t="s">
+      <c r="L48" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="M48" s="57" t="s">
         <v>96</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4568,9 +4430,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="207"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="214"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4803,260 +4665,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="465" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="465"/>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="465"/>
-      <c r="AG1" s="465"/>
+      <c r="AB1" s="471" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="471"/>
+      <c r="AD1" s="471"/>
+      <c r="AE1" s="471"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="471"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="466" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="467"/>
-      <c r="Q3" s="467"/>
-      <c r="R3" s="467"/>
-      <c r="S3" s="467"/>
-      <c r="T3" s="467"/>
-      <c r="U3" s="467"/>
-      <c r="V3" s="467"/>
-      <c r="W3" s="467"/>
-      <c r="X3" s="467"/>
-      <c r="Y3" s="467"/>
-      <c r="Z3" s="467"/>
-      <c r="AA3" s="468"/>
-      <c r="AB3" s="469" t="s">
+      <c r="A3" s="472" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="473"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
+      <c r="J3" s="473"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="473"/>
+      <c r="M3" s="473"/>
+      <c r="N3" s="473"/>
+      <c r="O3" s="473"/>
+      <c r="P3" s="473"/>
+      <c r="Q3" s="473"/>
+      <c r="R3" s="473"/>
+      <c r="S3" s="473"/>
+      <c r="T3" s="473"/>
+      <c r="U3" s="473"/>
+      <c r="V3" s="473"/>
+      <c r="W3" s="473"/>
+      <c r="X3" s="473"/>
+      <c r="Y3" s="473"/>
+      <c r="Z3" s="473"/>
+      <c r="AA3" s="474"/>
+      <c r="AB3" s="475" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="476"/>
+      <c r="AD3" s="476"/>
+      <c r="AE3" s="476"/>
+      <c r="AF3" s="476"/>
+      <c r="AG3" s="477"/>
+    </row>
+    <row r="4" spans="1:38" customHeight="1" ht="15.75">
+      <c r="A4" s="478" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="479"/>
+      <c r="C4" s="479"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="479"/>
+      <c r="G4" s="479"/>
+      <c r="H4" s="479"/>
+      <c r="I4" s="479"/>
+      <c r="J4" s="479"/>
+      <c r="K4" s="479"/>
+      <c r="L4" s="479"/>
+      <c r="M4" s="479"/>
+      <c r="N4" s="479"/>
+      <c r="O4" s="479"/>
+      <c r="P4" s="479"/>
+      <c r="Q4" s="479"/>
+      <c r="R4" s="479"/>
+      <c r="S4" s="479"/>
+      <c r="T4" s="479"/>
+      <c r="U4" s="479"/>
+      <c r="V4" s="479"/>
+      <c r="W4" s="479"/>
+      <c r="X4" s="479"/>
+      <c r="Y4" s="479"/>
+      <c r="Z4" s="479"/>
+      <c r="AA4" s="480"/>
+      <c r="AB4" s="481"/>
+      <c r="AC4" s="482"/>
+      <c r="AD4" s="482"/>
+      <c r="AE4" s="482"/>
+      <c r="AF4" s="482"/>
+      <c r="AG4" s="483"/>
+    </row>
+    <row r="5" spans="1:38" customHeight="1" ht="15">
+      <c r="A5" s="437" t="s">
         <v>99</v>
       </c>
-      <c r="AC3" s="470"/>
-      <c r="AD3" s="470"/>
-      <c r="AE3" s="470"/>
-      <c r="AF3" s="470"/>
-      <c r="AG3" s="471"/>
-    </row>
-    <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="472" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="473"/>
-      <c r="C4" s="473"/>
-      <c r="D4" s="473"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
-      <c r="G4" s="473"/>
-      <c r="H4" s="473"/>
-      <c r="I4" s="473"/>
-      <c r="J4" s="473"/>
-      <c r="K4" s="473"/>
-      <c r="L4" s="473"/>
-      <c r="M4" s="473"/>
-      <c r="N4" s="473"/>
-      <c r="O4" s="473"/>
-      <c r="P4" s="473"/>
-      <c r="Q4" s="473"/>
-      <c r="R4" s="473"/>
-      <c r="S4" s="473"/>
-      <c r="T4" s="473"/>
-      <c r="U4" s="473"/>
-      <c r="V4" s="473"/>
-      <c r="W4" s="473"/>
-      <c r="X4" s="473"/>
-      <c r="Y4" s="473"/>
-      <c r="Z4" s="473"/>
-      <c r="AA4" s="474"/>
-      <c r="AB4" s="475"/>
-      <c r="AC4" s="476"/>
-      <c r="AD4" s="476"/>
-      <c r="AE4" s="476"/>
-      <c r="AF4" s="476"/>
-      <c r="AG4" s="477"/>
-    </row>
-    <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="431" t="s">
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
+      <c r="F5" s="438"/>
+      <c r="G5" s="438"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="438"/>
+      <c r="L5" s="438"/>
+      <c r="M5" s="438"/>
+      <c r="N5" s="438"/>
+      <c r="O5" s="438"/>
+      <c r="P5" s="438"/>
+      <c r="Q5" s="438"/>
+      <c r="R5" s="438"/>
+      <c r="S5" s="438"/>
+      <c r="T5" s="438"/>
+      <c r="U5" s="438"/>
+      <c r="V5" s="438"/>
+      <c r="W5" s="438"/>
+      <c r="X5" s="438"/>
+      <c r="Y5" s="438"/>
+      <c r="Z5" s="438"/>
+      <c r="AA5" s="439"/>
+      <c r="AB5" s="453" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="432"/>
-      <c r="C5" s="432"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="432"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
-      <c r="I5" s="432"/>
-      <c r="J5" s="432"/>
-      <c r="K5" s="432"/>
-      <c r="L5" s="432"/>
-      <c r="M5" s="432"/>
-      <c r="N5" s="432"/>
-      <c r="O5" s="432"/>
-      <c r="P5" s="432"/>
-      <c r="Q5" s="432"/>
-      <c r="R5" s="432"/>
-      <c r="S5" s="432"/>
-      <c r="T5" s="432"/>
-      <c r="U5" s="432"/>
-      <c r="V5" s="432"/>
-      <c r="W5" s="432"/>
-      <c r="X5" s="432"/>
-      <c r="Y5" s="432"/>
-      <c r="Z5" s="432"/>
-      <c r="AA5" s="433"/>
-      <c r="AB5" s="447" t="s">
+      <c r="AC5" s="454"/>
+      <c r="AD5" s="454"/>
+      <c r="AE5" s="454"/>
+      <c r="AF5" s="454"/>
+      <c r="AG5" s="455"/>
+    </row>
+    <row r="6" spans="1:38" customHeight="1" ht="15">
+      <c r="A6" s="437"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="438"/>
+      <c r="D6" s="438"/>
+      <c r="E6" s="438"/>
+      <c r="F6" s="438"/>
+      <c r="G6" s="438"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="438"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="438"/>
+      <c r="O6" s="438"/>
+      <c r="P6" s="438"/>
+      <c r="Q6" s="438"/>
+      <c r="R6" s="438"/>
+      <c r="S6" s="438"/>
+      <c r="T6" s="438"/>
+      <c r="U6" s="438"/>
+      <c r="V6" s="438"/>
+      <c r="W6" s="438"/>
+      <c r="X6" s="438"/>
+      <c r="Y6" s="438"/>
+      <c r="Z6" s="438"/>
+      <c r="AA6" s="439"/>
+      <c r="AB6" s="456" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" s="448"/>
-      <c r="AD5" s="448"/>
-      <c r="AE5" s="448"/>
-      <c r="AF5" s="448"/>
-      <c r="AG5" s="449"/>
-    </row>
-    <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="431"/>
-      <c r="B6" s="432"/>
-      <c r="C6" s="432"/>
-      <c r="D6" s="432"/>
-      <c r="E6" s="432"/>
-      <c r="F6" s="432"/>
-      <c r="G6" s="432"/>
-      <c r="H6" s="432"/>
-      <c r="I6" s="432"/>
-      <c r="J6" s="432"/>
-      <c r="K6" s="432"/>
-      <c r="L6" s="432"/>
-      <c r="M6" s="432"/>
-      <c r="N6" s="432"/>
-      <c r="O6" s="432"/>
-      <c r="P6" s="432"/>
-      <c r="Q6" s="432"/>
-      <c r="R6" s="432"/>
-      <c r="S6" s="432"/>
-      <c r="T6" s="432"/>
-      <c r="U6" s="432"/>
-      <c r="V6" s="432"/>
-      <c r="W6" s="432"/>
-      <c r="X6" s="432"/>
-      <c r="Y6" s="432"/>
-      <c r="Z6" s="432"/>
-      <c r="AA6" s="433"/>
-      <c r="AB6" s="450" t="s">
+      <c r="AC6" s="457"/>
+      <c r="AD6" s="457"/>
+      <c r="AE6" s="457"/>
+      <c r="AF6" s="457"/>
+      <c r="AG6" s="458"/>
+    </row>
+    <row r="7" spans="1:38" customHeight="1" ht="15.6">
+      <c r="A7" s="440"/>
+      <c r="B7" s="441"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="441"/>
+      <c r="E7" s="441"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="441"/>
+      <c r="H7" s="441"/>
+      <c r="I7" s="441"/>
+      <c r="J7" s="441"/>
+      <c r="K7" s="441"/>
+      <c r="L7" s="441"/>
+      <c r="M7" s="441"/>
+      <c r="N7" s="441"/>
+      <c r="O7" s="441"/>
+      <c r="P7" s="441"/>
+      <c r="Q7" s="441"/>
+      <c r="R7" s="441"/>
+      <c r="S7" s="441"/>
+      <c r="T7" s="441"/>
+      <c r="U7" s="441"/>
+      <c r="V7" s="441"/>
+      <c r="W7" s="441"/>
+      <c r="X7" s="441"/>
+      <c r="Y7" s="441"/>
+      <c r="Z7" s="441"/>
+      <c r="AA7" s="442"/>
+      <c r="AB7" s="459"/>
+      <c r="AC7" s="459"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="459"/>
+      <c r="AF7" s="459"/>
+      <c r="AG7" s="460"/>
+    </row>
+    <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
+      <c r="A8" s="443" t="s">
         <v>102</v>
       </c>
-      <c r="AC6" s="451"/>
-      <c r="AD6" s="451"/>
-      <c r="AE6" s="451"/>
-      <c r="AF6" s="451"/>
-      <c r="AG6" s="452"/>
-    </row>
-    <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="434"/>
-      <c r="B7" s="435"/>
-      <c r="C7" s="435"/>
-      <c r="D7" s="435"/>
-      <c r="E7" s="435"/>
-      <c r="F7" s="435"/>
-      <c r="G7" s="435"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="435"/>
-      <c r="J7" s="435"/>
-      <c r="K7" s="435"/>
-      <c r="L7" s="435"/>
-      <c r="M7" s="435"/>
-      <c r="N7" s="435"/>
-      <c r="O7" s="435"/>
-      <c r="P7" s="435"/>
-      <c r="Q7" s="435"/>
-      <c r="R7" s="435"/>
-      <c r="S7" s="435"/>
-      <c r="T7" s="435"/>
-      <c r="U7" s="435"/>
-      <c r="V7" s="435"/>
-      <c r="W7" s="435"/>
-      <c r="X7" s="435"/>
-      <c r="Y7" s="435"/>
-      <c r="Z7" s="435"/>
-      <c r="AA7" s="436"/>
-      <c r="AB7" s="453"/>
-      <c r="AC7" s="453"/>
-      <c r="AD7" s="453"/>
-      <c r="AE7" s="453"/>
-      <c r="AF7" s="453"/>
-      <c r="AG7" s="454"/>
-    </row>
-    <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="437" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="438"/>
-      <c r="C8" s="439"/>
+      <c r="B8" s="444"/>
+      <c r="C8" s="445"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="446"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="338"/>
-      <c r="H8" s="338"/>
-      <c r="I8" s="338"/>
-      <c r="J8" s="338"/>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
-      <c r="O8" s="338"/>
-      <c r="P8" s="338"/>
-      <c r="Q8" s="338"/>
-      <c r="R8" s="338"/>
-      <c r="S8" s="338"/>
-      <c r="T8" s="338"/>
-      <c r="U8" s="338"/>
-      <c r="V8" s="338"/>
-      <c r="W8" s="338"/>
-      <c r="X8" s="338"/>
-      <c r="Y8" s="338"/>
-      <c r="Z8" s="338"/>
-      <c r="AA8" s="338"/>
-      <c r="AB8" s="338"/>
-      <c r="AC8" s="338"/>
-      <c r="AD8" s="338"/>
-      <c r="AE8" s="338"/>
-      <c r="AF8" s="338"/>
-      <c r="AG8" s="339"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="344"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
+      <c r="AE8" s="344"/>
+      <c r="AF8" s="344"/>
+      <c r="AG8" s="345"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="440"/>
-      <c r="B9" s="441"/>
-      <c r="C9" s="442"/>
+      <c r="A9" s="446"/>
+      <c r="B9" s="447"/>
+      <c r="C9" s="448"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5065,13 +4927,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5085,26 +4947,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="443"/>
-      <c r="B10" s="444"/>
-      <c r="C10" s="445"/>
+      <c r="A10" s="449"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="451"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="333"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
+      <c r="J10" s="339"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="333"/>
-      <c r="P10" s="333"/>
-      <c r="Q10" s="333"/>
-      <c r="R10" s="333"/>
-      <c r="S10" s="331"/>
-      <c r="T10" s="331"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="339"/>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="339"/>
+      <c r="S10" s="337"/>
+      <c r="T10" s="337"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -5121,110 +4983,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="437" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="438"/>
-      <c r="C11" s="439"/>
+      <c r="A11" s="443" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="444"/>
+      <c r="C11" s="445"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="455" t="str">
+      <c r="E11" s="461" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="438"/>
-      <c r="G11" s="438"/>
-      <c r="H11" s="438"/>
-      <c r="I11" s="438"/>
-      <c r="J11" s="438"/>
-      <c r="K11" s="438"/>
-      <c r="L11" s="438"/>
-      <c r="M11" s="438"/>
-      <c r="N11" s="438"/>
-      <c r="O11" s="438"/>
-      <c r="P11" s="438"/>
-      <c r="Q11" s="438"/>
-      <c r="R11" s="438"/>
-      <c r="S11" s="457" t="s">
+      <c r="F11" s="444"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="444"/>
+      <c r="K11" s="444"/>
+      <c r="L11" s="444"/>
+      <c r="M11" s="444"/>
+      <c r="N11" s="444"/>
+      <c r="O11" s="444"/>
+      <c r="P11" s="444"/>
+      <c r="Q11" s="444"/>
+      <c r="R11" s="444"/>
+      <c r="S11" s="463" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" s="464"/>
+      <c r="U11" s="464"/>
+      <c r="V11" s="464"/>
+      <c r="W11" s="464"/>
+      <c r="X11" s="464"/>
+      <c r="Y11" s="464"/>
+      <c r="Z11" s="464"/>
+      <c r="AA11" s="465"/>
+      <c r="AB11" s="466" t="s">
         <v>109</v>
       </c>
-      <c r="T11" s="458"/>
-      <c r="U11" s="458"/>
-      <c r="V11" s="458"/>
-      <c r="W11" s="458"/>
-      <c r="X11" s="458"/>
-      <c r="Y11" s="458"/>
-      <c r="Z11" s="458"/>
-      <c r="AA11" s="459"/>
-      <c r="AB11" s="460" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC11" s="460"/>
-      <c r="AD11" s="460"/>
-      <c r="AE11" s="460"/>
-      <c r="AF11" s="460"/>
-      <c r="AG11" s="461"/>
+      <c r="AC11" s="466"/>
+      <c r="AD11" s="466"/>
+      <c r="AE11" s="466"/>
+      <c r="AF11" s="466"/>
+      <c r="AG11" s="467"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="440"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="442"/>
+      <c r="A12" s="446"/>
+      <c r="B12" s="447"/>
+      <c r="C12" s="448"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="456"/>
-      <c r="F12" s="441"/>
-      <c r="G12" s="441"/>
-      <c r="H12" s="441"/>
-      <c r="I12" s="441"/>
-      <c r="J12" s="441"/>
-      <c r="K12" s="441"/>
-      <c r="L12" s="441"/>
-      <c r="M12" s="441"/>
-      <c r="N12" s="441"/>
-      <c r="O12" s="441"/>
-      <c r="P12" s="441"/>
-      <c r="Q12" s="441"/>
-      <c r="R12" s="441"/>
-      <c r="S12" s="462"/>
-      <c r="T12" s="463"/>
-      <c r="U12" s="463"/>
-      <c r="V12" s="463"/>
-      <c r="W12" s="463"/>
-      <c r="X12" s="463"/>
-      <c r="Y12" s="463"/>
-      <c r="Z12" s="463"/>
-      <c r="AA12" s="464"/>
-      <c r="AB12" s="331"/>
-      <c r="AC12" s="331"/>
-      <c r="AD12" s="331"/>
-      <c r="AE12" s="331"/>
-      <c r="AF12" s="331"/>
-      <c r="AG12" s="332"/>
+      <c r="E12" s="462"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="447"/>
+      <c r="H12" s="447"/>
+      <c r="I12" s="447"/>
+      <c r="J12" s="447"/>
+      <c r="K12" s="447"/>
+      <c r="L12" s="447"/>
+      <c r="M12" s="447"/>
+      <c r="N12" s="447"/>
+      <c r="O12" s="447"/>
+      <c r="P12" s="447"/>
+      <c r="Q12" s="447"/>
+      <c r="R12" s="447"/>
+      <c r="S12" s="468"/>
+      <c r="T12" s="469"/>
+      <c r="U12" s="469"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="469"/>
+      <c r="X12" s="469"/>
+      <c r="Y12" s="469"/>
+      <c r="Z12" s="469"/>
+      <c r="AA12" s="470"/>
+      <c r="AB12" s="337"/>
+      <c r="AC12" s="337"/>
+      <c r="AD12" s="337"/>
+      <c r="AE12" s="337"/>
+      <c r="AF12" s="337"/>
+      <c r="AG12" s="338"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="419" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="420"/>
-      <c r="C13" s="421"/>
+      <c r="A13" s="425" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="426"/>
+      <c r="C13" s="427"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="425" t="str">
+      <c r="E13" s="431" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="420"/>
-      <c r="G13" s="420"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="420"/>
-      <c r="K13" s="420"/>
-      <c r="L13" s="420"/>
-      <c r="M13" s="420"/>
-      <c r="N13" s="420"/>
-      <c r="O13" s="420"/>
-      <c r="P13" s="420"/>
-      <c r="Q13" s="420"/>
-      <c r="R13" s="420"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="426"/>
+      <c r="K13" s="426"/>
+      <c r="L13" s="426"/>
+      <c r="M13" s="426"/>
+      <c r="N13" s="426"/>
+      <c r="O13" s="426"/>
+      <c r="P13" s="426"/>
+      <c r="Q13" s="426"/>
+      <c r="R13" s="426"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5243,24 +5105,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="422"/>
-      <c r="B14" s="423"/>
-      <c r="C14" s="424"/>
+      <c r="A14" s="428"/>
+      <c r="B14" s="429"/>
+      <c r="C14" s="430"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="426"/>
-      <c r="F14" s="423"/>
-      <c r="G14" s="423"/>
-      <c r="H14" s="423"/>
-      <c r="I14" s="423"/>
-      <c r="J14" s="423"/>
-      <c r="K14" s="423"/>
-      <c r="L14" s="423"/>
-      <c r="M14" s="423"/>
-      <c r="N14" s="423"/>
-      <c r="O14" s="423"/>
-      <c r="P14" s="423"/>
-      <c r="Q14" s="423"/>
-      <c r="R14" s="423"/>
+      <c r="E14" s="432"/>
+      <c r="F14" s="429"/>
+      <c r="G14" s="429"/>
+      <c r="H14" s="429"/>
+      <c r="I14" s="429"/>
+      <c r="J14" s="429"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="429"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="429"/>
+      <c r="O14" s="429"/>
+      <c r="P14" s="429"/>
+      <c r="Q14" s="429"/>
+      <c r="R14" s="429"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5279,47 +5141,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="427" t="s">
+      <c r="A15" s="433" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="393"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="393"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="393"/>
+      <c r="L15" s="393"/>
+      <c r="M15" s="393"/>
+      <c r="N15" s="393"/>
+      <c r="O15" s="393"/>
+      <c r="P15" s="393"/>
+      <c r="Q15" s="434"/>
+      <c r="R15" s="392" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="435"/>
+      <c r="T15" s="435"/>
+      <c r="U15" s="435"/>
+      <c r="V15" s="436"/>
+      <c r="W15" s="392" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="387"/>
-      <c r="C15" s="387"/>
-      <c r="D15" s="387"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="387"/>
-      <c r="H15" s="387"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="387"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="387"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="387"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="428"/>
-      <c r="R15" s="386" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="429"/>
-      <c r="T15" s="429"/>
-      <c r="U15" s="429"/>
-      <c r="V15" s="430"/>
-      <c r="W15" s="386" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="387"/>
-      <c r="Y15" s="387"/>
-      <c r="Z15" s="387"/>
-      <c r="AA15" s="428"/>
-      <c r="AB15" s="386" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" s="387"/>
-      <c r="AD15" s="387"/>
-      <c r="AE15" s="387"/>
-      <c r="AF15" s="387"/>
-      <c r="AG15" s="388"/>
+      <c r="X15" s="393"/>
+      <c r="Y15" s="393"/>
+      <c r="Z15" s="393"/>
+      <c r="AA15" s="434"/>
+      <c r="AB15" s="392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="393"/>
+      <c r="AD15" s="393"/>
+      <c r="AE15" s="393"/>
+      <c r="AF15" s="393"/>
+      <c r="AG15" s="394"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5360,23 +5222,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="209" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="209"/>
+      <c r="B17" s="216" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="216"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="216"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5388,34 +5250,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="405" t="str">
+      <c r="AB17" s="411" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="406"/>
-      <c r="AD17" s="406"/>
-      <c r="AE17" s="406"/>
-      <c r="AF17" s="406"/>
-      <c r="AG17" s="407"/>
+      <c r="AC17" s="412"/>
+      <c r="AD17" s="412"/>
+      <c r="AE17" s="412"/>
+      <c r="AF17" s="412"/>
+      <c r="AG17" s="413"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="209"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5437,21 +5299,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="209"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5510,7 +5372,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5548,7 +5410,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5586,7 +5448,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5624,7 +5486,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5662,7 +5524,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5700,7 +5562,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5738,7 +5600,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5810,25 +5672,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="408" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="409"/>
-      <c r="C29" s="409"/>
-      <c r="D29" s="409"/>
-      <c r="E29" s="409"/>
-      <c r="F29" s="409"/>
-      <c r="G29" s="409"/>
-      <c r="H29" s="409"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="409"/>
-      <c r="K29" s="409"/>
-      <c r="L29" s="409"/>
-      <c r="M29" s="409"/>
-      <c r="N29" s="409"/>
-      <c r="O29" s="409"/>
-      <c r="P29" s="409"/>
-      <c r="Q29" s="410"/>
+      <c r="A29" s="414" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="415"/>
+      <c r="C29" s="415"/>
+      <c r="D29" s="415"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="415"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="415"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="415"/>
+      <c r="K29" s="415"/>
+      <c r="L29" s="415"/>
+      <c r="M29" s="415"/>
+      <c r="N29" s="415"/>
+      <c r="O29" s="415"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="416"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5839,56 +5701,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="411" t="str">
+      <c r="AB29" s="417" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="412"/>
-      <c r="AD29" s="412"/>
-      <c r="AE29" s="412"/>
-      <c r="AF29" s="412"/>
-      <c r="AG29" s="413"/>
+      <c r="AC29" s="418"/>
+      <c r="AD29" s="418"/>
+      <c r="AE29" s="418"/>
+      <c r="AF29" s="418"/>
+      <c r="AG29" s="419"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="414" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="414"/>
-      <c r="D30" s="414"/>
-      <c r="E30" s="414"/>
-      <c r="F30" s="414"/>
-      <c r="G30" s="414"/>
-      <c r="H30" s="414"/>
-      <c r="I30" s="414"/>
-      <c r="J30" s="414"/>
-      <c r="K30" s="414"/>
-      <c r="L30" s="414"/>
-      <c r="M30" s="414"/>
-      <c r="N30" s="414"/>
-      <c r="O30" s="414"/>
-      <c r="P30" s="414"/>
-      <c r="Q30" s="414"/>
-      <c r="R30" s="414"/>
-      <c r="S30" s="414"/>
-      <c r="T30" s="414"/>
-      <c r="U30" s="414"/>
-      <c r="V30" s="414"/>
-      <c r="W30" s="414"/>
-      <c r="X30" s="414"/>
-      <c r="Y30" s="414"/>
-      <c r="Z30" s="414"/>
-      <c r="AA30" s="414"/>
-      <c r="AB30" s="415"/>
-      <c r="AC30" s="415"/>
-      <c r="AD30" s="415"/>
-      <c r="AE30" s="415"/>
-      <c r="AF30" s="415"/>
-      <c r="AG30" s="416"/>
+        <v>61</v>
+      </c>
+      <c r="B30" s="420" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="420"/>
+      <c r="D30" s="420"/>
+      <c r="E30" s="420"/>
+      <c r="F30" s="420"/>
+      <c r="G30" s="420"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
+      <c r="K30" s="420"/>
+      <c r="L30" s="420"/>
+      <c r="M30" s="420"/>
+      <c r="N30" s="420"/>
+      <c r="O30" s="420"/>
+      <c r="P30" s="420"/>
+      <c r="Q30" s="420"/>
+      <c r="R30" s="420"/>
+      <c r="S30" s="420"/>
+      <c r="T30" s="420"/>
+      <c r="U30" s="420"/>
+      <c r="V30" s="420"/>
+      <c r="W30" s="420"/>
+      <c r="X30" s="420"/>
+      <c r="Y30" s="420"/>
+      <c r="Z30" s="420"/>
+      <c r="AA30" s="420"/>
+      <c r="AB30" s="421"/>
+      <c r="AC30" s="421"/>
+      <c r="AD30" s="421"/>
+      <c r="AE30" s="421"/>
+      <c r="AF30" s="421"/>
+      <c r="AG30" s="422"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5898,7 +5760,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5933,80 +5795,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="417" t="str">
+      <c r="B32" s="423" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="406"/>
-      <c r="D32" s="406"/>
-      <c r="E32" s="406"/>
-      <c r="F32" s="406"/>
-      <c r="G32" s="406"/>
-      <c r="H32" s="406"/>
-      <c r="I32" s="406"/>
-      <c r="J32" s="406"/>
-      <c r="K32" s="406"/>
-      <c r="L32" s="406"/>
-      <c r="M32" s="406"/>
-      <c r="N32" s="406"/>
-      <c r="O32" s="406"/>
-      <c r="P32" s="406"/>
-      <c r="Q32" s="406"/>
-      <c r="R32" s="406"/>
-      <c r="S32" s="406"/>
-      <c r="T32" s="406"/>
-      <c r="U32" s="406"/>
-      <c r="V32" s="406"/>
-      <c r="W32" s="406"/>
-      <c r="X32" s="406"/>
-      <c r="Y32" s="406"/>
-      <c r="Z32" s="406"/>
-      <c r="AA32" s="406"/>
-      <c r="AB32" s="406"/>
-      <c r="AC32" s="406"/>
-      <c r="AD32" s="406"/>
-      <c r="AE32" s="406"/>
-      <c r="AF32" s="406"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="412"/>
+      <c r="F32" s="412"/>
+      <c r="G32" s="412"/>
+      <c r="H32" s="412"/>
+      <c r="I32" s="412"/>
+      <c r="J32" s="412"/>
+      <c r="K32" s="412"/>
+      <c r="L32" s="412"/>
+      <c r="M32" s="412"/>
+      <c r="N32" s="412"/>
+      <c r="O32" s="412"/>
+      <c r="P32" s="412"/>
+      <c r="Q32" s="412"/>
+      <c r="R32" s="412"/>
+      <c r="S32" s="412"/>
+      <c r="T32" s="412"/>
+      <c r="U32" s="412"/>
+      <c r="V32" s="412"/>
+      <c r="W32" s="412"/>
+      <c r="X32" s="412"/>
+      <c r="Y32" s="412"/>
+      <c r="Z32" s="412"/>
+      <c r="AA32" s="412"/>
+      <c r="AB32" s="412"/>
+      <c r="AC32" s="412"/>
+      <c r="AD32" s="412"/>
+      <c r="AE32" s="412"/>
+      <c r="AF32" s="412"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="418" t="str">
+      <c r="B33" s="424" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="418"/>
-      <c r="D33" s="418"/>
-      <c r="E33" s="418"/>
-      <c r="F33" s="418"/>
-      <c r="G33" s="418"/>
-      <c r="H33" s="418"/>
-      <c r="I33" s="418"/>
-      <c r="J33" s="418"/>
-      <c r="K33" s="418"/>
-      <c r="L33" s="418"/>
-      <c r="M33" s="418"/>
-      <c r="N33" s="418"/>
-      <c r="O33" s="418"/>
-      <c r="P33" s="418"/>
-      <c r="Q33" s="418"/>
-      <c r="R33" s="418"/>
-      <c r="S33" s="418"/>
-      <c r="T33" s="418"/>
-      <c r="U33" s="418"/>
-      <c r="V33" s="418"/>
-      <c r="W33" s="418"/>
-      <c r="X33" s="418"/>
-      <c r="Y33" s="418"/>
-      <c r="Z33" s="418"/>
-      <c r="AA33" s="418"/>
-      <c r="AB33" s="418"/>
-      <c r="AC33" s="418"/>
-      <c r="AD33" s="418"/>
-      <c r="AE33" s="418"/>
-      <c r="AF33" s="418"/>
+      <c r="C33" s="424"/>
+      <c r="D33" s="424"/>
+      <c r="E33" s="424"/>
+      <c r="F33" s="424"/>
+      <c r="G33" s="424"/>
+      <c r="H33" s="424"/>
+      <c r="I33" s="424"/>
+      <c r="J33" s="424"/>
+      <c r="K33" s="424"/>
+      <c r="L33" s="424"/>
+      <c r="M33" s="424"/>
+      <c r="N33" s="424"/>
+      <c r="O33" s="424"/>
+      <c r="P33" s="424"/>
+      <c r="Q33" s="424"/>
+      <c r="R33" s="424"/>
+      <c r="S33" s="424"/>
+      <c r="T33" s="424"/>
+      <c r="U33" s="424"/>
+      <c r="V33" s="424"/>
+      <c r="W33" s="424"/>
+      <c r="X33" s="424"/>
+      <c r="Y33" s="424"/>
+      <c r="Z33" s="424"/>
+      <c r="AA33" s="424"/>
+      <c r="AB33" s="424"/>
+      <c r="AC33" s="424"/>
+      <c r="AD33" s="424"/>
+      <c r="AE33" s="424"/>
+      <c r="AF33" s="424"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -6023,19 +5885,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="418"/>
-      <c r="M34" s="418"/>
-      <c r="N34" s="418"/>
-      <c r="O34" s="418"/>
-      <c r="P34" s="418"/>
-      <c r="Q34" s="418"/>
-      <c r="R34" s="418"/>
-      <c r="S34" s="418"/>
-      <c r="T34" s="418"/>
-      <c r="U34" s="418"/>
-      <c r="V34" s="418"/>
-      <c r="W34" s="418"/>
-      <c r="X34" s="418"/>
+      <c r="L34" s="424"/>
+      <c r="M34" s="424"/>
+      <c r="N34" s="424"/>
+      <c r="O34" s="424"/>
+      <c r="P34" s="424"/>
+      <c r="Q34" s="424"/>
+      <c r="R34" s="424"/>
+      <c r="S34" s="424"/>
+      <c r="T34" s="424"/>
+      <c r="U34" s="424"/>
+      <c r="V34" s="424"/>
+      <c r="W34" s="424"/>
+      <c r="X34" s="424"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -6060,19 +5922,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="418"/>
-      <c r="M35" s="418"/>
-      <c r="N35" s="418"/>
-      <c r="O35" s="418"/>
-      <c r="P35" s="418"/>
-      <c r="Q35" s="418"/>
-      <c r="R35" s="418"/>
-      <c r="S35" s="418"/>
-      <c r="T35" s="418"/>
-      <c r="U35" s="418"/>
-      <c r="V35" s="418"/>
-      <c r="W35" s="418"/>
-      <c r="X35" s="418"/>
+      <c r="L35" s="424"/>
+      <c r="M35" s="424"/>
+      <c r="N35" s="424"/>
+      <c r="O35" s="424"/>
+      <c r="P35" s="424"/>
+      <c r="Q35" s="424"/>
+      <c r="R35" s="424"/>
+      <c r="S35" s="424"/>
+      <c r="T35" s="424"/>
+      <c r="U35" s="424"/>
+      <c r="V35" s="424"/>
+      <c r="W35" s="424"/>
+      <c r="X35" s="424"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -6087,10 +5949,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6127,47 +5989,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="400" t="s">
+      <c r="A37" s="406" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="407"/>
+      <c r="C37" s="407"/>
+      <c r="D37" s="407"/>
+      <c r="E37" s="407"/>
+      <c r="F37" s="407"/>
+      <c r="G37" s="407"/>
+      <c r="H37" s="407"/>
+      <c r="I37" s="407"/>
+      <c r="J37" s="407"/>
+      <c r="K37" s="407"/>
+      <c r="L37" s="407"/>
+      <c r="M37" s="407"/>
+      <c r="N37" s="407"/>
+      <c r="O37" s="407"/>
+      <c r="P37" s="407"/>
+      <c r="Q37" s="407"/>
+      <c r="R37" s="407"/>
+      <c r="S37" s="407" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="401"/>
-      <c r="C37" s="401"/>
-      <c r="D37" s="401"/>
-      <c r="E37" s="401"/>
-      <c r="F37" s="401"/>
-      <c r="G37" s="401"/>
-      <c r="H37" s="401"/>
-      <c r="I37" s="401"/>
-      <c r="J37" s="401"/>
-      <c r="K37" s="401"/>
-      <c r="L37" s="401"/>
-      <c r="M37" s="401"/>
-      <c r="N37" s="401"/>
-      <c r="O37" s="401"/>
-      <c r="P37" s="401"/>
-      <c r="Q37" s="401"/>
-      <c r="R37" s="401"/>
-      <c r="S37" s="401" t="s">
+      <c r="T37" s="407"/>
+      <c r="U37" s="407"/>
+      <c r="V37" s="407"/>
+      <c r="W37" s="407"/>
+      <c r="X37" s="408" t="s">
         <v>124</v>
       </c>
-      <c r="T37" s="401"/>
-      <c r="U37" s="401"/>
-      <c r="V37" s="401"/>
-      <c r="W37" s="401"/>
-      <c r="X37" s="402" t="s">
+      <c r="Y37" s="408"/>
+      <c r="Z37" s="408"/>
+      <c r="AA37" s="408"/>
+      <c r="AB37" s="408"/>
+      <c r="AC37" s="409" t="s">
         <v>125</v>
       </c>
-      <c r="Y37" s="402"/>
-      <c r="Z37" s="402"/>
-      <c r="AA37" s="402"/>
-      <c r="AB37" s="402"/>
-      <c r="AC37" s="403" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD37" s="403"/>
-      <c r="AE37" s="403"/>
-      <c r="AF37" s="403"/>
-      <c r="AG37" s="404"/>
+      <c r="AD37" s="409"/>
+      <c r="AE37" s="409"/>
+      <c r="AF37" s="409"/>
+      <c r="AG37" s="410"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6247,7 +6109,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6284,10 +6146,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6306,21 +6168,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="T41" s="395" t="s">
         <v>128</v>
       </c>
-      <c r="T41" s="389" t="s">
-        <v>129</v>
-      </c>
-      <c r="U41" s="389"/>
-      <c r="V41" s="389"/>
-      <c r="W41" s="389"/>
-      <c r="X41" s="389"/>
-      <c r="Y41" s="389"/>
-      <c r="Z41" s="389"/>
-      <c r="AA41" s="389"/>
-      <c r="AB41" s="389"/>
-      <c r="AC41" s="389"/>
-      <c r="AD41" s="389"/>
+      <c r="U41" s="395"/>
+      <c r="V41" s="395"/>
+      <c r="W41" s="395"/>
+      <c r="X41" s="395"/>
+      <c r="Y41" s="395"/>
+      <c r="Z41" s="395"/>
+      <c r="AA41" s="395"/>
+      <c r="AB41" s="395"/>
+      <c r="AC41" s="395"/>
+      <c r="AD41" s="395"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6330,7 +6192,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6347,31 +6209,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="390"/>
-      <c r="T42" s="391"/>
-      <c r="U42" s="391"/>
-      <c r="V42" s="391"/>
-      <c r="W42" s="391"/>
-      <c r="X42" s="391"/>
-      <c r="Y42" s="391"/>
-      <c r="Z42" s="391"/>
-      <c r="AA42" s="391"/>
-      <c r="AB42" s="391"/>
-      <c r="AC42" s="391"/>
-      <c r="AD42" s="391"/>
-      <c r="AE42" s="391"/>
-      <c r="AF42" s="391"/>
-      <c r="AG42" s="392"/>
+      <c r="S42" s="396"/>
+      <c r="T42" s="397"/>
+      <c r="U42" s="397"/>
+      <c r="V42" s="397"/>
+      <c r="W42" s="397"/>
+      <c r="X42" s="397"/>
+      <c r="Y42" s="397"/>
+      <c r="Z42" s="397"/>
+      <c r="AA42" s="397"/>
+      <c r="AB42" s="397"/>
+      <c r="AC42" s="397"/>
+      <c r="AD42" s="397"/>
+      <c r="AE42" s="397"/>
+      <c r="AF42" s="397"/>
+      <c r="AG42" s="398"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="399"/>
-      <c r="B43" s="331"/>
-      <c r="C43" s="331"/>
-      <c r="D43" s="331"/>
-      <c r="E43" s="331"/>
-      <c r="F43" s="331"/>
-      <c r="G43" s="331"/>
+      <c r="A43" s="405"/>
+      <c r="B43" s="337"/>
+      <c r="C43" s="337"/>
+      <c r="D43" s="337"/>
+      <c r="E43" s="337"/>
+      <c r="F43" s="337"/>
+      <c r="G43" s="337"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6383,28 +6245,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="393"/>
-      <c r="T43" s="394"/>
-      <c r="U43" s="394"/>
-      <c r="V43" s="394"/>
-      <c r="W43" s="394"/>
-      <c r="X43" s="394"/>
-      <c r="Y43" s="394"/>
-      <c r="Z43" s="394"/>
-      <c r="AA43" s="394"/>
-      <c r="AB43" s="394"/>
-      <c r="AC43" s="394"/>
-      <c r="AD43" s="394"/>
-      <c r="AE43" s="394"/>
-      <c r="AF43" s="394"/>
-      <c r="AG43" s="395"/>
+      <c r="S43" s="399"/>
+      <c r="T43" s="400"/>
+      <c r="U43" s="400"/>
+      <c r="V43" s="400"/>
+      <c r="W43" s="400"/>
+      <c r="X43" s="400"/>
+      <c r="Y43" s="400"/>
+      <c r="Z43" s="400"/>
+      <c r="AA43" s="400"/>
+      <c r="AB43" s="400"/>
+      <c r="AC43" s="400"/>
+      <c r="AD43" s="400"/>
+      <c r="AE43" s="400"/>
+      <c r="AF43" s="400"/>
+      <c r="AG43" s="401"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6421,67 +6283,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="393"/>
-      <c r="T44" s="394"/>
-      <c r="U44" s="394"/>
-      <c r="V44" s="394"/>
-      <c r="W44" s="394"/>
-      <c r="X44" s="394"/>
-      <c r="Y44" s="394"/>
-      <c r="Z44" s="394"/>
-      <c r="AA44" s="394"/>
-      <c r="AB44" s="394"/>
-      <c r="AC44" s="394"/>
-      <c r="AD44" s="394"/>
-      <c r="AE44" s="394"/>
-      <c r="AF44" s="394"/>
-      <c r="AG44" s="395"/>
+      <c r="S44" s="399"/>
+      <c r="T44" s="400"/>
+      <c r="U44" s="400"/>
+      <c r="V44" s="400"/>
+      <c r="W44" s="400"/>
+      <c r="X44" s="400"/>
+      <c r="Y44" s="400"/>
+      <c r="Z44" s="400"/>
+      <c r="AA44" s="400"/>
+      <c r="AB44" s="400"/>
+      <c r="AC44" s="400"/>
+      <c r="AD44" s="400"/>
+      <c r="AE44" s="400"/>
+      <c r="AF44" s="400"/>
+      <c r="AG44" s="401"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="399"/>
-      <c r="B45" s="331"/>
-      <c r="C45" s="331"/>
-      <c r="D45" s="331"/>
-      <c r="E45" s="331"/>
-      <c r="F45" s="331"/>
-      <c r="G45" s="331"/>
-      <c r="H45" s="331"/>
-      <c r="I45" s="331"/>
-      <c r="J45" s="331"/>
-      <c r="K45" s="331"/>
-      <c r="L45" s="331"/>
-      <c r="M45" s="331"/>
-      <c r="N45" s="331"/>
-      <c r="O45" s="331"/>
-      <c r="P45" s="331"/>
-      <c r="Q45" s="331"/>
-      <c r="R45" s="332"/>
-      <c r="S45" s="393"/>
-      <c r="T45" s="394"/>
-      <c r="U45" s="394"/>
-      <c r="V45" s="394"/>
-      <c r="W45" s="394"/>
-      <c r="X45" s="394"/>
-      <c r="Y45" s="394"/>
-      <c r="Z45" s="394"/>
-      <c r="AA45" s="394"/>
-      <c r="AB45" s="394"/>
-      <c r="AC45" s="394"/>
-      <c r="AD45" s="394"/>
-      <c r="AE45" s="394"/>
-      <c r="AF45" s="394"/>
-      <c r="AG45" s="395"/>
+      <c r="A45" s="405"/>
+      <c r="B45" s="337"/>
+      <c r="C45" s="337"/>
+      <c r="D45" s="337"/>
+      <c r="E45" s="337"/>
+      <c r="F45" s="337"/>
+      <c r="G45" s="337"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+      <c r="K45" s="337"/>
+      <c r="L45" s="337"/>
+      <c r="M45" s="337"/>
+      <c r="N45" s="337"/>
+      <c r="O45" s="337"/>
+      <c r="P45" s="337"/>
+      <c r="Q45" s="337"/>
+      <c r="R45" s="338"/>
+      <c r="S45" s="399"/>
+      <c r="T45" s="400"/>
+      <c r="U45" s="400"/>
+      <c r="V45" s="400"/>
+      <c r="W45" s="400"/>
+      <c r="X45" s="400"/>
+      <c r="Y45" s="400"/>
+      <c r="Z45" s="400"/>
+      <c r="AA45" s="400"/>
+      <c r="AB45" s="400"/>
+      <c r="AC45" s="400"/>
+      <c r="AD45" s="400"/>
+      <c r="AE45" s="400"/>
+      <c r="AF45" s="400"/>
+      <c r="AG45" s="401"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6497,28 +6359,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="393"/>
-      <c r="T46" s="394"/>
-      <c r="U46" s="394"/>
-      <c r="V46" s="394"/>
-      <c r="W46" s="394"/>
-      <c r="X46" s="394"/>
-      <c r="Y46" s="394"/>
-      <c r="Z46" s="394"/>
-      <c r="AA46" s="394"/>
-      <c r="AB46" s="394"/>
-      <c r="AC46" s="394"/>
-      <c r="AD46" s="394"/>
-      <c r="AE46" s="394"/>
-      <c r="AF46" s="394"/>
-      <c r="AG46" s="395"/>
+      <c r="S46" s="399"/>
+      <c r="T46" s="400"/>
+      <c r="U46" s="400"/>
+      <c r="V46" s="400"/>
+      <c r="W46" s="400"/>
+      <c r="X46" s="400"/>
+      <c r="Y46" s="400"/>
+      <c r="Z46" s="400"/>
+      <c r="AA46" s="400"/>
+      <c r="AB46" s="400"/>
+      <c r="AC46" s="400"/>
+      <c r="AD46" s="400"/>
+      <c r="AE46" s="400"/>
+      <c r="AF46" s="400"/>
+      <c r="AG46" s="401"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6535,21 +6397,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="393"/>
-      <c r="T47" s="394"/>
-      <c r="U47" s="394"/>
-      <c r="V47" s="394"/>
-      <c r="W47" s="394"/>
-      <c r="X47" s="394"/>
-      <c r="Y47" s="394"/>
-      <c r="Z47" s="394"/>
-      <c r="AA47" s="394"/>
-      <c r="AB47" s="394"/>
-      <c r="AC47" s="394"/>
-      <c r="AD47" s="394"/>
-      <c r="AE47" s="394"/>
-      <c r="AF47" s="394"/>
-      <c r="AG47" s="395"/>
+      <c r="S47" s="399"/>
+      <c r="T47" s="400"/>
+      <c r="U47" s="400"/>
+      <c r="V47" s="400"/>
+      <c r="W47" s="400"/>
+      <c r="X47" s="400"/>
+      <c r="Y47" s="400"/>
+      <c r="Z47" s="400"/>
+      <c r="AA47" s="400"/>
+      <c r="AB47" s="400"/>
+      <c r="AC47" s="400"/>
+      <c r="AD47" s="400"/>
+      <c r="AE47" s="400"/>
+      <c r="AF47" s="400"/>
+      <c r="AG47" s="401"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6571,344 +6433,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="396"/>
-      <c r="T48" s="397"/>
-      <c r="U48" s="397"/>
-      <c r="V48" s="397"/>
-      <c r="W48" s="397"/>
-      <c r="X48" s="397"/>
-      <c r="Y48" s="397"/>
-      <c r="Z48" s="397"/>
-      <c r="AA48" s="397"/>
-      <c r="AB48" s="397"/>
-      <c r="AC48" s="397"/>
-      <c r="AD48" s="397"/>
-      <c r="AE48" s="397"/>
-      <c r="AF48" s="397"/>
-      <c r="AG48" s="398"/>
+      <c r="S48" s="402"/>
+      <c r="T48" s="403"/>
+      <c r="U48" s="403"/>
+      <c r="V48" s="403"/>
+      <c r="W48" s="403"/>
+      <c r="X48" s="403"/>
+      <c r="Y48" s="403"/>
+      <c r="Z48" s="403"/>
+      <c r="AA48" s="403"/>
+      <c r="AB48" s="403"/>
+      <c r="AC48" s="403"/>
+      <c r="AD48" s="403"/>
+      <c r="AE48" s="403"/>
+      <c r="AF48" s="403"/>
+      <c r="AG48" s="404"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="340" t="s">
+      <c r="A49" s="346" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="372"/>
+      <c r="C49" s="372"/>
+      <c r="D49" s="372"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="337"/>
+      <c r="G49" s="337"/>
+      <c r="H49" s="337"/>
+      <c r="I49" s="337"/>
+      <c r="J49" s="337"/>
+      <c r="K49" s="337"/>
+      <c r="L49" s="337"/>
+      <c r="M49" s="337"/>
+      <c r="N49" s="337"/>
+      <c r="O49" s="337"/>
+      <c r="P49" s="337"/>
+      <c r="Q49" s="337"/>
+      <c r="R49" s="338"/>
+      <c r="S49" s="346" t="s">
+        <v>133</v>
+      </c>
+      <c r="T49" s="347"/>
+      <c r="U49" s="347"/>
+      <c r="V49" s="376"/>
+      <c r="W49" s="359"/>
+      <c r="X49" s="356"/>
+      <c r="Y49" s="356"/>
+      <c r="Z49" s="356"/>
+      <c r="AA49" s="356"/>
+      <c r="AB49" s="356"/>
+      <c r="AC49" s="356"/>
+      <c r="AD49" s="356"/>
+      <c r="AE49" s="356"/>
+      <c r="AF49" s="356"/>
+      <c r="AG49" s="360"/>
+      <c r="AH49" s="8"/>
+    </row>
+    <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
+      <c r="A50" s="373"/>
+      <c r="B50" s="374"/>
+      <c r="C50" s="374"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="329"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="326"/>
+      <c r="N50" s="326"/>
+      <c r="O50" s="326"/>
+      <c r="P50" s="326"/>
+      <c r="Q50" s="326"/>
+      <c r="R50" s="375"/>
+      <c r="S50" s="348"/>
+      <c r="T50" s="349"/>
+      <c r="U50" s="349"/>
+      <c r="V50" s="358"/>
+      <c r="W50" s="361"/>
+      <c r="X50" s="349"/>
+      <c r="Y50" s="349"/>
+      <c r="Z50" s="349"/>
+      <c r="AA50" s="349"/>
+      <c r="AB50" s="349"/>
+      <c r="AC50" s="349"/>
+      <c r="AD50" s="349"/>
+      <c r="AE50" s="349"/>
+      <c r="AF50" s="349"/>
+      <c r="AG50" s="362"/>
+      <c r="AH50" s="8"/>
+    </row>
+    <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
+      <c r="A51" s="322" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="366"/>
-      <c r="C49" s="366"/>
-      <c r="D49" s="366"/>
-      <c r="E49" s="344"/>
-      <c r="F49" s="331"/>
-      <c r="G49" s="331"/>
-      <c r="H49" s="331"/>
-      <c r="I49" s="331"/>
-      <c r="J49" s="331"/>
-      <c r="K49" s="331"/>
-      <c r="L49" s="331"/>
-      <c r="M49" s="331"/>
-      <c r="N49" s="331"/>
-      <c r="O49" s="331"/>
-      <c r="P49" s="331"/>
-      <c r="Q49" s="331"/>
-      <c r="R49" s="332"/>
-      <c r="S49" s="340" t="s">
+      <c r="B51" s="377"/>
+      <c r="C51" s="377"/>
+      <c r="D51" s="378"/>
+      <c r="E51" s="380" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="381"/>
+      <c r="G51" s="381"/>
+      <c r="H51" s="381"/>
+      <c r="I51" s="381"/>
+      <c r="J51" s="381"/>
+      <c r="K51" s="381"/>
+      <c r="L51" s="381"/>
+      <c r="M51" s="381"/>
+      <c r="N51" s="381"/>
+      <c r="O51" s="381"/>
+      <c r="P51" s="381"/>
+      <c r="Q51" s="381"/>
+      <c r="R51" s="382"/>
+      <c r="S51" s="322" t="s">
         <v>134</v>
       </c>
-      <c r="T49" s="341"/>
-      <c r="U49" s="341"/>
-      <c r="V49" s="370"/>
-      <c r="W49" s="353"/>
-      <c r="X49" s="350"/>
-      <c r="Y49" s="350"/>
-      <c r="Z49" s="350"/>
-      <c r="AA49" s="350"/>
-      <c r="AB49" s="350"/>
-      <c r="AC49" s="350"/>
-      <c r="AD49" s="350"/>
-      <c r="AE49" s="350"/>
-      <c r="AF49" s="350"/>
-      <c r="AG49" s="354"/>
-      <c r="AH49" s="8"/>
-    </row>
-    <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="367"/>
-      <c r="B50" s="368"/>
-      <c r="C50" s="368"/>
-      <c r="D50" s="368"/>
-      <c r="E50" s="323"/>
-      <c r="F50" s="320"/>
-      <c r="G50" s="320"/>
-      <c r="H50" s="320"/>
-      <c r="I50" s="320"/>
-      <c r="J50" s="320"/>
-      <c r="K50" s="320"/>
-      <c r="L50" s="320"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="320"/>
-      <c r="O50" s="320"/>
-      <c r="P50" s="320"/>
-      <c r="Q50" s="320"/>
-      <c r="R50" s="369"/>
-      <c r="S50" s="342"/>
-      <c r="T50" s="343"/>
-      <c r="U50" s="343"/>
-      <c r="V50" s="352"/>
-      <c r="W50" s="355"/>
-      <c r="X50" s="343"/>
-      <c r="Y50" s="343"/>
-      <c r="Z50" s="343"/>
-      <c r="AA50" s="343"/>
-      <c r="AB50" s="343"/>
-      <c r="AC50" s="343"/>
-      <c r="AD50" s="343"/>
-      <c r="AE50" s="343"/>
-      <c r="AF50" s="343"/>
-      <c r="AG50" s="356"/>
-      <c r="AH50" s="8"/>
-    </row>
-    <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="316" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="371"/>
-      <c r="C51" s="371"/>
-      <c r="D51" s="372"/>
-      <c r="E51" s="374" t="s">
+      <c r="T51" s="356"/>
+      <c r="U51" s="356"/>
+      <c r="V51" s="357"/>
+      <c r="W51" s="386" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" s="387"/>
+      <c r="Y51" s="387"/>
+      <c r="Z51" s="387"/>
+      <c r="AA51" s="387"/>
+      <c r="AB51" s="387"/>
+      <c r="AC51" s="387"/>
+      <c r="AD51" s="387"/>
+      <c r="AE51" s="387"/>
+      <c r="AF51" s="387"/>
+      <c r="AG51" s="388"/>
+      <c r="AH51" s="8"/>
+    </row>
+    <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
+      <c r="A52" s="373"/>
+      <c r="B52" s="374"/>
+      <c r="C52" s="374"/>
+      <c r="D52" s="379"/>
+      <c r="E52" s="383"/>
+      <c r="F52" s="384"/>
+      <c r="G52" s="384"/>
+      <c r="H52" s="384"/>
+      <c r="I52" s="384"/>
+      <c r="J52" s="384"/>
+      <c r="K52" s="384"/>
+      <c r="L52" s="384"/>
+      <c r="M52" s="384"/>
+      <c r="N52" s="384"/>
+      <c r="O52" s="384"/>
+      <c r="P52" s="384"/>
+      <c r="Q52" s="384"/>
+      <c r="R52" s="385"/>
+      <c r="S52" s="348"/>
+      <c r="T52" s="349"/>
+      <c r="U52" s="349"/>
+      <c r="V52" s="358"/>
+      <c r="W52" s="389"/>
+      <c r="X52" s="390"/>
+      <c r="Y52" s="390"/>
+      <c r="Z52" s="390"/>
+      <c r="AA52" s="390"/>
+      <c r="AB52" s="390"/>
+      <c r="AC52" s="390"/>
+      <c r="AD52" s="390"/>
+      <c r="AE52" s="390"/>
+      <c r="AF52" s="390"/>
+      <c r="AG52" s="391"/>
+      <c r="AH52" s="8"/>
+    </row>
+    <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
+      <c r="A53" s="322" t="s">
         <v>136</v>
       </c>
-      <c r="F51" s="375"/>
-      <c r="G51" s="375"/>
-      <c r="H51" s="375"/>
-      <c r="I51" s="375"/>
-      <c r="J51" s="375"/>
-      <c r="K51" s="375"/>
-      <c r="L51" s="375"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="375"/>
-      <c r="O51" s="375"/>
-      <c r="P51" s="375"/>
-      <c r="Q51" s="375"/>
-      <c r="R51" s="376"/>
-      <c r="S51" s="316" t="s">
-        <v>135</v>
-      </c>
-      <c r="T51" s="350"/>
-      <c r="U51" s="350"/>
-      <c r="V51" s="351"/>
-      <c r="W51" s="380" t="s">
-        <v>40</v>
-      </c>
-      <c r="X51" s="381"/>
-      <c r="Y51" s="381"/>
-      <c r="Z51" s="381"/>
-      <c r="AA51" s="381"/>
-      <c r="AB51" s="381"/>
-      <c r="AC51" s="381"/>
-      <c r="AD51" s="381"/>
-      <c r="AE51" s="381"/>
-      <c r="AF51" s="381"/>
-      <c r="AG51" s="382"/>
-      <c r="AH51" s="8"/>
-    </row>
-    <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="367"/>
-      <c r="B52" s="368"/>
-      <c r="C52" s="368"/>
-      <c r="D52" s="373"/>
-      <c r="E52" s="377"/>
-      <c r="F52" s="378"/>
-      <c r="G52" s="378"/>
-      <c r="H52" s="378"/>
-      <c r="I52" s="378"/>
-      <c r="J52" s="378"/>
-      <c r="K52" s="378"/>
-      <c r="L52" s="378"/>
-      <c r="M52" s="378"/>
-      <c r="N52" s="378"/>
-      <c r="O52" s="378"/>
-      <c r="P52" s="378"/>
-      <c r="Q52" s="378"/>
-      <c r="R52" s="379"/>
-      <c r="S52" s="342"/>
-      <c r="T52" s="343"/>
-      <c r="U52" s="343"/>
-      <c r="V52" s="352"/>
-      <c r="W52" s="383"/>
-      <c r="X52" s="384"/>
-      <c r="Y52" s="384"/>
-      <c r="Z52" s="384"/>
-      <c r="AA52" s="384"/>
-      <c r="AB52" s="384"/>
-      <c r="AC52" s="384"/>
-      <c r="AD52" s="384"/>
-      <c r="AE52" s="384"/>
-      <c r="AF52" s="384"/>
-      <c r="AG52" s="385"/>
-      <c r="AH52" s="8"/>
-    </row>
-    <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="316" t="s">
+      <c r="B53" s="356"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="357"/>
+      <c r="E53" s="359" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="350"/>
-      <c r="C53" s="350"/>
-      <c r="D53" s="351"/>
-      <c r="E53" s="353" t="s">
+      <c r="F53" s="356"/>
+      <c r="G53" s="356"/>
+      <c r="H53" s="356"/>
+      <c r="I53" s="356"/>
+      <c r="J53" s="356"/>
+      <c r="K53" s="356"/>
+      <c r="L53" s="356"/>
+      <c r="M53" s="356"/>
+      <c r="N53" s="356"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="356"/>
+      <c r="Q53" s="356"/>
+      <c r="R53" s="360"/>
+      <c r="S53" s="322" t="s">
+        <v>136</v>
+      </c>
+      <c r="T53" s="356"/>
+      <c r="U53" s="356"/>
+      <c r="V53" s="357"/>
+      <c r="W53" s="359" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="350"/>
-      <c r="G53" s="350"/>
-      <c r="H53" s="350"/>
-      <c r="I53" s="350"/>
-      <c r="J53" s="350"/>
-      <c r="K53" s="350"/>
-      <c r="L53" s="350"/>
-      <c r="M53" s="350"/>
-      <c r="N53" s="350"/>
-      <c r="O53" s="350"/>
-      <c r="P53" s="350"/>
-      <c r="Q53" s="350"/>
-      <c r="R53" s="354"/>
-      <c r="S53" s="316" t="s">
-        <v>137</v>
-      </c>
-      <c r="T53" s="350"/>
-      <c r="U53" s="350"/>
-      <c r="V53" s="351"/>
-      <c r="W53" s="353" t="s">
-        <v>139</v>
-      </c>
-      <c r="X53" s="350"/>
-      <c r="Y53" s="350"/>
-      <c r="Z53" s="350"/>
-      <c r="AA53" s="350"/>
-      <c r="AB53" s="350"/>
-      <c r="AC53" s="350"/>
-      <c r="AD53" s="350"/>
-      <c r="AE53" s="350"/>
-      <c r="AF53" s="350"/>
-      <c r="AG53" s="354"/>
+      <c r="X53" s="356"/>
+      <c r="Y53" s="356"/>
+      <c r="Z53" s="356"/>
+      <c r="AA53" s="356"/>
+      <c r="AB53" s="356"/>
+      <c r="AC53" s="356"/>
+      <c r="AD53" s="356"/>
+      <c r="AE53" s="356"/>
+      <c r="AF53" s="356"/>
+      <c r="AG53" s="360"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="342"/>
-      <c r="B54" s="343"/>
-      <c r="C54" s="343"/>
-      <c r="D54" s="352"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="343"/>
-      <c r="G54" s="343"/>
-      <c r="H54" s="343"/>
-      <c r="I54" s="343"/>
-      <c r="J54" s="343"/>
-      <c r="K54" s="343"/>
-      <c r="L54" s="343"/>
-      <c r="M54" s="343"/>
-      <c r="N54" s="343"/>
-      <c r="O54" s="343"/>
-      <c r="P54" s="343"/>
-      <c r="Q54" s="343"/>
-      <c r="R54" s="356"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="343"/>
-      <c r="U54" s="343"/>
-      <c r="V54" s="352"/>
-      <c r="W54" s="355"/>
-      <c r="X54" s="343"/>
-      <c r="Y54" s="343"/>
-      <c r="Z54" s="343"/>
-      <c r="AA54" s="343"/>
-      <c r="AB54" s="343"/>
-      <c r="AC54" s="343"/>
-      <c r="AD54" s="343"/>
-      <c r="AE54" s="343"/>
-      <c r="AF54" s="343"/>
-      <c r="AG54" s="356"/>
+      <c r="A54" s="348"/>
+      <c r="B54" s="349"/>
+      <c r="C54" s="349"/>
+      <c r="D54" s="358"/>
+      <c r="E54" s="361"/>
+      <c r="F54" s="349"/>
+      <c r="G54" s="349"/>
+      <c r="H54" s="349"/>
+      <c r="I54" s="349"/>
+      <c r="J54" s="349"/>
+      <c r="K54" s="349"/>
+      <c r="L54" s="349"/>
+      <c r="M54" s="349"/>
+      <c r="N54" s="349"/>
+      <c r="O54" s="349"/>
+      <c r="P54" s="349"/>
+      <c r="Q54" s="349"/>
+      <c r="R54" s="362"/>
+      <c r="S54" s="348"/>
+      <c r="T54" s="349"/>
+      <c r="U54" s="349"/>
+      <c r="V54" s="358"/>
+      <c r="W54" s="361"/>
+      <c r="X54" s="349"/>
+      <c r="Y54" s="349"/>
+      <c r="Z54" s="349"/>
+      <c r="AA54" s="349"/>
+      <c r="AB54" s="349"/>
+      <c r="AC54" s="349"/>
+      <c r="AD54" s="349"/>
+      <c r="AE54" s="349"/>
+      <c r="AF54" s="349"/>
+      <c r="AG54" s="362"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="316" t="s">
+      <c r="A55" s="322" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="350"/>
-      <c r="C55" s="350"/>
-      <c r="D55" s="351"/>
-      <c r="E55" s="344"/>
-      <c r="F55" s="331"/>
-      <c r="G55" s="331"/>
-      <c r="H55" s="331"/>
-      <c r="I55" s="331"/>
-      <c r="J55" s="331"/>
-      <c r="K55" s="331"/>
-      <c r="L55" s="331"/>
-      <c r="M55" s="331"/>
-      <c r="N55" s="331"/>
-      <c r="O55" s="331"/>
-      <c r="P55" s="331"/>
-      <c r="Q55" s="331"/>
-      <c r="R55" s="332"/>
-      <c r="S55" s="316" t="s">
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="357"/>
+      <c r="E55" s="350"/>
+      <c r="F55" s="337"/>
+      <c r="G55" s="337"/>
+      <c r="H55" s="337"/>
+      <c r="I55" s="337"/>
+      <c r="J55" s="337"/>
+      <c r="K55" s="337"/>
+      <c r="L55" s="337"/>
+      <c r="M55" s="337"/>
+      <c r="N55" s="337"/>
+      <c r="O55" s="337"/>
+      <c r="P55" s="337"/>
+      <c r="Q55" s="337"/>
+      <c r="R55" s="338"/>
+      <c r="S55" s="322" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="350"/>
-      <c r="U55" s="350"/>
-      <c r="V55" s="351"/>
-      <c r="W55" s="353"/>
-      <c r="X55" s="350"/>
-      <c r="Y55" s="350"/>
-      <c r="Z55" s="350"/>
-      <c r="AA55" s="350"/>
-      <c r="AB55" s="350"/>
-      <c r="AC55" s="350"/>
-      <c r="AD55" s="350"/>
-      <c r="AE55" s="350"/>
-      <c r="AF55" s="350"/>
-      <c r="AG55" s="354"/>
+      <c r="T55" s="356"/>
+      <c r="U55" s="356"/>
+      <c r="V55" s="357"/>
+      <c r="W55" s="359"/>
+      <c r="X55" s="356"/>
+      <c r="Y55" s="356"/>
+      <c r="Z55" s="356"/>
+      <c r="AA55" s="356"/>
+      <c r="AB55" s="356"/>
+      <c r="AC55" s="356"/>
+      <c r="AD55" s="356"/>
+      <c r="AE55" s="356"/>
+      <c r="AF55" s="356"/>
+      <c r="AG55" s="360"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="362"/>
-      <c r="B56" s="363"/>
-      <c r="C56" s="363"/>
-      <c r="D56" s="364"/>
-      <c r="E56" s="365"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="333"/>
-      <c r="I56" s="333"/>
-      <c r="J56" s="333"/>
-      <c r="K56" s="333"/>
-      <c r="L56" s="333"/>
-      <c r="M56" s="333"/>
-      <c r="N56" s="333"/>
-      <c r="O56" s="333"/>
-      <c r="P56" s="333"/>
-      <c r="Q56" s="333"/>
-      <c r="R56" s="334"/>
-      <c r="S56" s="357"/>
-      <c r="T56" s="358"/>
-      <c r="U56" s="358"/>
-      <c r="V56" s="359"/>
-      <c r="W56" s="360"/>
-      <c r="X56" s="358"/>
-      <c r="Y56" s="358"/>
-      <c r="Z56" s="358"/>
-      <c r="AA56" s="358"/>
-      <c r="AB56" s="358"/>
-      <c r="AC56" s="358"/>
-      <c r="AD56" s="358"/>
-      <c r="AE56" s="358"/>
-      <c r="AF56" s="358"/>
-      <c r="AG56" s="361"/>
+      <c r="A56" s="368"/>
+      <c r="B56" s="369"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
+      <c r="F56" s="339"/>
+      <c r="G56" s="339"/>
+      <c r="H56" s="339"/>
+      <c r="I56" s="339"/>
+      <c r="J56" s="339"/>
+      <c r="K56" s="339"/>
+      <c r="L56" s="339"/>
+      <c r="M56" s="339"/>
+      <c r="N56" s="339"/>
+      <c r="O56" s="339"/>
+      <c r="P56" s="339"/>
+      <c r="Q56" s="339"/>
+      <c r="R56" s="340"/>
+      <c r="S56" s="363"/>
+      <c r="T56" s="364"/>
+      <c r="U56" s="364"/>
+      <c r="V56" s="365"/>
+      <c r="W56" s="366"/>
+      <c r="X56" s="364"/>
+      <c r="Y56" s="364"/>
+      <c r="Z56" s="364"/>
+      <c r="AA56" s="364"/>
+      <c r="AB56" s="364"/>
+      <c r="AC56" s="364"/>
+      <c r="AD56" s="364"/>
+      <c r="AE56" s="364"/>
+      <c r="AF56" s="364"/>
+      <c r="AG56" s="367"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="162" t="s">
         <v>140</v>
-      </c>
-      <c r="B57" s="162" t="s">
-        <v>141</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6936,49 +6798,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="338"/>
-      <c r="AF57" s="338"/>
-      <c r="AG57" s="339"/>
+      <c r="AE57" s="344"/>
+      <c r="AF57" s="344"/>
+      <c r="AG57" s="345"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="340" t="s">
+      <c r="A58" s="346" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="347"/>
+      <c r="C58" s="347"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="350"/>
+      <c r="F58" s="337"/>
+      <c r="G58" s="337"/>
+      <c r="H58" s="337"/>
+      <c r="I58" s="337"/>
+      <c r="J58" s="337"/>
+      <c r="K58" s="337"/>
+      <c r="L58" s="337"/>
+      <c r="M58" s="351"/>
+      <c r="N58" s="352" t="s">
+        <v>100</v>
+      </c>
+      <c r="O58" s="353"/>
+      <c r="P58" s="353"/>
+      <c r="Q58" s="353"/>
+      <c r="R58" s="354"/>
+      <c r="S58" s="355" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="341"/>
-      <c r="C58" s="341"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="344"/>
-      <c r="F58" s="331"/>
-      <c r="G58" s="331"/>
-      <c r="H58" s="331"/>
-      <c r="I58" s="331"/>
-      <c r="J58" s="331"/>
-      <c r="K58" s="331"/>
-      <c r="L58" s="331"/>
-      <c r="M58" s="345"/>
-      <c r="N58" s="346" t="s">
-        <v>101</v>
-      </c>
-      <c r="O58" s="347"/>
-      <c r="P58" s="347"/>
-      <c r="Q58" s="347"/>
-      <c r="R58" s="348"/>
-      <c r="S58" s="349" t="s">
-        <v>144</v>
-      </c>
-      <c r="T58" s="347"/>
-      <c r="U58" s="347"/>
-      <c r="V58" s="347"/>
-      <c r="W58" s="347"/>
-      <c r="X58" s="347"/>
-      <c r="Y58" s="347"/>
-      <c r="Z58" s="347"/>
-      <c r="AA58" s="348"/>
+      <c r="T58" s="353"/>
+      <c r="U58" s="353"/>
+      <c r="V58" s="353"/>
+      <c r="W58" s="353"/>
+      <c r="X58" s="353"/>
+      <c r="Y58" s="353"/>
+      <c r="Z58" s="353"/>
+      <c r="AA58" s="354"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6988,33 +6850,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="342"/>
-      <c r="B59" s="343"/>
-      <c r="C59" s="343"/>
+      <c r="A59" s="348"/>
+      <c r="B59" s="349"/>
+      <c r="C59" s="349"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="323"/>
-      <c r="F59" s="320"/>
-      <c r="G59" s="320"/>
-      <c r="H59" s="320"/>
-      <c r="I59" s="320"/>
-      <c r="J59" s="320"/>
-      <c r="K59" s="320"/>
-      <c r="L59" s="320"/>
-      <c r="M59" s="321"/>
-      <c r="N59" s="327"/>
-      <c r="O59" s="328"/>
-      <c r="P59" s="328"/>
-      <c r="Q59" s="328"/>
-      <c r="R59" s="329"/>
-      <c r="S59" s="327"/>
-      <c r="T59" s="328"/>
-      <c r="U59" s="328"/>
-      <c r="V59" s="328"/>
-      <c r="W59" s="328"/>
-      <c r="X59" s="328"/>
-      <c r="Y59" s="328"/>
-      <c r="Z59" s="328"/>
-      <c r="AA59" s="329"/>
+      <c r="E59" s="329"/>
+      <c r="F59" s="326"/>
+      <c r="G59" s="326"/>
+      <c r="H59" s="326"/>
+      <c r="I59" s="326"/>
+      <c r="J59" s="326"/>
+      <c r="K59" s="326"/>
+      <c r="L59" s="326"/>
+      <c r="M59" s="327"/>
+      <c r="N59" s="333"/>
+      <c r="O59" s="334"/>
+      <c r="P59" s="334"/>
+      <c r="Q59" s="334"/>
+      <c r="R59" s="335"/>
+      <c r="S59" s="333"/>
+      <c r="T59" s="334"/>
+      <c r="U59" s="334"/>
+      <c r="V59" s="334"/>
+      <c r="W59" s="334"/>
+      <c r="X59" s="334"/>
+      <c r="Y59" s="334"/>
+      <c r="Z59" s="334"/>
+      <c r="AA59" s="335"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -7024,121 +6886,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="316" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="317"/>
-      <c r="C60" s="317"/>
-      <c r="D60" s="318"/>
-      <c r="E60" s="322"/>
-      <c r="F60" s="317"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="317"/>
-      <c r="J60" s="317"/>
-      <c r="K60" s="317"/>
-      <c r="L60" s="317"/>
-      <c r="M60" s="318"/>
-      <c r="N60" s="324" t="s">
-        <v>101</v>
-      </c>
-      <c r="O60" s="325"/>
-      <c r="P60" s="325"/>
-      <c r="Q60" s="325"/>
-      <c r="R60" s="326"/>
-      <c r="S60" s="324" t="s">
-        <v>75</v>
-      </c>
-      <c r="T60" s="325"/>
-      <c r="U60" s="325"/>
-      <c r="V60" s="325"/>
-      <c r="W60" s="325"/>
-      <c r="X60" s="325"/>
-      <c r="Y60" s="325"/>
-      <c r="Z60" s="325"/>
-      <c r="AA60" s="326"/>
+      <c r="A60" s="322" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="323"/>
+      <c r="C60" s="323"/>
+      <c r="D60" s="324"/>
+      <c r="E60" s="328"/>
+      <c r="F60" s="323"/>
+      <c r="G60" s="323"/>
+      <c r="H60" s="323"/>
+      <c r="I60" s="323"/>
+      <c r="J60" s="323"/>
+      <c r="K60" s="323"/>
+      <c r="L60" s="323"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="330" t="s">
+        <v>100</v>
+      </c>
+      <c r="O60" s="331"/>
+      <c r="P60" s="331"/>
+      <c r="Q60" s="331"/>
+      <c r="R60" s="332"/>
+      <c r="S60" s="330" t="s">
+        <v>74</v>
+      </c>
+      <c r="T60" s="331"/>
+      <c r="U60" s="331"/>
+      <c r="V60" s="331"/>
+      <c r="W60" s="331"/>
+      <c r="X60" s="331"/>
+      <c r="Y60" s="331"/>
+      <c r="Z60" s="331"/>
+      <c r="AA60" s="332"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="317"/>
-      <c r="AE60" s="317"/>
-      <c r="AF60" s="317"/>
-      <c r="AG60" s="330"/>
+      <c r="AD60" s="323"/>
+      <c r="AE60" s="323"/>
+      <c r="AF60" s="323"/>
+      <c r="AG60" s="336"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="319"/>
-      <c r="B61" s="320"/>
-      <c r="C61" s="320"/>
-      <c r="D61" s="321"/>
-      <c r="E61" s="323"/>
-      <c r="F61" s="320"/>
-      <c r="G61" s="320"/>
-      <c r="H61" s="320"/>
-      <c r="I61" s="320"/>
-      <c r="J61" s="320"/>
-      <c r="K61" s="320"/>
-      <c r="L61" s="320"/>
-      <c r="M61" s="321"/>
-      <c r="N61" s="327"/>
-      <c r="O61" s="328"/>
-      <c r="P61" s="328"/>
-      <c r="Q61" s="328"/>
-      <c r="R61" s="329"/>
-      <c r="S61" s="327"/>
-      <c r="T61" s="328"/>
-      <c r="U61" s="328"/>
-      <c r="V61" s="328"/>
-      <c r="W61" s="328"/>
-      <c r="X61" s="328"/>
-      <c r="Y61" s="328"/>
-      <c r="Z61" s="328"/>
-      <c r="AA61" s="329"/>
-      <c r="AB61" s="331"/>
-      <c r="AC61" s="331"/>
-      <c r="AD61" s="331"/>
-      <c r="AE61" s="331"/>
-      <c r="AF61" s="331"/>
-      <c r="AG61" s="332"/>
+      <c r="A61" s="325"/>
+      <c r="B61" s="326"/>
+      <c r="C61" s="326"/>
+      <c r="D61" s="327"/>
+      <c r="E61" s="329"/>
+      <c r="F61" s="326"/>
+      <c r="G61" s="326"/>
+      <c r="H61" s="326"/>
+      <c r="I61" s="326"/>
+      <c r="J61" s="326"/>
+      <c r="K61" s="326"/>
+      <c r="L61" s="326"/>
+      <c r="M61" s="327"/>
+      <c r="N61" s="333"/>
+      <c r="O61" s="334"/>
+      <c r="P61" s="334"/>
+      <c r="Q61" s="334"/>
+      <c r="R61" s="335"/>
+      <c r="S61" s="333"/>
+      <c r="T61" s="334"/>
+      <c r="U61" s="334"/>
+      <c r="V61" s="334"/>
+      <c r="W61" s="334"/>
+      <c r="X61" s="334"/>
+      <c r="Y61" s="334"/>
+      <c r="Z61" s="334"/>
+      <c r="AA61" s="335"/>
+      <c r="AB61" s="337"/>
+      <c r="AC61" s="337"/>
+      <c r="AD61" s="337"/>
+      <c r="AE61" s="337"/>
+      <c r="AF61" s="337"/>
+      <c r="AG61" s="338"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="335" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="336"/>
-      <c r="C62" s="336"/>
-      <c r="D62" s="336"/>
-      <c r="E62" s="336"/>
-      <c r="F62" s="336"/>
-      <c r="G62" s="336"/>
-      <c r="H62" s="336"/>
-      <c r="I62" s="336"/>
-      <c r="J62" s="336"/>
-      <c r="K62" s="336"/>
-      <c r="L62" s="336"/>
-      <c r="M62" s="336"/>
-      <c r="N62" s="336"/>
-      <c r="O62" s="336"/>
-      <c r="P62" s="336"/>
-      <c r="Q62" s="336"/>
-      <c r="R62" s="336"/>
-      <c r="S62" s="336"/>
-      <c r="T62" s="336"/>
-      <c r="U62" s="336"/>
-      <c r="V62" s="336"/>
-      <c r="W62" s="336"/>
-      <c r="X62" s="336"/>
-      <c r="Y62" s="336"/>
-      <c r="Z62" s="336"/>
-      <c r="AA62" s="337"/>
-      <c r="AB62" s="333"/>
-      <c r="AC62" s="333"/>
-      <c r="AD62" s="333"/>
-      <c r="AE62" s="333"/>
-      <c r="AF62" s="333"/>
-      <c r="AG62" s="334"/>
+      <c r="A62" s="341" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="342"/>
+      <c r="C62" s="342"/>
+      <c r="D62" s="342"/>
+      <c r="E62" s="342"/>
+      <c r="F62" s="342"/>
+      <c r="G62" s="342"/>
+      <c r="H62" s="342"/>
+      <c r="I62" s="342"/>
+      <c r="J62" s="342"/>
+      <c r="K62" s="342"/>
+      <c r="L62" s="342"/>
+      <c r="M62" s="342"/>
+      <c r="N62" s="342"/>
+      <c r="O62" s="342"/>
+      <c r="P62" s="342"/>
+      <c r="Q62" s="342"/>
+      <c r="R62" s="342"/>
+      <c r="S62" s="342"/>
+      <c r="T62" s="342"/>
+      <c r="U62" s="342"/>
+      <c r="V62" s="342"/>
+      <c r="W62" s="342"/>
+      <c r="X62" s="342"/>
+      <c r="Y62" s="342"/>
+      <c r="Z62" s="342"/>
+      <c r="AA62" s="343"/>
+      <c r="AB62" s="339"/>
+      <c r="AC62" s="339"/>
+      <c r="AD62" s="339"/>
+      <c r="AE62" s="339"/>
+      <c r="AF62" s="339"/>
+      <c r="AG62" s="340"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -100,21 +100,6 @@
   </si>
   <si>
     <t>Diem</t>
-  </si>
-  <si>
-    <t>meeting 1</t>
-  </si>
-  <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
-    <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>meeting 2</t>
-  </si>
-  <si>
-    <t>Pagsanjan to Calamba</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -979,7 +964,13 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -993,20 +984,14 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+    </border>
+    <border>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <left style="medium">
@@ -1190,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="490">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1719,228 +1704,228 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2642,12 +2627,6 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="39" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2967,10 +2946,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2989,37 +2968,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="180"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3037,8 +3016,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3051,8 +3030,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3065,17 +3044,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3093,55 +3072,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="187"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="185" t="s">
+      <c r="G9" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="203" t="s">
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="204"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="204"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="202"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3156,39 +3135,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="15.75" s="19" customFormat="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="200" t="s">
+      <c r="C13" s="205"/>
+      <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="201"/>
+      <c r="E13" s="199"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="179" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="190" t="s">
+      <c r="I13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="183" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
-      <c r="A14" s="199"/>
-      <c r="B14" s="176" t="s">
+      <c r="A14" s="197"/>
+      <c r="B14" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="194"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3198,35 +3177,29 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="189"/>
+      <c r="G14" s="180"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="193"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="184"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="202" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
+      <c r="A15" s="200"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="197"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="172"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
@@ -3236,31 +3209,36 @@
       <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="485"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="489" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="118"/>
+      <c r="G17" s="484"/>
+      <c r="H17" s="484"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="486"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="484"/>
-      <c r="C18" s="484"/>
-      <c r="D18" s="484"/>
-      <c r="E18" s="484"/>
-      <c r="F18" s="484"/>
-      <c r="G18" s="485"/>
-      <c r="H18" s="485"/>
-      <c r="I18" s="485"/>
-      <c r="J18" s="485"/>
+      <c r="A18" s="111"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="487"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="111"/>
+      <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="111"/>
@@ -3268,205 +3246,163 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="489"/>
+      <c r="J19" s="487"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="487"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="491" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="486"/>
-      <c r="H20" s="486"/>
-      <c r="I20" s="486"/>
-      <c r="J20" s="488"/>
+      <c r="A20" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="488" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="487"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="111"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="37" t="s">
-        <v>33</v>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="489"/>
+      <c r="J21" s="487"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="111"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="111"/>
-      <c r="F22"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="489"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="485"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="484"/>
+      <c r="H22" s="484"/>
+      <c r="I22" s="484"/>
+      <c r="J22" s="486"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="38" t="s">
-        <v>34</v>
-      </c>
+      <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="490" t="s">
-        <v>35</v>
+      <c r="E23" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="489"/>
+      <c r="J23" s="487"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="E24" s="111"/>
       <c r="F24"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="489"/>
+      <c r="J24" s="487"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="487"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="486"/>
-      <c r="H25" s="486"/>
-      <c r="I25" s="486"/>
-      <c r="J25" s="488"/>
+      <c r="A25" s="111"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="111"/>
+      <c r="F25"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="487"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="111"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="111"/>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="489"/>
+      <c r="J26" s="487"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="111"/>
+      <c r="A27" s="488" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="488" t="s">
+        <v>30</v>
+      </c>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="489"/>
+      <c r="J27" s="487"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="111"/>
+      <c r="A28" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="111"/>
+      <c r="E28" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="489"/>
+      <c r="J28" s="487"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="111"/>
+      <c r="A29" s="249" t="s">
+        <v>35</v>
+      </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="111"/>
+      <c r="E29" s="249" t="s">
+        <v>36</v>
+      </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="489"/>
+      <c r="J29" s="487"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="490" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="490" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="489"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="489"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="177" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="177" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="489"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="487"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="487"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="486"/>
-      <c r="H33" s="486"/>
-      <c r="I33" s="486"/>
-      <c r="J33" s="488"/>
+      <c r="A30" s="485"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="485"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="484"/>
+      <c r="H30" s="484"/>
+      <c r="I30" s="484"/>
+      <c r="J30" s="486"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:E13"/>
@@ -3486,16 +3422,17 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:D24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3556,7 +3493,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="310" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M1" s="310"/>
     </row>
@@ -3577,7 +3514,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="312" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="313"/>
       <c r="C3" s="313"/>
@@ -3589,14 +3526,14 @@
       <c r="I3" s="313"/>
       <c r="J3" s="314"/>
       <c r="K3" s="315" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L3" s="316"/>
       <c r="M3" s="317"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="318" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" s="319"/>
       <c r="C4" s="319"/>
@@ -3607,15 +3544,15 @@
       <c r="H4" s="319"/>
       <c r="I4" s="319"/>
       <c r="J4" s="320"/>
-      <c r="K4" s="234" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="235"/>
+      <c r="K4" s="232" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="233"/>
       <c r="M4" s="321"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="292" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="293"/>
       <c r="C5" s="293"/>
@@ -3627,7 +3564,7 @@
       <c r="I5" s="293"/>
       <c r="J5" s="294"/>
       <c r="K5" s="295" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L5" s="296"/>
       <c r="M5" s="297"/>
@@ -3637,7 +3574,7 @@
       <c r="B6" s="281"/>
       <c r="C6" s="282"/>
       <c r="D6" s="301" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="302"/>
       <c r="F6" s="302"/>
@@ -3666,12 +3603,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="269" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
       <c r="D8" s="274" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="275"/>
       <c r="F8" s="275"/>
@@ -3700,7 +3637,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="269" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="270"/>
       <c r="C10" s="271"/>
@@ -3720,7 +3657,7 @@
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
       <c r="A11" s="272"/>
-      <c r="B11" s="228"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="273"/>
       <c r="D11" s="277"/>
       <c r="E11" s="278"/>
@@ -3735,50 +3672,50 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="280" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="281"/>
       <c r="C12" s="282"/>
       <c r="D12" s="283" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" s="284"/>
       <c r="F12" s="284"/>
       <c r="G12" s="284"/>
       <c r="H12" s="285"/>
       <c r="I12" s="283" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J12" s="282"/>
       <c r="K12" s="289" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L12" s="283" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M12" s="291"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
       <c r="A13" s="272"/>
-      <c r="B13" s="228"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="273"/>
       <c r="D13" s="286"/>
       <c r="E13" s="287"/>
       <c r="F13" s="287"/>
       <c r="G13" s="287"/>
       <c r="H13" s="288"/>
-      <c r="I13" s="227"/>
+      <c r="I13" s="225"/>
       <c r="J13" s="273"/>
       <c r="K13" s="290"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="229"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="227"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="177"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="250"/>
       <c r="C14" s="251"/>
       <c r="D14" s="252" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="250"/>
       <c r="F14" s="250"/>
@@ -3791,16 +3728,16 @@
       <c r="M14" s="253"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="177"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="250"/>
       <c r="C15" s="251"/>
-      <c r="D15" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="217"/>
+      <c r="D15" s="213" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="252"/>
       <c r="J15" s="251"/>
       <c r="K15" s="32"/>
@@ -3810,14 +3747,14 @@
       <c r="M15" s="266"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="177"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="250"/>
       <c r="C16" s="251"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="217"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="252"/>
       <c r="J16" s="251"/>
       <c r="K16" s="32"/>
@@ -3825,14 +3762,14 @@
       <c r="M16" s="253"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="177"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="250"/>
       <c r="C17" s="251"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="217"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="252"/>
       <c r="J17" s="251"/>
       <c r="K17" s="32"/>
@@ -3840,14 +3777,14 @@
       <c r="M17" s="268"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="177"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="250"/>
       <c r="C18" s="251"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="217"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="263"/>
       <c r="J18" s="264"/>
       <c r="K18" s="32"/>
@@ -3855,14 +3792,14 @@
       <c r="M18" s="253"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="177"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="250"/>
       <c r="C19" s="251"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="217"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
       <c r="I19" s="252"/>
       <c r="J19" s="251"/>
       <c r="K19" s="32"/>
@@ -3870,14 +3807,14 @@
       <c r="M19" s="253"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="177"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="250"/>
       <c r="C20" s="251"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="217"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="252"/>
       <c r="J20" s="251"/>
       <c r="K20" s="32"/>
@@ -3885,14 +3822,14 @@
       <c r="M20" s="253"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="177"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="250"/>
       <c r="C21" s="251"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="217"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
       <c r="I21" s="252"/>
       <c r="J21" s="251"/>
       <c r="K21" s="32"/>
@@ -3900,13 +3837,13 @@
       <c r="M21" s="253"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="177"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="250"/>
       <c r="C22" s="251"/>
       <c r="D22" s="263"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="243"/>
       <c r="H22" s="264"/>
       <c r="I22" s="252"/>
       <c r="J22" s="251"/>
@@ -3915,13 +3852,13 @@
       <c r="M22" s="253"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="177"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="250"/>
       <c r="C23" s="251"/>
       <c r="D23" s="263"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="264"/>
       <c r="I23" s="252"/>
       <c r="J23" s="251"/>
@@ -3930,13 +3867,13 @@
       <c r="M23" s="253"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="177"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="250"/>
       <c r="C24" s="251"/>
       <c r="D24" s="263"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
       <c r="H24" s="264"/>
       <c r="I24" s="252"/>
       <c r="J24" s="251"/>
@@ -3945,7 +3882,7 @@
       <c r="M24" s="253"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="177"/>
+      <c r="A25" s="249"/>
       <c r="B25" s="250"/>
       <c r="C25" s="251"/>
       <c r="D25" s="252"/>
@@ -3960,7 +3897,7 @@
       <c r="M25" s="253"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="177"/>
+      <c r="A26" s="249"/>
       <c r="B26" s="250"/>
       <c r="C26" s="251"/>
       <c r="D26" s="252"/>
@@ -3979,7 +3916,7 @@
       <c r="B27" s="255"/>
       <c r="C27" s="256"/>
       <c r="D27" s="257" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="258"/>
       <c r="F27" s="258"/>
@@ -3995,20 +3932,20 @@
       <c r="M27" s="262"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="239" t="s">
-        <v>61</v>
+      <c r="A28" s="237" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="213" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="243" t="s">
-        <v>63</v>
+      <c r="D28" s="211" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="240"/>
+      <c r="I28" s="241" t="s">
+        <v>58</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4016,19 +3953,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="244" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="243"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="242" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="241"/>
       <c r="J29" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4036,27 +3973,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="245" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
+      <c r="B30" s="243" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="244"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="178"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4066,14 +4003,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="178"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4118,24 +4055,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="247" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="216" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="233"/>
+      <c r="A35" s="246" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="223"/>
+      <c r="C35" s="214" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="231"/>
       <c r="I35" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4156,12 +4093,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="248" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="249"/>
+      <c r="A37" s="247" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="248"/>
       <c r="C37" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4169,11 +4106,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4194,24 +4131,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="213" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="214"/>
+      <c r="A39" s="246" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="223"/>
+      <c r="C39" s="211" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="212"/>
       <c r="I39" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4219,37 +4156,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="216"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="216"/>
-      <c r="M40" s="233"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="231"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="234" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="213" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="214"/>
+      <c r="A41" s="232" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="233"/>
+      <c r="C41" s="211" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="211"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="212"/>
       <c r="I41" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4286,113 +4223,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="234" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="235"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="235"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="236"/>
+    </row>
+    <row r="45" spans="1:13" customHeight="1" ht="13.5">
+      <c r="A45" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="235"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="198" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="235"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="235"/>
+      <c r="L45" s="235"/>
+      <c r="M45" s="236"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A46" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="218" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="222" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="223"/>
+      <c r="G46" s="224"/>
+      <c r="H46" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="236" t="s">
+      <c r="J46" s="229"/>
+      <c r="K46" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="237"/>
-      <c r="D44" s="237"/>
-      <c r="E44" s="237"/>
-      <c r="F44" s="237"/>
-      <c r="G44" s="237"/>
-      <c r="H44" s="237"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="237"/>
-      <c r="K44" s="237"/>
-      <c r="L44" s="237"/>
-      <c r="M44" s="238"/>
-    </row>
-    <row r="45" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A45" s="200" t="s">
+      <c r="L46" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="237"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="200" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="237"/>
-      <c r="J45" s="237"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="237"/>
-      <c r="M45" s="238"/>
-    </row>
-    <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="220" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="221"/>
-      <c r="D46" s="221"/>
-      <c r="E46" s="224" t="s">
+      <c r="M46" s="207"/>
+    </row>
+    <row r="47" spans="1:13" customHeight="1" ht="32.25">
+      <c r="A47" s="216"/>
+      <c r="B47" s="218"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="228"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="230"/>
+      <c r="L47" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="225"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="218" t="s">
+      <c r="M47" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="230" t="s">
+    </row>
+    <row r="48" spans="1:13" customHeight="1" ht="12.75">
+      <c r="A48" s="217"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="227"/>
+      <c r="H48" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="231"/>
-      <c r="K46" s="232" t="s">
+      <c r="I48" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="208" t="s">
+      <c r="J48" s="209"/>
+      <c r="K48" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="209"/>
-    </row>
-    <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="221"/>
-      <c r="D47" s="221"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
-      <c r="K47" s="232"/>
-      <c r="L47" s="52" t="s">
+      <c r="L48" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="M48" s="57" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="219"/>
-      <c r="B48" s="222"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="211"/>
-      <c r="K48" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4430,9 +4367,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="214"/>
+      <c r="E51" s="210"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4666,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="471" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AC1" s="471"/>
       <c r="AD1" s="471"/>
@@ -4679,7 +4616,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="472" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="473"/>
       <c r="C3" s="473"/>
@@ -4708,7 +4645,7 @@
       <c r="Z3" s="473"/>
       <c r="AA3" s="474"/>
       <c r="AB3" s="475" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AC3" s="476"/>
       <c r="AD3" s="476"/>
@@ -4718,7 +4655,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="478" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="479"/>
       <c r="C4" s="479"/>
@@ -4755,7 +4692,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="437" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" s="438"/>
       <c r="C5" s="438"/>
@@ -4784,7 +4721,7 @@
       <c r="Z5" s="438"/>
       <c r="AA5" s="439"/>
       <c r="AB5" s="453" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="454"/>
       <c r="AD5" s="454"/>
@@ -4821,7 +4758,7 @@
       <c r="Z6" s="438"/>
       <c r="AA6" s="439"/>
       <c r="AB6" s="456" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AC6" s="457"/>
       <c r="AD6" s="457"/>
@@ -4866,7 +4803,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="443" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B8" s="444"/>
       <c r="C8" s="445"/>
@@ -4911,14 +4848,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4927,13 +4864,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4984,7 +4921,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="443" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="444"/>
       <c r="C11" s="445"/>
@@ -5007,7 +4944,7 @@
       <c r="Q11" s="444"/>
       <c r="R11" s="444"/>
       <c r="S11" s="463" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T11" s="464"/>
       <c r="U11" s="464"/>
@@ -5018,7 +4955,7 @@
       <c r="Z11" s="464"/>
       <c r="AA11" s="465"/>
       <c r="AB11" s="466" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AC11" s="466"/>
       <c r="AD11" s="466"/>
@@ -5065,7 +5002,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="425" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" s="426"/>
       <c r="C13" s="427"/>
@@ -5142,7 +5079,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="433" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="393"/>
       <c r="C15" s="393"/>
@@ -5161,21 +5098,21 @@
       <c r="P15" s="393"/>
       <c r="Q15" s="434"/>
       <c r="R15" s="392" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S15" s="435"/>
       <c r="T15" s="435"/>
       <c r="U15" s="435"/>
       <c r="V15" s="436"/>
       <c r="W15" s="392" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X15" s="393"/>
       <c r="Y15" s="393"/>
       <c r="Z15" s="393"/>
       <c r="AA15" s="434"/>
       <c r="AB15" s="392" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AC15" s="393"/>
       <c r="AD15" s="393"/>
@@ -5222,23 +5159,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="216" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
+      <c r="B17" s="214" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="214"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5263,21 +5200,21 @@
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="216"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="214"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5299,21 +5236,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="216"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5372,7 +5309,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5410,7 +5347,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5448,7 +5385,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5486,7 +5423,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5524,7 +5461,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5562,7 +5499,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5600,7 +5537,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5673,7 +5610,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="414" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B29" s="415"/>
       <c r="C29" s="415"/>
@@ -5715,10 +5652,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="420" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C30" s="420"/>
       <c r="D30" s="420"/>
@@ -5760,7 +5697,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5949,10 +5886,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5990,7 +5927,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="406" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B37" s="407"/>
       <c r="C37" s="407"/>
@@ -6010,21 +5947,21 @@
       <c r="Q37" s="407"/>
       <c r="R37" s="407"/>
       <c r="S37" s="407" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T37" s="407"/>
       <c r="U37" s="407"/>
       <c r="V37" s="407"/>
       <c r="W37" s="407"/>
       <c r="X37" s="408" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Y37" s="408"/>
       <c r="Z37" s="408"/>
       <c r="AA37" s="408"/>
       <c r="AB37" s="408"/>
       <c r="AC37" s="409" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD37" s="409"/>
       <c r="AE37" s="409"/>
@@ -6109,7 +6046,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6146,10 +6083,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6168,10 +6105,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T41" s="395" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="U41" s="395"/>
       <c r="V41" s="395"/>
@@ -6192,7 +6129,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6266,7 +6203,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6340,10 +6277,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6380,7 +6317,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6452,7 +6389,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="346" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B49" s="372"/>
       <c r="C49" s="372"/>
@@ -6472,7 +6409,7 @@
       <c r="Q49" s="337"/>
       <c r="R49" s="338"/>
       <c r="S49" s="346" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T49" s="347"/>
       <c r="U49" s="347"/>
@@ -6528,13 +6465,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="322" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B51" s="377"/>
       <c r="C51" s="377"/>
       <c r="D51" s="378"/>
       <c r="E51" s="380" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F51" s="381"/>
       <c r="G51" s="381"/>
@@ -6550,13 +6487,13 @@
       <c r="Q51" s="381"/>
       <c r="R51" s="382"/>
       <c r="S51" s="322" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T51" s="356"/>
       <c r="U51" s="356"/>
       <c r="V51" s="357"/>
       <c r="W51" s="386" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="X51" s="387"/>
       <c r="Y51" s="387"/>
@@ -6608,13 +6545,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="322" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B53" s="356"/>
       <c r="C53" s="356"/>
       <c r="D53" s="357"/>
       <c r="E53" s="359" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F53" s="356"/>
       <c r="G53" s="356"/>
@@ -6630,13 +6567,13 @@
       <c r="Q53" s="356"/>
       <c r="R53" s="360"/>
       <c r="S53" s="322" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="T53" s="356"/>
       <c r="U53" s="356"/>
       <c r="V53" s="357"/>
       <c r="W53" s="359" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X53" s="356"/>
       <c r="Y53" s="356"/>
@@ -6767,10 +6704,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6798,7 +6735,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -6809,7 +6746,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="346" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B58" s="347"/>
       <c r="C58" s="347"/>
@@ -6824,14 +6761,14 @@
       <c r="L58" s="337"/>
       <c r="M58" s="351"/>
       <c r="N58" s="352" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O58" s="353"/>
       <c r="P58" s="353"/>
       <c r="Q58" s="353"/>
       <c r="R58" s="354"/>
       <c r="S58" s="355" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T58" s="353"/>
       <c r="U58" s="353"/>
@@ -6887,7 +6824,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="322" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B60" s="323"/>
       <c r="C60" s="323"/>
@@ -6902,14 +6839,14 @@
       <c r="L60" s="323"/>
       <c r="M60" s="324"/>
       <c r="N60" s="330" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O60" s="331"/>
       <c r="P60" s="331"/>
       <c r="Q60" s="331"/>
       <c r="R60" s="332"/>
       <c r="S60" s="330" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="T60" s="331"/>
       <c r="U60" s="331"/>
@@ -6967,7 +6904,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="341" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B62" s="342"/>
       <c r="C62" s="342"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: SAMPLE MEETING 2</t>
+    <t>Purpose of Travel: sample</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Diem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>sample to Calamba</t>
+  </si>
+  <si>
+    <t>3:15 PM</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1175,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="496">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2627,6 +2639,24 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="39" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2946,10 +2976,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3185,7 +3215,9 @@
       <c r="J14" s="184"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="200"/>
+      <c r="A15" s="200" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="200"/>
       <c r="C15" s="200"/>
       <c r="D15" s="200"/>
@@ -3197,11 +3229,19 @@
       <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171"/>
-      <c r="B16" s="195"/>
+      <c r="A16" s="171" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="195" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="195"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="D16" s="172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="172" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="173"/>
       <c r="G16" s="174"/>
       <c r="H16" s="174"/>
@@ -3209,196 +3249,342 @@
       <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="485"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="489" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="484"/>
-      <c r="H17" s="484"/>
-      <c r="I17" s="484"/>
-      <c r="J17" s="486"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="485"/>
+      <c r="D17" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="484"/>
+      <c r="G17" s="487"/>
+      <c r="H17" s="487"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="487"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="111"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="485"/>
+      <c r="D18" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="484"/>
+      <c r="G18" s="487"/>
+      <c r="H18" s="487"/>
+      <c r="I18" s="487"/>
       <c r="J18" s="487"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="111"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="111"/>
-      <c r="F19"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="485"/>
+      <c r="D19" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="484"/>
+      <c r="G19" s="487"/>
+      <c r="H19" s="487"/>
+      <c r="I19" s="487"/>
       <c r="J19" s="487"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="488" t="s">
+      <c r="C20" s="485"/>
+      <c r="D20" s="484" t="s">
         <v>30</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="E20" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="484"/>
+      <c r="G20" s="487"/>
+      <c r="H20" s="487"/>
+      <c r="I20" s="487"/>
       <c r="J20" s="487"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="485"/>
+      <c r="D21" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="484"/>
+      <c r="G21" s="487"/>
+      <c r="H21" s="487"/>
+      <c r="I21" s="487"/>
       <c r="J21" s="487"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="485"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="484"/>
-      <c r="H22" s="484"/>
-      <c r="I22" s="484"/>
-      <c r="J22" s="486"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="485"/>
+      <c r="D22" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="484"/>
+      <c r="G22" s="487"/>
+      <c r="H22" s="487"/>
+      <c r="I22" s="487"/>
+      <c r="J22" s="487"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="485"/>
+      <c r="D23" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="484" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="484"/>
+      <c r="G23" s="487"/>
+      <c r="H23" s="487"/>
+      <c r="I23" s="487"/>
+      <c r="J23" s="487"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="486" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="485"/>
+      <c r="D24" s="488" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="488" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="488"/>
+      <c r="G24" s="489"/>
+      <c r="H24" s="489"/>
+      <c r="I24" s="489"/>
+      <c r="J24" s="489"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="491"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="495" t="s">
         <v>31</v>
       </c>
-      <c r="F23"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="487"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="111"/>
-      <c r="F24"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="487"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="111"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="111"/>
-      <c r="F25"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="487"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="490"/>
+      <c r="H25" s="490"/>
+      <c r="I25" s="490"/>
+      <c r="J25" s="492"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="111"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" s="111"/>
+      <c r="E26" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="487"/>
+      <c r="J26" s="493"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="488" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="111"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27" s="488" t="s">
-        <v>30</v>
-      </c>
+      <c r="E27" s="111"/>
       <c r="F27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="487"/>
+      <c r="J27" s="493"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="494" t="s">
         <v>34</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="487"/>
+      <c r="J28" s="493"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="249" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="249" t="s">
-        <v>36</v>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="487"/>
+      <c r="J29" s="493"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="485"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="485"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="491"/>
       <c r="F30" s="118"/>
-      <c r="G30" s="484"/>
-      <c r="H30" s="484"/>
-      <c r="I30" s="484"/>
-      <c r="J30" s="486"/>
+      <c r="G30" s="490"/>
+      <c r="H30" s="490"/>
+      <c r="I30" s="490"/>
+      <c r="J30" s="492"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="493"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="111"/>
+      <c r="F32"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="493"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="111"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="111"/>
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="493"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="111"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="111"/>
+      <c r="F34"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="493"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="494" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="494" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="493"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="493"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="249" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="249" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="493"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="491"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="491"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="490"/>
+      <c r="I38" s="490"/>
+      <c r="J38" s="492"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3424,15 +3610,23 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:D24"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A28:D32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3493,7 +3687,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="310" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M1" s="310"/>
     </row>
@@ -3514,7 +3708,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="312" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="313"/>
       <c r="C3" s="313"/>
@@ -3526,14 +3720,14 @@
       <c r="I3" s="313"/>
       <c r="J3" s="314"/>
       <c r="K3" s="315" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" s="316"/>
       <c r="M3" s="317"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="318" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="319"/>
       <c r="C4" s="319"/>
@@ -3545,14 +3739,14 @@
       <c r="I4" s="319"/>
       <c r="J4" s="320"/>
       <c r="K4" s="232" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L4" s="233"/>
       <c r="M4" s="321"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="292" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="293"/>
       <c r="C5" s="293"/>
@@ -3564,7 +3758,7 @@
       <c r="I5" s="293"/>
       <c r="J5" s="294"/>
       <c r="K5" s="295" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L5" s="296"/>
       <c r="M5" s="297"/>
@@ -3574,7 +3768,7 @@
       <c r="B6" s="281"/>
       <c r="C6" s="282"/>
       <c r="D6" s="301" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="302"/>
       <c r="F6" s="302"/>
@@ -3603,12 +3797,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="269" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
       <c r="D8" s="274" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" s="275"/>
       <c r="F8" s="275"/>
@@ -3637,7 +3831,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="269" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" s="270"/>
       <c r="C10" s="271"/>
@@ -3672,26 +3866,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="280" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="281"/>
       <c r="C12" s="282"/>
       <c r="D12" s="283" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="284"/>
       <c r="F12" s="284"/>
       <c r="G12" s="284"/>
       <c r="H12" s="285"/>
       <c r="I12" s="283" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J12" s="282"/>
       <c r="K12" s="289" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L12" s="283" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M12" s="291"/>
     </row>
@@ -3715,7 +3909,7 @@
       <c r="B14" s="250"/>
       <c r="C14" s="251"/>
       <c r="D14" s="252" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" s="250"/>
       <c r="F14" s="250"/>
@@ -3732,7 +3926,7 @@
       <c r="B15" s="250"/>
       <c r="C15" s="251"/>
       <c r="D15" s="213" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="214"/>
       <c r="F15" s="214"/>
@@ -3916,7 +4110,7 @@
       <c r="B27" s="255"/>
       <c r="C27" s="256"/>
       <c r="D27" s="257" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" s="258"/>
       <c r="F27" s="258"/>
@@ -3933,19 +4127,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="237" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="211" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E28" s="239"/>
       <c r="F28" s="239"/>
       <c r="G28" s="239"/>
       <c r="H28" s="240"/>
       <c r="I28" s="241" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3955,7 +4149,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="238"/>
       <c r="B29" s="242" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" s="188"/>
       <c r="D29" s="239"/>
@@ -3965,7 +4159,7 @@
       <c r="H29" s="240"/>
       <c r="I29" s="241"/>
       <c r="J29" s="36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3974,7 +4168,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="243" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C30" s="243"/>
       <c r="D30" s="243"/>
@@ -3984,7 +4178,7 @@
       <c r="H30" s="244"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -3993,7 +4187,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="245"/>
       <c r="B31" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4003,7 +4197,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4056,11 +4250,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="246" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="223"/>
       <c r="C35" s="214" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D35" s="214"/>
       <c r="E35" s="214"/>
@@ -4068,11 +4262,11 @@
       <c r="G35" s="214"/>
       <c r="H35" s="231"/>
       <c r="I35" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4094,11 +4288,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="247" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B37" s="248"/>
       <c r="C37" s="14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4106,11 +4300,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4132,11 +4326,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="246" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B39" s="223"/>
       <c r="C39" s="211" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D39" s="211"/>
       <c r="E39" s="211"/>
@@ -4144,11 +4338,11 @@
       <c r="G39" s="211"/>
       <c r="H39" s="212"/>
       <c r="I39" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4170,11 +4364,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="232" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B41" s="233"/>
       <c r="C41" s="211" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D41" s="211"/>
       <c r="E41" s="211"/>
@@ -4182,11 +4376,11 @@
       <c r="G41" s="211"/>
       <c r="H41" s="212"/>
       <c r="I41" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4223,10 +4417,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B44" s="234" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C44" s="235"/>
       <c r="D44" s="235"/>
@@ -4242,7 +4436,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B45" s="235"/>
       <c r="C45" s="235"/>
@@ -4251,7 +4445,7 @@
       <c r="F45" s="235"/>
       <c r="G45" s="236"/>
       <c r="H45" s="198" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I45" s="235"/>
       <c r="J45" s="235"/>
@@ -4264,27 +4458,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="218" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C46" s="219"/>
       <c r="D46" s="219"/>
       <c r="E46" s="222" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F46" s="223"/>
       <c r="G46" s="224"/>
       <c r="H46" s="216" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I46" s="228" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J46" s="229"/>
       <c r="K46" s="230" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L46" s="206" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M46" s="207"/>
     </row>
@@ -4301,10 +4495,10 @@
       <c r="J47" s="229"/>
       <c r="K47" s="230"/>
       <c r="L47" s="52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4316,20 +4510,20 @@
       <c r="F48" s="226"/>
       <c r="G48" s="227"/>
       <c r="H48" s="54" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I48" s="208" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J48" s="209"/>
       <c r="K48" s="55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4603,7 +4797,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="471" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AC1" s="471"/>
       <c r="AD1" s="471"/>
@@ -4616,7 +4810,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="472" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3" s="473"/>
       <c r="C3" s="473"/>
@@ -4645,7 +4839,7 @@
       <c r="Z3" s="473"/>
       <c r="AA3" s="474"/>
       <c r="AB3" s="475" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC3" s="476"/>
       <c r="AD3" s="476"/>
@@ -4655,7 +4849,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="478" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="479"/>
       <c r="C4" s="479"/>
@@ -4692,7 +4886,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="437" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B5" s="438"/>
       <c r="C5" s="438"/>
@@ -4721,7 +4915,7 @@
       <c r="Z5" s="438"/>
       <c r="AA5" s="439"/>
       <c r="AB5" s="453" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AC5" s="454"/>
       <c r="AD5" s="454"/>
@@ -4758,7 +4952,7 @@
       <c r="Z6" s="438"/>
       <c r="AA6" s="439"/>
       <c r="AB6" s="456" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AC6" s="457"/>
       <c r="AD6" s="457"/>
@@ -4803,7 +4997,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="443" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B8" s="444"/>
       <c r="C8" s="445"/>
@@ -4848,14 +5042,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4864,13 +5058,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4921,7 +5115,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="443" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B11" s="444"/>
       <c r="C11" s="445"/>
@@ -4944,7 +5138,7 @@
       <c r="Q11" s="444"/>
       <c r="R11" s="444"/>
       <c r="S11" s="463" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="T11" s="464"/>
       <c r="U11" s="464"/>
@@ -4955,7 +5149,7 @@
       <c r="Z11" s="464"/>
       <c r="AA11" s="465"/>
       <c r="AB11" s="466" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AC11" s="466"/>
       <c r="AD11" s="466"/>
@@ -5002,7 +5196,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="425" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="426"/>
       <c r="C13" s="427"/>
@@ -5079,7 +5273,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="433" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="393"/>
       <c r="C15" s="393"/>
@@ -5098,21 +5292,21 @@
       <c r="P15" s="393"/>
       <c r="Q15" s="434"/>
       <c r="R15" s="392" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S15" s="435"/>
       <c r="T15" s="435"/>
       <c r="U15" s="435"/>
       <c r="V15" s="436"/>
       <c r="W15" s="392" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="X15" s="393"/>
       <c r="Y15" s="393"/>
       <c r="Z15" s="393"/>
       <c r="AA15" s="434"/>
       <c r="AB15" s="392" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC15" s="393"/>
       <c r="AD15" s="393"/>
@@ -5160,7 +5354,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="214" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" s="214"/>
       <c r="D17" s="214"/>
@@ -5309,7 +5503,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5347,7 +5541,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5385,7 +5579,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5423,7 +5617,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5461,7 +5655,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5499,7 +5693,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5537,7 +5731,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5610,7 +5804,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="414" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B29" s="415"/>
       <c r="C29" s="415"/>
@@ -5652,10 +5846,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30" s="420" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C30" s="420"/>
       <c r="D30" s="420"/>
@@ -5697,7 +5891,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5886,10 +6080,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5927,7 +6121,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="406" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B37" s="407"/>
       <c r="C37" s="407"/>
@@ -5947,21 +6141,21 @@
       <c r="Q37" s="407"/>
       <c r="R37" s="407"/>
       <c r="S37" s="407" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T37" s="407"/>
       <c r="U37" s="407"/>
       <c r="V37" s="407"/>
       <c r="W37" s="407"/>
       <c r="X37" s="408" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y37" s="408"/>
       <c r="Z37" s="408"/>
       <c r="AA37" s="408"/>
       <c r="AB37" s="408"/>
       <c r="AC37" s="409" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AD37" s="409"/>
       <c r="AE37" s="409"/>
@@ -6046,7 +6240,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6083,10 +6277,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6105,10 +6299,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T41" s="395" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U41" s="395"/>
       <c r="V41" s="395"/>
@@ -6129,7 +6323,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6203,7 +6397,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6277,10 +6471,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6317,7 +6511,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6389,7 +6583,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="346" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B49" s="372"/>
       <c r="C49" s="372"/>
@@ -6409,7 +6603,7 @@
       <c r="Q49" s="337"/>
       <c r="R49" s="338"/>
       <c r="S49" s="346" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T49" s="347"/>
       <c r="U49" s="347"/>
@@ -6465,13 +6659,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="322" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B51" s="377"/>
       <c r="C51" s="377"/>
       <c r="D51" s="378"/>
       <c r="E51" s="380" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F51" s="381"/>
       <c r="G51" s="381"/>
@@ -6487,13 +6681,13 @@
       <c r="Q51" s="381"/>
       <c r="R51" s="382"/>
       <c r="S51" s="322" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T51" s="356"/>
       <c r="U51" s="356"/>
       <c r="V51" s="357"/>
       <c r="W51" s="386" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="X51" s="387"/>
       <c r="Y51" s="387"/>
@@ -6545,13 +6739,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="322" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B53" s="356"/>
       <c r="C53" s="356"/>
       <c r="D53" s="357"/>
       <c r="E53" s="359" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F53" s="356"/>
       <c r="G53" s="356"/>
@@ -6567,13 +6761,13 @@
       <c r="Q53" s="356"/>
       <c r="R53" s="360"/>
       <c r="S53" s="322" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="T53" s="356"/>
       <c r="U53" s="356"/>
       <c r="V53" s="357"/>
       <c r="W53" s="359" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X53" s="356"/>
       <c r="Y53" s="356"/>
@@ -6704,10 +6898,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6735,7 +6929,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -6746,7 +6940,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="346" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B58" s="347"/>
       <c r="C58" s="347"/>
@@ -6761,14 +6955,14 @@
       <c r="L58" s="337"/>
       <c r="M58" s="351"/>
       <c r="N58" s="352" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O58" s="353"/>
       <c r="P58" s="353"/>
       <c r="Q58" s="353"/>
       <c r="R58" s="354"/>
       <c r="S58" s="355" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T58" s="353"/>
       <c r="U58" s="353"/>
@@ -6824,7 +7018,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="322" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B60" s="323"/>
       <c r="C60" s="323"/>
@@ -6839,14 +7033,14 @@
       <c r="L60" s="323"/>
       <c r="M60" s="324"/>
       <c r="N60" s="330" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O60" s="331"/>
       <c r="P60" s="331"/>
       <c r="Q60" s="331"/>
       <c r="R60" s="332"/>
       <c r="S60" s="330" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="T60" s="331"/>
       <c r="U60" s="331"/>
@@ -6904,7 +7098,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="341" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B62" s="342"/>
       <c r="C62" s="342"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-09-02</t>
+    <t>2020-11-03</t>
   </si>
   <si>
     <t>Position:</t>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: sample</t>
+    <t>Purpose of Travel: TRAVEL ORDER ROLL OUT</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,16 +102,25 @@
     <t>Diem</t>
   </si>
   <si>
-    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
-  </si>
-  <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
-    <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>3:15 PM</t>
+    <t>meeting 1</t>
+  </si>
+  <si>
+    <t>Pagsanjan to Calamba</t>
+  </si>
+  <si>
+    <t>14:17:00</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>meeting 2</t>
+  </si>
+  <si>
+    <t>meeting 3</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -622,7 +631,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border/>
     <border>
       <left style="medium">
@@ -976,13 +985,7 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -996,9 +999,7 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1012,6 +1013,14 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1034,6 +1043,28 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1091,17 +1122,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1187,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="493">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1716,60 +1736,60 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1779,7 +1799,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1788,876 +1808,870 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="57" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="59" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="39" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2672,9 +2686,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2998,37 +3009,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="187" t="s">
+      <c r="H1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3046,8 +3057,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3060,8 +3071,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3074,17 +3085,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="190" t="s">
+      <c r="H7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3102,21 +3113,21 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="178"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="184"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
@@ -3128,13 +3139,13 @@
       <c r="C10" s="193"/>
       <c r="D10" s="193"/>
       <c r="E10" s="194"/>
-      <c r="F10" s="201" t="s">
+      <c r="F10" s="487" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="202"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
@@ -3146,11 +3157,11 @@
       </c>
       <c r="D11" s="193"/>
       <c r="E11" s="194"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="202"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3168,10 +3179,10 @@
       <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
@@ -3179,25 +3190,25 @@
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="185" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="183" t="s">
+      <c r="J13" s="189" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
       <c r="A14" s="197"/>
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="186"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3207,220 +3218,182 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="180"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="184"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
       <c r="A15" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="171"/>
+      <c r="B16" s="195" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="195" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="195"/>
       <c r="D16" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="G16" s="174">
+        <v>65</v>
+      </c>
+      <c r="H16" s="174">
+        <v>0</v>
+      </c>
+      <c r="I16" s="175" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="174">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="174"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="485" t="s">
+      <c r="G21" s="1">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="485"/>
-      <c r="D17" s="484" t="s">
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="484" t="s">
+      <c r="G22" s="1">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="484"/>
-      <c r="G17" s="487"/>
-      <c r="H17" s="487"/>
-      <c r="I17" s="487"/>
-      <c r="J17" s="487"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="485"/>
-      <c r="D18" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="484"/>
-      <c r="G18" s="487"/>
-      <c r="H18" s="487"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="487"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
-      <c r="B19" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="485"/>
-      <c r="D19" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="484"/>
-      <c r="G19" s="487"/>
-      <c r="H19" s="487"/>
-      <c r="I19" s="487"/>
-      <c r="J19" s="487"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="485"/>
-      <c r="D20" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="484"/>
-      <c r="G20" s="487"/>
-      <c r="H20" s="487"/>
-      <c r="I20" s="487"/>
-      <c r="J20" s="487"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="485"/>
-      <c r="D21" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="484"/>
-      <c r="G21" s="487"/>
-      <c r="H21" s="487"/>
-      <c r="I21" s="487"/>
-      <c r="J21" s="487"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="485"/>
-      <c r="D22" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="484"/>
-      <c r="G22" s="487"/>
-      <c r="H22" s="487"/>
-      <c r="I22" s="487"/>
-      <c r="J22" s="487"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
-      <c r="B23" s="485" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="485"/>
-      <c r="D23" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="484" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="484"/>
-      <c r="G23" s="487"/>
-      <c r="H23" s="487"/>
-      <c r="I23" s="487"/>
-      <c r="J23" s="487"/>
+      <c r="G23" s="1">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="486" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="485"/>
-      <c r="D24" s="488" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="488" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="488"/>
-      <c r="G24" s="489"/>
-      <c r="H24" s="489"/>
-      <c r="I24" s="489"/>
-      <c r="J24" s="489"/>
+      <c r="A24" s="111"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="111"/>
+      <c r="F24"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="491"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="491"/>
+      <c r="A25" s="489"/>
       <c r="B25" s="118"/>
       <c r="C25" s="118"/>
       <c r="D25" s="118"/>
-      <c r="E25" s="495" t="s">
-        <v>31</v>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="118"/>
-      <c r="G25" s="490"/>
-      <c r="H25" s="490"/>
-      <c r="I25" s="490"/>
-      <c r="J25" s="492"/>
+      <c r="G25" s="488"/>
+      <c r="H25" s="488"/>
+      <c r="I25" s="488"/>
+      <c r="J25" s="490"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="111"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" s="37" t="s">
-        <v>32</v>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="493"/>
+      <c r="J26" s="491"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="111"/>
@@ -3432,63 +3405,63 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="493"/>
+      <c r="J27" s="491"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="494" t="s">
-        <v>34</v>
+      <c r="E28" s="492" t="s">
+        <v>37</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="493"/>
+      <c r="J28" s="491"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="253" t="s">
         <v>6</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="493"/>
+      <c r="J29" s="491"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="38"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="491"/>
+      <c r="E30" s="489"/>
       <c r="F30" s="118"/>
-      <c r="G30" s="490"/>
-      <c r="H30" s="490"/>
-      <c r="I30" s="490"/>
-      <c r="J30" s="492"/>
+      <c r="G30" s="488"/>
+      <c r="H30" s="488"/>
+      <c r="I30" s="488"/>
+      <c r="J30" s="490"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="37" t="s">
-        <v>35</v>
+      <c r="E31" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="493"/>
+      <c r="J31" s="491"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="38"/>
@@ -3500,7 +3473,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="493"/>
+      <c r="J32" s="491"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="111"/>
@@ -3512,7 +3485,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="493"/>
+      <c r="J33" s="491"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="111"/>
@@ -3524,67 +3497,67 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="493"/>
+      <c r="J34" s="491"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="494" t="s">
-        <v>36</v>
+      <c r="A35" s="492" t="s">
+        <v>39</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="494" t="s">
-        <v>34</v>
+      <c r="E35" s="492" t="s">
+        <v>37</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="493"/>
+      <c r="J35" s="491"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="20" t="s">
-        <v>37</v>
+      <c r="A36" s="253" t="s">
+        <v>40</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="20" t="s">
-        <v>38</v>
+      <c r="E36" s="253" t="s">
+        <v>41</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="493"/>
+      <c r="J36" s="491"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="249" t="s">
-        <v>39</v>
+      <c r="A37" s="253" t="s">
+        <v>42</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" s="249" t="s">
-        <v>40</v>
+      <c r="E37" s="253" t="s">
+        <v>43</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="493"/>
+      <c r="J37" s="491"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="491"/>
+      <c r="A38" s="489"/>
       <c r="B38" s="118"/>
       <c r="C38" s="118"/>
       <c r="D38" s="118"/>
-      <c r="E38" s="491"/>
+      <c r="E38" s="489"/>
       <c r="F38" s="118"/>
-      <c r="G38" s="490"/>
-      <c r="H38" s="490"/>
-      <c r="I38" s="490"/>
-      <c r="J38" s="492"/>
+      <c r="G38" s="488"/>
+      <c r="H38" s="488"/>
+      <c r="I38" s="488"/>
+      <c r="J38" s="490"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3595,13 +3568,6 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G13:G14"/>
@@ -3610,14 +3576,13 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E35:J35"/>
@@ -3686,10 +3651,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="310" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="310"/>
+      <c r="L1" s="313" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="313"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3703,443 +3668,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="312" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="315" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="316"/>
-      <c r="M3" s="317"/>
+      <c r="A3" s="315" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="319"/>
+      <c r="M3" s="320"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="318" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="319"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="232" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="233"/>
-      <c r="M4" s="321"/>
+      <c r="A4" s="321" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="236" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="237"/>
+      <c r="M4" s="324"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="292" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="295" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="296"/>
-      <c r="M5" s="297"/>
+      <c r="A5" s="295" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="299"/>
+      <c r="M5" s="300"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="280"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="301" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="304" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="306"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="298"/>
-      <c r="B7" s="299"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="306"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="308"/>
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="269" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="270"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="274" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="276"/>
+      <c r="A8" s="272" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="273"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="277" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="298"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="307"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="308"/>
-      <c r="H9" s="308"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="308"/>
-      <c r="M9" s="309"/>
+      <c r="A9" s="301"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="312"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="269" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="274" t="str">
+      <c r="A10" s="272" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="277" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="276"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="279"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="272"/>
-      <c r="B11" s="226"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
-      <c r="I11" s="278"/>
-      <c r="J11" s="278"/>
-      <c r="K11" s="278"/>
-      <c r="L11" s="278"/>
-      <c r="M11" s="279"/>
+      <c r="A11" s="275"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="282"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="280" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="283" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="283" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="282"/>
-      <c r="K12" s="289" t="s">
+      <c r="A12" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="283" t="s">
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="291"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="286" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="285"/>
+      <c r="K12" s="292" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="286" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="294"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="272"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="227"/>
+      <c r="A13" s="275"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="231"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="249"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="252" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="251"/>
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="254"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="253"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="249"/>
-      <c r="B15" s="250"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="213" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="251"/>
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="217" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="254"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="265">
+      <c r="L15" s="268">
         <v>4981</v>
       </c>
-      <c r="M15" s="266"/>
+      <c r="M15" s="269"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="249"/>
-      <c r="B16" s="250"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="251"/>
+      <c r="A16" s="253"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="254"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="253"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="256"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="249"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="251"/>
+      <c r="A17" s="253"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="254"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="268"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="249"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="264"/>
+      <c r="A18" s="253"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="253"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="249"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="251"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="254"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="253"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="249"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="251"/>
+      <c r="A20" s="253"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="254"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="253"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="256"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="249"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="251"/>
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="254"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="253"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="249"/>
-      <c r="B22" s="250"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="263"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="251"/>
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="253"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="256"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="249"/>
-      <c r="B23" s="250"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="264"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="251"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="254"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="253"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="249"/>
-      <c r="B24" s="250"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="243"/>
-      <c r="H24" s="264"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="251"/>
+      <c r="A24" s="253"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="254"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="253"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="249"/>
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="251"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="254"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="253"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="256"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="249"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="251"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="254"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="253"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="254"/>
-      <c r="B27" s="255"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="257" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="256"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="260" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="261" t="str">
+      <c r="L27" s="264" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="262"/>
+      <c r="M27" s="265"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="237" t="s">
-        <v>60</v>
+      <c r="A28" s="241" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="211" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="241" t="s">
-        <v>62</v>
+      <c r="D28" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="245" t="s">
+        <v>65</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4147,19 +4112,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="238"/>
-      <c r="B29" s="242" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="241"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="246" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4167,27 +4132,27 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="243" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="244"/>
+      <c r="B30" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="245"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4197,14 +4162,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="245"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4249,24 +4214,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="246" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="214" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="231"/>
+      <c r="A35" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="227"/>
+      <c r="C35" s="218" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4287,12 +4252,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="247" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="248"/>
+      <c r="A37" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4300,11 +4265,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4325,24 +4290,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="246" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="211" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
+      <c r="A39" s="250" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="227"/>
+      <c r="C39" s="215" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4350,37 +4315,37 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="214"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="214"/>
-      <c r="M40" s="231"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="235"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="232" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="211" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="212"/>
+      <c r="A41" s="236" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="237"/>
+      <c r="C41" s="215" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4417,113 +4382,113 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="234" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="235"/>
-      <c r="K44" s="235"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="236"/>
+        <v>84</v>
+      </c>
+      <c r="B44" s="238" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="240"/>
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="198" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="235"/>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="236"/>
+        <v>86</v>
+      </c>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="240"/>
       <c r="H45" s="198" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="240"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" ht="16.5">
+      <c r="A46" s="220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="235"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="235"/>
-      <c r="M45" s="236"/>
-    </row>
-    <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="216" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="218" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="219"/>
-      <c r="D46" s="219"/>
-      <c r="E46" s="222" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
-      <c r="H46" s="216" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="228" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="229"/>
-      <c r="K46" s="230" t="s">
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="206" t="s">
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="M46" s="207"/>
+      <c r="I46" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="233"/>
+      <c r="K46" s="234" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="210" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="211"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="216"/>
-      <c r="B47" s="218"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="222"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="228"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="230"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
       <c r="L47" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="217"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="227"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="209"/>
+        <v>94</v>
+      </c>
+      <c r="I48" s="212" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="213"/>
       <c r="K48" s="55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4561,9 +4526,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="216"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4796,260 +4761,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="471" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC1" s="471"/>
-      <c r="AD1" s="471"/>
-      <c r="AE1" s="471"/>
-      <c r="AF1" s="471"/>
-      <c r="AG1" s="471"/>
+      <c r="AB1" s="474" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="472" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="473"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
-      <c r="N3" s="473"/>
-      <c r="O3" s="473"/>
-      <c r="P3" s="473"/>
-      <c r="Q3" s="473"/>
-      <c r="R3" s="473"/>
-      <c r="S3" s="473"/>
-      <c r="T3" s="473"/>
-      <c r="U3" s="473"/>
-      <c r="V3" s="473"/>
-      <c r="W3" s="473"/>
-      <c r="X3" s="473"/>
-      <c r="Y3" s="473"/>
-      <c r="Z3" s="473"/>
-      <c r="AA3" s="474"/>
-      <c r="AB3" s="475" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC3" s="476"/>
-      <c r="AD3" s="476"/>
-      <c r="AE3" s="476"/>
-      <c r="AF3" s="476"/>
-      <c r="AG3" s="477"/>
+      <c r="A3" s="475" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="476"/>
+      <c r="T3" s="476"/>
+      <c r="U3" s="476"/>
+      <c r="V3" s="476"/>
+      <c r="W3" s="476"/>
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="478" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="479"/>
+      <c r="AG3" s="480"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="478" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="479"/>
-      <c r="C4" s="479"/>
-      <c r="D4" s="479"/>
-      <c r="E4" s="479"/>
-      <c r="F4" s="479"/>
-      <c r="G4" s="479"/>
-      <c r="H4" s="479"/>
-      <c r="I4" s="479"/>
-      <c r="J4" s="479"/>
-      <c r="K4" s="479"/>
-      <c r="L4" s="479"/>
-      <c r="M4" s="479"/>
-      <c r="N4" s="479"/>
-      <c r="O4" s="479"/>
-      <c r="P4" s="479"/>
-      <c r="Q4" s="479"/>
-      <c r="R4" s="479"/>
-      <c r="S4" s="479"/>
-      <c r="T4" s="479"/>
-      <c r="U4" s="479"/>
-      <c r="V4" s="479"/>
-      <c r="W4" s="479"/>
-      <c r="X4" s="479"/>
-      <c r="Y4" s="479"/>
-      <c r="Z4" s="479"/>
-      <c r="AA4" s="480"/>
-      <c r="AB4" s="481"/>
-      <c r="AC4" s="482"/>
-      <c r="AD4" s="482"/>
-      <c r="AE4" s="482"/>
-      <c r="AF4" s="482"/>
-      <c r="AG4" s="483"/>
+      <c r="A4" s="481" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482"/>
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="482"/>
+      <c r="Y4" s="482"/>
+      <c r="Z4" s="482"/>
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="485"/>
+      <c r="AG4" s="486"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="437" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="438"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="438"/>
-      <c r="H5" s="438"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="438"/>
-      <c r="L5" s="438"/>
-      <c r="M5" s="438"/>
-      <c r="N5" s="438"/>
-      <c r="O5" s="438"/>
-      <c r="P5" s="438"/>
-      <c r="Q5" s="438"/>
-      <c r="R5" s="438"/>
-      <c r="S5" s="438"/>
-      <c r="T5" s="438"/>
-      <c r="U5" s="438"/>
-      <c r="V5" s="438"/>
-      <c r="W5" s="438"/>
-      <c r="X5" s="438"/>
-      <c r="Y5" s="438"/>
-      <c r="Z5" s="438"/>
-      <c r="AA5" s="439"/>
-      <c r="AB5" s="453" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC5" s="454"/>
-      <c r="AD5" s="454"/>
-      <c r="AE5" s="454"/>
-      <c r="AF5" s="454"/>
-      <c r="AG5" s="455"/>
+      <c r="A5" s="440" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="441"/>
+      <c r="Q5" s="441"/>
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="441"/>
+      <c r="V5" s="441"/>
+      <c r="W5" s="441"/>
+      <c r="X5" s="441"/>
+      <c r="Y5" s="441"/>
+      <c r="Z5" s="441"/>
+      <c r="AA5" s="442"/>
+      <c r="AB5" s="456" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="457"/>
+      <c r="AD5" s="457"/>
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="457"/>
+      <c r="AG5" s="458"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="437"/>
-      <c r="B6" s="438"/>
-      <c r="C6" s="438"/>
-      <c r="D6" s="438"/>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438"/>
-      <c r="G6" s="438"/>
-      <c r="H6" s="438"/>
-      <c r="I6" s="438"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="438"/>
-      <c r="L6" s="438"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
-      <c r="O6" s="438"/>
-      <c r="P6" s="438"/>
-      <c r="Q6" s="438"/>
-      <c r="R6" s="438"/>
-      <c r="S6" s="438"/>
-      <c r="T6" s="438"/>
-      <c r="U6" s="438"/>
-      <c r="V6" s="438"/>
-      <c r="W6" s="438"/>
-      <c r="X6" s="438"/>
-      <c r="Y6" s="438"/>
-      <c r="Z6" s="438"/>
-      <c r="AA6" s="439"/>
-      <c r="AB6" s="456" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="457"/>
-      <c r="AD6" s="457"/>
-      <c r="AE6" s="457"/>
-      <c r="AF6" s="457"/>
-      <c r="AG6" s="458"/>
+      <c r="A6" s="440"/>
+      <c r="B6" s="441"/>
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="441"/>
+      <c r="J6" s="441"/>
+      <c r="K6" s="441"/>
+      <c r="L6" s="441"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="U6" s="441"/>
+      <c r="V6" s="441"/>
+      <c r="W6" s="441"/>
+      <c r="X6" s="441"/>
+      <c r="Y6" s="441"/>
+      <c r="Z6" s="441"/>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="459" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="460"/>
+      <c r="AD6" s="460"/>
+      <c r="AE6" s="460"/>
+      <c r="AF6" s="460"/>
+      <c r="AG6" s="461"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="440"/>
-      <c r="B7" s="441"/>
-      <c r="C7" s="441"/>
-      <c r="D7" s="441"/>
-      <c r="E7" s="441"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="441"/>
-      <c r="H7" s="441"/>
-      <c r="I7" s="441"/>
-      <c r="J7" s="441"/>
-      <c r="K7" s="441"/>
-      <c r="L7" s="441"/>
-      <c r="M7" s="441"/>
-      <c r="N7" s="441"/>
-      <c r="O7" s="441"/>
-      <c r="P7" s="441"/>
-      <c r="Q7" s="441"/>
-      <c r="R7" s="441"/>
-      <c r="S7" s="441"/>
-      <c r="T7" s="441"/>
-      <c r="U7" s="441"/>
-      <c r="V7" s="441"/>
-      <c r="W7" s="441"/>
-      <c r="X7" s="441"/>
-      <c r="Y7" s="441"/>
-      <c r="Z7" s="441"/>
-      <c r="AA7" s="442"/>
-      <c r="AB7" s="459"/>
-      <c r="AC7" s="459"/>
-      <c r="AD7" s="459"/>
-      <c r="AE7" s="459"/>
-      <c r="AF7" s="459"/>
-      <c r="AG7" s="460"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="444"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="444"/>
+      <c r="X7" s="444"/>
+      <c r="Y7" s="444"/>
+      <c r="Z7" s="444"/>
+      <c r="AA7" s="445"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="462"/>
+      <c r="AD7" s="462"/>
+      <c r="AE7" s="462"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="463"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="443" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="444"/>
-      <c r="C8" s="445"/>
+      <c r="A8" s="446" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="447"/>
+      <c r="C8" s="448"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
-      <c r="AE8" s="344"/>
-      <c r="AF8" s="344"/>
-      <c r="AG8" s="345"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="347"/>
+      <c r="I8" s="347"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="347"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="348"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="446"/>
-      <c r="B9" s="447"/>
-      <c r="C9" s="448"/>
+      <c r="A9" s="449"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5058,13 +5023,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5078,26 +5043,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="449"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="451"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="339"/>
-      <c r="S10" s="337"/>
-      <c r="T10" s="337"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -5114,110 +5079,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="443" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="444"/>
-      <c r="C11" s="445"/>
+      <c r="A11" s="446" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="461" t="str">
+      <c r="E11" s="464" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
-      <c r="L11" s="444"/>
-      <c r="M11" s="444"/>
-      <c r="N11" s="444"/>
-      <c r="O11" s="444"/>
-      <c r="P11" s="444"/>
-      <c r="Q11" s="444"/>
-      <c r="R11" s="444"/>
-      <c r="S11" s="463" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="464"/>
-      <c r="U11" s="464"/>
-      <c r="V11" s="464"/>
-      <c r="W11" s="464"/>
-      <c r="X11" s="464"/>
-      <c r="Y11" s="464"/>
-      <c r="Z11" s="464"/>
-      <c r="AA11" s="465"/>
-      <c r="AB11" s="466" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC11" s="466"/>
-      <c r="AD11" s="466"/>
-      <c r="AE11" s="466"/>
-      <c r="AF11" s="466"/>
-      <c r="AG11" s="467"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
+      <c r="P11" s="447"/>
+      <c r="Q11" s="447"/>
+      <c r="R11" s="447"/>
+      <c r="S11" s="466" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" s="467"/>
+      <c r="U11" s="467"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="467"/>
+      <c r="X11" s="467"/>
+      <c r="Y11" s="467"/>
+      <c r="Z11" s="467"/>
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" s="469"/>
+      <c r="AD11" s="469"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="469"/>
+      <c r="AG11" s="470"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="446"/>
-      <c r="B12" s="447"/>
-      <c r="C12" s="448"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="462"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="447"/>
-      <c r="H12" s="447"/>
-      <c r="I12" s="447"/>
-      <c r="J12" s="447"/>
-      <c r="K12" s="447"/>
-      <c r="L12" s="447"/>
-      <c r="M12" s="447"/>
-      <c r="N12" s="447"/>
-      <c r="O12" s="447"/>
-      <c r="P12" s="447"/>
-      <c r="Q12" s="447"/>
-      <c r="R12" s="447"/>
-      <c r="S12" s="468"/>
-      <c r="T12" s="469"/>
-      <c r="U12" s="469"/>
-      <c r="V12" s="469"/>
-      <c r="W12" s="469"/>
-      <c r="X12" s="469"/>
-      <c r="Y12" s="469"/>
-      <c r="Z12" s="469"/>
-      <c r="AA12" s="470"/>
-      <c r="AB12" s="337"/>
-      <c r="AC12" s="337"/>
-      <c r="AD12" s="337"/>
-      <c r="AE12" s="337"/>
-      <c r="AF12" s="337"/>
-      <c r="AG12" s="338"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="471"/>
+      <c r="T12" s="472"/>
+      <c r="U12" s="472"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="472"/>
+      <c r="X12" s="472"/>
+      <c r="Y12" s="472"/>
+      <c r="Z12" s="472"/>
+      <c r="AA12" s="473"/>
+      <c r="AB12" s="340"/>
+      <c r="AC12" s="340"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="341"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="425" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="426"/>
-      <c r="C13" s="427"/>
+      <c r="A13" s="428" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="431" t="str">
+      <c r="E13" s="434" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="426"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="426"/>
-      <c r="J13" s="426"/>
-      <c r="K13" s="426"/>
-      <c r="L13" s="426"/>
-      <c r="M13" s="426"/>
-      <c r="N13" s="426"/>
-      <c r="O13" s="426"/>
-      <c r="P13" s="426"/>
-      <c r="Q13" s="426"/>
-      <c r="R13" s="426"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="429"/>
+      <c r="R13" s="429"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5236,24 +5201,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="428"/>
-      <c r="B14" s="429"/>
-      <c r="C14" s="430"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="432"/>
-      <c r="F14" s="429"/>
-      <c r="G14" s="429"/>
-      <c r="H14" s="429"/>
-      <c r="I14" s="429"/>
-      <c r="J14" s="429"/>
-      <c r="K14" s="429"/>
-      <c r="L14" s="429"/>
-      <c r="M14" s="429"/>
-      <c r="N14" s="429"/>
-      <c r="O14" s="429"/>
-      <c r="P14" s="429"/>
-      <c r="Q14" s="429"/>
-      <c r="R14" s="429"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="432"/>
+      <c r="Q14" s="432"/>
+      <c r="R14" s="432"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5272,47 +5237,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="433" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="393"/>
-      <c r="H15" s="393"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="393"/>
-      <c r="L15" s="393"/>
-      <c r="M15" s="393"/>
-      <c r="N15" s="393"/>
-      <c r="O15" s="393"/>
-      <c r="P15" s="393"/>
-      <c r="Q15" s="434"/>
-      <c r="R15" s="392" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="435"/>
-      <c r="T15" s="435"/>
-      <c r="U15" s="435"/>
-      <c r="V15" s="436"/>
-      <c r="W15" s="392" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="393"/>
-      <c r="Y15" s="393"/>
-      <c r="Z15" s="393"/>
-      <c r="AA15" s="434"/>
-      <c r="AB15" s="392" t="s">
+      <c r="A15" s="436" t="s">
         <v>56</v>
       </c>
-      <c r="AC15" s="393"/>
-      <c r="AD15" s="393"/>
-      <c r="AE15" s="393"/>
-      <c r="AF15" s="393"/>
-      <c r="AG15" s="394"/>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="396"/>
+      <c r="M15" s="396"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="395" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="438"/>
+      <c r="T15" s="438"/>
+      <c r="U15" s="438"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="395" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="396"/>
+      <c r="Y15" s="396"/>
+      <c r="Z15" s="396"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="395" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="396"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5353,23 +5318,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="214"/>
+      <c r="B17" s="218" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5381,34 +5346,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="411" t="str">
+      <c r="AB17" s="414" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="412"/>
-      <c r="AD17" s="412"/>
-      <c r="AE17" s="412"/>
-      <c r="AF17" s="412"/>
-      <c r="AG17" s="413"/>
+      <c r="AC17" s="415"/>
+      <c r="AD17" s="415"/>
+      <c r="AE17" s="415"/>
+      <c r="AF17" s="415"/>
+      <c r="AG17" s="416"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="214"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5430,21 +5395,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="214"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5503,7 +5468,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5541,7 +5506,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5579,7 +5544,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5617,7 +5582,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5655,7 +5620,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5693,7 +5658,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5731,7 +5696,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5803,25 +5768,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="414" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="415"/>
-      <c r="C29" s="415"/>
-      <c r="D29" s="415"/>
-      <c r="E29" s="415"/>
-      <c r="F29" s="415"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="415"/>
-      <c r="I29" s="415"/>
-      <c r="J29" s="415"/>
-      <c r="K29" s="415"/>
-      <c r="L29" s="415"/>
-      <c r="M29" s="415"/>
-      <c r="N29" s="415"/>
-      <c r="O29" s="415"/>
-      <c r="P29" s="415"/>
-      <c r="Q29" s="416"/>
+      <c r="A29" s="417" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="418"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="418"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="418"/>
+      <c r="L29" s="418"/>
+      <c r="M29" s="418"/>
+      <c r="N29" s="418"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="418"/>
+      <c r="Q29" s="419"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5832,56 +5797,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="417" t="str">
+      <c r="AB29" s="420" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="418"/>
-      <c r="AD29" s="418"/>
-      <c r="AE29" s="418"/>
-      <c r="AF29" s="418"/>
-      <c r="AG29" s="419"/>
+      <c r="AC29" s="421"/>
+      <c r="AD29" s="421"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="420" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="420"/>
-      <c r="D30" s="420"/>
-      <c r="E30" s="420"/>
-      <c r="F30" s="420"/>
-      <c r="G30" s="420"/>
-      <c r="H30" s="420"/>
-      <c r="I30" s="420"/>
-      <c r="J30" s="420"/>
-      <c r="K30" s="420"/>
-      <c r="L30" s="420"/>
-      <c r="M30" s="420"/>
-      <c r="N30" s="420"/>
-      <c r="O30" s="420"/>
-      <c r="P30" s="420"/>
-      <c r="Q30" s="420"/>
-      <c r="R30" s="420"/>
-      <c r="S30" s="420"/>
-      <c r="T30" s="420"/>
-      <c r="U30" s="420"/>
-      <c r="V30" s="420"/>
-      <c r="W30" s="420"/>
-      <c r="X30" s="420"/>
-      <c r="Y30" s="420"/>
-      <c r="Z30" s="420"/>
-      <c r="AA30" s="420"/>
-      <c r="AB30" s="421"/>
-      <c r="AC30" s="421"/>
-      <c r="AD30" s="421"/>
-      <c r="AE30" s="421"/>
-      <c r="AF30" s="421"/>
-      <c r="AG30" s="422"/>
+        <v>63</v>
+      </c>
+      <c r="B30" s="423" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="423"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="423"/>
+      <c r="L30" s="423"/>
+      <c r="M30" s="423"/>
+      <c r="N30" s="423"/>
+      <c r="O30" s="423"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="423"/>
+      <c r="R30" s="423"/>
+      <c r="S30" s="423"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="423"/>
+      <c r="V30" s="423"/>
+      <c r="W30" s="423"/>
+      <c r="X30" s="423"/>
+      <c r="Y30" s="423"/>
+      <c r="Z30" s="423"/>
+      <c r="AA30" s="423"/>
+      <c r="AB30" s="424"/>
+      <c r="AC30" s="424"/>
+      <c r="AD30" s="424"/>
+      <c r="AE30" s="424"/>
+      <c r="AF30" s="424"/>
+      <c r="AG30" s="425"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5891,7 +5856,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5926,80 +5891,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="423" t="str">
+      <c r="B32" s="426" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="412"/>
-      <c r="D32" s="412"/>
-      <c r="E32" s="412"/>
-      <c r="F32" s="412"/>
-      <c r="G32" s="412"/>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-      <c r="K32" s="412"/>
-      <c r="L32" s="412"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="412"/>
-      <c r="O32" s="412"/>
-      <c r="P32" s="412"/>
-      <c r="Q32" s="412"/>
-      <c r="R32" s="412"/>
-      <c r="S32" s="412"/>
-      <c r="T32" s="412"/>
-      <c r="U32" s="412"/>
-      <c r="V32" s="412"/>
-      <c r="W32" s="412"/>
-      <c r="X32" s="412"/>
-      <c r="Y32" s="412"/>
-      <c r="Z32" s="412"/>
-      <c r="AA32" s="412"/>
-      <c r="AB32" s="412"/>
-      <c r="AC32" s="412"/>
-      <c r="AD32" s="412"/>
-      <c r="AE32" s="412"/>
-      <c r="AF32" s="412"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="415"/>
+      <c r="V32" s="415"/>
+      <c r="W32" s="415"/>
+      <c r="X32" s="415"/>
+      <c r="Y32" s="415"/>
+      <c r="Z32" s="415"/>
+      <c r="AA32" s="415"/>
+      <c r="AB32" s="415"/>
+      <c r="AC32" s="415"/>
+      <c r="AD32" s="415"/>
+      <c r="AE32" s="415"/>
+      <c r="AF32" s="415"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="424" t="str">
+      <c r="B33" s="427" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="424"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="424"/>
-      <c r="F33" s="424"/>
-      <c r="G33" s="424"/>
-      <c r="H33" s="424"/>
-      <c r="I33" s="424"/>
-      <c r="J33" s="424"/>
-      <c r="K33" s="424"/>
-      <c r="L33" s="424"/>
-      <c r="M33" s="424"/>
-      <c r="N33" s="424"/>
-      <c r="O33" s="424"/>
-      <c r="P33" s="424"/>
-      <c r="Q33" s="424"/>
-      <c r="R33" s="424"/>
-      <c r="S33" s="424"/>
-      <c r="T33" s="424"/>
-      <c r="U33" s="424"/>
-      <c r="V33" s="424"/>
-      <c r="W33" s="424"/>
-      <c r="X33" s="424"/>
-      <c r="Y33" s="424"/>
-      <c r="Z33" s="424"/>
-      <c r="AA33" s="424"/>
-      <c r="AB33" s="424"/>
-      <c r="AC33" s="424"/>
-      <c r="AD33" s="424"/>
-      <c r="AE33" s="424"/>
-      <c r="AF33" s="424"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
+      <c r="M33" s="427"/>
+      <c r="N33" s="427"/>
+      <c r="O33" s="427"/>
+      <c r="P33" s="427"/>
+      <c r="Q33" s="427"/>
+      <c r="R33" s="427"/>
+      <c r="S33" s="427"/>
+      <c r="T33" s="427"/>
+      <c r="U33" s="427"/>
+      <c r="V33" s="427"/>
+      <c r="W33" s="427"/>
+      <c r="X33" s="427"/>
+      <c r="Y33" s="427"/>
+      <c r="Z33" s="427"/>
+      <c r="AA33" s="427"/>
+      <c r="AB33" s="427"/>
+      <c r="AC33" s="427"/>
+      <c r="AD33" s="427"/>
+      <c r="AE33" s="427"/>
+      <c r="AF33" s="427"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -6016,19 +5981,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="424"/>
-      <c r="M34" s="424"/>
-      <c r="N34" s="424"/>
-      <c r="O34" s="424"/>
-      <c r="P34" s="424"/>
-      <c r="Q34" s="424"/>
-      <c r="R34" s="424"/>
-      <c r="S34" s="424"/>
-      <c r="T34" s="424"/>
-      <c r="U34" s="424"/>
-      <c r="V34" s="424"/>
-      <c r="W34" s="424"/>
-      <c r="X34" s="424"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="427"/>
+      <c r="N34" s="427"/>
+      <c r="O34" s="427"/>
+      <c r="P34" s="427"/>
+      <c r="Q34" s="427"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
+      <c r="X34" s="427"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -6053,19 +6018,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="424"/>
-      <c r="M35" s="424"/>
-      <c r="N35" s="424"/>
-      <c r="O35" s="424"/>
-      <c r="P35" s="424"/>
-      <c r="Q35" s="424"/>
-      <c r="R35" s="424"/>
-      <c r="S35" s="424"/>
-      <c r="T35" s="424"/>
-      <c r="U35" s="424"/>
-      <c r="V35" s="424"/>
-      <c r="W35" s="424"/>
-      <c r="X35" s="424"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -6080,10 +6045,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6120,47 +6085,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="406" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="407"/>
-      <c r="C37" s="407"/>
-      <c r="D37" s="407"/>
-      <c r="E37" s="407"/>
-      <c r="F37" s="407"/>
-      <c r="G37" s="407"/>
-      <c r="H37" s="407"/>
-      <c r="I37" s="407"/>
-      <c r="J37" s="407"/>
-      <c r="K37" s="407"/>
-      <c r="L37" s="407"/>
-      <c r="M37" s="407"/>
-      <c r="N37" s="407"/>
-      <c r="O37" s="407"/>
-      <c r="P37" s="407"/>
-      <c r="Q37" s="407"/>
-      <c r="R37" s="407"/>
-      <c r="S37" s="407" t="s">
-        <v>122</v>
-      </c>
-      <c r="T37" s="407"/>
-      <c r="U37" s="407"/>
-      <c r="V37" s="407"/>
-      <c r="W37" s="407"/>
-      <c r="X37" s="408" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y37" s="408"/>
-      <c r="Z37" s="408"/>
-      <c r="AA37" s="408"/>
-      <c r="AB37" s="408"/>
-      <c r="AC37" s="409" t="s">
+      <c r="A37" s="409" t="s">
         <v>124</v>
       </c>
-      <c r="AD37" s="409"/>
-      <c r="AE37" s="409"/>
-      <c r="AF37" s="409"/>
-      <c r="AG37" s="410"/>
+      <c r="B37" s="410"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="410"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410" t="s">
+        <v>125</v>
+      </c>
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
+      <c r="X37" s="411" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y37" s="411"/>
+      <c r="Z37" s="411"/>
+      <c r="AA37" s="411"/>
+      <c r="AB37" s="411"/>
+      <c r="AC37" s="412" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="412"/>
+      <c r="AG37" s="413"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6240,7 +6205,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6277,10 +6242,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6299,21 +6264,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="T41" s="395" t="s">
-        <v>127</v>
-      </c>
-      <c r="U41" s="395"/>
-      <c r="V41" s="395"/>
-      <c r="W41" s="395"/>
-      <c r="X41" s="395"/>
-      <c r="Y41" s="395"/>
-      <c r="Z41" s="395"/>
-      <c r="AA41" s="395"/>
-      <c r="AB41" s="395"/>
-      <c r="AC41" s="395"/>
-      <c r="AD41" s="395"/>
+        <v>129</v>
+      </c>
+      <c r="T41" s="398" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="398"/>
+      <c r="Z41" s="398"/>
+      <c r="AA41" s="398"/>
+      <c r="AB41" s="398"/>
+      <c r="AC41" s="398"/>
+      <c r="AD41" s="398"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6323,7 +6288,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6340,31 +6305,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="396"/>
-      <c r="T42" s="397"/>
-      <c r="U42" s="397"/>
-      <c r="V42" s="397"/>
-      <c r="W42" s="397"/>
-      <c r="X42" s="397"/>
-      <c r="Y42" s="397"/>
-      <c r="Z42" s="397"/>
-      <c r="AA42" s="397"/>
-      <c r="AB42" s="397"/>
-      <c r="AC42" s="397"/>
-      <c r="AD42" s="397"/>
-      <c r="AE42" s="397"/>
-      <c r="AF42" s="397"/>
-      <c r="AG42" s="398"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="400"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="400"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="400"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="400"/>
+      <c r="AC42" s="400"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="400"/>
+      <c r="AF42" s="400"/>
+      <c r="AG42" s="401"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="405"/>
-      <c r="B43" s="337"/>
-      <c r="C43" s="337"/>
-      <c r="D43" s="337"/>
-      <c r="E43" s="337"/>
-      <c r="F43" s="337"/>
-      <c r="G43" s="337"/>
+      <c r="A43" s="408"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6376,28 +6341,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="399"/>
-      <c r="T43" s="400"/>
-      <c r="U43" s="400"/>
-      <c r="V43" s="400"/>
-      <c r="W43" s="400"/>
-      <c r="X43" s="400"/>
-      <c r="Y43" s="400"/>
-      <c r="Z43" s="400"/>
-      <c r="AA43" s="400"/>
-      <c r="AB43" s="400"/>
-      <c r="AC43" s="400"/>
-      <c r="AD43" s="400"/>
-      <c r="AE43" s="400"/>
-      <c r="AF43" s="400"/>
-      <c r="AG43" s="401"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="403"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="404"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6414,67 +6379,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="399"/>
-      <c r="T44" s="400"/>
-      <c r="U44" s="400"/>
-      <c r="V44" s="400"/>
-      <c r="W44" s="400"/>
-      <c r="X44" s="400"/>
-      <c r="Y44" s="400"/>
-      <c r="Z44" s="400"/>
-      <c r="AA44" s="400"/>
-      <c r="AB44" s="400"/>
-      <c r="AC44" s="400"/>
-      <c r="AD44" s="400"/>
-      <c r="AE44" s="400"/>
-      <c r="AF44" s="400"/>
-      <c r="AG44" s="401"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="403"/>
+      <c r="U44" s="403"/>
+      <c r="V44" s="403"/>
+      <c r="W44" s="403"/>
+      <c r="X44" s="403"/>
+      <c r="Y44" s="403"/>
+      <c r="Z44" s="403"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="404"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="405"/>
-      <c r="B45" s="337"/>
-      <c r="C45" s="337"/>
-      <c r="D45" s="337"/>
-      <c r="E45" s="337"/>
-      <c r="F45" s="337"/>
-      <c r="G45" s="337"/>
-      <c r="H45" s="337"/>
-      <c r="I45" s="337"/>
-      <c r="J45" s="337"/>
-      <c r="K45" s="337"/>
-      <c r="L45" s="337"/>
-      <c r="M45" s="337"/>
-      <c r="N45" s="337"/>
-      <c r="O45" s="337"/>
-      <c r="P45" s="337"/>
-      <c r="Q45" s="337"/>
-      <c r="R45" s="338"/>
-      <c r="S45" s="399"/>
-      <c r="T45" s="400"/>
-      <c r="U45" s="400"/>
-      <c r="V45" s="400"/>
-      <c r="W45" s="400"/>
-      <c r="X45" s="400"/>
-      <c r="Y45" s="400"/>
-      <c r="Z45" s="400"/>
-      <c r="AA45" s="400"/>
-      <c r="AB45" s="400"/>
-      <c r="AC45" s="400"/>
-      <c r="AD45" s="400"/>
-      <c r="AE45" s="400"/>
-      <c r="AF45" s="400"/>
-      <c r="AG45" s="401"/>
+      <c r="A45" s="408"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="340"/>
+      <c r="L45" s="340"/>
+      <c r="M45" s="340"/>
+      <c r="N45" s="340"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="340"/>
+      <c r="Q45" s="340"/>
+      <c r="R45" s="341"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="403"/>
+      <c r="U45" s="403"/>
+      <c r="V45" s="403"/>
+      <c r="W45" s="403"/>
+      <c r="X45" s="403"/>
+      <c r="Y45" s="403"/>
+      <c r="Z45" s="403"/>
+      <c r="AA45" s="403"/>
+      <c r="AB45" s="403"/>
+      <c r="AC45" s="403"/>
+      <c r="AD45" s="403"/>
+      <c r="AE45" s="403"/>
+      <c r="AF45" s="403"/>
+      <c r="AG45" s="404"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6490,28 +6455,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="399"/>
-      <c r="T46" s="400"/>
-      <c r="U46" s="400"/>
-      <c r="V46" s="400"/>
-      <c r="W46" s="400"/>
-      <c r="X46" s="400"/>
-      <c r="Y46" s="400"/>
-      <c r="Z46" s="400"/>
-      <c r="AA46" s="400"/>
-      <c r="AB46" s="400"/>
-      <c r="AC46" s="400"/>
-      <c r="AD46" s="400"/>
-      <c r="AE46" s="400"/>
-      <c r="AF46" s="400"/>
-      <c r="AG46" s="401"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="403"/>
+      <c r="U46" s="403"/>
+      <c r="V46" s="403"/>
+      <c r="W46" s="403"/>
+      <c r="X46" s="403"/>
+      <c r="Y46" s="403"/>
+      <c r="Z46" s="403"/>
+      <c r="AA46" s="403"/>
+      <c r="AB46" s="403"/>
+      <c r="AC46" s="403"/>
+      <c r="AD46" s="403"/>
+      <c r="AE46" s="403"/>
+      <c r="AF46" s="403"/>
+      <c r="AG46" s="404"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6528,21 +6493,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="399"/>
-      <c r="T47" s="400"/>
-      <c r="U47" s="400"/>
-      <c r="V47" s="400"/>
-      <c r="W47" s="400"/>
-      <c r="X47" s="400"/>
-      <c r="Y47" s="400"/>
-      <c r="Z47" s="400"/>
-      <c r="AA47" s="400"/>
-      <c r="AB47" s="400"/>
-      <c r="AC47" s="400"/>
-      <c r="AD47" s="400"/>
-      <c r="AE47" s="400"/>
-      <c r="AF47" s="400"/>
-      <c r="AG47" s="401"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="403"/>
+      <c r="U47" s="403"/>
+      <c r="V47" s="403"/>
+      <c r="W47" s="403"/>
+      <c r="X47" s="403"/>
+      <c r="Y47" s="403"/>
+      <c r="Z47" s="403"/>
+      <c r="AA47" s="403"/>
+      <c r="AB47" s="403"/>
+      <c r="AC47" s="403"/>
+      <c r="AD47" s="403"/>
+      <c r="AE47" s="403"/>
+      <c r="AF47" s="403"/>
+      <c r="AG47" s="404"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6564,344 +6529,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="402"/>
-      <c r="T48" s="403"/>
-      <c r="U48" s="403"/>
-      <c r="V48" s="403"/>
-      <c r="W48" s="403"/>
-      <c r="X48" s="403"/>
-      <c r="Y48" s="403"/>
-      <c r="Z48" s="403"/>
-      <c r="AA48" s="403"/>
-      <c r="AB48" s="403"/>
-      <c r="AC48" s="403"/>
-      <c r="AD48" s="403"/>
-      <c r="AE48" s="403"/>
-      <c r="AF48" s="403"/>
-      <c r="AG48" s="404"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="406"/>
+      <c r="U48" s="406"/>
+      <c r="V48" s="406"/>
+      <c r="W48" s="406"/>
+      <c r="X48" s="406"/>
+      <c r="Y48" s="406"/>
+      <c r="Z48" s="406"/>
+      <c r="AA48" s="406"/>
+      <c r="AB48" s="406"/>
+      <c r="AC48" s="406"/>
+      <c r="AD48" s="406"/>
+      <c r="AE48" s="406"/>
+      <c r="AF48" s="406"/>
+      <c r="AG48" s="407"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="346" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="372"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="337"/>
-      <c r="G49" s="337"/>
-      <c r="H49" s="337"/>
-      <c r="I49" s="337"/>
-      <c r="J49" s="337"/>
-      <c r="K49" s="337"/>
-      <c r="L49" s="337"/>
-      <c r="M49" s="337"/>
-      <c r="N49" s="337"/>
-      <c r="O49" s="337"/>
-      <c r="P49" s="337"/>
-      <c r="Q49" s="337"/>
-      <c r="R49" s="338"/>
-      <c r="S49" s="346" t="s">
-        <v>132</v>
-      </c>
-      <c r="T49" s="347"/>
-      <c r="U49" s="347"/>
-      <c r="V49" s="376"/>
-      <c r="W49" s="359"/>
-      <c r="X49" s="356"/>
-      <c r="Y49" s="356"/>
-      <c r="Z49" s="356"/>
-      <c r="AA49" s="356"/>
-      <c r="AB49" s="356"/>
-      <c r="AC49" s="356"/>
-      <c r="AD49" s="356"/>
-      <c r="AE49" s="356"/>
-      <c r="AF49" s="356"/>
-      <c r="AG49" s="360"/>
+      <c r="A49" s="349" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="375"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
+      <c r="N49" s="340"/>
+      <c r="O49" s="340"/>
+      <c r="P49" s="340"/>
+      <c r="Q49" s="340"/>
+      <c r="R49" s="341"/>
+      <c r="S49" s="349" t="s">
+        <v>135</v>
+      </c>
+      <c r="T49" s="350"/>
+      <c r="U49" s="350"/>
+      <c r="V49" s="379"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="363"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="373"/>
-      <c r="B50" s="374"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="374"/>
-      <c r="E50" s="329"/>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="326"/>
-      <c r="M50" s="326"/>
-      <c r="N50" s="326"/>
-      <c r="O50" s="326"/>
-      <c r="P50" s="326"/>
-      <c r="Q50" s="326"/>
-      <c r="R50" s="375"/>
-      <c r="S50" s="348"/>
-      <c r="T50" s="349"/>
-      <c r="U50" s="349"/>
-      <c r="V50" s="358"/>
-      <c r="W50" s="361"/>
-      <c r="X50" s="349"/>
-      <c r="Y50" s="349"/>
-      <c r="Z50" s="349"/>
-      <c r="AA50" s="349"/>
-      <c r="AB50" s="349"/>
-      <c r="AC50" s="349"/>
-      <c r="AD50" s="349"/>
-      <c r="AE50" s="349"/>
-      <c r="AF50" s="349"/>
-      <c r="AG50" s="362"/>
+      <c r="A50" s="376"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="329"/>
+      <c r="L50" s="329"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="352"/>
+      <c r="Z50" s="352"/>
+      <c r="AA50" s="352"/>
+      <c r="AB50" s="352"/>
+      <c r="AC50" s="352"/>
+      <c r="AD50" s="352"/>
+      <c r="AE50" s="352"/>
+      <c r="AF50" s="352"/>
+      <c r="AG50" s="365"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="322" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="377"/>
-      <c r="C51" s="377"/>
-      <c r="D51" s="378"/>
-      <c r="E51" s="380" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="381"/>
-      <c r="G51" s="381"/>
-      <c r="H51" s="381"/>
-      <c r="I51" s="381"/>
-      <c r="J51" s="381"/>
-      <c r="K51" s="381"/>
-      <c r="L51" s="381"/>
-      <c r="M51" s="381"/>
-      <c r="N51" s="381"/>
-      <c r="O51" s="381"/>
-      <c r="P51" s="381"/>
-      <c r="Q51" s="381"/>
-      <c r="R51" s="382"/>
-      <c r="S51" s="322" t="s">
-        <v>133</v>
-      </c>
-      <c r="T51" s="356"/>
-      <c r="U51" s="356"/>
-      <c r="V51" s="357"/>
-      <c r="W51" s="386" t="s">
-        <v>38</v>
-      </c>
-      <c r="X51" s="387"/>
-      <c r="Y51" s="387"/>
-      <c r="Z51" s="387"/>
-      <c r="AA51" s="387"/>
-      <c r="AB51" s="387"/>
-      <c r="AC51" s="387"/>
-      <c r="AD51" s="387"/>
-      <c r="AE51" s="387"/>
-      <c r="AF51" s="387"/>
-      <c r="AG51" s="388"/>
+      <c r="A51" s="325" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="380"/>
+      <c r="C51" s="380"/>
+      <c r="D51" s="381"/>
+      <c r="E51" s="383" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="I51" s="384"/>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="385"/>
+      <c r="S51" s="325" t="s">
+        <v>136</v>
+      </c>
+      <c r="T51" s="359"/>
+      <c r="U51" s="359"/>
+      <c r="V51" s="360"/>
+      <c r="W51" s="389" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="390"/>
+      <c r="Y51" s="390"/>
+      <c r="Z51" s="390"/>
+      <c r="AA51" s="390"/>
+      <c r="AB51" s="390"/>
+      <c r="AC51" s="390"/>
+      <c r="AD51" s="390"/>
+      <c r="AE51" s="390"/>
+      <c r="AF51" s="390"/>
+      <c r="AG51" s="391"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="373"/>
-      <c r="B52" s="374"/>
-      <c r="C52" s="374"/>
-      <c r="D52" s="379"/>
-      <c r="E52" s="383"/>
-      <c r="F52" s="384"/>
-      <c r="G52" s="384"/>
-      <c r="H52" s="384"/>
-      <c r="I52" s="384"/>
-      <c r="J52" s="384"/>
-      <c r="K52" s="384"/>
-      <c r="L52" s="384"/>
-      <c r="M52" s="384"/>
-      <c r="N52" s="384"/>
-      <c r="O52" s="384"/>
-      <c r="P52" s="384"/>
-      <c r="Q52" s="384"/>
-      <c r="R52" s="385"/>
-      <c r="S52" s="348"/>
-      <c r="T52" s="349"/>
-      <c r="U52" s="349"/>
-      <c r="V52" s="358"/>
-      <c r="W52" s="389"/>
-      <c r="X52" s="390"/>
-      <c r="Y52" s="390"/>
-      <c r="Z52" s="390"/>
-      <c r="AA52" s="390"/>
-      <c r="AB52" s="390"/>
-      <c r="AC52" s="390"/>
-      <c r="AD52" s="390"/>
-      <c r="AE52" s="390"/>
-      <c r="AF52" s="390"/>
-      <c r="AG52" s="391"/>
+      <c r="A52" s="376"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="386"/>
+      <c r="F52" s="387"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="388"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="361"/>
+      <c r="W52" s="392"/>
+      <c r="X52" s="393"/>
+      <c r="Y52" s="393"/>
+      <c r="Z52" s="393"/>
+      <c r="AA52" s="393"/>
+      <c r="AB52" s="393"/>
+      <c r="AC52" s="393"/>
+      <c r="AD52" s="393"/>
+      <c r="AE52" s="393"/>
+      <c r="AF52" s="393"/>
+      <c r="AG52" s="394"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="322" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="356"/>
-      <c r="C53" s="356"/>
-      <c r="D53" s="357"/>
-      <c r="E53" s="359" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="356"/>
-      <c r="G53" s="356"/>
-      <c r="H53" s="356"/>
-      <c r="I53" s="356"/>
-      <c r="J53" s="356"/>
-      <c r="K53" s="356"/>
-      <c r="L53" s="356"/>
-      <c r="M53" s="356"/>
-      <c r="N53" s="356"/>
-      <c r="O53" s="356"/>
-      <c r="P53" s="356"/>
-      <c r="Q53" s="356"/>
-      <c r="R53" s="360"/>
-      <c r="S53" s="322" t="s">
-        <v>135</v>
-      </c>
-      <c r="T53" s="356"/>
-      <c r="U53" s="356"/>
-      <c r="V53" s="357"/>
-      <c r="W53" s="359" t="s">
-        <v>137</v>
-      </c>
-      <c r="X53" s="356"/>
-      <c r="Y53" s="356"/>
-      <c r="Z53" s="356"/>
-      <c r="AA53" s="356"/>
-      <c r="AB53" s="356"/>
-      <c r="AC53" s="356"/>
-      <c r="AD53" s="356"/>
-      <c r="AE53" s="356"/>
-      <c r="AF53" s="356"/>
-      <c r="AG53" s="360"/>
+      <c r="A53" s="325" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="362" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="359"/>
+      <c r="K53" s="359"/>
+      <c r="L53" s="359"/>
+      <c r="M53" s="359"/>
+      <c r="N53" s="359"/>
+      <c r="O53" s="359"/>
+      <c r="P53" s="359"/>
+      <c r="Q53" s="359"/>
+      <c r="R53" s="363"/>
+      <c r="S53" s="325" t="s">
+        <v>138</v>
+      </c>
+      <c r="T53" s="359"/>
+      <c r="U53" s="359"/>
+      <c r="V53" s="360"/>
+      <c r="W53" s="362" t="s">
+        <v>140</v>
+      </c>
+      <c r="X53" s="359"/>
+      <c r="Y53" s="359"/>
+      <c r="Z53" s="359"/>
+      <c r="AA53" s="359"/>
+      <c r="AB53" s="359"/>
+      <c r="AC53" s="359"/>
+      <c r="AD53" s="359"/>
+      <c r="AE53" s="359"/>
+      <c r="AF53" s="359"/>
+      <c r="AG53" s="363"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="348"/>
-      <c r="B54" s="349"/>
-      <c r="C54" s="349"/>
-      <c r="D54" s="358"/>
-      <c r="E54" s="361"/>
-      <c r="F54" s="349"/>
-      <c r="G54" s="349"/>
-      <c r="H54" s="349"/>
-      <c r="I54" s="349"/>
-      <c r="J54" s="349"/>
-      <c r="K54" s="349"/>
-      <c r="L54" s="349"/>
-      <c r="M54" s="349"/>
-      <c r="N54" s="349"/>
-      <c r="O54" s="349"/>
-      <c r="P54" s="349"/>
-      <c r="Q54" s="349"/>
-      <c r="R54" s="362"/>
-      <c r="S54" s="348"/>
-      <c r="T54" s="349"/>
-      <c r="U54" s="349"/>
-      <c r="V54" s="358"/>
-      <c r="W54" s="361"/>
-      <c r="X54" s="349"/>
-      <c r="Y54" s="349"/>
-      <c r="Z54" s="349"/>
-      <c r="AA54" s="349"/>
-      <c r="AB54" s="349"/>
-      <c r="AC54" s="349"/>
-      <c r="AD54" s="349"/>
-      <c r="AE54" s="349"/>
-      <c r="AF54" s="349"/>
-      <c r="AG54" s="362"/>
+      <c r="A54" s="351"/>
+      <c r="B54" s="352"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="364"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="352"/>
+      <c r="H54" s="352"/>
+      <c r="I54" s="352"/>
+      <c r="J54" s="352"/>
+      <c r="K54" s="352"/>
+      <c r="L54" s="352"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="352"/>
+      <c r="O54" s="352"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="352"/>
+      <c r="U54" s="352"/>
+      <c r="V54" s="361"/>
+      <c r="W54" s="364"/>
+      <c r="X54" s="352"/>
+      <c r="Y54" s="352"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="352"/>
+      <c r="AB54" s="352"/>
+      <c r="AC54" s="352"/>
+      <c r="AD54" s="352"/>
+      <c r="AE54" s="352"/>
+      <c r="AF54" s="352"/>
+      <c r="AG54" s="365"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="322" t="s">
+      <c r="A55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="356"/>
-      <c r="C55" s="356"/>
-      <c r="D55" s="357"/>
-      <c r="E55" s="350"/>
-      <c r="F55" s="337"/>
-      <c r="G55" s="337"/>
-      <c r="H55" s="337"/>
-      <c r="I55" s="337"/>
-      <c r="J55" s="337"/>
-      <c r="K55" s="337"/>
-      <c r="L55" s="337"/>
-      <c r="M55" s="337"/>
-      <c r="N55" s="337"/>
-      <c r="O55" s="337"/>
-      <c r="P55" s="337"/>
-      <c r="Q55" s="337"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="322" t="s">
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="353"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="340"/>
+      <c r="K55" s="340"/>
+      <c r="L55" s="340"/>
+      <c r="M55" s="340"/>
+      <c r="N55" s="340"/>
+      <c r="O55" s="340"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="356"/>
-      <c r="U55" s="356"/>
-      <c r="V55" s="357"/>
-      <c r="W55" s="359"/>
-      <c r="X55" s="356"/>
-      <c r="Y55" s="356"/>
-      <c r="Z55" s="356"/>
-      <c r="AA55" s="356"/>
-      <c r="AB55" s="356"/>
-      <c r="AC55" s="356"/>
-      <c r="AD55" s="356"/>
-      <c r="AE55" s="356"/>
-      <c r="AF55" s="356"/>
-      <c r="AG55" s="360"/>
+      <c r="T55" s="359"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="360"/>
+      <c r="W55" s="362"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="359"/>
+      <c r="AE55" s="359"/>
+      <c r="AF55" s="359"/>
+      <c r="AG55" s="363"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="368"/>
-      <c r="B56" s="369"/>
-      <c r="C56" s="369"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
-      <c r="F56" s="339"/>
-      <c r="G56" s="339"/>
-      <c r="H56" s="339"/>
-      <c r="I56" s="339"/>
-      <c r="J56" s="339"/>
-      <c r="K56" s="339"/>
-      <c r="L56" s="339"/>
-      <c r="M56" s="339"/>
-      <c r="N56" s="339"/>
-      <c r="O56" s="339"/>
-      <c r="P56" s="339"/>
-      <c r="Q56" s="339"/>
-      <c r="R56" s="340"/>
-      <c r="S56" s="363"/>
-      <c r="T56" s="364"/>
-      <c r="U56" s="364"/>
-      <c r="V56" s="365"/>
-      <c r="W56" s="366"/>
-      <c r="X56" s="364"/>
-      <c r="Y56" s="364"/>
-      <c r="Z56" s="364"/>
-      <c r="AA56" s="364"/>
-      <c r="AB56" s="364"/>
-      <c r="AC56" s="364"/>
-      <c r="AD56" s="364"/>
-      <c r="AE56" s="364"/>
-      <c r="AF56" s="364"/>
-      <c r="AG56" s="367"/>
+      <c r="A56" s="371"/>
+      <c r="B56" s="372"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="343"/>
+      <c r="S56" s="366"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="368"/>
+      <c r="W56" s="369"/>
+      <c r="X56" s="367"/>
+      <c r="Y56" s="367"/>
+      <c r="Z56" s="367"/>
+      <c r="AA56" s="367"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
+      <c r="AF56" s="367"/>
+      <c r="AG56" s="370"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6929,49 +6894,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="344"/>
-      <c r="AF57" s="344"/>
-      <c r="AG57" s="345"/>
+      <c r="AE57" s="347"/>
+      <c r="AF57" s="347"/>
+      <c r="AG57" s="348"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="346" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="347"/>
-      <c r="C58" s="347"/>
+      <c r="A58" s="349" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="350"/>
+      <c r="C58" s="350"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="350"/>
-      <c r="F58" s="337"/>
-      <c r="G58" s="337"/>
-      <c r="H58" s="337"/>
-      <c r="I58" s="337"/>
-      <c r="J58" s="337"/>
-      <c r="K58" s="337"/>
-      <c r="L58" s="337"/>
-      <c r="M58" s="351"/>
-      <c r="N58" s="352" t="s">
-        <v>99</v>
-      </c>
-      <c r="O58" s="353"/>
-      <c r="P58" s="353"/>
-      <c r="Q58" s="353"/>
-      <c r="R58" s="354"/>
-      <c r="S58" s="355" t="s">
-        <v>142</v>
-      </c>
-      <c r="T58" s="353"/>
-      <c r="U58" s="353"/>
-      <c r="V58" s="353"/>
-      <c r="W58" s="353"/>
-      <c r="X58" s="353"/>
-      <c r="Y58" s="353"/>
-      <c r="Z58" s="353"/>
-      <c r="AA58" s="354"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="340"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="340"/>
+      <c r="M58" s="354"/>
+      <c r="N58" s="355" t="s">
+        <v>102</v>
+      </c>
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="357"/>
+      <c r="S58" s="358" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="356"/>
+      <c r="AA58" s="357"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6981,33 +6946,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="348"/>
-      <c r="B59" s="349"/>
-      <c r="C59" s="349"/>
+      <c r="A59" s="351"/>
+      <c r="B59" s="352"/>
+      <c r="C59" s="352"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="329"/>
-      <c r="F59" s="326"/>
-      <c r="G59" s="326"/>
-      <c r="H59" s="326"/>
-      <c r="I59" s="326"/>
-      <c r="J59" s="326"/>
-      <c r="K59" s="326"/>
-      <c r="L59" s="326"/>
-      <c r="M59" s="327"/>
-      <c r="N59" s="333"/>
-      <c r="O59" s="334"/>
-      <c r="P59" s="334"/>
-      <c r="Q59" s="334"/>
-      <c r="R59" s="335"/>
-      <c r="S59" s="333"/>
-      <c r="T59" s="334"/>
-      <c r="U59" s="334"/>
-      <c r="V59" s="334"/>
-      <c r="W59" s="334"/>
-      <c r="X59" s="334"/>
-      <c r="Y59" s="334"/>
-      <c r="Z59" s="334"/>
-      <c r="AA59" s="335"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="337"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="337"/>
+      <c r="X59" s="337"/>
+      <c r="Y59" s="337"/>
+      <c r="Z59" s="337"/>
+      <c r="AA59" s="338"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -7017,121 +6982,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="322" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="323"/>
-      <c r="C60" s="323"/>
-      <c r="D60" s="324"/>
-      <c r="E60" s="328"/>
-      <c r="F60" s="323"/>
-      <c r="G60" s="323"/>
-      <c r="H60" s="323"/>
-      <c r="I60" s="323"/>
-      <c r="J60" s="323"/>
-      <c r="K60" s="323"/>
-      <c r="L60" s="323"/>
-      <c r="M60" s="324"/>
-      <c r="N60" s="330" t="s">
-        <v>99</v>
-      </c>
-      <c r="O60" s="331"/>
-      <c r="P60" s="331"/>
-      <c r="Q60" s="331"/>
-      <c r="R60" s="332"/>
-      <c r="S60" s="330" t="s">
-        <v>73</v>
-      </c>
-      <c r="T60" s="331"/>
-      <c r="U60" s="331"/>
-      <c r="V60" s="331"/>
-      <c r="W60" s="331"/>
-      <c r="X60" s="331"/>
-      <c r="Y60" s="331"/>
-      <c r="Z60" s="331"/>
-      <c r="AA60" s="332"/>
+      <c r="A60" s="325" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="333" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" s="334"/>
+      <c r="P60" s="334"/>
+      <c r="Q60" s="334"/>
+      <c r="R60" s="335"/>
+      <c r="S60" s="333" t="s">
+        <v>76</v>
+      </c>
+      <c r="T60" s="334"/>
+      <c r="U60" s="334"/>
+      <c r="V60" s="334"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="334"/>
+      <c r="Y60" s="334"/>
+      <c r="Z60" s="334"/>
+      <c r="AA60" s="335"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="323"/>
-      <c r="AE60" s="323"/>
-      <c r="AF60" s="323"/>
-      <c r="AG60" s="336"/>
+      <c r="AD60" s="326"/>
+      <c r="AE60" s="326"/>
+      <c r="AF60" s="326"/>
+      <c r="AG60" s="339"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="325"/>
-      <c r="B61" s="326"/>
-      <c r="C61" s="326"/>
-      <c r="D61" s="327"/>
-      <c r="E61" s="329"/>
-      <c r="F61" s="326"/>
-      <c r="G61" s="326"/>
-      <c r="H61" s="326"/>
-      <c r="I61" s="326"/>
-      <c r="J61" s="326"/>
-      <c r="K61" s="326"/>
-      <c r="L61" s="326"/>
-      <c r="M61" s="327"/>
-      <c r="N61" s="333"/>
-      <c r="O61" s="334"/>
-      <c r="P61" s="334"/>
-      <c r="Q61" s="334"/>
-      <c r="R61" s="335"/>
-      <c r="S61" s="333"/>
-      <c r="T61" s="334"/>
-      <c r="U61" s="334"/>
-      <c r="V61" s="334"/>
-      <c r="W61" s="334"/>
-      <c r="X61" s="334"/>
-      <c r="Y61" s="334"/>
-      <c r="Z61" s="334"/>
-      <c r="AA61" s="335"/>
-      <c r="AB61" s="337"/>
-      <c r="AC61" s="337"/>
-      <c r="AD61" s="337"/>
-      <c r="AE61" s="337"/>
-      <c r="AF61" s="337"/>
-      <c r="AG61" s="338"/>
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="336"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="338"/>
+      <c r="S61" s="336"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="337"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="337"/>
+      <c r="X61" s="337"/>
+      <c r="Y61" s="337"/>
+      <c r="Z61" s="337"/>
+      <c r="AA61" s="338"/>
+      <c r="AB61" s="340"/>
+      <c r="AC61" s="340"/>
+      <c r="AD61" s="340"/>
+      <c r="AE61" s="340"/>
+      <c r="AF61" s="340"/>
+      <c r="AG61" s="341"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="341" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="342"/>
-      <c r="C62" s="342"/>
-      <c r="D62" s="342"/>
-      <c r="E62" s="342"/>
-      <c r="F62" s="342"/>
-      <c r="G62" s="342"/>
-      <c r="H62" s="342"/>
-      <c r="I62" s="342"/>
-      <c r="J62" s="342"/>
-      <c r="K62" s="342"/>
-      <c r="L62" s="342"/>
-      <c r="M62" s="342"/>
-      <c r="N62" s="342"/>
-      <c r="O62" s="342"/>
-      <c r="P62" s="342"/>
-      <c r="Q62" s="342"/>
-      <c r="R62" s="342"/>
-      <c r="S62" s="342"/>
-      <c r="T62" s="342"/>
-      <c r="U62" s="342"/>
-      <c r="V62" s="342"/>
-      <c r="W62" s="342"/>
-      <c r="X62" s="342"/>
-      <c r="Y62" s="342"/>
-      <c r="Z62" s="342"/>
-      <c r="AA62" s="343"/>
-      <c r="AB62" s="339"/>
-      <c r="AC62" s="339"/>
-      <c r="AD62" s="339"/>
-      <c r="AE62" s="339"/>
-      <c r="AF62" s="339"/>
-      <c r="AG62" s="340"/>
+      <c r="A62" s="344" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="345"/>
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="345"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="345"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="345"/>
+      <c r="O62" s="345"/>
+      <c r="P62" s="345"/>
+      <c r="Q62" s="345"/>
+      <c r="R62" s="345"/>
+      <c r="S62" s="345"/>
+      <c r="T62" s="345"/>
+      <c r="U62" s="345"/>
+      <c r="V62" s="345"/>
+      <c r="W62" s="345"/>
+      <c r="X62" s="345"/>
+      <c r="Y62" s="345"/>
+      <c r="Z62" s="345"/>
+      <c r="AA62" s="346"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="343"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -12,7 +12,7 @@
     <sheet name="DV" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Itinerary'!$A$1:$J$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Itinerary'!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: TRAVEL ORDER ROLL OUT</t>
+    <t>Purpose of Travel: FINAL</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,25 +102,25 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>meeting 1</t>
+    <t>Batch 1</t>
   </si>
   <si>
     <t>Pagsanjan to Calamba</t>
   </si>
   <si>
-    <t>14:17:00</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>meeting 2</t>
-  </si>
-  <si>
-    <t>meeting 3</t>
+    <t>16:21:00</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
+  </si>
+  <si>
+    <t>Batch 3</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -572,15 +572,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b val="0"/>
       <i val="1"/>
       <strike val="0"/>
@@ -599,6 +590,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -608,13 +608,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
+      <b val="1"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -631,7 +631,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border/>
     <border>
       <left style="medium">
@@ -977,10 +977,43 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -999,10 +1032,97 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1010,12 +1130,26 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1032,7 +1166,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -1040,40 +1174,7 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -1084,122 +1185,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1207,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="493">
+  <cellXfs count="489">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1721,20 +1710,74 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="18" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1745,126 +1788,315 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -1889,21 +2121,9 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1913,280 +2133,469 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="54" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="55" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2195,18 +2604,9 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2216,461 +2616,38 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="58" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="34" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="4" fillId="2" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="4" fillId="2" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="60" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="2" borderId="38" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="41" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2987,10 +2964,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3009,37 +2986,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="21.75">
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="14.25">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="18.75">
       <c r="A4" s="170"/>
@@ -3057,8 +3034,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3071,8 +3048,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -3085,17 +3062,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="6.75">
       <c r="A8" s="3"/>
@@ -3113,55 +3090,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="184"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="15.75">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="487" t="s">
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="206"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15.75">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="206"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="4.15">
       <c r="A12" s="5"/>
@@ -3176,39 +3153,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="15.75" s="19" customFormat="1">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="198" t="s">
+      <c r="C13" s="180"/>
+      <c r="D13" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="199"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="185" t="s">
+      <c r="G13" s="184" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="187" t="s">
+      <c r="I13" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="189" t="s">
+      <c r="J13" s="188" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="15" s="19" customFormat="1">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="192"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3218,356 +3195,551 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="186"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="190"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="189"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="477" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="204"/>
-    </row>
-    <row r="16" spans="1:11" customHeight="1" ht="16.9" s="23" customFormat="1">
-      <c r="A16" s="171"/>
-      <c r="B16" s="195" t="s">
+      <c r="B15" s="478"/>
+      <c r="C15" s="478"/>
+      <c r="D15" s="478"/>
+      <c r="E15" s="479"/>
+      <c r="F15" s="478"/>
+      <c r="G15" s="478"/>
+      <c r="H15" s="478"/>
+      <c r="I15" s="478"/>
+      <c r="J15" s="480"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16"/>
+      <c r="B16" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="172" t="s">
+      <c r="C16" s="481"/>
+      <c r="D16" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="481" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="174">
-        <v>65</v>
-      </c>
-      <c r="H16" s="174">
-        <v>0</v>
-      </c>
-      <c r="I16" s="175" t="s">
+      <c r="G16" s="483">
+        <v>45</v>
+      </c>
+      <c r="H16" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I16" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="174">
-        <v>65</v>
+      <c r="J16" s="483">
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="B17" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="481"/>
+      <c r="D17" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="483">
+        <v>45</v>
+      </c>
+      <c r="H17" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="481"/>
+      <c r="D18" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="483">
+        <v>45</v>
+      </c>
+      <c r="H18" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="481"/>
+      <c r="D19" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="483">
+        <v>45</v>
+      </c>
+      <c r="H19" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I19" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="482" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21"/>
+      <c r="B21" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="481"/>
+      <c r="D21" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="483">
+        <v>45</v>
+      </c>
+      <c r="H21" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="481"/>
+      <c r="D22" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="483">
+        <v>45</v>
+      </c>
+      <c r="H22" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="481"/>
+      <c r="D23" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="483">
+        <v>45</v>
+      </c>
+      <c r="H23" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="482" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25"/>
+      <c r="B25" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C25" s="481"/>
+      <c r="D25" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" s="481" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="1">
-        <v>65</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G25" s="483">
+        <v>45</v>
+      </c>
+      <c r="H25" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I25" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" t="s">
+      <c r="J25" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C26" s="481"/>
+      <c r="D26" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" s="481" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="1">
-        <v>65</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G26" s="483">
+        <v>45</v>
+      </c>
+      <c r="H26" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I26" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" t="s">
+      <c r="J26" s="483">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C27" s="481"/>
+      <c r="D27" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E27" s="481" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F27" s="481" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="1">
-        <v>65</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G27" s="483">
+        <v>45</v>
+      </c>
+      <c r="H27" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I27" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="111"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="111"/>
-      <c r="F24"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="491"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="489"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="488"/>
-      <c r="H25" s="488"/>
-      <c r="I25" s="488"/>
-      <c r="J25" s="490"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="111"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="491"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="111"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="111"/>
-      <c r="F27"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="491"/>
+      <c r="J27" s="483">
+        <v>1145</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="492" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="491"/>
+      <c r="B28" s="481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="481"/>
+      <c r="D28" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="481" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="481" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="483">
+        <v>45</v>
+      </c>
+      <c r="H28" s="483">
+        <v>1100</v>
+      </c>
+      <c r="I28" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="483">
+        <v>1145</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="253" t="s">
-        <v>6</v>
-      </c>
+      <c r="A29" s="111"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="111"/>
       <c r="F29"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="491"/>
+      <c r="J29" s="487"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="489"/>
+      <c r="A30" s="485"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F30" s="118"/>
-      <c r="G30" s="488"/>
-      <c r="H30" s="488"/>
-      <c r="I30" s="488"/>
-      <c r="J30" s="490"/>
+      <c r="G30" s="484"/>
+      <c r="H30" s="484"/>
+      <c r="I30" s="484"/>
+      <c r="J30" s="486"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="111"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="491"/>
+      <c r="J31" s="487"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="111"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" s="111"/>
       <c r="F32"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="491"/>
+      <c r="J32" s="487"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="111"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="111"/>
+      <c r="A33" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="488" t="s">
+        <v>37</v>
+      </c>
       <c r="F33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="491"/>
+      <c r="J33" s="487"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="111"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="111"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="199" t="s">
+        <v>6</v>
+      </c>
       <c r="F34"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="491"/>
+      <c r="J34" s="487"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="492" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="492" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="491"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="485"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="484"/>
+      <c r="H35" s="484"/>
+      <c r="I35" s="484"/>
+      <c r="J35" s="486"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="253" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" s="253" t="s">
-        <v>41</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="491"/>
+      <c r="J36" s="487"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="253" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="253" t="s">
-        <v>43</v>
-      </c>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="111"/>
       <c r="F37"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="491"/>
+      <c r="J37" s="487"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="489"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="489"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="488"/>
-      <c r="H38" s="488"/>
-      <c r="I38" s="488"/>
-      <c r="J38" s="490"/>
+      <c r="A38" s="111"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="111"/>
+      <c r="F38"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="487"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="111"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="111"/>
+      <c r="F39"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="487"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="488" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" s="488" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="487"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="199" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="487"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="199" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="199" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="487"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="485"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="485"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="484"/>
+      <c r="H43" s="484"/>
+      <c r="I43" s="484"/>
+      <c r="J43" s="486"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G13:G14"/>
@@ -3576,22 +3748,33 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A28:D32"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A33:D37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3651,10 +3834,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="313" t="s">
+      <c r="L1" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="313"/>
+      <c r="M1" s="201"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="15.75">
       <c r="A2" s="2"/>
@@ -3668,442 +3851,442 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="236" t="s">
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="237"/>
-      <c r="M4" s="324"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="300"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="220"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="304" t="s">
+      <c r="A6" s="221"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="306"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="229"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A7" s="301"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="309"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="232"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A8" s="272" t="s">
+      <c r="A8" s="233" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="277" t="s">
+      <c r="B8" s="234"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="279"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="238"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A9" s="301"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="312"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="241"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A10" s="272" t="s">
+      <c r="A10" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="277" t="str">
+      <c r="B10" s="234"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236" t="str">
         <f>#REF!</f>
         <v>0</v>
       </c>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="279"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="238"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A11" s="275"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="282"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="247"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="286" t="s">
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="285"/>
-      <c r="K12" s="292" t="s">
+      <c r="J12" s="223"/>
+      <c r="K12" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="286" t="s">
+      <c r="L12" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="294"/>
+      <c r="M12" s="257"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="18.6">
-      <c r="A13" s="275"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="231"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="258"/>
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A14" s="253"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="255" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="254"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="260"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="256"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="264"/>
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A15" s="253"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="217" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="254"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="263"/>
+      <c r="J15" s="260"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="268">
+      <c r="L15" s="265">
         <v>4981</v>
       </c>
-      <c r="M15" s="269"/>
+      <c r="M15" s="266"/>
     </row>
     <row r="16" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A16" s="253"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="254"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="260"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="256"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="264"/>
     </row>
     <row r="17" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A17" s="253"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="254"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="263"/>
+      <c r="J17" s="260"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
     </row>
     <row r="18" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A18" s="253"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="256"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="264"/>
     </row>
     <row r="19" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A19" s="253"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="254"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="260"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="256"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="264"/>
     </row>
     <row r="20" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A20" s="253"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="254"/>
+      <c r="A20" s="199"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="260"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="256"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="264"/>
     </row>
     <row r="21" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A21" s="253"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="254"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="260"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="256"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="264"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A22" s="253"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="254"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="260"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="256"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="264"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="15.75">
-      <c r="A23" s="253"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="254"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="259"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="260"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="256"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="264"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="15">
-      <c r="A24" s="253"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="254"/>
+      <c r="A24" s="199"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="269"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="260"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="256"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="264"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="15">
-      <c r="A25" s="253"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="254"/>
+      <c r="A25" s="199"/>
+      <c r="B25" s="259"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="263"/>
+      <c r="J25" s="260"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="256"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="264"/>
     </row>
     <row r="26" spans="1:13" customHeight="1" ht="15">
-      <c r="A26" s="253"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="254"/>
+      <c r="A26" s="199"/>
+      <c r="B26" s="259"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="260"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="256"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="264"/>
     </row>
     <row r="27" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A27" s="257"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="259"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="275"/>
+      <c r="I27" s="276"/>
+      <c r="J27" s="272"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="264" t="str">
+      <c r="L27" s="277" t="str">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="M27" s="265"/>
+      <c r="M27" s="278"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="280" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="215" t="s">
+      <c r="D28" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="245" t="s">
+      <c r="E28" s="283"/>
+      <c r="F28" s="283"/>
+      <c r="G28" s="283"/>
+      <c r="H28" s="284"/>
+      <c r="I28" s="285" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="35"/>
@@ -4112,17 +4295,17 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
-      <c r="A29" s="242"/>
-      <c r="B29" s="246" t="s">
+      <c r="A29" s="281"/>
+      <c r="B29" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="245"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="283"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
         <v>67</v>
       </c>
@@ -4132,15 +4315,15 @@
     </row>
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
-      <c r="B30" s="247" t="s">
+      <c r="B30" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="248"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
         <v>69</v>
@@ -4150,7 +4333,7 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" customHeight="1" ht="15">
-      <c r="A31" s="249"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
         <v>70</v>
       </c>
@@ -4169,7 +4352,7 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A32" s="249"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4214,18 +4397,18 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
-      <c r="A35" s="250" t="s">
+      <c r="A35" s="288" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="227"/>
-      <c r="C35" s="218" t="s">
+      <c r="B35" s="289"/>
+      <c r="C35" s="279" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="235"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
         <v>74</v>
       </c>
@@ -4252,10 +4435,10 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
-      <c r="A37" s="251" t="s">
+      <c r="A37" s="291" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="252"/>
+      <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
         <v>40</v>
       </c>
@@ -4290,18 +4473,18 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A39" s="250" t="s">
+      <c r="A39" s="288" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="215" t="s">
+      <c r="B39" s="289"/>
+      <c r="C39" s="282" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+      <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
         <v>78</v>
       </c>
@@ -4315,31 +4498,31 @@
     <row r="40" spans="1:13" customHeight="1" ht="32.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="C40" s="279"/>
+      <c r="D40" s="279"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="235"/>
+      <c r="K40" s="279"/>
+      <c r="L40" s="279"/>
+      <c r="M40" s="290"/>
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A41" s="236" t="s">
+      <c r="A41" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="237"/>
-      <c r="C41" s="215" t="s">
+      <c r="B41" s="213"/>
+      <c r="C41" s="282" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
+      <c r="D41" s="282"/>
+      <c r="E41" s="282"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
         <v>82</v>
       </c>
@@ -4384,81 +4567,81 @@
       <c r="A44" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="238" t="s">
+      <c r="B44" s="312" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="240"/>
+      <c r="C44" s="313"/>
+      <c r="D44" s="313"/>
+      <c r="E44" s="313"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="313"/>
+      <c r="J44" s="313"/>
+      <c r="K44" s="313"/>
+      <c r="L44" s="313"/>
+      <c r="M44" s="314"/>
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="240"/>
-      <c r="H45" s="198" t="s">
+      <c r="B45" s="313"/>
+      <c r="C45" s="313"/>
+      <c r="D45" s="313"/>
+      <c r="E45" s="313"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="314"/>
+      <c r="H45" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="240"/>
+      <c r="I45" s="313"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="313"/>
+      <c r="L45" s="313"/>
+      <c r="M45" s="314"/>
     </row>
     <row r="46" spans="1:13" customHeight="1" ht="16.5">
-      <c r="A46" s="220" t="s">
+      <c r="A46" s="301" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="222" t="s">
+      <c r="B46" s="303" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="226" t="s">
+      <c r="C46" s="304"/>
+      <c r="D46" s="304"/>
+      <c r="E46" s="307" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="220" t="s">
+      <c r="F46" s="289"/>
+      <c r="G46" s="308"/>
+      <c r="H46" s="301" t="s">
         <v>88</v>
       </c>
-      <c r="I46" s="232" t="s">
+      <c r="I46" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="J46" s="233"/>
-      <c r="K46" s="234" t="s">
+      <c r="J46" s="310"/>
+      <c r="K46" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="L46" s="210" t="s">
+      <c r="L46" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="211"/>
+      <c r="M46" s="295"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="32.25">
-      <c r="A47" s="220"/>
-      <c r="B47" s="222"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="234"/>
+      <c r="A47" s="301"/>
+      <c r="B47" s="303"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="307"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="308"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="309"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="311"/>
       <c r="L47" s="52" t="s">
         <v>92</v>
       </c>
@@ -4467,20 +4650,20 @@
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
-      <c r="A48" s="221"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="231"/>
+      <c r="A48" s="302"/>
+      <c r="B48" s="305"/>
+      <c r="C48" s="306"/>
+      <c r="D48" s="306"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="258"/>
       <c r="H48" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="212" t="s">
+      <c r="I48" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="J48" s="213"/>
+      <c r="J48" s="297"/>
       <c r="K48" s="55" t="s">
         <v>96</v>
       </c>
@@ -4526,9 +4709,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="216"/>
+      <c r="E51" s="298"/>
+      <c r="F51" s="282"/>
+      <c r="G51" s="293"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4599,25 +4782,67 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:M9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="D10:M11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="D15:H21"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:D48"/>
+    <mergeCell ref="E46:G48"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="L18:M18"/>
@@ -4634,67 +4859,25 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="D15:H21"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:D48"/>
-    <mergeCell ref="E46:G48"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:M9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4761,247 +4944,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
-      <c r="AB1" s="474" t="s">
+      <c r="AB1" s="315" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="474"/>
-      <c r="AD1" s="474"/>
-      <c r="AE1" s="474"/>
-      <c r="AF1" s="474"/>
-      <c r="AG1" s="474"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
+      <c r="AE1" s="315"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="315"/>
     </row>
     <row r="2" spans="1:38" customHeight="1" ht="15">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
-      <c r="A3" s="475" t="s">
+      <c r="A3" s="316" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="476"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="476"/>
-      <c r="U3" s="476"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="477"/>
-      <c r="AB3" s="478" t="s">
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="317"/>
+      <c r="N3" s="317"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="317"/>
+      <c r="Q3" s="317"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="317"/>
+      <c r="T3" s="317"/>
+      <c r="U3" s="317"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="317"/>
+      <c r="Y3" s="317"/>
+      <c r="Z3" s="317"/>
+      <c r="AA3" s="318"/>
+      <c r="AB3" s="319" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="479"/>
-      <c r="AG3" s="480"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="320"/>
+      <c r="AE3" s="320"/>
+      <c r="AF3" s="320"/>
+      <c r="AG3" s="321"/>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
-      <c r="A4" s="481" t="s">
+      <c r="A4" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
-      <c r="Q4" s="482"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="482"/>
-      <c r="T4" s="482"/>
-      <c r="U4" s="482"/>
-      <c r="V4" s="482"/>
-      <c r="W4" s="482"/>
-      <c r="X4" s="482"/>
-      <c r="Y4" s="482"/>
-      <c r="Z4" s="482"/>
-      <c r="AA4" s="483"/>
-      <c r="AB4" s="484"/>
-      <c r="AC4" s="485"/>
-      <c r="AD4" s="485"/>
-      <c r="AE4" s="485"/>
-      <c r="AF4" s="485"/>
-      <c r="AG4" s="486"/>
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="323"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="323"/>
+      <c r="S4" s="323"/>
+      <c r="T4" s="323"/>
+      <c r="U4" s="323"/>
+      <c r="V4" s="323"/>
+      <c r="W4" s="323"/>
+      <c r="X4" s="323"/>
+      <c r="Y4" s="323"/>
+      <c r="Z4" s="323"/>
+      <c r="AA4" s="324"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="326"/>
+      <c r="AD4" s="326"/>
+      <c r="AE4" s="326"/>
+      <c r="AF4" s="326"/>
+      <c r="AG4" s="327"/>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
-      <c r="A5" s="440" t="s">
+      <c r="A5" s="346" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441"/>
-      <c r="P5" s="441"/>
-      <c r="Q5" s="441"/>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="U5" s="441"/>
-      <c r="V5" s="441"/>
-      <c r="W5" s="441"/>
-      <c r="X5" s="441"/>
-      <c r="Y5" s="441"/>
-      <c r="Z5" s="441"/>
-      <c r="AA5" s="442"/>
-      <c r="AB5" s="456" t="s">
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="347"/>
+      <c r="Q5" s="347"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="347"/>
+      <c r="V5" s="347"/>
+      <c r="W5" s="347"/>
+      <c r="X5" s="347"/>
+      <c r="Y5" s="347"/>
+      <c r="Z5" s="347"/>
+      <c r="AA5" s="348"/>
+      <c r="AB5" s="359" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" s="457"/>
-      <c r="AD5" s="457"/>
-      <c r="AE5" s="457"/>
-      <c r="AF5" s="457"/>
-      <c r="AG5" s="458"/>
+      <c r="AC5" s="360"/>
+      <c r="AD5" s="360"/>
+      <c r="AE5" s="360"/>
+      <c r="AF5" s="360"/>
+      <c r="AG5" s="361"/>
     </row>
     <row r="6" spans="1:38" customHeight="1" ht="15">
-      <c r="A6" s="440"/>
-      <c r="B6" s="441"/>
-      <c r="C6" s="441"/>
-      <c r="D6" s="441"/>
-      <c r="E6" s="441"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="441"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="441"/>
-      <c r="J6" s="441"/>
-      <c r="K6" s="441"/>
-      <c r="L6" s="441"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="441"/>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="U6" s="441"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="441"/>
-      <c r="X6" s="441"/>
-      <c r="Y6" s="441"/>
-      <c r="Z6" s="441"/>
-      <c r="AA6" s="442"/>
-      <c r="AB6" s="459" t="s">
+      <c r="A6" s="346"/>
+      <c r="B6" s="347"/>
+      <c r="C6" s="347"/>
+      <c r="D6" s="347"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="347"/>
+      <c r="I6" s="347"/>
+      <c r="J6" s="347"/>
+      <c r="K6" s="347"/>
+      <c r="L6" s="347"/>
+      <c r="M6" s="347"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="347"/>
+      <c r="R6" s="347"/>
+      <c r="S6" s="347"/>
+      <c r="T6" s="347"/>
+      <c r="U6" s="347"/>
+      <c r="V6" s="347"/>
+      <c r="W6" s="347"/>
+      <c r="X6" s="347"/>
+      <c r="Y6" s="347"/>
+      <c r="Z6" s="347"/>
+      <c r="AA6" s="348"/>
+      <c r="AB6" s="362" t="s">
         <v>103</v>
       </c>
-      <c r="AC6" s="460"/>
-      <c r="AD6" s="460"/>
-      <c r="AE6" s="460"/>
-      <c r="AF6" s="460"/>
-      <c r="AG6" s="461"/>
+      <c r="AC6" s="363"/>
+      <c r="AD6" s="363"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="364"/>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="15.6">
-      <c r="A7" s="443"/>
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="444"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="444"/>
-      <c r="N7" s="444"/>
-      <c r="O7" s="444"/>
-      <c r="P7" s="444"/>
-      <c r="Q7" s="444"/>
-      <c r="R7" s="444"/>
-      <c r="S7" s="444"/>
-      <c r="T7" s="444"/>
-      <c r="U7" s="444"/>
-      <c r="V7" s="444"/>
-      <c r="W7" s="444"/>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="444"/>
-      <c r="Z7" s="444"/>
-      <c r="AA7" s="445"/>
-      <c r="AB7" s="462"/>
-      <c r="AC7" s="462"/>
-      <c r="AD7" s="462"/>
-      <c r="AE7" s="462"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="463"/>
+      <c r="A7" s="349"/>
+      <c r="B7" s="350"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="350"/>
+      <c r="P7" s="350"/>
+      <c r="Q7" s="350"/>
+      <c r="R7" s="350"/>
+      <c r="S7" s="350"/>
+      <c r="T7" s="350"/>
+      <c r="U7" s="350"/>
+      <c r="V7" s="350"/>
+      <c r="W7" s="350"/>
+      <c r="X7" s="350"/>
+      <c r="Y7" s="350"/>
+      <c r="Z7" s="350"/>
+      <c r="AA7" s="351"/>
+      <c r="AB7" s="365"/>
+      <c r="AC7" s="365"/>
+      <c r="AD7" s="365"/>
+      <c r="AE7" s="365"/>
+      <c r="AF7" s="365"/>
+      <c r="AG7" s="366"/>
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
-      <c r="A8" s="446" t="s">
+      <c r="A8" s="328" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="447"/>
-      <c r="C8" s="448"/>
+      <c r="B8" s="329"/>
+      <c r="C8" s="330"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="455"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="348"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="356"/>
+      <c r="G8" s="356"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="356"/>
+      <c r="J8" s="356"/>
+      <c r="K8" s="356"/>
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="356"/>
+      <c r="O8" s="356"/>
+      <c r="P8" s="356"/>
+      <c r="Q8" s="356"/>
+      <c r="R8" s="356"/>
+      <c r="S8" s="356"/>
+      <c r="T8" s="356"/>
+      <c r="U8" s="356"/>
+      <c r="V8" s="356"/>
+      <c r="W8" s="356"/>
+      <c r="X8" s="356"/>
+      <c r="Y8" s="356"/>
+      <c r="Z8" s="356"/>
+      <c r="AA8" s="356"/>
+      <c r="AB8" s="356"/>
+      <c r="AC8" s="356"/>
+      <c r="AD8" s="356"/>
+      <c r="AE8" s="356"/>
+      <c r="AF8" s="356"/>
+      <c r="AG8" s="357"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A9" s="449"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="451"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="333"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
@@ -5043,26 +5226,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:38" customHeight="1" ht="14.25" s="2" customFormat="1">
-      <c r="A10" s="452"/>
-      <c r="B10" s="453"/>
-      <c r="C10" s="454"/>
+      <c r="A10" s="352"/>
+      <c r="B10" s="353"/>
+      <c r="C10" s="354"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="342"/>
-      <c r="K10" s="342"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="342"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="358"/>
+      <c r="M10" s="358"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="342"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="342"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="340"/>
+      <c r="O10" s="358"/>
+      <c r="P10" s="358"/>
+      <c r="Q10" s="358"/>
+      <c r="R10" s="358"/>
+      <c r="S10" s="344"/>
+      <c r="T10" s="344"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -5079,110 +5262,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A11" s="446" t="s">
+      <c r="A11" s="328" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="330"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="464" t="str">
+      <c r="E11" s="334" t="str">
         <f>ORS!D6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="447"/>
-      <c r="Q11" s="447"/>
-      <c r="R11" s="447"/>
-      <c r="S11" s="466" t="s">
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="329"/>
+      <c r="Q11" s="329"/>
+      <c r="R11" s="329"/>
+      <c r="S11" s="336" t="s">
         <v>110</v>
       </c>
-      <c r="T11" s="467"/>
-      <c r="U11" s="467"/>
-      <c r="V11" s="467"/>
-      <c r="W11" s="467"/>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="467"/>
-      <c r="Z11" s="467"/>
-      <c r="AA11" s="468"/>
-      <c r="AB11" s="469" t="s">
+      <c r="T11" s="337"/>
+      <c r="U11" s="337"/>
+      <c r="V11" s="337"/>
+      <c r="W11" s="337"/>
+      <c r="X11" s="337"/>
+      <c r="Y11" s="337"/>
+      <c r="Z11" s="337"/>
+      <c r="AA11" s="338"/>
+      <c r="AB11" s="339" t="s">
         <v>111</v>
       </c>
-      <c r="AC11" s="469"/>
-      <c r="AD11" s="469"/>
-      <c r="AE11" s="469"/>
-      <c r="AF11" s="469"/>
-      <c r="AG11" s="470"/>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="339"/>
+      <c r="AE11" s="339"/>
+      <c r="AF11" s="339"/>
+      <c r="AG11" s="340"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="10.5" s="2" customFormat="1">
-      <c r="A12" s="449"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="451"/>
+      <c r="A12" s="331"/>
+      <c r="B12" s="332"/>
+      <c r="C12" s="333"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="450"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="450"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="450"/>
-      <c r="O12" s="450"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="450"/>
-      <c r="S12" s="471"/>
-      <c r="T12" s="472"/>
-      <c r="U12" s="472"/>
-      <c r="V12" s="472"/>
-      <c r="W12" s="472"/>
-      <c r="X12" s="472"/>
-      <c r="Y12" s="472"/>
-      <c r="Z12" s="472"/>
-      <c r="AA12" s="473"/>
-      <c r="AB12" s="340"/>
-      <c r="AC12" s="340"/>
-      <c r="AD12" s="340"/>
-      <c r="AE12" s="340"/>
-      <c r="AF12" s="340"/>
-      <c r="AG12" s="341"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="332"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="341"/>
+      <c r="T12" s="342"/>
+      <c r="U12" s="342"/>
+      <c r="V12" s="342"/>
+      <c r="W12" s="342"/>
+      <c r="X12" s="342"/>
+      <c r="Y12" s="342"/>
+      <c r="Z12" s="342"/>
+      <c r="AA12" s="343"/>
+      <c r="AB12" s="344"/>
+      <c r="AC12" s="344"/>
+      <c r="AD12" s="344"/>
+      <c r="AE12" s="344"/>
+      <c r="AF12" s="344"/>
+      <c r="AG12" s="345"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A13" s="428" t="s">
+      <c r="A13" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
+      <c r="B13" s="369"/>
+      <c r="C13" s="370"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="434" t="str">
+      <c r="E13" s="374" t="str">
         <f>ORS!D10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="429"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
-      <c r="L13" s="429"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
-      <c r="P13" s="429"/>
-      <c r="Q13" s="429"/>
-      <c r="R13" s="429"/>
+      <c r="F13" s="369"/>
+      <c r="G13" s="369"/>
+      <c r="H13" s="369"/>
+      <c r="I13" s="369"/>
+      <c r="J13" s="369"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="369"/>
+      <c r="M13" s="369"/>
+      <c r="N13" s="369"/>
+      <c r="O13" s="369"/>
+      <c r="P13" s="369"/>
+      <c r="Q13" s="369"/>
+      <c r="R13" s="369"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -5201,24 +5384,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
-      <c r="A14" s="431"/>
-      <c r="B14" s="432"/>
-      <c r="C14" s="433"/>
+      <c r="A14" s="371"/>
+      <c r="B14" s="372"/>
+      <c r="C14" s="373"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="432"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="432"/>
-      <c r="J14" s="432"/>
-      <c r="K14" s="432"/>
-      <c r="L14" s="432"/>
-      <c r="M14" s="432"/>
-      <c r="N14" s="432"/>
-      <c r="O14" s="432"/>
-      <c r="P14" s="432"/>
-      <c r="Q14" s="432"/>
-      <c r="R14" s="432"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="372"/>
+      <c r="H14" s="372"/>
+      <c r="I14" s="372"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="372"/>
+      <c r="M14" s="372"/>
+      <c r="N14" s="372"/>
+      <c r="O14" s="372"/>
+      <c r="P14" s="372"/>
+      <c r="Q14" s="372"/>
+      <c r="R14" s="372"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -5237,47 +5420,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
-      <c r="A15" s="436" t="s">
+      <c r="A15" s="376" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="396"/>
-      <c r="Q15" s="437"/>
-      <c r="R15" s="395" t="s">
+      <c r="B15" s="377"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="377"/>
+      <c r="E15" s="377"/>
+      <c r="F15" s="377"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="377"/>
+      <c r="I15" s="377"/>
+      <c r="J15" s="377"/>
+      <c r="K15" s="377"/>
+      <c r="L15" s="377"/>
+      <c r="M15" s="377"/>
+      <c r="N15" s="377"/>
+      <c r="O15" s="377"/>
+      <c r="P15" s="377"/>
+      <c r="Q15" s="378"/>
+      <c r="R15" s="379" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="438"/>
-      <c r="T15" s="438"/>
-      <c r="U15" s="438"/>
-      <c r="V15" s="439"/>
-      <c r="W15" s="395" t="s">
+      <c r="S15" s="380"/>
+      <c r="T15" s="380"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="381"/>
+      <c r="W15" s="379" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="396"/>
-      <c r="Y15" s="396"/>
-      <c r="Z15" s="396"/>
-      <c r="AA15" s="437"/>
-      <c r="AB15" s="395" t="s">
+      <c r="X15" s="377"/>
+      <c r="Y15" s="377"/>
+      <c r="Z15" s="377"/>
+      <c r="AA15" s="378"/>
+      <c r="AB15" s="379" t="s">
         <v>59</v>
       </c>
-      <c r="AC15" s="396"/>
-      <c r="AD15" s="396"/>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="396"/>
-      <c r="AG15" s="397"/>
+      <c r="AC15" s="377"/>
+      <c r="AD15" s="377"/>
+      <c r="AE15" s="377"/>
+      <c r="AF15" s="377"/>
+      <c r="AG15" s="382"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
@@ -5318,23 +5501,23 @@
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="279" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
+      <c r="C17" s="279"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -5346,34 +5529,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="414" t="str">
+      <c r="AB17" s="399" t="str">
         <f>ORS!L15</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="415"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
+      <c r="AC17" s="400"/>
+      <c r="AD17" s="400"/>
+      <c r="AE17" s="400"/>
+      <c r="AF17" s="400"/>
+      <c r="AG17" s="401"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A18" s="111"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="279"/>
+      <c r="L18" s="279"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="279"/>
+      <c r="O18" s="279"/>
+      <c r="P18" s="279"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -5395,21 +5578,21 @@
     </row>
     <row r="19" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A19" s="111"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
+      <c r="B19" s="279"/>
+      <c r="C19" s="279"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5768,25 +5951,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
-      <c r="A29" s="417" t="s">
+      <c r="A29" s="402" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="418"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="418"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="418"/>
-      <c r="L29" s="418"/>
-      <c r="M29" s="418"/>
-      <c r="N29" s="418"/>
-      <c r="O29" s="418"/>
-      <c r="P29" s="418"/>
-      <c r="Q29" s="419"/>
+      <c r="B29" s="403"/>
+      <c r="C29" s="403"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="403"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="403"/>
+      <c r="J29" s="403"/>
+      <c r="K29" s="403"/>
+      <c r="L29" s="403"/>
+      <c r="M29" s="403"/>
+      <c r="N29" s="403"/>
+      <c r="O29" s="403"/>
+      <c r="P29" s="403"/>
+      <c r="Q29" s="404"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5797,15 +5980,15 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="420" t="str">
+      <c r="AB29" s="405" t="str">
         <f>AB17</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="421"/>
-      <c r="AD29" s="421"/>
-      <c r="AE29" s="421"/>
-      <c r="AF29" s="421"/>
-      <c r="AG29" s="422"/>
+      <c r="AC29" s="406"/>
+      <c r="AD29" s="406"/>
+      <c r="AE29" s="406"/>
+      <c r="AF29" s="406"/>
+      <c r="AG29" s="407"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
@@ -5813,40 +5996,40 @@
       <c r="A30" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="423" t="s">
+      <c r="B30" s="408" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="423"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="423"/>
-      <c r="N30" s="423"/>
-      <c r="O30" s="423"/>
-      <c r="P30" s="423"/>
-      <c r="Q30" s="423"/>
-      <c r="R30" s="423"/>
-      <c r="S30" s="423"/>
-      <c r="T30" s="423"/>
-      <c r="U30" s="423"/>
-      <c r="V30" s="423"/>
-      <c r="W30" s="423"/>
-      <c r="X30" s="423"/>
-      <c r="Y30" s="423"/>
-      <c r="Z30" s="423"/>
-      <c r="AA30" s="423"/>
-      <c r="AB30" s="424"/>
-      <c r="AC30" s="424"/>
-      <c r="AD30" s="424"/>
-      <c r="AE30" s="424"/>
-      <c r="AF30" s="424"/>
-      <c r="AG30" s="425"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
+      <c r="F30" s="408"/>
+      <c r="G30" s="408"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="408"/>
+      <c r="L30" s="408"/>
+      <c r="M30" s="408"/>
+      <c r="N30" s="408"/>
+      <c r="O30" s="408"/>
+      <c r="P30" s="408"/>
+      <c r="Q30" s="408"/>
+      <c r="R30" s="408"/>
+      <c r="S30" s="408"/>
+      <c r="T30" s="408"/>
+      <c r="U30" s="408"/>
+      <c r="V30" s="408"/>
+      <c r="W30" s="408"/>
+      <c r="X30" s="408"/>
+      <c r="Y30" s="408"/>
+      <c r="Z30" s="408"/>
+      <c r="AA30" s="408"/>
+      <c r="AB30" s="409"/>
+      <c r="AC30" s="409"/>
+      <c r="AD30" s="409"/>
+      <c r="AE30" s="409"/>
+      <c r="AF30" s="409"/>
+      <c r="AG30" s="410"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5891,80 +6074,80 @@
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A32" s="121"/>
-      <c r="B32" s="426" t="str">
+      <c r="B32" s="411" t="str">
         <f>ORS!C37</f>
         <v>0</v>
       </c>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="415"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="415"/>
-      <c r="L32" s="415"/>
-      <c r="M32" s="415"/>
-      <c r="N32" s="415"/>
-      <c r="O32" s="415"/>
-      <c r="P32" s="415"/>
-      <c r="Q32" s="415"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="415"/>
-      <c r="AF32" s="415"/>
+      <c r="C32" s="400"/>
+      <c r="D32" s="400"/>
+      <c r="E32" s="400"/>
+      <c r="F32" s="400"/>
+      <c r="G32" s="400"/>
+      <c r="H32" s="400"/>
+      <c r="I32" s="400"/>
+      <c r="J32" s="400"/>
+      <c r="K32" s="400"/>
+      <c r="L32" s="400"/>
+      <c r="M32" s="400"/>
+      <c r="N32" s="400"/>
+      <c r="O32" s="400"/>
+      <c r="P32" s="400"/>
+      <c r="Q32" s="400"/>
+      <c r="R32" s="400"/>
+      <c r="S32" s="400"/>
+      <c r="T32" s="400"/>
+      <c r="U32" s="400"/>
+      <c r="V32" s="400"/>
+      <c r="W32" s="400"/>
+      <c r="X32" s="400"/>
+      <c r="Y32" s="400"/>
+      <c r="Z32" s="400"/>
+      <c r="AA32" s="400"/>
+      <c r="AB32" s="400"/>
+      <c r="AC32" s="400"/>
+      <c r="AD32" s="400"/>
+      <c r="AE32" s="400"/>
+      <c r="AF32" s="400"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A33" s="121"/>
-      <c r="B33" s="427" t="str">
+      <c r="B33" s="367" t="str">
         <f>ORS!C39</f>
         <v>0</v>
       </c>
-      <c r="C33" s="427"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="427"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="427"/>
-      <c r="L33" s="427"/>
-      <c r="M33" s="427"/>
-      <c r="N33" s="427"/>
-      <c r="O33" s="427"/>
-      <c r="P33" s="427"/>
-      <c r="Q33" s="427"/>
-      <c r="R33" s="427"/>
-      <c r="S33" s="427"/>
-      <c r="T33" s="427"/>
-      <c r="U33" s="427"/>
-      <c r="V33" s="427"/>
-      <c r="W33" s="427"/>
-      <c r="X33" s="427"/>
-      <c r="Y33" s="427"/>
-      <c r="Z33" s="427"/>
-      <c r="AA33" s="427"/>
-      <c r="AB33" s="427"/>
-      <c r="AC33" s="427"/>
-      <c r="AD33" s="427"/>
-      <c r="AE33" s="427"/>
-      <c r="AF33" s="427"/>
+      <c r="C33" s="367"/>
+      <c r="D33" s="367"/>
+      <c r="E33" s="367"/>
+      <c r="F33" s="367"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="367"/>
+      <c r="I33" s="367"/>
+      <c r="J33" s="367"/>
+      <c r="K33" s="367"/>
+      <c r="L33" s="367"/>
+      <c r="M33" s="367"/>
+      <c r="N33" s="367"/>
+      <c r="O33" s="367"/>
+      <c r="P33" s="367"/>
+      <c r="Q33" s="367"/>
+      <c r="R33" s="367"/>
+      <c r="S33" s="367"/>
+      <c r="T33" s="367"/>
+      <c r="U33" s="367"/>
+      <c r="V33" s="367"/>
+      <c r="W33" s="367"/>
+      <c r="X33" s="367"/>
+      <c r="Y33" s="367"/>
+      <c r="Z33" s="367"/>
+      <c r="AA33" s="367"/>
+      <c r="AB33" s="367"/>
+      <c r="AC33" s="367"/>
+      <c r="AD33" s="367"/>
+      <c r="AE33" s="367"/>
+      <c r="AF33" s="367"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5981,19 +6164,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="427"/>
-      <c r="M34" s="427"/>
-      <c r="N34" s="427"/>
-      <c r="O34" s="427"/>
-      <c r="P34" s="427"/>
-      <c r="Q34" s="427"/>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
-      <c r="X34" s="427"/>
+      <c r="L34" s="367"/>
+      <c r="M34" s="367"/>
+      <c r="N34" s="367"/>
+      <c r="O34" s="367"/>
+      <c r="P34" s="367"/>
+      <c r="Q34" s="367"/>
+      <c r="R34" s="367"/>
+      <c r="S34" s="367"/>
+      <c r="T34" s="367"/>
+      <c r="U34" s="367"/>
+      <c r="V34" s="367"/>
+      <c r="W34" s="367"/>
+      <c r="X34" s="367"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -6018,19 +6201,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
-      <c r="P35" s="427"/>
-      <c r="Q35" s="427"/>
-      <c r="R35" s="427"/>
-      <c r="S35" s="427"/>
-      <c r="T35" s="427"/>
-      <c r="U35" s="427"/>
-      <c r="V35" s="427"/>
-      <c r="W35" s="427"/>
-      <c r="X35" s="427"/>
+      <c r="L35" s="367"/>
+      <c r="M35" s="367"/>
+      <c r="N35" s="367"/>
+      <c r="O35" s="367"/>
+      <c r="P35" s="367"/>
+      <c r="Q35" s="367"/>
+      <c r="R35" s="367"/>
+      <c r="S35" s="367"/>
+      <c r="T35" s="367"/>
+      <c r="U35" s="367"/>
+      <c r="V35" s="367"/>
+      <c r="W35" s="367"/>
+      <c r="X35" s="367"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -6085,47 +6268,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A37" s="409" t="s">
+      <c r="A37" s="394" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="410"/>
-      <c r="C37" s="410"/>
-      <c r="D37" s="410"/>
-      <c r="E37" s="410"/>
-      <c r="F37" s="410"/>
-      <c r="G37" s="410"/>
-      <c r="H37" s="410"/>
-      <c r="I37" s="410"/>
-      <c r="J37" s="410"/>
-      <c r="K37" s="410"/>
-      <c r="L37" s="410"/>
-      <c r="M37" s="410"/>
-      <c r="N37" s="410"/>
-      <c r="O37" s="410"/>
-      <c r="P37" s="410"/>
-      <c r="Q37" s="410"/>
-      <c r="R37" s="410"/>
-      <c r="S37" s="410" t="s">
+      <c r="B37" s="395"/>
+      <c r="C37" s="395"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="395"/>
+      <c r="F37" s="395"/>
+      <c r="G37" s="395"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="395"/>
+      <c r="J37" s="395"/>
+      <c r="K37" s="395"/>
+      <c r="L37" s="395"/>
+      <c r="M37" s="395"/>
+      <c r="N37" s="395"/>
+      <c r="O37" s="395"/>
+      <c r="P37" s="395"/>
+      <c r="Q37" s="395"/>
+      <c r="R37" s="395"/>
+      <c r="S37" s="395" t="s">
         <v>125</v>
       </c>
-      <c r="T37" s="410"/>
-      <c r="U37" s="410"/>
-      <c r="V37" s="410"/>
-      <c r="W37" s="410"/>
-      <c r="X37" s="411" t="s">
+      <c r="T37" s="395"/>
+      <c r="U37" s="395"/>
+      <c r="V37" s="395"/>
+      <c r="W37" s="395"/>
+      <c r="X37" s="396" t="s">
         <v>126</v>
       </c>
-      <c r="Y37" s="411"/>
-      <c r="Z37" s="411"/>
-      <c r="AA37" s="411"/>
-      <c r="AB37" s="411"/>
-      <c r="AC37" s="412" t="s">
+      <c r="Y37" s="396"/>
+      <c r="Z37" s="396"/>
+      <c r="AA37" s="396"/>
+      <c r="AB37" s="396"/>
+      <c r="AC37" s="397" t="s">
         <v>127</v>
       </c>
-      <c r="AD37" s="412"/>
-      <c r="AE37" s="412"/>
-      <c r="AF37" s="412"/>
-      <c r="AG37" s="413"/>
+      <c r="AD37" s="397"/>
+      <c r="AE37" s="397"/>
+      <c r="AF37" s="397"/>
+      <c r="AG37" s="398"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -6266,19 +6449,19 @@
       <c r="S41" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="T41" s="398" t="s">
+      <c r="T41" s="383" t="s">
         <v>130</v>
       </c>
-      <c r="U41" s="398"/>
-      <c r="V41" s="398"/>
-      <c r="W41" s="398"/>
-      <c r="X41" s="398"/>
-      <c r="Y41" s="398"/>
-      <c r="Z41" s="398"/>
-      <c r="AA41" s="398"/>
-      <c r="AB41" s="398"/>
-      <c r="AC41" s="398"/>
-      <c r="AD41" s="398"/>
+      <c r="U41" s="383"/>
+      <c r="V41" s="383"/>
+      <c r="W41" s="383"/>
+      <c r="X41" s="383"/>
+      <c r="Y41" s="383"/>
+      <c r="Z41" s="383"/>
+      <c r="AA41" s="383"/>
+      <c r="AB41" s="383"/>
+      <c r="AC41" s="383"/>
+      <c r="AD41" s="383"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -6305,31 +6488,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="399"/>
-      <c r="T42" s="400"/>
-      <c r="U42" s="400"/>
-      <c r="V42" s="400"/>
-      <c r="W42" s="400"/>
-      <c r="X42" s="400"/>
-      <c r="Y42" s="400"/>
-      <c r="Z42" s="400"/>
-      <c r="AA42" s="400"/>
-      <c r="AB42" s="400"/>
-      <c r="AC42" s="400"/>
-      <c r="AD42" s="400"/>
-      <c r="AE42" s="400"/>
-      <c r="AF42" s="400"/>
-      <c r="AG42" s="401"/>
+      <c r="S42" s="384"/>
+      <c r="T42" s="385"/>
+      <c r="U42" s="385"/>
+      <c r="V42" s="385"/>
+      <c r="W42" s="385"/>
+      <c r="X42" s="385"/>
+      <c r="Y42" s="385"/>
+      <c r="Z42" s="385"/>
+      <c r="AA42" s="385"/>
+      <c r="AB42" s="385"/>
+      <c r="AC42" s="385"/>
+      <c r="AD42" s="385"/>
+      <c r="AE42" s="385"/>
+      <c r="AF42" s="385"/>
+      <c r="AG42" s="386"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="4.5" s="2" customFormat="1">
-      <c r="A43" s="408"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
+      <c r="A43" s="393"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="344"/>
+      <c r="G43" s="344"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -6341,21 +6524,21 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="403"/>
-      <c r="U43" s="403"/>
-      <c r="V43" s="403"/>
-      <c r="W43" s="403"/>
-      <c r="X43" s="403"/>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="403"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
-      <c r="AC43" s="403"/>
-      <c r="AD43" s="403"/>
-      <c r="AE43" s="403"/>
-      <c r="AF43" s="403"/>
-      <c r="AG43" s="404"/>
+      <c r="S43" s="387"/>
+      <c r="T43" s="388"/>
+      <c r="U43" s="388"/>
+      <c r="V43" s="388"/>
+      <c r="W43" s="388"/>
+      <c r="X43" s="388"/>
+      <c r="Y43" s="388"/>
+      <c r="Z43" s="388"/>
+      <c r="AA43" s="388"/>
+      <c r="AB43" s="388"/>
+      <c r="AC43" s="388"/>
+      <c r="AD43" s="388"/>
+      <c r="AE43" s="388"/>
+      <c r="AF43" s="388"/>
+      <c r="AG43" s="389"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
@@ -6379,57 +6562,57 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="403"/>
-      <c r="U44" s="403"/>
-      <c r="V44" s="403"/>
-      <c r="W44" s="403"/>
-      <c r="X44" s="403"/>
-      <c r="Y44" s="403"/>
-      <c r="Z44" s="403"/>
-      <c r="AA44" s="403"/>
-      <c r="AB44" s="403"/>
-      <c r="AC44" s="403"/>
-      <c r="AD44" s="403"/>
-      <c r="AE44" s="403"/>
-      <c r="AF44" s="403"/>
-      <c r="AG44" s="404"/>
+      <c r="S44" s="387"/>
+      <c r="T44" s="388"/>
+      <c r="U44" s="388"/>
+      <c r="V44" s="388"/>
+      <c r="W44" s="388"/>
+      <c r="X44" s="388"/>
+      <c r="Y44" s="388"/>
+      <c r="Z44" s="388"/>
+      <c r="AA44" s="388"/>
+      <c r="AB44" s="388"/>
+      <c r="AC44" s="388"/>
+      <c r="AD44" s="388"/>
+      <c r="AE44" s="388"/>
+      <c r="AF44" s="388"/>
+      <c r="AG44" s="389"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:38" customHeight="1" ht="7.5" s="2" customFormat="1">
-      <c r="A45" s="408"/>
-      <c r="B45" s="340"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="340"/>
-      <c r="K45" s="340"/>
-      <c r="L45" s="340"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="340"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="340"/>
-      <c r="Q45" s="340"/>
-      <c r="R45" s="341"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="403"/>
-      <c r="U45" s="403"/>
-      <c r="V45" s="403"/>
-      <c r="W45" s="403"/>
-      <c r="X45" s="403"/>
-      <c r="Y45" s="403"/>
-      <c r="Z45" s="403"/>
-      <c r="AA45" s="403"/>
-      <c r="AB45" s="403"/>
-      <c r="AC45" s="403"/>
-      <c r="AD45" s="403"/>
-      <c r="AE45" s="403"/>
-      <c r="AF45" s="403"/>
-      <c r="AG45" s="404"/>
+      <c r="A45" s="393"/>
+      <c r="B45" s="344"/>
+      <c r="C45" s="344"/>
+      <c r="D45" s="344"/>
+      <c r="E45" s="344"/>
+      <c r="F45" s="344"/>
+      <c r="G45" s="344"/>
+      <c r="H45" s="344"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="344"/>
+      <c r="K45" s="344"/>
+      <c r="L45" s="344"/>
+      <c r="M45" s="344"/>
+      <c r="N45" s="344"/>
+      <c r="O45" s="344"/>
+      <c r="P45" s="344"/>
+      <c r="Q45" s="344"/>
+      <c r="R45" s="345"/>
+      <c r="S45" s="387"/>
+      <c r="T45" s="388"/>
+      <c r="U45" s="388"/>
+      <c r="V45" s="388"/>
+      <c r="W45" s="388"/>
+      <c r="X45" s="388"/>
+      <c r="Y45" s="388"/>
+      <c r="Z45" s="388"/>
+      <c r="AA45" s="388"/>
+      <c r="AB45" s="388"/>
+      <c r="AC45" s="388"/>
+      <c r="AD45" s="388"/>
+      <c r="AE45" s="388"/>
+      <c r="AF45" s="388"/>
+      <c r="AG45" s="389"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
@@ -6455,21 +6638,21 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="403"/>
-      <c r="U46" s="403"/>
-      <c r="V46" s="403"/>
-      <c r="W46" s="403"/>
-      <c r="X46" s="403"/>
-      <c r="Y46" s="403"/>
-      <c r="Z46" s="403"/>
-      <c r="AA46" s="403"/>
-      <c r="AB46" s="403"/>
-      <c r="AC46" s="403"/>
-      <c r="AD46" s="403"/>
-      <c r="AE46" s="403"/>
-      <c r="AF46" s="403"/>
-      <c r="AG46" s="404"/>
+      <c r="S46" s="387"/>
+      <c r="T46" s="388"/>
+      <c r="U46" s="388"/>
+      <c r="V46" s="388"/>
+      <c r="W46" s="388"/>
+      <c r="X46" s="388"/>
+      <c r="Y46" s="388"/>
+      <c r="Z46" s="388"/>
+      <c r="AA46" s="388"/>
+      <c r="AB46" s="388"/>
+      <c r="AC46" s="388"/>
+      <c r="AD46" s="388"/>
+      <c r="AE46" s="388"/>
+      <c r="AF46" s="388"/>
+      <c r="AG46" s="389"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:38" customHeight="1" ht="11.25" s="2" customFormat="1">
@@ -6493,21 +6676,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="403"/>
-      <c r="U47" s="403"/>
-      <c r="V47" s="403"/>
-      <c r="W47" s="403"/>
-      <c r="X47" s="403"/>
-      <c r="Y47" s="403"/>
-      <c r="Z47" s="403"/>
-      <c r="AA47" s="403"/>
-      <c r="AB47" s="403"/>
-      <c r="AC47" s="403"/>
-      <c r="AD47" s="403"/>
-      <c r="AE47" s="403"/>
-      <c r="AF47" s="403"/>
-      <c r="AG47" s="404"/>
+      <c r="S47" s="387"/>
+      <c r="T47" s="388"/>
+      <c r="U47" s="388"/>
+      <c r="V47" s="388"/>
+      <c r="W47" s="388"/>
+      <c r="X47" s="388"/>
+      <c r="Y47" s="388"/>
+      <c r="Z47" s="388"/>
+      <c r="AA47" s="388"/>
+      <c r="AB47" s="388"/>
+      <c r="AC47" s="388"/>
+      <c r="AD47" s="388"/>
+      <c r="AE47" s="388"/>
+      <c r="AF47" s="388"/>
+      <c r="AG47" s="389"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:38" customHeight="1" ht="6" s="2" customFormat="1">
@@ -6529,336 +6712,336 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="406"/>
-      <c r="U48" s="406"/>
-      <c r="V48" s="406"/>
-      <c r="W48" s="406"/>
-      <c r="X48" s="406"/>
-      <c r="Y48" s="406"/>
-      <c r="Z48" s="406"/>
-      <c r="AA48" s="406"/>
-      <c r="AB48" s="406"/>
-      <c r="AC48" s="406"/>
-      <c r="AD48" s="406"/>
-      <c r="AE48" s="406"/>
-      <c r="AF48" s="406"/>
-      <c r="AG48" s="407"/>
+      <c r="S48" s="390"/>
+      <c r="T48" s="391"/>
+      <c r="U48" s="391"/>
+      <c r="V48" s="391"/>
+      <c r="W48" s="391"/>
+      <c r="X48" s="391"/>
+      <c r="Y48" s="391"/>
+      <c r="Z48" s="391"/>
+      <c r="AA48" s="391"/>
+      <c r="AB48" s="391"/>
+      <c r="AC48" s="391"/>
+      <c r="AD48" s="391"/>
+      <c r="AE48" s="391"/>
+      <c r="AF48" s="391"/>
+      <c r="AG48" s="392"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A49" s="349" t="s">
+      <c r="A49" s="412" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="375"/>
-      <c r="C49" s="375"/>
-      <c r="D49" s="375"/>
-      <c r="E49" s="353"/>
-      <c r="F49" s="340"/>
-      <c r="G49" s="340"/>
-      <c r="H49" s="340"/>
-      <c r="I49" s="340"/>
-      <c r="J49" s="340"/>
-      <c r="K49" s="340"/>
-      <c r="L49" s="340"/>
-      <c r="M49" s="340"/>
-      <c r="N49" s="340"/>
-      <c r="O49" s="340"/>
-      <c r="P49" s="340"/>
-      <c r="Q49" s="340"/>
-      <c r="R49" s="341"/>
-      <c r="S49" s="349" t="s">
+      <c r="B49" s="413"/>
+      <c r="C49" s="413"/>
+      <c r="D49" s="413"/>
+      <c r="E49" s="416"/>
+      <c r="F49" s="344"/>
+      <c r="G49" s="344"/>
+      <c r="H49" s="344"/>
+      <c r="I49" s="344"/>
+      <c r="J49" s="344"/>
+      <c r="K49" s="344"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="344"/>
+      <c r="N49" s="344"/>
+      <c r="O49" s="344"/>
+      <c r="P49" s="344"/>
+      <c r="Q49" s="344"/>
+      <c r="R49" s="345"/>
+      <c r="S49" s="412" t="s">
         <v>135</v>
       </c>
-      <c r="T49" s="350"/>
-      <c r="U49" s="350"/>
-      <c r="V49" s="379"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="359"/>
-      <c r="Y49" s="359"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="359"/>
-      <c r="AB49" s="359"/>
-      <c r="AC49" s="359"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="359"/>
-      <c r="AG49" s="363"/>
+      <c r="T49" s="420"/>
+      <c r="U49" s="420"/>
+      <c r="V49" s="421"/>
+      <c r="W49" s="425"/>
+      <c r="X49" s="426"/>
+      <c r="Y49" s="426"/>
+      <c r="Z49" s="426"/>
+      <c r="AA49" s="426"/>
+      <c r="AB49" s="426"/>
+      <c r="AC49" s="426"/>
+      <c r="AD49" s="426"/>
+      <c r="AE49" s="426"/>
+      <c r="AF49" s="426"/>
+      <c r="AG49" s="427"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A50" s="376"/>
-      <c r="B50" s="377"/>
-      <c r="C50" s="377"/>
-      <c r="D50" s="377"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="329"/>
-      <c r="G50" s="329"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="329"/>
-      <c r="L50" s="329"/>
-      <c r="M50" s="329"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
-      <c r="P50" s="329"/>
-      <c r="Q50" s="329"/>
-      <c r="R50" s="378"/>
-      <c r="S50" s="351"/>
-      <c r="T50" s="352"/>
-      <c r="U50" s="352"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="364"/>
-      <c r="X50" s="352"/>
-      <c r="Y50" s="352"/>
-      <c r="Z50" s="352"/>
-      <c r="AA50" s="352"/>
-      <c r="AB50" s="352"/>
-      <c r="AC50" s="352"/>
-      <c r="AD50" s="352"/>
-      <c r="AE50" s="352"/>
-      <c r="AF50" s="352"/>
-      <c r="AG50" s="365"/>
+      <c r="A50" s="414"/>
+      <c r="B50" s="415"/>
+      <c r="C50" s="415"/>
+      <c r="D50" s="415"/>
+      <c r="E50" s="417"/>
+      <c r="F50" s="418"/>
+      <c r="G50" s="418"/>
+      <c r="H50" s="418"/>
+      <c r="I50" s="418"/>
+      <c r="J50" s="418"/>
+      <c r="K50" s="418"/>
+      <c r="L50" s="418"/>
+      <c r="M50" s="418"/>
+      <c r="N50" s="418"/>
+      <c r="O50" s="418"/>
+      <c r="P50" s="418"/>
+      <c r="Q50" s="418"/>
+      <c r="R50" s="419"/>
+      <c r="S50" s="422"/>
+      <c r="T50" s="423"/>
+      <c r="U50" s="423"/>
+      <c r="V50" s="424"/>
+      <c r="W50" s="428"/>
+      <c r="X50" s="423"/>
+      <c r="Y50" s="423"/>
+      <c r="Z50" s="423"/>
+      <c r="AA50" s="423"/>
+      <c r="AB50" s="423"/>
+      <c r="AC50" s="423"/>
+      <c r="AD50" s="423"/>
+      <c r="AE50" s="423"/>
+      <c r="AF50" s="423"/>
+      <c r="AG50" s="429"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A51" s="325" t="s">
+      <c r="A51" s="430" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="380"/>
-      <c r="C51" s="380"/>
-      <c r="D51" s="381"/>
-      <c r="E51" s="383" t="s">
+      <c r="B51" s="431"/>
+      <c r="C51" s="431"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="434" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="I51" s="384"/>
-      <c r="J51" s="384"/>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
-      <c r="N51" s="384"/>
-      <c r="O51" s="384"/>
-      <c r="P51" s="384"/>
-      <c r="Q51" s="384"/>
-      <c r="R51" s="385"/>
-      <c r="S51" s="325" t="s">
+      <c r="F51" s="435"/>
+      <c r="G51" s="435"/>
+      <c r="H51" s="435"/>
+      <c r="I51" s="435"/>
+      <c r="J51" s="435"/>
+      <c r="K51" s="435"/>
+      <c r="L51" s="435"/>
+      <c r="M51" s="435"/>
+      <c r="N51" s="435"/>
+      <c r="O51" s="435"/>
+      <c r="P51" s="435"/>
+      <c r="Q51" s="435"/>
+      <c r="R51" s="436"/>
+      <c r="S51" s="430" t="s">
         <v>136</v>
       </c>
-      <c r="T51" s="359"/>
-      <c r="U51" s="359"/>
-      <c r="V51" s="360"/>
-      <c r="W51" s="389" t="s">
+      <c r="T51" s="426"/>
+      <c r="U51" s="426"/>
+      <c r="V51" s="440"/>
+      <c r="W51" s="441" t="s">
         <v>41</v>
       </c>
-      <c r="X51" s="390"/>
-      <c r="Y51" s="390"/>
-      <c r="Z51" s="390"/>
-      <c r="AA51" s="390"/>
-      <c r="AB51" s="390"/>
-      <c r="AC51" s="390"/>
-      <c r="AD51" s="390"/>
-      <c r="AE51" s="390"/>
-      <c r="AF51" s="390"/>
-      <c r="AG51" s="391"/>
+      <c r="X51" s="442"/>
+      <c r="Y51" s="442"/>
+      <c r="Z51" s="442"/>
+      <c r="AA51" s="442"/>
+      <c r="AB51" s="442"/>
+      <c r="AC51" s="442"/>
+      <c r="AD51" s="442"/>
+      <c r="AE51" s="442"/>
+      <c r="AF51" s="442"/>
+      <c r="AG51" s="443"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A52" s="376"/>
-      <c r="B52" s="377"/>
-      <c r="C52" s="377"/>
-      <c r="D52" s="382"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="387"/>
-      <c r="G52" s="387"/>
-      <c r="H52" s="387"/>
-      <c r="I52" s="387"/>
-      <c r="J52" s="387"/>
-      <c r="K52" s="387"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="387"/>
-      <c r="N52" s="387"/>
-      <c r="O52" s="387"/>
-      <c r="P52" s="387"/>
-      <c r="Q52" s="387"/>
-      <c r="R52" s="388"/>
-      <c r="S52" s="351"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="392"/>
-      <c r="X52" s="393"/>
-      <c r="Y52" s="393"/>
-      <c r="Z52" s="393"/>
-      <c r="AA52" s="393"/>
-      <c r="AB52" s="393"/>
-      <c r="AC52" s="393"/>
-      <c r="AD52" s="393"/>
-      <c r="AE52" s="393"/>
-      <c r="AF52" s="393"/>
-      <c r="AG52" s="394"/>
+      <c r="A52" s="414"/>
+      <c r="B52" s="415"/>
+      <c r="C52" s="415"/>
+      <c r="D52" s="433"/>
+      <c r="E52" s="437"/>
+      <c r="F52" s="438"/>
+      <c r="G52" s="438"/>
+      <c r="H52" s="438"/>
+      <c r="I52" s="438"/>
+      <c r="J52" s="438"/>
+      <c r="K52" s="438"/>
+      <c r="L52" s="438"/>
+      <c r="M52" s="438"/>
+      <c r="N52" s="438"/>
+      <c r="O52" s="438"/>
+      <c r="P52" s="438"/>
+      <c r="Q52" s="438"/>
+      <c r="R52" s="439"/>
+      <c r="S52" s="422"/>
+      <c r="T52" s="423"/>
+      <c r="U52" s="423"/>
+      <c r="V52" s="424"/>
+      <c r="W52" s="444"/>
+      <c r="X52" s="445"/>
+      <c r="Y52" s="445"/>
+      <c r="Z52" s="445"/>
+      <c r="AA52" s="445"/>
+      <c r="AB52" s="445"/>
+      <c r="AC52" s="445"/>
+      <c r="AD52" s="445"/>
+      <c r="AE52" s="445"/>
+      <c r="AF52" s="445"/>
+      <c r="AG52" s="446"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
-      <c r="A53" s="325" t="s">
+      <c r="A53" s="430" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="359"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="362" t="s">
+      <c r="B53" s="426"/>
+      <c r="C53" s="426"/>
+      <c r="D53" s="440"/>
+      <c r="E53" s="425" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="359"/>
-      <c r="K53" s="359"/>
-      <c r="L53" s="359"/>
-      <c r="M53" s="359"/>
-      <c r="N53" s="359"/>
-      <c r="O53" s="359"/>
-      <c r="P53" s="359"/>
-      <c r="Q53" s="359"/>
-      <c r="R53" s="363"/>
-      <c r="S53" s="325" t="s">
+      <c r="F53" s="426"/>
+      <c r="G53" s="426"/>
+      <c r="H53" s="426"/>
+      <c r="I53" s="426"/>
+      <c r="J53" s="426"/>
+      <c r="K53" s="426"/>
+      <c r="L53" s="426"/>
+      <c r="M53" s="426"/>
+      <c r="N53" s="426"/>
+      <c r="O53" s="426"/>
+      <c r="P53" s="426"/>
+      <c r="Q53" s="426"/>
+      <c r="R53" s="427"/>
+      <c r="S53" s="430" t="s">
         <v>138</v>
       </c>
-      <c r="T53" s="359"/>
-      <c r="U53" s="359"/>
-      <c r="V53" s="360"/>
-      <c r="W53" s="362" t="s">
+      <c r="T53" s="426"/>
+      <c r="U53" s="426"/>
+      <c r="V53" s="440"/>
+      <c r="W53" s="425" t="s">
         <v>140</v>
       </c>
-      <c r="X53" s="359"/>
-      <c r="Y53" s="359"/>
-      <c r="Z53" s="359"/>
-      <c r="AA53" s="359"/>
-      <c r="AB53" s="359"/>
-      <c r="AC53" s="359"/>
-      <c r="AD53" s="359"/>
-      <c r="AE53" s="359"/>
-      <c r="AF53" s="359"/>
-      <c r="AG53" s="363"/>
+      <c r="X53" s="426"/>
+      <c r="Y53" s="426"/>
+      <c r="Z53" s="426"/>
+      <c r="AA53" s="426"/>
+      <c r="AB53" s="426"/>
+      <c r="AC53" s="426"/>
+      <c r="AD53" s="426"/>
+      <c r="AE53" s="426"/>
+      <c r="AF53" s="426"/>
+      <c r="AG53" s="427"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A54" s="351"/>
-      <c r="B54" s="352"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="361"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="352"/>
-      <c r="H54" s="352"/>
-      <c r="I54" s="352"/>
-      <c r="J54" s="352"/>
-      <c r="K54" s="352"/>
-      <c r="L54" s="352"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="352"/>
-      <c r="O54" s="352"/>
-      <c r="P54" s="352"/>
-      <c r="Q54" s="352"/>
-      <c r="R54" s="365"/>
-      <c r="S54" s="351"/>
-      <c r="T54" s="352"/>
-      <c r="U54" s="352"/>
-      <c r="V54" s="361"/>
-      <c r="W54" s="364"/>
-      <c r="X54" s="352"/>
-      <c r="Y54" s="352"/>
-      <c r="Z54" s="352"/>
-      <c r="AA54" s="352"/>
-      <c r="AB54" s="352"/>
-      <c r="AC54" s="352"/>
-      <c r="AD54" s="352"/>
-      <c r="AE54" s="352"/>
-      <c r="AF54" s="352"/>
-      <c r="AG54" s="365"/>
+      <c r="A54" s="422"/>
+      <c r="B54" s="423"/>
+      <c r="C54" s="423"/>
+      <c r="D54" s="424"/>
+      <c r="E54" s="428"/>
+      <c r="F54" s="423"/>
+      <c r="G54" s="423"/>
+      <c r="H54" s="423"/>
+      <c r="I54" s="423"/>
+      <c r="J54" s="423"/>
+      <c r="K54" s="423"/>
+      <c r="L54" s="423"/>
+      <c r="M54" s="423"/>
+      <c r="N54" s="423"/>
+      <c r="O54" s="423"/>
+      <c r="P54" s="423"/>
+      <c r="Q54" s="423"/>
+      <c r="R54" s="429"/>
+      <c r="S54" s="422"/>
+      <c r="T54" s="423"/>
+      <c r="U54" s="423"/>
+      <c r="V54" s="424"/>
+      <c r="W54" s="428"/>
+      <c r="X54" s="423"/>
+      <c r="Y54" s="423"/>
+      <c r="Z54" s="423"/>
+      <c r="AA54" s="423"/>
+      <c r="AB54" s="423"/>
+      <c r="AC54" s="423"/>
+      <c r="AD54" s="423"/>
+      <c r="AE54" s="423"/>
+      <c r="AF54" s="423"/>
+      <c r="AG54" s="429"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
-      <c r="A55" s="325" t="s">
+      <c r="A55" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="359"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="360"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="341"/>
-      <c r="S55" s="325" t="s">
+      <c r="B55" s="426"/>
+      <c r="C55" s="426"/>
+      <c r="D55" s="440"/>
+      <c r="E55" s="416"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="344"/>
+      <c r="J55" s="344"/>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="344"/>
+      <c r="N55" s="344"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="344"/>
+      <c r="R55" s="345"/>
+      <c r="S55" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="359"/>
-      <c r="U55" s="359"/>
-      <c r="V55" s="360"/>
-      <c r="W55" s="362"/>
-      <c r="X55" s="359"/>
-      <c r="Y55" s="359"/>
-      <c r="Z55" s="359"/>
-      <c r="AA55" s="359"/>
-      <c r="AB55" s="359"/>
-      <c r="AC55" s="359"/>
-      <c r="AD55" s="359"/>
-      <c r="AE55" s="359"/>
-      <c r="AF55" s="359"/>
-      <c r="AG55" s="363"/>
+      <c r="T55" s="426"/>
+      <c r="U55" s="426"/>
+      <c r="V55" s="440"/>
+      <c r="W55" s="425"/>
+      <c r="X55" s="426"/>
+      <c r="Y55" s="426"/>
+      <c r="Z55" s="426"/>
+      <c r="AA55" s="426"/>
+      <c r="AB55" s="426"/>
+      <c r="AC55" s="426"/>
+      <c r="AD55" s="426"/>
+      <c r="AE55" s="426"/>
+      <c r="AF55" s="426"/>
+      <c r="AG55" s="427"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
-      <c r="A56" s="371"/>
-      <c r="B56" s="372"/>
-      <c r="C56" s="372"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="342"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="342"/>
-      <c r="P56" s="342"/>
-      <c r="Q56" s="342"/>
-      <c r="R56" s="343"/>
-      <c r="S56" s="366"/>
-      <c r="T56" s="367"/>
-      <c r="U56" s="367"/>
-      <c r="V56" s="368"/>
-      <c r="W56" s="369"/>
-      <c r="X56" s="367"/>
-      <c r="Y56" s="367"/>
-      <c r="Z56" s="367"/>
-      <c r="AA56" s="367"/>
-      <c r="AB56" s="367"/>
-      <c r="AC56" s="367"/>
-      <c r="AD56" s="367"/>
-      <c r="AE56" s="367"/>
-      <c r="AF56" s="367"/>
-      <c r="AG56" s="370"/>
+      <c r="A56" s="452"/>
+      <c r="B56" s="453"/>
+      <c r="C56" s="453"/>
+      <c r="D56" s="454"/>
+      <c r="E56" s="455"/>
+      <c r="F56" s="358"/>
+      <c r="G56" s="358"/>
+      <c r="H56" s="358"/>
+      <c r="I56" s="358"/>
+      <c r="J56" s="358"/>
+      <c r="K56" s="358"/>
+      <c r="L56" s="358"/>
+      <c r="M56" s="358"/>
+      <c r="N56" s="358"/>
+      <c r="O56" s="358"/>
+      <c r="P56" s="358"/>
+      <c r="Q56" s="358"/>
+      <c r="R56" s="456"/>
+      <c r="S56" s="447"/>
+      <c r="T56" s="448"/>
+      <c r="U56" s="448"/>
+      <c r="V56" s="449"/>
+      <c r="W56" s="450"/>
+      <c r="X56" s="448"/>
+      <c r="Y56" s="448"/>
+      <c r="Z56" s="448"/>
+      <c r="AA56" s="448"/>
+      <c r="AB56" s="448"/>
+      <c r="AC56" s="448"/>
+      <c r="AD56" s="448"/>
+      <c r="AE56" s="448"/>
+      <c r="AF56" s="448"/>
+      <c r="AG56" s="451"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
@@ -6898,45 +7081,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="347"/>
-      <c r="AF57" s="347"/>
-      <c r="AG57" s="348"/>
+      <c r="AE57" s="356"/>
+      <c r="AF57" s="356"/>
+      <c r="AG57" s="357"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A58" s="349" t="s">
+      <c r="A58" s="412" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
+      <c r="B58" s="420"/>
+      <c r="C58" s="420"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="353"/>
-      <c r="F58" s="340"/>
-      <c r="G58" s="340"/>
-      <c r="H58" s="340"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="340"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="340"/>
-      <c r="M58" s="354"/>
-      <c r="N58" s="355" t="s">
+      <c r="E58" s="416"/>
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="344"/>
+      <c r="I58" s="344"/>
+      <c r="J58" s="344"/>
+      <c r="K58" s="344"/>
+      <c r="L58" s="344"/>
+      <c r="M58" s="457"/>
+      <c r="N58" s="459" t="s">
         <v>102</v>
       </c>
-      <c r="O58" s="356"/>
-      <c r="P58" s="356"/>
-      <c r="Q58" s="356"/>
-      <c r="R58" s="357"/>
-      <c r="S58" s="358" t="s">
+      <c r="O58" s="460"/>
+      <c r="P58" s="460"/>
+      <c r="Q58" s="460"/>
+      <c r="R58" s="461"/>
+      <c r="S58" s="465" t="s">
         <v>145</v>
       </c>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
-      <c r="W58" s="356"/>
-      <c r="X58" s="356"/>
-      <c r="Y58" s="356"/>
-      <c r="Z58" s="356"/>
-      <c r="AA58" s="357"/>
+      <c r="T58" s="460"/>
+      <c r="U58" s="460"/>
+      <c r="V58" s="460"/>
+      <c r="W58" s="460"/>
+      <c r="X58" s="460"/>
+      <c r="Y58" s="460"/>
+      <c r="Z58" s="460"/>
+      <c r="AA58" s="461"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6946,33 +7129,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
-      <c r="A59" s="351"/>
-      <c r="B59" s="352"/>
-      <c r="C59" s="352"/>
+      <c r="A59" s="422"/>
+      <c r="B59" s="423"/>
+      <c r="C59" s="423"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="329"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="329"/>
-      <c r="L59" s="329"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="338"/>
-      <c r="S59" s="336"/>
-      <c r="T59" s="337"/>
-      <c r="U59" s="337"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="337"/>
-      <c r="X59" s="337"/>
-      <c r="Y59" s="337"/>
-      <c r="Z59" s="337"/>
-      <c r="AA59" s="338"/>
+      <c r="E59" s="417"/>
+      <c r="F59" s="418"/>
+      <c r="G59" s="418"/>
+      <c r="H59" s="418"/>
+      <c r="I59" s="418"/>
+      <c r="J59" s="418"/>
+      <c r="K59" s="418"/>
+      <c r="L59" s="418"/>
+      <c r="M59" s="458"/>
+      <c r="N59" s="462"/>
+      <c r="O59" s="463"/>
+      <c r="P59" s="463"/>
+      <c r="Q59" s="463"/>
+      <c r="R59" s="464"/>
+      <c r="S59" s="462"/>
+      <c r="T59" s="463"/>
+      <c r="U59" s="463"/>
+      <c r="V59" s="463"/>
+      <c r="W59" s="463"/>
+      <c r="X59" s="463"/>
+      <c r="Y59" s="463"/>
+      <c r="Z59" s="463"/>
+      <c r="AA59" s="464"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6982,121 +7165,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
-      <c r="A60" s="325" t="s">
+      <c r="A60" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="326"/>
-      <c r="C60" s="326"/>
-      <c r="D60" s="327"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="326"/>
-      <c r="H60" s="326"/>
-      <c r="I60" s="326"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="333" t="s">
+      <c r="B60" s="466"/>
+      <c r="C60" s="466"/>
+      <c r="D60" s="467"/>
+      <c r="E60" s="469"/>
+      <c r="F60" s="466"/>
+      <c r="G60" s="466"/>
+      <c r="H60" s="466"/>
+      <c r="I60" s="466"/>
+      <c r="J60" s="466"/>
+      <c r="K60" s="466"/>
+      <c r="L60" s="466"/>
+      <c r="M60" s="467"/>
+      <c r="N60" s="470" t="s">
         <v>102</v>
       </c>
-      <c r="O60" s="334"/>
-      <c r="P60" s="334"/>
-      <c r="Q60" s="334"/>
-      <c r="R60" s="335"/>
-      <c r="S60" s="333" t="s">
+      <c r="O60" s="471"/>
+      <c r="P60" s="471"/>
+      <c r="Q60" s="471"/>
+      <c r="R60" s="472"/>
+      <c r="S60" s="470" t="s">
         <v>76</v>
       </c>
-      <c r="T60" s="334"/>
-      <c r="U60" s="334"/>
-      <c r="V60" s="334"/>
-      <c r="W60" s="334"/>
-      <c r="X60" s="334"/>
-      <c r="Y60" s="334"/>
-      <c r="Z60" s="334"/>
-      <c r="AA60" s="335"/>
+      <c r="T60" s="471"/>
+      <c r="U60" s="471"/>
+      <c r="V60" s="471"/>
+      <c r="W60" s="471"/>
+      <c r="X60" s="471"/>
+      <c r="Y60" s="471"/>
+      <c r="Z60" s="471"/>
+      <c r="AA60" s="472"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="326"/>
-      <c r="AE60" s="326"/>
-      <c r="AF60" s="326"/>
-      <c r="AG60" s="339"/>
+      <c r="AD60" s="466"/>
+      <c r="AE60" s="466"/>
+      <c r="AF60" s="466"/>
+      <c r="AG60" s="473"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" customHeight="1" ht="9.6" s="2" customFormat="1">
-      <c r="A61" s="328"/>
-      <c r="B61" s="329"/>
-      <c r="C61" s="329"/>
-      <c r="D61" s="330"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
-      <c r="M61" s="330"/>
-      <c r="N61" s="336"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="338"/>
-      <c r="S61" s="336"/>
-      <c r="T61" s="337"/>
-      <c r="U61" s="337"/>
-      <c r="V61" s="337"/>
-      <c r="W61" s="337"/>
-      <c r="X61" s="337"/>
-      <c r="Y61" s="337"/>
-      <c r="Z61" s="337"/>
-      <c r="AA61" s="338"/>
-      <c r="AB61" s="340"/>
-      <c r="AC61" s="340"/>
-      <c r="AD61" s="340"/>
-      <c r="AE61" s="340"/>
-      <c r="AF61" s="340"/>
-      <c r="AG61" s="341"/>
+      <c r="A61" s="468"/>
+      <c r="B61" s="418"/>
+      <c r="C61" s="418"/>
+      <c r="D61" s="458"/>
+      <c r="E61" s="417"/>
+      <c r="F61" s="418"/>
+      <c r="G61" s="418"/>
+      <c r="H61" s="418"/>
+      <c r="I61" s="418"/>
+      <c r="J61" s="418"/>
+      <c r="K61" s="418"/>
+      <c r="L61" s="418"/>
+      <c r="M61" s="458"/>
+      <c r="N61" s="462"/>
+      <c r="O61" s="463"/>
+      <c r="P61" s="463"/>
+      <c r="Q61" s="463"/>
+      <c r="R61" s="464"/>
+      <c r="S61" s="462"/>
+      <c r="T61" s="463"/>
+      <c r="U61" s="463"/>
+      <c r="V61" s="463"/>
+      <c r="W61" s="463"/>
+      <c r="X61" s="463"/>
+      <c r="Y61" s="463"/>
+      <c r="Z61" s="463"/>
+      <c r="AA61" s="464"/>
+      <c r="AB61" s="344"/>
+      <c r="AC61" s="344"/>
+      <c r="AD61" s="344"/>
+      <c r="AE61" s="344"/>
+      <c r="AF61" s="344"/>
+      <c r="AG61" s="345"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
-      <c r="A62" s="344" t="s">
+      <c r="A62" s="474" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="345"/>
-      <c r="C62" s="345"/>
-      <c r="D62" s="345"/>
-      <c r="E62" s="345"/>
-      <c r="F62" s="345"/>
-      <c r="G62" s="345"/>
-      <c r="H62" s="345"/>
-      <c r="I62" s="345"/>
-      <c r="J62" s="345"/>
-      <c r="K62" s="345"/>
-      <c r="L62" s="345"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="345"/>
-      <c r="O62" s="345"/>
-      <c r="P62" s="345"/>
-      <c r="Q62" s="345"/>
-      <c r="R62" s="345"/>
-      <c r="S62" s="345"/>
-      <c r="T62" s="345"/>
-      <c r="U62" s="345"/>
-      <c r="V62" s="345"/>
-      <c r="W62" s="345"/>
-      <c r="X62" s="345"/>
-      <c r="Y62" s="345"/>
-      <c r="Z62" s="345"/>
-      <c r="AA62" s="346"/>
-      <c r="AB62" s="342"/>
-      <c r="AC62" s="342"/>
-      <c r="AD62" s="342"/>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="343"/>
+      <c r="B62" s="475"/>
+      <c r="C62" s="475"/>
+      <c r="D62" s="475"/>
+      <c r="E62" s="475"/>
+      <c r="F62" s="475"/>
+      <c r="G62" s="475"/>
+      <c r="H62" s="475"/>
+      <c r="I62" s="475"/>
+      <c r="J62" s="475"/>
+      <c r="K62" s="475"/>
+      <c r="L62" s="475"/>
+      <c r="M62" s="475"/>
+      <c r="N62" s="475"/>
+      <c r="O62" s="475"/>
+      <c r="P62" s="475"/>
+      <c r="Q62" s="475"/>
+      <c r="R62" s="475"/>
+      <c r="S62" s="475"/>
+      <c r="T62" s="475"/>
+      <c r="U62" s="475"/>
+      <c r="V62" s="475"/>
+      <c r="W62" s="475"/>
+      <c r="X62" s="475"/>
+      <c r="Y62" s="475"/>
+      <c r="Z62" s="475"/>
+      <c r="AA62" s="476"/>
+      <c r="AB62" s="358"/>
+      <c r="AC62" s="358"/>
+      <c r="AD62" s="358"/>
+      <c r="AE62" s="358"/>
+      <c r="AF62" s="358"/>
+      <c r="AG62" s="456"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>
@@ -7106,32 +7289,34 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A4:AA4"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="E11:R12"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="A5:AA7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="E8:AG8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="L34:X34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="E13:R14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AB61:AG62"/>
+    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:R54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="W53:AG54"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
     <mergeCell ref="AB15:AG15"/>
     <mergeCell ref="B17:P19"/>
     <mergeCell ref="T41:AD41"/>
@@ -7148,34 +7333,32 @@
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="B32:AF32"/>
     <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:R54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="W53:AG54"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AB61:AG62"/>
-    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="E13:R14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="A5:AA7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="E8:AG8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="E11:R12"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,82 +45,94 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose of Travel: Purpose of Travel : OB 2020-028, DO 2020-055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Station : </t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Places to be visited</t>
+  </si>
+  <si>
+    <t>T I M E</t>
+  </si>
+  <si>
+    <t>Means of</t>
+  </si>
+  <si>
+    <t>Transpor-station</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>(Destination)</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Diem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>sample to Calamba</t>
+  </si>
+  <si>
+    <t>08:31:00</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>SAMPLE 2</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>SAMPLE 3</t>
+  </si>
+  <si>
     <t>2020-11-03</t>
   </si>
   <si>
-    <t>Position:</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Purpose of Travel: FINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official Station : </t>
-  </si>
-  <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Places to be visited</t>
-  </si>
-  <si>
-    <t>T I M E</t>
-  </si>
-  <si>
-    <t>Means of</t>
-  </si>
-  <si>
-    <t>Transpor-station</t>
-  </si>
-  <si>
-    <t>Per</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>(Destination)</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Diem</t>
-  </si>
-  <si>
-    <t>Batch 1</t>
-  </si>
-  <si>
-    <t>Pagsanjan to Calamba</t>
-  </si>
-  <si>
-    <t>16:21:00</t>
-  </si>
-  <si>
-    <t>jeep</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
-  </si>
-  <si>
-    <t>Batch 3</t>
+    <t>SAMPLE 4</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -489,7 +501,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -616,6 +628,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1196,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="493">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2631,38 +2652,50 @@
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="41" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="41" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="41" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="5" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="52" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2964,10 +2997,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3206,529 +3239,504 @@
       <c r="A15" s="477" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="478"/>
-      <c r="C15" s="478"/>
-      <c r="D15" s="478"/>
-      <c r="E15" s="479"/>
-      <c r="F15" s="478"/>
-      <c r="G15" s="478"/>
-      <c r="H15" s="478"/>
-      <c r="I15" s="478"/>
-      <c r="J15" s="480"/>
+      <c r="B15" s="477"/>
+      <c r="C15" s="477"/>
+      <c r="D15" s="477"/>
+      <c r="E15" s="477"/>
+      <c r="F15" s="477"/>
+      <c r="G15" s="477"/>
+      <c r="H15" s="477"/>
+      <c r="I15" s="477"/>
+      <c r="J15" s="478"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16"/>
-      <c r="B16" s="481" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="481"/>
-      <c r="D16" s="481" t="s">
+      <c r="B16" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="481" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="484">
+        <v>10</v>
+      </c>
+      <c r="H16" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I16" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="481" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="483" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="483">
-        <v>45</v>
-      </c>
-      <c r="H16" s="483">
+      <c r="E17" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="484">
+        <v>10</v>
+      </c>
+      <c r="H17" s="484">
         <v>1100</v>
       </c>
-      <c r="I16" s="483" t="s">
+      <c r="I17" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="481"/>
-      <c r="D17" s="481" t="s">
+      <c r="G18" s="484">
+        <v>10</v>
+      </c>
+      <c r="H18" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="481" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="483" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="483">
-        <v>45</v>
-      </c>
-      <c r="H17" s="483">
+      <c r="E19" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="484">
+        <v>10</v>
+      </c>
+      <c r="H19" s="484">
         <v>1100</v>
       </c>
-      <c r="I17" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="481"/>
-      <c r="D18" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="483">
-        <v>45</v>
-      </c>
-      <c r="H18" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I18" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="481"/>
-      <c r="D19" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="483">
-        <v>45</v>
-      </c>
-      <c r="H19" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I19" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="483">
-        <v>1145</v>
+      <c r="I19" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="484">
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="482" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="479"/>
+      <c r="C20" s="479"/>
+      <c r="D20" s="479"/>
+      <c r="E20" s="479"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="480"/>
+      <c r="H20" s="480"/>
+      <c r="I20" s="480"/>
+      <c r="J20" s="481"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="484">
+        <v>10</v>
+      </c>
+      <c r="H21" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="484" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21"/>
-      <c r="B21" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="481"/>
-      <c r="D21" s="481" t="s">
+      <c r="J21" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="481" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="484">
+        <v>10</v>
+      </c>
+      <c r="H22" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="482" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="479"/>
+      <c r="C23" s="479"/>
+      <c r="D23" s="479"/>
+      <c r="E23" s="479"/>
+      <c r="F23" s="479"/>
+      <c r="G23" s="480"/>
+      <c r="H23" s="480"/>
+      <c r="I23" s="480"/>
+      <c r="J23" s="481"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="481" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="483" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="483">
-        <v>45</v>
-      </c>
-      <c r="H21" s="483">
+      <c r="E24" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="484">
+        <v>10</v>
+      </c>
+      <c r="H24" s="484">
         <v>1100</v>
       </c>
-      <c r="I21" s="483" t="s">
+      <c r="I24" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="481"/>
-      <c r="D22" s="481" t="s">
+      <c r="G25" s="484">
+        <v>10</v>
+      </c>
+      <c r="H25" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I25" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="482" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="479"/>
+      <c r="C26" s="479"/>
+      <c r="D26" s="479"/>
+      <c r="E26" s="479"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="480"/>
+      <c r="H26" s="480"/>
+      <c r="I26" s="480"/>
+      <c r="J26" s="481"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="483" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="481" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="483" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="483">
-        <v>45</v>
-      </c>
-      <c r="H22" s="483">
+      <c r="E27" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="484">
+        <v>10</v>
+      </c>
+      <c r="H27" s="484">
         <v>1100</v>
       </c>
-      <c r="I22" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="481"/>
-      <c r="D23" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="483">
-        <v>45</v>
-      </c>
-      <c r="H23" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I23" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="482" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25"/>
-      <c r="B25" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="481"/>
-      <c r="D25" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="483">
-        <v>45</v>
-      </c>
-      <c r="H25" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I25" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="481"/>
-      <c r="D26" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="483">
-        <v>45</v>
-      </c>
-      <c r="H26" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I26" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="483">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="481"/>
-      <c r="D27" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="483">
-        <v>45</v>
-      </c>
-      <c r="H27" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I27" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="483">
-        <v>1145</v>
+      <c r="I27" s="484" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="484">
+        <v>1110</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="481" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="481"/>
-      <c r="D28" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="481" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="481" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="483">
-        <v>45</v>
-      </c>
-      <c r="H28" s="483">
-        <v>1100</v>
-      </c>
-      <c r="I28" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="483">
-        <v>1145</v>
-      </c>
+      <c r="A28" s="486"/>
+      <c r="B28" s="485"/>
+      <c r="C28" s="485"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="486" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="485"/>
+      <c r="G28" s="492"/>
+      <c r="H28" s="492"/>
+      <c r="I28" s="492"/>
+      <c r="J28" s="487"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="111"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="111"/>
-      <c r="F29"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="487"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="490"/>
+      <c r="H29" s="490"/>
+      <c r="I29" s="490"/>
+      <c r="J29" s="491"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="485"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="118"/>
-      <c r="G30" s="484"/>
-      <c r="H30" s="484"/>
-      <c r="I30" s="484"/>
-      <c r="J30" s="486"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="490"/>
+      <c r="H30" s="490"/>
+      <c r="I30" s="490"/>
+      <c r="J30" s="491"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="111"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="487"/>
+      <c r="A31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="199" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="490"/>
+      <c r="H31" s="490"/>
+      <c r="I31" s="490"/>
+      <c r="J31" s="491"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="111"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="111"/>
-      <c r="F32"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="487"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="490"/>
+      <c r="H32" s="490"/>
+      <c r="I32" s="490"/>
+      <c r="J32" s="491"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="A33" s="38"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="488" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="487"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="488"/>
+      <c r="H33" s="488"/>
+      <c r="I33" s="488"/>
+      <c r="J33" s="489"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="38"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="487"/>
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="490"/>
+      <c r="H34" s="490"/>
+      <c r="I34" s="490"/>
+      <c r="J34" s="491"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="38"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="485"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="484"/>
-      <c r="H35" s="484"/>
-      <c r="I35" s="484"/>
-      <c r="J35" s="486"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="490"/>
+      <c r="H35" s="490"/>
+      <c r="I35" s="490"/>
+      <c r="J35" s="491"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="487"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="490"/>
+      <c r="H36" s="490"/>
+      <c r="I36" s="490"/>
+      <c r="J36" s="491"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="111"/>
-      <c r="F37"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="487"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="490"/>
+      <c r="H37" s="490"/>
+      <c r="I37" s="490"/>
+      <c r="J37" s="491"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="111"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="111"/>
-      <c r="F38"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="487"/>
+      <c r="A38" s="199" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="199" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="490"/>
+      <c r="H38" s="490"/>
+      <c r="I38" s="490"/>
+      <c r="J38" s="491"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="111"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="111"/>
-      <c r="F39"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="487"/>
+      <c r="A39" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="490"/>
+      <c r="H39" s="490"/>
+      <c r="I39" s="490"/>
+      <c r="J39" s="491"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="488" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40" s="488" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="487"/>
+      <c r="A40" s="199" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="199" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="490"/>
+      <c r="H40" s="490"/>
+      <c r="I40" s="490"/>
+      <c r="J40" s="491"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="199" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41" s="199" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="487"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="199" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" s="199" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="487"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="485"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="485"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="484"/>
-      <c r="H43" s="484"/>
-      <c r="I43" s="484"/>
-      <c r="J43" s="486"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="488"/>
+      <c r="H41" s="488"/>
+      <c r="I41" s="488"/>
+      <c r="J41" s="489"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3754,27 +3762,26 @@
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A26:J26"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A33:D37"/>
+    <mergeCell ref="A31:D35"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3835,7 +3842,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="201" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" s="201"/>
     </row>
@@ -3856,7 +3863,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="203" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" s="204"/>
       <c r="C3" s="204"/>
@@ -3868,14 +3875,14 @@
       <c r="I3" s="204"/>
       <c r="J3" s="205"/>
       <c r="K3" s="206" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L3" s="207"/>
       <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="209" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" s="210"/>
       <c r="C4" s="210"/>
@@ -3887,14 +3894,14 @@
       <c r="I4" s="210"/>
       <c r="J4" s="211"/>
       <c r="K4" s="212" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L4" s="213"/>
       <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="215" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="216"/>
       <c r="C5" s="216"/>
@@ -3906,7 +3913,7 @@
       <c r="I5" s="216"/>
       <c r="J5" s="217"/>
       <c r="K5" s="218" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L5" s="219"/>
       <c r="M5" s="220"/>
@@ -3916,7 +3923,7 @@
       <c r="B6" s="222"/>
       <c r="C6" s="223"/>
       <c r="D6" s="227" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" s="228"/>
       <c r="F6" s="228"/>
@@ -3945,12 +3952,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="233" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="234"/>
       <c r="C8" s="235"/>
       <c r="D8" s="236" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" s="237"/>
       <c r="F8" s="237"/>
@@ -3979,7 +3986,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="233" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B10" s="234"/>
       <c r="C10" s="235"/>
@@ -4014,26 +4021,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="221" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="223"/>
       <c r="D12" s="248" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="249"/>
       <c r="F12" s="249"/>
       <c r="G12" s="249"/>
       <c r="H12" s="250"/>
       <c r="I12" s="248" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J12" s="223"/>
       <c r="K12" s="255" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L12" s="248" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M12" s="257"/>
     </row>
@@ -4057,7 +4064,7 @@
       <c r="B14" s="259"/>
       <c r="C14" s="260"/>
       <c r="D14" s="263" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
@@ -4074,7 +4081,7 @@
       <c r="B15" s="259"/>
       <c r="C15" s="260"/>
       <c r="D15" s="299" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="279"/>
       <c r="F15" s="279"/>
@@ -4258,7 +4265,7 @@
       <c r="B27" s="271"/>
       <c r="C27" s="272"/>
       <c r="D27" s="273" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
@@ -4275,19 +4282,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="280" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="282" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E28" s="283"/>
       <c r="F28" s="283"/>
       <c r="G28" s="283"/>
       <c r="H28" s="284"/>
       <c r="I28" s="285" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4297,7 +4304,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="281"/>
       <c r="B29" s="286" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" s="195"/>
       <c r="D29" s="283"/>
@@ -4307,7 +4314,7 @@
       <c r="H29" s="284"/>
       <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4316,7 +4323,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="269" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C30" s="269"/>
       <c r="D30" s="269"/>
@@ -4326,7 +4333,7 @@
       <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4335,7 +4342,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4345,7 +4352,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4398,11 +4405,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="288" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B35" s="289"/>
       <c r="C35" s="279" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D35" s="279"/>
       <c r="E35" s="279"/>
@@ -4410,11 +4417,11 @@
       <c r="G35" s="279"/>
       <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4436,11 +4443,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="291" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4448,11 +4455,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4474,11 +4481,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="288" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" s="289"/>
       <c r="C39" s="282" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D39" s="282"/>
       <c r="E39" s="282"/>
@@ -4486,11 +4493,11 @@
       <c r="G39" s="282"/>
       <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4512,11 +4519,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="212" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B41" s="213"/>
       <c r="C41" s="282" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D41" s="282"/>
       <c r="E41" s="282"/>
@@ -4524,11 +4531,11 @@
       <c r="G41" s="282"/>
       <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4565,10 +4572,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B44" s="312" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C44" s="313"/>
       <c r="D44" s="313"/>
@@ -4584,7 +4591,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="173" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B45" s="313"/>
       <c r="C45" s="313"/>
@@ -4593,7 +4600,7 @@
       <c r="F45" s="313"/>
       <c r="G45" s="314"/>
       <c r="H45" s="173" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I45" s="313"/>
       <c r="J45" s="313"/>
@@ -4606,27 +4613,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="303" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C46" s="304"/>
       <c r="D46" s="304"/>
       <c r="E46" s="307" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F46" s="289"/>
       <c r="G46" s="308"/>
       <c r="H46" s="301" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I46" s="309" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J46" s="310"/>
       <c r="K46" s="311" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L46" s="294" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M46" s="295"/>
     </row>
@@ -4643,10 +4650,10 @@
       <c r="J47" s="310"/>
       <c r="K47" s="311"/>
       <c r="L47" s="52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4658,20 +4665,20 @@
       <c r="F48" s="243"/>
       <c r="G48" s="258"/>
       <c r="H48" s="54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I48" s="296" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J48" s="297"/>
       <c r="K48" s="55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4945,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="315" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="315"/>
       <c r="AD1" s="315"/>
@@ -4958,7 +4965,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="316" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" s="317"/>
       <c r="C3" s="317"/>
@@ -4987,7 +4994,7 @@
       <c r="Z3" s="317"/>
       <c r="AA3" s="318"/>
       <c r="AB3" s="319" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AC3" s="320"/>
       <c r="AD3" s="320"/>
@@ -4997,7 +5004,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="322" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B4" s="323"/>
       <c r="C4" s="323"/>
@@ -5034,7 +5041,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="346" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
@@ -5063,7 +5070,7 @@
       <c r="Z5" s="347"/>
       <c r="AA5" s="348"/>
       <c r="AB5" s="359" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AC5" s="360"/>
       <c r="AD5" s="360"/>
@@ -5100,7 +5107,7 @@
       <c r="Z6" s="347"/>
       <c r="AA6" s="348"/>
       <c r="AB6" s="362" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="363"/>
       <c r="AD6" s="363"/>
@@ -5145,7 +5152,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="328" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B8" s="329"/>
       <c r="C8" s="330"/>
@@ -5190,14 +5197,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5206,13 +5213,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5263,7 +5270,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="328" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B11" s="329"/>
       <c r="C11" s="330"/>
@@ -5286,7 +5293,7 @@
       <c r="Q11" s="329"/>
       <c r="R11" s="329"/>
       <c r="S11" s="336" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="T11" s="337"/>
       <c r="U11" s="337"/>
@@ -5297,7 +5304,7 @@
       <c r="Z11" s="337"/>
       <c r="AA11" s="338"/>
       <c r="AB11" s="339" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC11" s="339"/>
       <c r="AD11" s="339"/>
@@ -5344,7 +5351,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="368" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B13" s="369"/>
       <c r="C13" s="370"/>
@@ -5421,7 +5428,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="376" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" s="377"/>
       <c r="C15" s="377"/>
@@ -5440,21 +5447,21 @@
       <c r="P15" s="377"/>
       <c r="Q15" s="378"/>
       <c r="R15" s="379" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S15" s="380"/>
       <c r="T15" s="380"/>
       <c r="U15" s="380"/>
       <c r="V15" s="381"/>
       <c r="W15" s="379" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="X15" s="377"/>
       <c r="Y15" s="377"/>
       <c r="Z15" s="377"/>
       <c r="AA15" s="378"/>
       <c r="AB15" s="379" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AC15" s="377"/>
       <c r="AD15" s="377"/>
@@ -5502,7 +5509,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="279" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C17" s="279"/>
       <c r="D17" s="279"/>
@@ -5651,7 +5658,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5689,7 +5696,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5727,7 +5734,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5765,7 +5772,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5803,7 +5810,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5841,7 +5848,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5879,7 +5886,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5952,7 +5959,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="402" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B29" s="403"/>
       <c r="C29" s="403"/>
@@ -5994,10 +6001,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B30" s="408" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C30" s="408"/>
       <c r="D30" s="408"/>
@@ -6039,7 +6046,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6228,10 +6235,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6269,7 +6276,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="394" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B37" s="395"/>
       <c r="C37" s="395"/>
@@ -6289,21 +6296,21 @@
       <c r="Q37" s="395"/>
       <c r="R37" s="395"/>
       <c r="S37" s="395" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="T37" s="395"/>
       <c r="U37" s="395"/>
       <c r="V37" s="395"/>
       <c r="W37" s="395"/>
       <c r="X37" s="396" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Y37" s="396"/>
       <c r="Z37" s="396"/>
       <c r="AA37" s="396"/>
       <c r="AB37" s="396"/>
       <c r="AC37" s="397" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AD37" s="397"/>
       <c r="AE37" s="397"/>
@@ -6388,7 +6395,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6425,10 +6432,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6447,10 +6454,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T41" s="383" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U41" s="383"/>
       <c r="V41" s="383"/>
@@ -6471,7 +6478,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6545,7 +6552,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6619,10 +6626,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6659,7 +6666,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6731,7 +6738,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="412" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B49" s="413"/>
       <c r="C49" s="413"/>
@@ -6751,7 +6758,7 @@
       <c r="Q49" s="344"/>
       <c r="R49" s="345"/>
       <c r="S49" s="412" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="T49" s="420"/>
       <c r="U49" s="420"/>
@@ -6807,13 +6814,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="430" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B51" s="431"/>
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="434" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F51" s="435"/>
       <c r="G51" s="435"/>
@@ -6829,13 +6836,13 @@
       <c r="Q51" s="435"/>
       <c r="R51" s="436"/>
       <c r="S51" s="430" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T51" s="426"/>
       <c r="U51" s="426"/>
       <c r="V51" s="440"/>
       <c r="W51" s="441" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X51" s="442"/>
       <c r="Y51" s="442"/>
@@ -6887,13 +6894,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="430" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B53" s="426"/>
       <c r="C53" s="426"/>
       <c r="D53" s="440"/>
       <c r="E53" s="425" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F53" s="426"/>
       <c r="G53" s="426"/>
@@ -6909,13 +6916,13 @@
       <c r="Q53" s="426"/>
       <c r="R53" s="427"/>
       <c r="S53" s="430" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T53" s="426"/>
       <c r="U53" s="426"/>
       <c r="V53" s="440"/>
       <c r="W53" s="425" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="X53" s="426"/>
       <c r="Y53" s="426"/>
@@ -7046,10 +7053,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -7077,7 +7084,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -7088,7 +7095,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="412" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B58" s="420"/>
       <c r="C58" s="420"/>
@@ -7103,14 +7110,14 @@
       <c r="L58" s="344"/>
       <c r="M58" s="457"/>
       <c r="N58" s="459" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O58" s="460"/>
       <c r="P58" s="460"/>
       <c r="Q58" s="460"/>
       <c r="R58" s="461"/>
       <c r="S58" s="465" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="T58" s="460"/>
       <c r="U58" s="460"/>
@@ -7166,7 +7173,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="430" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B60" s="466"/>
       <c r="C60" s="466"/>
@@ -7181,14 +7188,14 @@
       <c r="L60" s="466"/>
       <c r="M60" s="467"/>
       <c r="N60" s="470" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O60" s="471"/>
       <c r="P60" s="471"/>
       <c r="Q60" s="471"/>
       <c r="R60" s="472"/>
       <c r="S60" s="470" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T60" s="471"/>
       <c r="U60" s="471"/>
@@ -7246,7 +7253,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="474" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B62" s="475"/>
       <c r="C62" s="475"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Diem</t>
   </si>
   <si>
-    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
+    <t xml:space="preserve">OB 2020-029 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
   </si>
   <si>
     <t>2020-11-01</t>
@@ -111,7 +111,7 @@
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>08:31:00</t>
+    <t>08:11:00</t>
   </si>
   <si>
     <t>car</t>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Fund Cluster : ___________________</t>
-  </si>
-  <si>
-    <t>MAYBELLINE M. MONTEIRO</t>
   </si>
   <si>
     <t>Office</t>
@@ -1217,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="493">
+  <cellXfs count="494">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2673,28 +2670,31 @@
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="39" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="53" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="52" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -2999,7 +2999,7 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -3270,13 +3270,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I16" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3297,13 +3297,13 @@
         <v>10</v>
       </c>
       <c r="H17" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I17" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3324,13 +3324,13 @@
         <v>10</v>
       </c>
       <c r="H18" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I18" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3351,13 +3351,13 @@
         <v>10</v>
       </c>
       <c r="H19" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I19" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3395,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="H21" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I21" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3422,13 +3422,13 @@
         <v>10</v>
       </c>
       <c r="H22" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I22" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J22" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3466,13 +3466,13 @@
         <v>10</v>
       </c>
       <c r="H24" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I24" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3493,13 +3493,13 @@
         <v>10</v>
       </c>
       <c r="H25" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I25" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3537,42 +3537,42 @@
         <v>10</v>
       </c>
       <c r="H27" s="484">
-        <v>1100</v>
+        <v>443</v>
       </c>
       <c r="I27" s="484" t="s">
         <v>32</v>
       </c>
       <c r="J27" s="484">
-        <v>1110</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="486"/>
-      <c r="B28" s="485"/>
-      <c r="C28" s="485"/>
-      <c r="D28" s="485"/>
-      <c r="E28" s="486" t="s">
+      <c r="A28" s="485"/>
+      <c r="B28" s="491"/>
+      <c r="C28" s="491"/>
+      <c r="D28" s="491"/>
+      <c r="E28" s="493" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="485"/>
+      <c r="F28" s="491"/>
       <c r="G28" s="492"/>
       <c r="H28" s="492"/>
       <c r="I28" s="492"/>
-      <c r="J28" s="487"/>
+      <c r="J28" s="486"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="37" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="490"/>
-      <c r="H29" s="490"/>
-      <c r="I29" s="490"/>
-      <c r="J29" s="491"/>
+      <c r="G29" s="489"/>
+      <c r="H29" s="489"/>
+      <c r="I29" s="489"/>
+      <c r="J29" s="490"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
@@ -3581,10 +3581,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="490"/>
-      <c r="H30" s="490"/>
-      <c r="I30" s="490"/>
-      <c r="J30" s="491"/>
+      <c r="G30" s="489"/>
+      <c r="H30" s="489"/>
+      <c r="I30" s="489"/>
+      <c r="J30" s="490"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="38" t="s">
@@ -3597,24 +3597,24 @@
         <v>41</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="490"/>
-      <c r="H31" s="490"/>
-      <c r="I31" s="490"/>
-      <c r="J31" s="491"/>
+      <c r="G31" s="489"/>
+      <c r="H31" s="489"/>
+      <c r="I31" s="489"/>
+      <c r="J31" s="490"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="38"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="199" t="s">
+      <c r="E32" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="490"/>
-      <c r="H32" s="490"/>
-      <c r="I32" s="490"/>
-      <c r="J32" s="491"/>
+      <c r="G32" s="489"/>
+      <c r="H32" s="489"/>
+      <c r="I32" s="489"/>
+      <c r="J32" s="490"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="38"/>
@@ -3623,24 +3623,24 @@
       <c r="D33" s="39"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="488"/>
-      <c r="H33" s="488"/>
-      <c r="I33" s="488"/>
-      <c r="J33" s="489"/>
+      <c r="G33" s="487"/>
+      <c r="H33" s="487"/>
+      <c r="I33" s="487"/>
+      <c r="J33" s="488"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="38"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="37" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="490"/>
-      <c r="H34" s="490"/>
-      <c r="I34" s="490"/>
-      <c r="J34" s="491"/>
+      <c r="G34" s="489"/>
+      <c r="H34" s="489"/>
+      <c r="I34" s="489"/>
+      <c r="J34" s="490"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="38"/>
@@ -3649,10 +3649,10 @@
       <c r="D35" s="39"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="490"/>
-      <c r="H35" s="490"/>
-      <c r="I35" s="490"/>
-      <c r="J35" s="491"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="489"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="490"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4"/>
@@ -3661,10 +3661,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="490"/>
-      <c r="H36" s="490"/>
-      <c r="I36" s="490"/>
-      <c r="J36" s="491"/>
+      <c r="G36" s="489"/>
+      <c r="H36" s="489"/>
+      <c r="I36" s="489"/>
+      <c r="J36" s="490"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4"/>
@@ -3673,10 +3673,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="490"/>
-      <c r="H37" s="490"/>
-      <c r="I37" s="490"/>
-      <c r="J37" s="491"/>
+      <c r="G37" s="489"/>
+      <c r="H37" s="489"/>
+      <c r="I37" s="489"/>
+      <c r="J37" s="490"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="199" t="s">
@@ -3689,26 +3689,26 @@
         <v>41</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="490"/>
-      <c r="H38" s="490"/>
-      <c r="I38" s="490"/>
-      <c r="J38" s="491"/>
+      <c r="G38" s="489"/>
+      <c r="H38" s="489"/>
+      <c r="I38" s="489"/>
+      <c r="J38" s="490"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="199" t="s">
+      <c r="A39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="199" t="s">
+      <c r="E39" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="490"/>
-      <c r="H39" s="490"/>
-      <c r="I39" s="490"/>
-      <c r="J39" s="491"/>
+      <c r="G39" s="489"/>
+      <c r="H39" s="489"/>
+      <c r="I39" s="489"/>
+      <c r="J39" s="490"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="199" t="s">
@@ -3721,10 +3721,10 @@
         <v>47</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="490"/>
-      <c r="H40" s="490"/>
-      <c r="I40" s="490"/>
-      <c r="J40" s="491"/>
+      <c r="G40" s="489"/>
+      <c r="H40" s="489"/>
+      <c r="I40" s="489"/>
+      <c r="J40" s="490"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="5"/>
@@ -3733,10 +3733,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="488"/>
-      <c r="H41" s="488"/>
-      <c r="I41" s="488"/>
-      <c r="J41" s="489"/>
+      <c r="G41" s="487"/>
+      <c r="H41" s="487"/>
+      <c r="I41" s="487"/>
+      <c r="J41" s="488"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3808,7 +3808,7 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -3923,7 +3923,7 @@
       <c r="B6" s="222"/>
       <c r="C6" s="223"/>
       <c r="D6" s="227" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E6" s="228"/>
       <c r="F6" s="228"/>
@@ -3952,12 +3952,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="234"/>
       <c r="C8" s="235"/>
       <c r="D8" s="236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="237"/>
       <c r="F8" s="237"/>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="233" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="234"/>
       <c r="C10" s="235"/>
@@ -4021,26 +4021,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="221" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="223"/>
       <c r="D12" s="248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="249"/>
       <c r="F12" s="249"/>
       <c r="G12" s="249"/>
       <c r="H12" s="250"/>
       <c r="I12" s="248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="223"/>
       <c r="K12" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="248" t="s">
         <v>62</v>
-      </c>
-      <c r="L12" s="248" t="s">
-        <v>63</v>
       </c>
       <c r="M12" s="257"/>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="B14" s="259"/>
       <c r="C14" s="260"/>
       <c r="D14" s="263" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
@@ -4081,7 +4081,7 @@
       <c r="B15" s="259"/>
       <c r="C15" s="260"/>
       <c r="D15" s="299" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="279"/>
       <c r="F15" s="279"/>
@@ -4265,7 +4265,7 @@
       <c r="B27" s="271"/>
       <c r="C27" s="272"/>
       <c r="D27" s="273" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="280" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="282" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="283"/>
       <c r="F28" s="283"/>
       <c r="G28" s="283"/>
       <c r="H28" s="284"/>
       <c r="I28" s="285" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4304,7 +4304,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="281"/>
       <c r="B29" s="286" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="195"/>
       <c r="D29" s="283"/>
@@ -4314,7 +4314,7 @@
       <c r="H29" s="284"/>
       <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4323,7 +4323,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="269" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="269"/>
       <c r="D30" s="269"/>
@@ -4333,7 +4333,7 @@
       <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4342,7 +4342,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4352,7 +4352,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4405,11 +4405,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="288" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="289"/>
       <c r="C35" s="279" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="279"/>
       <c r="E35" s="279"/>
@@ -4417,11 +4417,11 @@
       <c r="G35" s="279"/>
       <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="291" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
@@ -4455,11 +4455,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4481,11 +4481,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="288" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="289"/>
       <c r="C39" s="282" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="282"/>
       <c r="E39" s="282"/>
@@ -4493,11 +4493,11 @@
       <c r="G39" s="282"/>
       <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4519,11 +4519,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="212" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="213"/>
       <c r="C41" s="282" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="282"/>
       <c r="E41" s="282"/>
@@ -4531,11 +4531,11 @@
       <c r="G41" s="282"/>
       <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="312" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="312" t="s">
-        <v>89</v>
       </c>
       <c r="C44" s="313"/>
       <c r="D44" s="313"/>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="173" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="313"/>
       <c r="C45" s="313"/>
@@ -4600,7 +4600,7 @@
       <c r="F45" s="313"/>
       <c r="G45" s="314"/>
       <c r="H45" s="173" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="313"/>
       <c r="J45" s="313"/>
@@ -4613,27 +4613,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="303" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="304"/>
       <c r="D46" s="304"/>
       <c r="E46" s="307" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="289"/>
       <c r="G46" s="308"/>
       <c r="H46" s="301" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="309" t="s">
         <v>92</v>
-      </c>
-      <c r="I46" s="309" t="s">
-        <v>93</v>
       </c>
       <c r="J46" s="310"/>
       <c r="K46" s="311" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="294" t="s">
         <v>94</v>
-      </c>
-      <c r="L46" s="294" t="s">
-        <v>95</v>
       </c>
       <c r="M46" s="295"/>
     </row>
@@ -4650,10 +4650,10 @@
       <c r="J47" s="310"/>
       <c r="K47" s="311"/>
       <c r="L47" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" s="53" t="s">
         <v>96</v>
-      </c>
-      <c r="M47" s="53" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4665,20 +4665,20 @@
       <c r="F48" s="243"/>
       <c r="G48" s="258"/>
       <c r="H48" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="296" t="s">
         <v>98</v>
-      </c>
-      <c r="I48" s="296" t="s">
-        <v>99</v>
       </c>
       <c r="J48" s="297"/>
       <c r="K48" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="M48" s="57" t="s">
         <v>101</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4952,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="315" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="315"/>
       <c r="AD1" s="315"/>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="316" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="317"/>
       <c r="C3" s="317"/>
@@ -4994,7 +4994,7 @@
       <c r="Z3" s="317"/>
       <c r="AA3" s="318"/>
       <c r="AB3" s="319" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="320"/>
       <c r="AD3" s="320"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="346" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
@@ -5070,7 +5070,7 @@
       <c r="Z5" s="347"/>
       <c r="AA5" s="348"/>
       <c r="AB5" s="359" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC5" s="360"/>
       <c r="AD5" s="360"/>
@@ -5107,7 +5107,7 @@
       <c r="Z6" s="347"/>
       <c r="AA6" s="348"/>
       <c r="AB6" s="362" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC6" s="363"/>
       <c r="AD6" s="363"/>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="328" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="329"/>
       <c r="C8" s="330"/>
@@ -5197,14 +5197,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5213,13 +5213,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="328" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="329"/>
       <c r="C11" s="330"/>
@@ -5293,7 +5293,7 @@
       <c r="Q11" s="329"/>
       <c r="R11" s="329"/>
       <c r="S11" s="336" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T11" s="337"/>
       <c r="U11" s="337"/>
@@ -5304,7 +5304,7 @@
       <c r="Z11" s="337"/>
       <c r="AA11" s="338"/>
       <c r="AB11" s="339" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC11" s="339"/>
       <c r="AD11" s="339"/>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="368" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="369"/>
       <c r="C13" s="370"/>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="376" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="377"/>
       <c r="C15" s="377"/>
@@ -5447,21 +5447,21 @@
       <c r="P15" s="377"/>
       <c r="Q15" s="378"/>
       <c r="R15" s="379" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S15" s="380"/>
       <c r="T15" s="380"/>
       <c r="U15" s="380"/>
       <c r="V15" s="381"/>
       <c r="W15" s="379" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X15" s="377"/>
       <c r="Y15" s="377"/>
       <c r="Z15" s="377"/>
       <c r="AA15" s="378"/>
       <c r="AB15" s="379" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC15" s="377"/>
       <c r="AD15" s="377"/>
@@ -5509,7 +5509,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="279" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="279"/>
       <c r="D17" s="279"/>
@@ -5658,7 +5658,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5696,7 +5696,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5734,7 +5734,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5772,7 +5772,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5810,7 +5810,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5848,7 +5848,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5886,7 +5886,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="402" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="403"/>
       <c r="C29" s="403"/>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="408" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="408"/>
       <c r="D30" s="408"/>
@@ -6046,7 +6046,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6235,10 +6235,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="394" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="395"/>
       <c r="C37" s="395"/>
@@ -6296,21 +6296,21 @@
       <c r="Q37" s="395"/>
       <c r="R37" s="395"/>
       <c r="S37" s="395" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T37" s="395"/>
       <c r="U37" s="395"/>
       <c r="V37" s="395"/>
       <c r="W37" s="395"/>
       <c r="X37" s="396" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y37" s="396"/>
       <c r="Z37" s="396"/>
       <c r="AA37" s="396"/>
       <c r="AB37" s="396"/>
       <c r="AC37" s="397" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD37" s="397"/>
       <c r="AE37" s="397"/>
@@ -6395,7 +6395,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6432,10 +6432,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6454,10 +6454,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="T41" s="383" t="s">
         <v>133</v>
-      </c>
-      <c r="T41" s="383" t="s">
-        <v>134</v>
       </c>
       <c r="U41" s="383"/>
       <c r="V41" s="383"/>
@@ -6478,7 +6478,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6552,7 +6552,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6626,10 +6626,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6666,7 +6666,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="412" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="413"/>
       <c r="C49" s="413"/>
@@ -6758,7 +6758,7 @@
       <c r="Q49" s="344"/>
       <c r="R49" s="345"/>
       <c r="S49" s="412" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T49" s="420"/>
       <c r="U49" s="420"/>
@@ -6814,13 +6814,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="430" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="431"/>
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="434" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="435"/>
       <c r="G51" s="435"/>
@@ -6836,7 +6836,7 @@
       <c r="Q51" s="435"/>
       <c r="R51" s="436"/>
       <c r="S51" s="430" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T51" s="426"/>
       <c r="U51" s="426"/>
@@ -6894,13 +6894,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="430" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="426"/>
       <c r="C53" s="426"/>
       <c r="D53" s="440"/>
       <c r="E53" s="425" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53" s="426"/>
       <c r="G53" s="426"/>
@@ -6916,13 +6916,13 @@
       <c r="Q53" s="426"/>
       <c r="R53" s="427"/>
       <c r="S53" s="430" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T53" s="426"/>
       <c r="U53" s="426"/>
       <c r="V53" s="440"/>
       <c r="W53" s="425" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X53" s="426"/>
       <c r="Y53" s="426"/>
@@ -7053,10 +7053,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="162" t="s">
         <v>145</v>
-      </c>
-      <c r="B57" s="162" t="s">
-        <v>146</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -7084,7 +7084,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="412" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="420"/>
       <c r="C58" s="420"/>
@@ -7110,14 +7110,14 @@
       <c r="L58" s="344"/>
       <c r="M58" s="457"/>
       <c r="N58" s="459" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O58" s="460"/>
       <c r="P58" s="460"/>
       <c r="Q58" s="460"/>
       <c r="R58" s="461"/>
       <c r="S58" s="465" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T58" s="460"/>
       <c r="U58" s="460"/>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="430" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="466"/>
       <c r="C60" s="466"/>
@@ -7188,14 +7188,14 @@
       <c r="L60" s="466"/>
       <c r="M60" s="467"/>
       <c r="N60" s="470" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O60" s="471"/>
       <c r="P60" s="471"/>
       <c r="Q60" s="471"/>
       <c r="R60" s="472"/>
       <c r="S60" s="470" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T60" s="471"/>
       <c r="U60" s="471"/>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="474" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="475"/>
       <c r="C62" s="475"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-11-04</t>
+    <t>2020-11-01</t>
   </si>
   <si>
     <t>Position:</t>
@@ -54,7 +54,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Purpose of Travel: Purpose of Travel : OB 2020-028, DO 2020-055 </t>
+    <t>Purpose of Travel: TESTING</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -102,16 +102,13 @@
     <t>Diem</t>
   </si>
   <si>
-    <t xml:space="preserve">OB 2020-029 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
-  </si>
-  <si>
-    <t>2020-11-01</t>
+    <t>BATCH 2</t>
   </si>
   <si>
     <t>sample to Calamba</t>
   </si>
   <si>
-    <t>08:11:00</t>
+    <t>15:38:00</t>
   </si>
   <si>
     <t>car</t>
@@ -120,19 +117,31 @@
     <t>sample</t>
   </si>
   <si>
-    <t>SAMPLE 2</t>
-  </si>
-  <si>
-    <t>2020-11-02</t>
-  </si>
-  <si>
-    <t>SAMPLE 3</t>
-  </si>
-  <si>
-    <t>2020-11-03</t>
-  </si>
-  <si>
-    <t>SAMPLE 4</t>
+    <t>BATCH 3</t>
+  </si>
+  <si>
+    <t>BATCH 4</t>
+  </si>
+  <si>
+    <t>BATCH 5</t>
+  </si>
+  <si>
+    <t>BATCH 6</t>
+  </si>
+  <si>
+    <t>BATCH 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>Residence (Calamba) to Calamba</t>
+  </si>
+  <si>
+    <t>sample1 to Calamba</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -184,6 +193,9 @@
   </si>
   <si>
     <t>Fund Cluster : ___________________</t>
+  </si>
+  <si>
+    <t>MAYBELLINE M. MONTEIRO</t>
   </si>
   <si>
     <t>Office</t>
@@ -2997,10 +3009,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3251,260 +3263,113 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="483" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="483" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="483" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="483" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="484">
         <v>10</v>
       </c>
       <c r="H16" s="484">
-        <v>443</v>
+        <v>1100</v>
       </c>
       <c r="I16" s="484" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="482" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="484">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="484">
-        <v>10</v>
-      </c>
-      <c r="H17" s="484">
-        <v>443</v>
-      </c>
-      <c r="I17" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="484">
-        <v>453</v>
-      </c>
+      <c r="B17" s="479"/>
+      <c r="C17" s="479"/>
+      <c r="D17" s="479"/>
+      <c r="E17" s="479"/>
+      <c r="F17" s="479"/>
+      <c r="G17" s="480"/>
+      <c r="H17" s="480"/>
+      <c r="I17" s="480"/>
+      <c r="J17" s="481"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="484">
-        <v>10</v>
-      </c>
-      <c r="H18" s="484">
-        <v>443</v>
-      </c>
-      <c r="I18" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="484">
-        <v>453</v>
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="484">
-        <v>10</v>
-      </c>
-      <c r="H19" s="484">
-        <v>443</v>
-      </c>
-      <c r="I19" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="484">
-        <v>453</v>
-      </c>
+      <c r="A19" s="482" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="479"/>
+      <c r="C19" s="479"/>
+      <c r="D19" s="479"/>
+      <c r="E19" s="479"/>
+      <c r="F19" s="479"/>
+      <c r="G19" s="480"/>
+      <c r="H19" s="480"/>
+      <c r="I19" s="480"/>
+      <c r="J19" s="481"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="482" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="479"/>
-      <c r="C20" s="479"/>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="480"/>
-      <c r="H20" s="480"/>
-      <c r="I20" s="480"/>
-      <c r="J20" s="481"/>
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="A21" s="482" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="484">
-        <v>10</v>
-      </c>
-      <c r="H21" s="484">
-        <v>443</v>
-      </c>
-      <c r="I21" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="484">
-        <v>453</v>
-      </c>
+      <c r="B21" s="479"/>
+      <c r="C21" s="479"/>
+      <c r="D21" s="479"/>
+      <c r="E21" s="479"/>
+      <c r="F21" s="479"/>
+      <c r="G21" s="480"/>
+      <c r="H21" s="480"/>
+      <c r="I21" s="480"/>
+      <c r="J21" s="481"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="484">
-        <v>10</v>
-      </c>
-      <c r="H22" s="484">
-        <v>443</v>
-      </c>
-      <c r="I22" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="484">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="482" t="s">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="482" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="479"/>
-      <c r="C23" s="479"/>
-      <c r="D23" s="479"/>
-      <c r="E23" s="479"/>
-      <c r="F23" s="479"/>
-      <c r="G23" s="480"/>
-      <c r="H23" s="480"/>
-      <c r="I23" s="480"/>
-      <c r="J23" s="481"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="484">
-        <v>10</v>
-      </c>
-      <c r="H24" s="484">
-        <v>443</v>
-      </c>
-      <c r="I24" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="484">
-        <v>453</v>
-      </c>
+      <c r="B24" s="479"/>
+      <c r="C24" s="479"/>
+      <c r="D24" s="479"/>
+      <c r="E24" s="479"/>
+      <c r="F24" s="479"/>
+      <c r="G24" s="480"/>
+      <c r="H24" s="480"/>
+      <c r="I24" s="480"/>
+      <c r="J24" s="481"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="483" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="484">
-        <v>10</v>
-      </c>
-      <c r="H25" s="484">
-        <v>443</v>
-      </c>
-      <c r="I25" s="484" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="484">
-        <v>453</v>
+      <c r="A25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="482" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="479"/>
       <c r="C26" s="479"/>
@@ -3517,149 +3382,239 @@
       <c r="J26" s="481"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="483" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="483" t="s">
         <v>30</v>
-      </c>
-      <c r="E27" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="483" t="s">
-        <v>31</v>
       </c>
       <c r="G27" s="484">
         <v>10</v>
       </c>
       <c r="H27" s="484">
-        <v>443</v>
+        <v>1100</v>
       </c>
       <c r="I27" s="484" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" s="484">
-        <v>453</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="485"/>
-      <c r="B28" s="491"/>
-      <c r="C28" s="491"/>
-      <c r="D28" s="491"/>
-      <c r="E28" s="493" t="s">
+      <c r="A28" s="482" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="479"/>
+      <c r="C28" s="479"/>
+      <c r="D28" s="479"/>
+      <c r="E28" s="479"/>
+      <c r="F28" s="479"/>
+      <c r="G28" s="480"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="480"/>
+      <c r="J28" s="481"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="483" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="484">
+        <v>10</v>
+      </c>
+      <c r="H29" s="484">
+        <v>0</v>
+      </c>
+      <c r="I29" s="484" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="491"/>
-      <c r="G28" s="492"/>
-      <c r="H28" s="492"/>
-      <c r="I28" s="492"/>
-      <c r="J28" s="486"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="37" t="s">
+      <c r="J29" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="483" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="484">
+        <v>10</v>
+      </c>
+      <c r="H30" s="484">
+        <v>0</v>
+      </c>
+      <c r="I30" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="483" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="489"/>
-      <c r="H29" s="489"/>
-      <c r="I29" s="489"/>
-      <c r="J29" s="490"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="489"/>
-      <c r="H30" s="489"/>
-      <c r="I30" s="489"/>
-      <c r="J30" s="490"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="38" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="484">
+        <v>10</v>
+      </c>
+      <c r="H31" s="484">
+        <v>0</v>
+      </c>
+      <c r="I31" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="483" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="199" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="484">
+        <v>10</v>
+      </c>
+      <c r="H32" s="484">
+        <v>0</v>
+      </c>
+      <c r="I32" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="483" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="484">
+        <v>10</v>
+      </c>
+      <c r="H33" s="484">
+        <v>0</v>
+      </c>
+      <c r="I33" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4"/>
+      <c r="B34" s="483" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="484">
+        <v>10</v>
+      </c>
+      <c r="H34" s="484">
+        <v>0</v>
+      </c>
+      <c r="I34" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="484">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="485"/>
+      <c r="B35" s="491"/>
+      <c r="C35" s="491"/>
+      <c r="D35" s="491"/>
+      <c r="E35" s="493" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="489"/>
-      <c r="H31" s="489"/>
-      <c r="I31" s="489"/>
-      <c r="J31" s="490"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="489"/>
-      <c r="H32" s="489"/>
-      <c r="I32" s="489"/>
-      <c r="J32" s="490"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="487"/>
-      <c r="H33" s="487"/>
-      <c r="I33" s="487"/>
-      <c r="J33" s="488"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="489"/>
-      <c r="H34" s="489"/>
-      <c r="I34" s="489"/>
-      <c r="J34" s="490"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="489"/>
-      <c r="H35" s="489"/>
-      <c r="I35" s="489"/>
-      <c r="J35" s="490"/>
+      <c r="F35" s="491"/>
+      <c r="G35" s="492"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="492"/>
+      <c r="J35" s="486">
+        <v>1120</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="489"/>
       <c r="H36" s="489"/>
@@ -3679,14 +3634,14 @@
       <c r="J37" s="490"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="199" t="s">
+      <c r="A38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="199" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="489"/>
@@ -3695,14 +3650,12 @@
       <c r="J38" s="490"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="20" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="489"/>
@@ -3711,32 +3664,126 @@
       <c r="J39" s="490"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="199" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="487"/>
+      <c r="H40" s="487"/>
+      <c r="I40" s="487"/>
+      <c r="J40" s="488"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="489"/>
+      <c r="H41" s="489"/>
+      <c r="I41" s="489"/>
+      <c r="J41" s="490"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="489"/>
+      <c r="H42" s="489"/>
+      <c r="I42" s="489"/>
+      <c r="J42" s="490"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="489"/>
+      <c r="H43" s="489"/>
+      <c r="I43" s="489"/>
+      <c r="J43" s="490"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="489"/>
+      <c r="H44" s="489"/>
+      <c r="I44" s="489"/>
+      <c r="J44" s="490"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="199" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="489"/>
+      <c r="H45" s="489"/>
+      <c r="I45" s="489"/>
+      <c r="J45" s="490"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="489"/>
-      <c r="H40" s="489"/>
-      <c r="I40" s="489"/>
-      <c r="J40" s="490"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="487"/>
-      <c r="H41" s="487"/>
-      <c r="I41" s="487"/>
-      <c r="J41" s="488"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="489"/>
+      <c r="H46" s="489"/>
+      <c r="I46" s="489"/>
+      <c r="J46" s="490"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="199" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="489"/>
+      <c r="H47" s="489"/>
+      <c r="I47" s="489"/>
+      <c r="J47" s="490"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="487"/>
+      <c r="H48" s="487"/>
+      <c r="I48" s="487"/>
+      <c r="J48" s="488"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3761,27 +3808,29 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A31:D35"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A38:D42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3808,7 +3857,7 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -3842,7 +3891,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="201" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M1" s="201"/>
     </row>
@@ -3863,7 +3912,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="203" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="204"/>
       <c r="C3" s="204"/>
@@ -3875,14 +3924,14 @@
       <c r="I3" s="204"/>
       <c r="J3" s="205"/>
       <c r="K3" s="206" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L3" s="207"/>
       <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="209" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="210"/>
       <c r="C4" s="210"/>
@@ -3894,14 +3943,14 @@
       <c r="I4" s="210"/>
       <c r="J4" s="211"/>
       <c r="K4" s="212" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L4" s="213"/>
       <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="215" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="216"/>
       <c r="C5" s="216"/>
@@ -3913,7 +3962,7 @@
       <c r="I5" s="216"/>
       <c r="J5" s="217"/>
       <c r="K5" s="218" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L5" s="219"/>
       <c r="M5" s="220"/>
@@ -3923,7 +3972,7 @@
       <c r="B6" s="222"/>
       <c r="C6" s="223"/>
       <c r="D6" s="227" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E6" s="228"/>
       <c r="F6" s="228"/>
@@ -3952,12 +4001,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="233" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B8" s="234"/>
       <c r="C8" s="235"/>
       <c r="D8" s="236" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="237"/>
       <c r="F8" s="237"/>
@@ -3986,7 +4035,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="233" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" s="234"/>
       <c r="C10" s="235"/>
@@ -4021,26 +4070,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="221" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="223"/>
       <c r="D12" s="248" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="249"/>
       <c r="F12" s="249"/>
       <c r="G12" s="249"/>
       <c r="H12" s="250"/>
       <c r="I12" s="248" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J12" s="223"/>
       <c r="K12" s="255" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L12" s="248" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M12" s="257"/>
     </row>
@@ -4064,7 +4113,7 @@
       <c r="B14" s="259"/>
       <c r="C14" s="260"/>
       <c r="D14" s="263" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
@@ -4081,7 +4130,7 @@
       <c r="B15" s="259"/>
       <c r="C15" s="260"/>
       <c r="D15" s="299" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="279"/>
       <c r="F15" s="279"/>
@@ -4265,7 +4314,7 @@
       <c r="B27" s="271"/>
       <c r="C27" s="272"/>
       <c r="D27" s="273" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
@@ -4282,19 +4331,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="280" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="282" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" s="283"/>
       <c r="F28" s="283"/>
       <c r="G28" s="283"/>
       <c r="H28" s="284"/>
       <c r="I28" s="285" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4304,7 +4353,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="281"/>
       <c r="B29" s="286" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C29" s="195"/>
       <c r="D29" s="283"/>
@@ -4314,7 +4363,7 @@
       <c r="H29" s="284"/>
       <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4323,7 +4372,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="269" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" s="269"/>
       <c r="D30" s="269"/>
@@ -4333,7 +4382,7 @@
       <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4342,7 +4391,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4352,7 +4401,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4405,11 +4454,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="288" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B35" s="289"/>
       <c r="C35" s="279" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D35" s="279"/>
       <c r="E35" s="279"/>
@@ -4417,11 +4466,11 @@
       <c r="G35" s="279"/>
       <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4443,11 +4492,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="291" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4455,11 +4504,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4481,11 +4530,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="288" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B39" s="289"/>
       <c r="C39" s="282" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D39" s="282"/>
       <c r="E39" s="282"/>
@@ -4493,11 +4542,11 @@
       <c r="G39" s="282"/>
       <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4519,11 +4568,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="212" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" s="213"/>
       <c r="C41" s="282" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D41" s="282"/>
       <c r="E41" s="282"/>
@@ -4531,11 +4580,11 @@
       <c r="G41" s="282"/>
       <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4572,10 +4621,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B44" s="312" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" s="313"/>
       <c r="D44" s="313"/>
@@ -4591,7 +4640,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="173" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="313"/>
       <c r="C45" s="313"/>
@@ -4600,7 +4649,7 @@
       <c r="F45" s="313"/>
       <c r="G45" s="314"/>
       <c r="H45" s="173" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I45" s="313"/>
       <c r="J45" s="313"/>
@@ -4613,27 +4662,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="303" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C46" s="304"/>
       <c r="D46" s="304"/>
       <c r="E46" s="307" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F46" s="289"/>
       <c r="G46" s="308"/>
       <c r="H46" s="301" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I46" s="309" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J46" s="310"/>
       <c r="K46" s="311" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L46" s="294" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M46" s="295"/>
     </row>
@@ -4650,10 +4699,10 @@
       <c r="J47" s="310"/>
       <c r="K47" s="311"/>
       <c r="L47" s="52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4665,20 +4714,20 @@
       <c r="F48" s="243"/>
       <c r="G48" s="258"/>
       <c r="H48" s="54" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I48" s="296" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J48" s="297"/>
       <c r="K48" s="55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L48" s="56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M48" s="57" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -4952,7 +5001,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="315" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="315"/>
       <c r="AD1" s="315"/>
@@ -4965,7 +5014,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="316" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="317"/>
       <c r="C3" s="317"/>
@@ -4994,7 +5043,7 @@
       <c r="Z3" s="317"/>
       <c r="AA3" s="318"/>
       <c r="AB3" s="319" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AC3" s="320"/>
       <c r="AD3" s="320"/>
@@ -5004,7 +5053,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="322" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="323"/>
       <c r="C4" s="323"/>
@@ -5041,7 +5090,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="346" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
@@ -5070,7 +5119,7 @@
       <c r="Z5" s="347"/>
       <c r="AA5" s="348"/>
       <c r="AB5" s="359" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AC5" s="360"/>
       <c r="AD5" s="360"/>
@@ -5107,7 +5156,7 @@
       <c r="Z6" s="347"/>
       <c r="AA6" s="348"/>
       <c r="AB6" s="362" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="363"/>
       <c r="AD6" s="363"/>
@@ -5152,7 +5201,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="328" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B8" s="329"/>
       <c r="C8" s="330"/>
@@ -5197,14 +5246,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5213,13 +5262,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5270,7 +5319,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="328" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="329"/>
       <c r="C11" s="330"/>
@@ -5293,7 +5342,7 @@
       <c r="Q11" s="329"/>
       <c r="R11" s="329"/>
       <c r="S11" s="336" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="T11" s="337"/>
       <c r="U11" s="337"/>
@@ -5304,7 +5353,7 @@
       <c r="Z11" s="337"/>
       <c r="AA11" s="338"/>
       <c r="AB11" s="339" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC11" s="339"/>
       <c r="AD11" s="339"/>
@@ -5351,7 +5400,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="368" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="369"/>
       <c r="C13" s="370"/>
@@ -5428,7 +5477,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="376" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" s="377"/>
       <c r="C15" s="377"/>
@@ -5447,21 +5496,21 @@
       <c r="P15" s="377"/>
       <c r="Q15" s="378"/>
       <c r="R15" s="379" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S15" s="380"/>
       <c r="T15" s="380"/>
       <c r="U15" s="380"/>
       <c r="V15" s="381"/>
       <c r="W15" s="379" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X15" s="377"/>
       <c r="Y15" s="377"/>
       <c r="Z15" s="377"/>
       <c r="AA15" s="378"/>
       <c r="AB15" s="379" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC15" s="377"/>
       <c r="AD15" s="377"/>
@@ -5509,7 +5558,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="279" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="279"/>
       <c r="D17" s="279"/>
@@ -5658,7 +5707,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5696,7 +5745,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5734,7 +5783,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5772,7 +5821,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5810,7 +5859,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5848,7 +5897,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5886,7 +5935,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5959,7 +6008,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="402" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B29" s="403"/>
       <c r="C29" s="403"/>
@@ -6001,10 +6050,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" s="408" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C30" s="408"/>
       <c r="D30" s="408"/>
@@ -6046,7 +6095,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6235,10 +6284,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6276,7 +6325,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="394" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B37" s="395"/>
       <c r="C37" s="395"/>
@@ -6296,21 +6345,21 @@
       <c r="Q37" s="395"/>
       <c r="R37" s="395"/>
       <c r="S37" s="395" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T37" s="395"/>
       <c r="U37" s="395"/>
       <c r="V37" s="395"/>
       <c r="W37" s="395"/>
       <c r="X37" s="396" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Y37" s="396"/>
       <c r="Z37" s="396"/>
       <c r="AA37" s="396"/>
       <c r="AB37" s="396"/>
       <c r="AC37" s="397" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AD37" s="397"/>
       <c r="AE37" s="397"/>
@@ -6395,7 +6444,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6432,10 +6481,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6454,10 +6503,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="T41" s="383" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="U41" s="383"/>
       <c r="V41" s="383"/>
@@ -6478,7 +6527,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6552,7 +6601,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6626,10 +6675,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6666,7 +6715,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6738,7 +6787,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="412" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B49" s="413"/>
       <c r="C49" s="413"/>
@@ -6758,7 +6807,7 @@
       <c r="Q49" s="344"/>
       <c r="R49" s="345"/>
       <c r="S49" s="412" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T49" s="420"/>
       <c r="U49" s="420"/>
@@ -6814,13 +6863,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="430" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B51" s="431"/>
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="434" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F51" s="435"/>
       <c r="G51" s="435"/>
@@ -6836,13 +6885,13 @@
       <c r="Q51" s="435"/>
       <c r="R51" s="436"/>
       <c r="S51" s="430" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T51" s="426"/>
       <c r="U51" s="426"/>
       <c r="V51" s="440"/>
       <c r="W51" s="441" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X51" s="442"/>
       <c r="Y51" s="442"/>
@@ -6894,13 +6943,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="430" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B53" s="426"/>
       <c r="C53" s="426"/>
       <c r="D53" s="440"/>
       <c r="E53" s="425" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F53" s="426"/>
       <c r="G53" s="426"/>
@@ -6916,13 +6965,13 @@
       <c r="Q53" s="426"/>
       <c r="R53" s="427"/>
       <c r="S53" s="430" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T53" s="426"/>
       <c r="U53" s="426"/>
       <c r="V53" s="440"/>
       <c r="W53" s="425" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="X53" s="426"/>
       <c r="Y53" s="426"/>
@@ -7053,10 +7102,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -7084,7 +7133,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -7095,7 +7144,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="412" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B58" s="420"/>
       <c r="C58" s="420"/>
@@ -7110,14 +7159,14 @@
       <c r="L58" s="344"/>
       <c r="M58" s="457"/>
       <c r="N58" s="459" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O58" s="460"/>
       <c r="P58" s="460"/>
       <c r="Q58" s="460"/>
       <c r="R58" s="461"/>
       <c r="S58" s="465" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T58" s="460"/>
       <c r="U58" s="460"/>
@@ -7173,7 +7222,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="430" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B60" s="466"/>
       <c r="C60" s="466"/>
@@ -7188,14 +7237,14 @@
       <c r="L60" s="466"/>
       <c r="M60" s="467"/>
       <c r="N60" s="470" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O60" s="471"/>
       <c r="P60" s="471"/>
       <c r="Q60" s="471"/>
       <c r="R60" s="472"/>
       <c r="S60" s="470" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T60" s="471"/>
       <c r="U60" s="471"/>
@@ -7253,7 +7302,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="474" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B62" s="475"/>
       <c r="C62" s="475"/>

--- a/export_travelclaim.xlsx
+++ b/export_travelclaim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -45,103 +45,97 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Purpose of Travel: SAMPLE MEETING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Station : </t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Places to be visited</t>
+  </si>
+  <si>
+    <t>T I M E</t>
+  </si>
+  <si>
+    <t>Means of</t>
+  </si>
+  <si>
+    <t>Transpor-station</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>(Destination)</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Diem</t>
+  </si>
+  <si>
+    <t>BATCH 1</t>
+  </si>
+  <si>
     <t>2020-11-01</t>
   </si>
   <si>
-    <t>Position:</t>
-  </si>
-  <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Purpose of Travel: TESTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official Station : </t>
-  </si>
-  <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Places to be visited</t>
-  </si>
-  <si>
-    <t>T I M E</t>
-  </si>
-  <si>
-    <t>Means of</t>
-  </si>
-  <si>
-    <t>Transpor-station</t>
-  </si>
-  <si>
-    <t>Per</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>(Destination)</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Diem</t>
+    <t>Pagsanjan to Calamba</t>
+  </si>
+  <si>
+    <t>08:12:00</t>
+  </si>
+  <si>
+    <t>20:12:00</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
   <si>
     <t>BATCH 2</t>
   </si>
   <si>
-    <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>15:38:00</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>sample</t>
+    <t>Calamba to Pagsanjan</t>
+  </si>
+  <si>
+    <t>08:13:00</t>
+  </si>
+  <si>
+    <t>20:13:00</t>
   </si>
   <si>
     <t>BATCH 3</t>
-  </si>
-  <si>
-    <t>BATCH 4</t>
-  </si>
-  <si>
-    <t>BATCH 5</t>
-  </si>
-  <si>
-    <t>BATCH 6</t>
-  </si>
-  <si>
-    <t>BATCH 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OB 2020-028 Attendance to the RICTC (NEDA) Reorganization Meeting	</t>
-  </si>
-  <si>
-    <t>sample1</t>
-  </si>
-  <si>
-    <t>Residence (Calamba) to Calamba</t>
-  </si>
-  <si>
-    <t>sample1 to Calamba</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -3009,10 +3003,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3263,20 +3257,20 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" s="483" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="483" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="483" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="483" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" s="484">
         <v>10</v>
@@ -3285,72 +3279,194 @@
         <v>1100</v>
       </c>
       <c r="I16" s="484" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J16" s="484">
         <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="482" t="s">
+      <c r="B17" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="483" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="479"/>
-      <c r="C17" s="479"/>
-      <c r="D17" s="479"/>
-      <c r="E17" s="479"/>
-      <c r="F17" s="479"/>
-      <c r="G17" s="480"/>
-      <c r="H17" s="480"/>
-      <c r="I17" s="480"/>
-      <c r="J17" s="481"/>
+      <c r="G17" s="484">
+        <v>10</v>
+      </c>
+      <c r="H17" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="484">
+        <v>1110</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="B18" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="484">
+        <v>10</v>
+      </c>
+      <c r="H18" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" s="483" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="483" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="483" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="484">
+        <v>10</v>
+      </c>
+      <c r="H19" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I19" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="482" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="479"/>
+      <c r="C20" s="479"/>
+      <c r="D20" s="479"/>
+      <c r="E20" s="479"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="480"/>
+      <c r="H20" s="480"/>
+      <c r="I20" s="480"/>
+      <c r="J20" s="481"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="482" t="s">
+      <c r="B21" s="483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="483" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="484">
+        <v>10</v>
+      </c>
+      <c r="H21" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="484" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="479"/>
-      <c r="C19" s="479"/>
-      <c r="D19" s="479"/>
-      <c r="E19" s="479"/>
-      <c r="F19" s="479"/>
-      <c r="G19" s="480"/>
-      <c r="H19" s="480"/>
-      <c r="I19" s="480"/>
-      <c r="J19" s="481"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="482" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="479"/>
-      <c r="C21" s="479"/>
-      <c r="D21" s="479"/>
-      <c r="E21" s="479"/>
-      <c r="F21" s="479"/>
-      <c r="G21" s="480"/>
-      <c r="H21" s="480"/>
-      <c r="I21" s="480"/>
-      <c r="J21" s="481"/>
+      <c r="J21" s="484">
+        <v>1110</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>8</v>
+      <c r="B22" s="483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="483" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="484">
+        <v>10</v>
+      </c>
+      <c r="H22" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="484">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="483" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="484">
+        <v>10</v>
+      </c>
+      <c r="H23" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I23" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="484">
+        <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="482" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="479"/>
       <c r="C24" s="479"/>
@@ -3366,255 +3482,188 @@
       <c r="A25" t="s">
         <v>8</v>
       </c>
+      <c r="B25" s="483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="483" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="484">
+        <v>10</v>
+      </c>
+      <c r="H25" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I25" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="484">
+        <v>1110</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="482" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="483" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="483" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="479"/>
-      <c r="C26" s="479"/>
-      <c r="D26" s="479"/>
-      <c r="E26" s="479"/>
-      <c r="F26" s="479"/>
-      <c r="G26" s="480"/>
-      <c r="H26" s="480"/>
-      <c r="I26" s="480"/>
-      <c r="J26" s="481"/>
+      <c r="E26" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="484">
+        <v>10</v>
+      </c>
+      <c r="H26" s="484">
+        <v>1100</v>
+      </c>
+      <c r="I26" s="484" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="484">
+        <v>1110</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="483" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="484">
-        <v>10</v>
-      </c>
-      <c r="H27" s="484">
-        <v>1100</v>
-      </c>
-      <c r="I27" s="484" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="484">
-        <v>1110</v>
+      <c r="A27" s="485"/>
+      <c r="B27" s="491"/>
+      <c r="C27" s="491"/>
+      <c r="D27" s="491"/>
+      <c r="E27" s="493" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="491"/>
+      <c r="G27" s="492"/>
+      <c r="H27" s="492"/>
+      <c r="I27" s="492"/>
+      <c r="J27" s="486">
+        <v>2220</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="482" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="479"/>
-      <c r="C28" s="479"/>
-      <c r="D28" s="479"/>
-      <c r="E28" s="479"/>
-      <c r="F28" s="479"/>
-      <c r="G28" s="480"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="480"/>
-      <c r="J28" s="481"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="489"/>
+      <c r="H28" s="489"/>
+      <c r="I28" s="489"/>
+      <c r="J28" s="490"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="483" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="484">
-        <v>10</v>
-      </c>
-      <c r="H29" s="484">
-        <v>0</v>
-      </c>
-      <c r="I29" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="484">
-        <v>10</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="489"/>
+      <c r="H29" s="489"/>
+      <c r="I29" s="489"/>
+      <c r="J29" s="490"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="483" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="484">
-        <v>10</v>
-      </c>
-      <c r="H30" s="484">
-        <v>0</v>
-      </c>
-      <c r="I30" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="484">
-        <v>10</v>
-      </c>
+      <c r="A30" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="199" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="489"/>
+      <c r="H30" s="489"/>
+      <c r="I30" s="489"/>
+      <c r="J30" s="490"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="483" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="484">
-        <v>10</v>
-      </c>
-      <c r="H31" s="484">
-        <v>0</v>
-      </c>
-      <c r="I31" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="484">
-        <v>10</v>
-      </c>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="489"/>
+      <c r="H31" s="489"/>
+      <c r="I31" s="489"/>
+      <c r="J31" s="490"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="483" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="484">
-        <v>10</v>
-      </c>
-      <c r="H32" s="484">
-        <v>0</v>
-      </c>
-      <c r="I32" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="484">
-        <v>10</v>
-      </c>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="487"/>
+      <c r="H32" s="487"/>
+      <c r="I32" s="487"/>
+      <c r="J32" s="488"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="483" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="484">
-        <v>10</v>
-      </c>
-      <c r="H33" s="484">
-        <v>0</v>
-      </c>
-      <c r="I33" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="484">
-        <v>10</v>
-      </c>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="489"/>
+      <c r="H33" s="489"/>
+      <c r="I33" s="489"/>
+      <c r="J33" s="490"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="483" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="483" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="483" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="484">
-        <v>10</v>
-      </c>
-      <c r="H34" s="484">
-        <v>0</v>
-      </c>
-      <c r="I34" s="484" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="484">
-        <v>10</v>
-      </c>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="489"/>
+      <c r="H34" s="489"/>
+      <c r="I34" s="489"/>
+      <c r="J34" s="490"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="485"/>
-      <c r="B35" s="491"/>
-      <c r="C35" s="491"/>
-      <c r="D35" s="491"/>
-      <c r="E35" s="493" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="491"/>
-      <c r="G35" s="492"/>
-      <c r="H35" s="492"/>
-      <c r="I35" s="492"/>
-      <c r="J35" s="486">
-        <v>1120</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="489"/>
+      <c r="I35" s="489"/>
+      <c r="J35" s="490"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="37" t="s">
-        <v>42</v>
-      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="489"/>
       <c r="H36" s="489"/>
@@ -3622,11 +3671,15 @@
       <c r="J36" s="490"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="4"/>
+      <c r="A37" s="199" t="s">
+        <v>44</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="199" t="s">
+        <v>42</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="489"/>
       <c r="H37" s="489"/>
@@ -3634,14 +3687,14 @@
       <c r="J37" s="490"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="199" t="s">
-        <v>44</v>
+      <c r="A38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="489"/>
@@ -3650,12 +3703,14 @@
       <c r="J38" s="490"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="20" t="s">
-        <v>6</v>
+      <c r="A39" s="199" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="199" t="s">
+        <v>48</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="489"/>
@@ -3664,126 +3719,16 @@
       <c r="J39" s="490"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="487"/>
       <c r="H40" s="487"/>
       <c r="I40" s="487"/>
       <c r="J40" s="488"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="489"/>
-      <c r="H41" s="489"/>
-      <c r="I41" s="489"/>
-      <c r="J41" s="490"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="489"/>
-      <c r="H42" s="489"/>
-      <c r="I42" s="489"/>
-      <c r="J42" s="490"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="489"/>
-      <c r="H43" s="489"/>
-      <c r="I43" s="489"/>
-      <c r="J43" s="490"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="489"/>
-      <c r="H44" s="489"/>
-      <c r="I44" s="489"/>
-      <c r="J44" s="490"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="199" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="489"/>
-      <c r="H45" s="489"/>
-      <c r="I45" s="489"/>
-      <c r="J45" s="490"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="489"/>
-      <c r="H46" s="489"/>
-      <c r="I46" s="489"/>
-      <c r="J46" s="490"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="199" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="199" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="489"/>
-      <c r="H47" s="489"/>
-      <c r="I47" s="489"/>
-      <c r="J47" s="490"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="487"/>
-      <c r="H48" s="487"/>
-      <c r="I48" s="487"/>
-      <c r="J48" s="488"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3808,29 +3753,26 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A28:J28"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A38:D42"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1.259842519685" right="0.98425196850394" top="0.78740157480315" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3891,7 +3833,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M1" s="201"/>
     </row>
@@ -3912,7 +3854,7 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="25.5">
       <c r="A3" s="203" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="204"/>
       <c r="C3" s="204"/>
@@ -3924,14 +3866,14 @@
       <c r="I3" s="204"/>
       <c r="J3" s="205"/>
       <c r="K3" s="206" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="207"/>
       <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="25.5">
       <c r="A4" s="209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="210"/>
       <c r="C4" s="210"/>
@@ -3943,14 +3885,14 @@
       <c r="I4" s="210"/>
       <c r="J4" s="211"/>
       <c r="K4" s="212" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" s="213"/>
       <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="25.5">
       <c r="A5" s="215" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="216"/>
       <c r="C5" s="216"/>
@@ -3962,7 +3904,7 @@
       <c r="I5" s="216"/>
       <c r="J5" s="217"/>
       <c r="K5" s="218" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="219"/>
       <c r="M5" s="220"/>
@@ -3972,7 +3914,7 @@
       <c r="B6" s="222"/>
       <c r="C6" s="223"/>
       <c r="D6" s="227" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="228"/>
       <c r="F6" s="228"/>
@@ -4001,12 +3943,12 @@
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="12.75">
       <c r="A8" s="233" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="234"/>
       <c r="C8" s="235"/>
       <c r="D8" s="236" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="237"/>
       <c r="F8" s="237"/>
@@ -4035,7 +3977,7 @@
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="12.75">
       <c r="A10" s="233" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="234"/>
       <c r="C10" s="235"/>
@@ -4070,26 +4012,26 @@
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="12.75">
       <c r="A12" s="221" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="223"/>
       <c r="D12" s="248" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="249"/>
       <c r="F12" s="249"/>
       <c r="G12" s="249"/>
       <c r="H12" s="250"/>
       <c r="I12" s="248" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="223"/>
       <c r="K12" s="255" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" s="248" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12" s="257"/>
     </row>
@@ -4113,7 +4055,7 @@
       <c r="B14" s="259"/>
       <c r="C14" s="260"/>
       <c r="D14" s="263" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="259"/>
       <c r="F14" s="259"/>
@@ -4130,7 +4072,7 @@
       <c r="B15" s="259"/>
       <c r="C15" s="260"/>
       <c r="D15" s="299" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="279"/>
       <c r="F15" s="279"/>
@@ -4314,7 +4256,7 @@
       <c r="B27" s="271"/>
       <c r="C27" s="272"/>
       <c r="D27" s="273" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
@@ -4331,19 +4273,19 @@
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="9">
       <c r="A28" s="280" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
       <c r="D28" s="282" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="283"/>
       <c r="F28" s="283"/>
       <c r="G28" s="283"/>
       <c r="H28" s="284"/>
       <c r="I28" s="285" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -4353,7 +4295,7 @@
     <row r="29" spans="1:13" customHeight="1" ht="14.25">
       <c r="A29" s="281"/>
       <c r="B29" s="286" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="195"/>
       <c r="D29" s="283"/>
@@ -4363,7 +4305,7 @@
       <c r="H29" s="284"/>
       <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -4372,7 +4314,7 @@
     <row r="30" spans="1:13" customHeight="1" ht="15">
       <c r="A30" s="37"/>
       <c r="B30" s="269" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="269"/>
       <c r="D30" s="269"/>
@@ -4382,7 +4324,7 @@
       <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
@@ -4391,7 +4333,7 @@
     <row r="31" spans="1:13" customHeight="1" ht="15">
       <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4401,7 +4343,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
@@ -4454,11 +4396,11 @@
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="13.9">
       <c r="A35" s="288" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="289"/>
       <c r="C35" s="279" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="279"/>
       <c r="E35" s="279"/>
@@ -4466,11 +4408,11 @@
       <c r="G35" s="279"/>
       <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -4492,11 +4434,11 @@
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="15">
       <c r="A37" s="291" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4504,11 +4446,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -4530,11 +4472,11 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="12.75">
       <c r="A39" s="288" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="289"/>
       <c r="C39" s="282" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="282"/>
       <c r="E39" s="282"/>
@@ -4542,11 +4484,11 @@
       <c r="G39" s="282"/>
       <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -4568,11 +4510,11 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="12.75">
       <c r="A41" s="212" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="213"/>
       <c r="C41" s="282" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="282"/>
       <c r="E41" s="282"/>
@@ -4580,11 +4522,11 @@
       <c r="G41" s="282"/>
       <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -4621,10 +4563,10 @@
     </row>
     <row r="44" spans="1:13" customHeight="1" ht="15">
       <c r="A44" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="312" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="313"/>
       <c r="D44" s="313"/>
@@ -4640,7 +4582,7 @@
     </row>
     <row r="45" spans="1:13" customHeight="1" ht="13.5">
       <c r="A45" s="173" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="313"/>
       <c r="C45" s="313"/>
@@ -4649,7 +4591,7 @@
       <c r="F45" s="313"/>
       <c r="G45" s="314"/>
       <c r="H45" s="173" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I45" s="313"/>
       <c r="J45" s="313"/>
@@ -4662,27 +4604,27 @@
         <v>14</v>
       </c>
       <c r="B46" s="303" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="304"/>
       <c r="D46" s="304"/>
       <c r="E46" s="307" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="289"/>
       <c r="G46" s="308"/>
       <c r="H46" s="301" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I46" s="309" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J46" s="310"/>
       <c r="K46" s="311" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L46" s="294" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M46" s="295"/>
     </row>
@@ -4699,10 +4641,10 @@
       <c r="J47" s="310"/>
       <c r="K47" s="311"/>
       <c r="L47" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:13" customHeight="1" ht="12.75">
@@ -4714,20 +4656,20 @@
       <c r="F48" s="243"/>
       <c r="G48" s="258"/>
       <c r="H48" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I48" s="296" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J48" s="297"/>
       <c r="K48" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="57" t="s">
         <v>103</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="13.5">
@@ -5001,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:38" customHeight="1" ht="18.75">
       <c r="AB1" s="315" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC1" s="315"/>
       <c r="AD1" s="315"/>
@@ -5014,7 +4956,7 @@
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="21">
       <c r="A3" s="316" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="317"/>
       <c r="C3" s="317"/>
@@ -5043,7 +4985,7 @@
       <c r="Z3" s="317"/>
       <c r="AA3" s="318"/>
       <c r="AB3" s="319" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC3" s="320"/>
       <c r="AD3" s="320"/>
@@ -5053,7 +4995,7 @@
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="15.75">
       <c r="A4" s="322" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="323"/>
       <c r="C4" s="323"/>
@@ -5090,7 +5032,7 @@
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="15">
       <c r="A5" s="346" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
@@ -5119,7 +5061,7 @@
       <c r="Z5" s="347"/>
       <c r="AA5" s="348"/>
       <c r="AB5" s="359" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="360"/>
       <c r="AD5" s="360"/>
@@ -5156,7 +5098,7 @@
       <c r="Z6" s="347"/>
       <c r="AA6" s="348"/>
       <c r="AB6" s="362" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="363"/>
       <c r="AD6" s="363"/>
@@ -5201,7 +5143,7 @@
     </row>
     <row r="8" spans="1:38" customHeight="1" ht="9.75" s="2" customFormat="1">
       <c r="A8" s="328" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="329"/>
       <c r="C8" s="330"/>
@@ -5246,14 +5188,14 @@
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -5262,13 +5204,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -5319,7 +5261,7 @@
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A11" s="328" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="329"/>
       <c r="C11" s="330"/>
@@ -5342,7 +5284,7 @@
       <c r="Q11" s="329"/>
       <c r="R11" s="329"/>
       <c r="S11" s="336" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T11" s="337"/>
       <c r="U11" s="337"/>
@@ -5353,7 +5295,7 @@
       <c r="Z11" s="337"/>
       <c r="AA11" s="338"/>
       <c r="AB11" s="339" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC11" s="339"/>
       <c r="AD11" s="339"/>
@@ -5400,7 +5342,7 @@
     </row>
     <row r="13" spans="1:38" customHeight="1" ht="12" s="2" customFormat="1">
       <c r="A13" s="368" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="369"/>
       <c r="C13" s="370"/>
@@ -5477,7 +5419,7 @@
     </row>
     <row r="15" spans="1:38" customHeight="1" ht="28.15" s="103" customFormat="1">
       <c r="A15" s="376" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="377"/>
       <c r="C15" s="377"/>
@@ -5496,21 +5438,21 @@
       <c r="P15" s="377"/>
       <c r="Q15" s="378"/>
       <c r="R15" s="379" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S15" s="380"/>
       <c r="T15" s="380"/>
       <c r="U15" s="380"/>
       <c r="V15" s="381"/>
       <c r="W15" s="379" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X15" s="377"/>
       <c r="Y15" s="377"/>
       <c r="Z15" s="377"/>
       <c r="AA15" s="378"/>
       <c r="AB15" s="379" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC15" s="377"/>
       <c r="AD15" s="377"/>
@@ -5558,7 +5500,7 @@
     <row r="17" spans="1:38" customHeight="1" ht="14.45" s="2" customFormat="1">
       <c r="A17" s="111"/>
       <c r="B17" s="279" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="279"/>
       <c r="D17" s="279"/>
@@ -5707,7 +5649,7 @@
     <row r="21" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5745,7 +5687,7 @@
     <row r="22" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5783,7 +5725,7 @@
     <row r="23" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5821,7 +5763,7 @@
     <row r="24" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5859,7 +5801,7 @@
     <row r="25" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5897,7 +5839,7 @@
     <row r="26" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5935,7 +5877,7 @@
     <row r="27" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -6008,7 +5950,7 @@
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="16.5" s="2" customFormat="1">
       <c r="A29" s="402" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="403"/>
       <c r="C29" s="403"/>
@@ -6050,10 +5992,10 @@
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="13.9" s="2" customFormat="1">
       <c r="A30" s="120" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="408" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="408"/>
       <c r="D30" s="408"/>
@@ -6095,7 +6037,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -6284,10 +6226,10 @@
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A36" s="128" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -6325,7 +6267,7 @@
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A37" s="394" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B37" s="395"/>
       <c r="C37" s="395"/>
@@ -6345,21 +6287,21 @@
       <c r="Q37" s="395"/>
       <c r="R37" s="395"/>
       <c r="S37" s="395" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T37" s="395"/>
       <c r="U37" s="395"/>
       <c r="V37" s="395"/>
       <c r="W37" s="395"/>
       <c r="X37" s="396" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y37" s="396"/>
       <c r="Z37" s="396"/>
       <c r="AA37" s="396"/>
       <c r="AB37" s="396"/>
       <c r="AC37" s="397" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD37" s="397"/>
       <c r="AE37" s="397"/>
@@ -6444,7 +6386,7 @@
     <row r="40" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -6481,10 +6423,10 @@
     </row>
     <row r="41" spans="1:38" customHeight="1" ht="15.75" s="2" customFormat="1">
       <c r="A41" s="142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -6503,10 +6445,10 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T41" s="383" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U41" s="383"/>
       <c r="V41" s="383"/>
@@ -6527,7 +6469,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -6601,7 +6543,7 @@
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -6675,10 +6617,10 @@
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -6715,7 +6657,7 @@
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6787,7 +6729,7 @@
     </row>
     <row r="49" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A49" s="412" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="413"/>
       <c r="C49" s="413"/>
@@ -6807,7 +6749,7 @@
       <c r="Q49" s="344"/>
       <c r="R49" s="345"/>
       <c r="S49" s="412" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T49" s="420"/>
       <c r="U49" s="420"/>
@@ -6863,13 +6805,13 @@
     </row>
     <row r="51" spans="1:38" customHeight="1" ht="15" s="2" customFormat="1">
       <c r="A51" s="430" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" s="431"/>
       <c r="C51" s="431"/>
       <c r="D51" s="432"/>
       <c r="E51" s="434" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F51" s="435"/>
       <c r="G51" s="435"/>
@@ -6885,13 +6827,13 @@
       <c r="Q51" s="435"/>
       <c r="R51" s="436"/>
       <c r="S51" s="430" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T51" s="426"/>
       <c r="U51" s="426"/>
       <c r="V51" s="440"/>
       <c r="W51" s="441" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X51" s="442"/>
       <c r="Y51" s="442"/>
@@ -6943,13 +6885,13 @@
     </row>
     <row r="53" spans="1:38" customHeight="1" ht="18" s="2" customFormat="1">
       <c r="A53" s="430" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="426"/>
       <c r="C53" s="426"/>
       <c r="D53" s="440"/>
       <c r="E53" s="425" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F53" s="426"/>
       <c r="G53" s="426"/>
@@ -6965,13 +6907,13 @@
       <c r="Q53" s="426"/>
       <c r="R53" s="427"/>
       <c r="S53" s="430" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T53" s="426"/>
       <c r="U53" s="426"/>
       <c r="V53" s="440"/>
       <c r="W53" s="425" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X53" s="426"/>
       <c r="Y53" s="426"/>
@@ -7102,10 +7044,10 @@
     </row>
     <row r="57" spans="1:38" customHeight="1" ht="13.5" s="2" customFormat="1">
       <c r="A57" s="142" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -7133,7 +7075,7 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
@@ -7144,7 +7086,7 @@
     </row>
     <row r="58" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A58" s="412" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B58" s="420"/>
       <c r="C58" s="420"/>
@@ -7159,14 +7101,14 @@
       <c r="L58" s="344"/>
       <c r="M58" s="457"/>
       <c r="N58" s="459" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O58" s="460"/>
       <c r="P58" s="460"/>
       <c r="Q58" s="460"/>
       <c r="R58" s="461"/>
       <c r="S58" s="465" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T58" s="460"/>
       <c r="U58" s="460"/>
@@ -7222,7 +7164,7 @@
     </row>
     <row r="60" spans="1:38" customHeight="1" ht="12.75" s="2" customFormat="1">
       <c r="A60" s="430" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" s="466"/>
       <c r="C60" s="466"/>
@@ -7237,14 +7179,14 @@
       <c r="L60" s="466"/>
       <c r="M60" s="467"/>
       <c r="N60" s="470" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O60" s="471"/>
       <c r="P60" s="471"/>
       <c r="Q60" s="471"/>
       <c r="R60" s="472"/>
       <c r="S60" s="470" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T60" s="471"/>
       <c r="U60" s="471"/>
@@ -7302,7 +7244,7 @@
     </row>
     <row r="62" spans="1:38" customHeight="1" ht="15.6" s="2" customFormat="1">
       <c r="A62" s="474" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B62" s="475"/>
       <c r="C62" s="475"/>
